--- a/Eterm通讯协议.xlsx
+++ b/Eterm通讯协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805"/>
@@ -10,13 +10,14 @@
     <sheet name="登陆ETerm通讯" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="110">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,12 +435,27 @@
     <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 0 2 104 41 0 0 1 170 42 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 71 69 84 32 47 101 84 101 114 109 83 101 114 118 105 99 101 115 47 100 121 110 97 109 105 99 47 105 110 100 101 120 32 72 84 84 80 47 49 46 49 13 10 65 99 99 101 112 116 58 32 97 112 112 108 105 99 97 116 105 111 110 47 120 45 109 115 45 97 112 112 108 105 99 97 116 105 111 110 44 32 105 109 97 103 101 47 106 112 101 103 44 32 97 112 112 108 105 99 97 116 105 111 110 47 120 97 109 108 43 120 109 108 44 32 105 109 97 103 101 47 103 105 102 44 32 105 109 97 103 101 47 112 106 112 101 103 44 32 97 112 112 108 105 99 97 116 105 111 110 47 120 45 109 115 45 120 98 97 112 44 32 42 47 42 13 10 65 99 99 101 112 116 45 76 97 110 103 117 97 103 101 58 32 122 104 45 67 78 13 10 65 99 99 101 112 116 45 69 110 99 111 100 105 110 103 58 32 103 122 105 112 44 32 100 101 102 108 97 116 101 13 10 85 115 101 114 45 65 103 101 110 116 58 32 77 111 122 105 108 108 97 47 52 46 48 32 40 99 111 109 112 97 116 105 98 108 101 59 32 77 83 73 69 32 55 46 48 59 32 87 105 110 100 111 119 115 32 78 84 32 54 46 49 59 32 87 79 87 54 52 59 32 84 114 105 100 101 110 116 47 54 46 48 59 32 83 76 67 67 50 59 32 46 78 69 84 32 67 76 82 32 50 46 48 46 53 48 55 50 55 59 32 46 78 69 84 32 67 76 82 32 51 46 53 46 51 48 55 50 57 59 32 46 78 69 84 32 67 76 82 32 51 46 48 46 51 48 55 50 57 59 32 77 101 100 105 97 32 67 101 110 116 101 114 32 80 67 32 54 46 48 59 32 46 78 69 84 52 46 48 67 59 32 46 78 69 84 52 46 48 69 59 32 73 110 102 111 80 97 116 104 46 51 41 13 10 72 111 115 116 58 32 49 50 55 46 48 46 48 46 49 58 52 48 48 48 13 10 67 111 110 110 101 99 116 105 111 110 58 32 75 101 101 112 45 65 108 105 118 101 13 10 13 10 3 </t>
+  </si>
+  <si>
+    <t>访问网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问三合一打印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -856,9 +872,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -868,12 +881,68 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -917,11 +986,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>18304</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>28278</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14297025" y="14839950"/>
+          <a:ext cx="5971429" cy="2380953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -995,6 +1108,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1029,6 +1143,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1204,23 +1319,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:JO81"/>
+  <dimension ref="A2:AZ128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W29" sqref="W29"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT89" sqref="AT89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="225" width="3.625" style="1" customWidth="1"/>
     <col min="226" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1375,12 +1490,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1624,7 +1739,7 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="5"/>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1685,7 +1800,7 @@
       <c r="AX6" s="11"/>
       <c r="AY6" s="12"/>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1971,7 +2086,7 @@
       <c r="AX8" s="20"/>
       <c r="AY8" s="21"/>
     </row>
-    <row r="9" spans="1:51" s="18" customFormat="1">
+    <row r="9" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2032,7 +2147,7 @@
       <c r="AX9" s="22"/>
       <c r="AY9" s="23"/>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2187,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2228,12 +2343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2252,79 +2367,79 @@
       <c r="F13" s="8">
         <v>5</v>
       </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="58">
         <v>40</v>
       </c>
-      <c r="K13" s="8">
-        <v>81</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
+      <c r="K13" s="15">
+        <v>81</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0</v>
+      </c>
+      <c r="N13" s="14">
+        <v>0</v>
+      </c>
+      <c r="O13" s="14">
         <v>40</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="15">
         <v>83</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="13">
         <v>12</v>
       </c>
-      <c r="R13" s="8">
-        <v>0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0</v>
-      </c>
-      <c r="T13" s="8">
+      <c r="R13" s="14">
+        <v>0</v>
+      </c>
+      <c r="S13" s="14">
+        <v>0</v>
+      </c>
+      <c r="T13" s="14">
         <v>140</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="15">
         <v>140</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="13">
         <v>41</v>
       </c>
-      <c r="W13" s="8">
-        <v>0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="8">
+      <c r="W13" s="14">
+        <v>0</v>
+      </c>
+      <c r="X13" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="14">
         <v>169</v>
       </c>
-      <c r="Z13" s="8">
+      <c r="Z13" s="15">
         <v>169</v>
       </c>
-      <c r="AA13" s="8">
-        <v>32</v>
-      </c>
-      <c r="AB13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="8">
+      <c r="AA13" s="13">
+        <v>32</v>
+      </c>
+      <c r="AB13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="14">
         <v>160</v>
       </c>
-      <c r="AE13" s="8">
+      <c r="AE13" s="15">
         <v>160</v>
       </c>
       <c r="AF13" s="8"/>
@@ -2348,7 +2463,7 @@
       <c r="AX13" s="8"/>
       <c r="AY13" s="9"/>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2518,7 @@
       <c r="AX14" s="4"/>
       <c r="AY14" s="5"/>
     </row>
-    <row r="15" spans="1:51">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2419,7 +2534,9 @@
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="J15" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -2462,12 +2579,12 @@
       <c r="AX15" s="11"/>
       <c r="AY15" s="12"/>
     </row>
-    <row r="16" spans="1:51">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:51">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2739,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:51">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2729,7 +2846,7 @@
       </c>
       <c r="AY18" s="5"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2788,7 +2905,7 @@
       <c r="AX19" s="48"/>
       <c r="AY19" s="49"/>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2808,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2822,7 +2939,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2832,12 +2949,12 @@
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -2847,10 +2964,10 @@
       <c r="C24" s="8">
         <v>0</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="59">
+        <v>0</v>
+      </c>
+      <c r="E24" s="60">
         <v>26</v>
       </c>
       <c r="F24" s="7">
@@ -2874,7 +2991,7 @@
       <c r="L24" s="8">
         <v>112</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="45">
         <v>2</v>
       </c>
       <c r="N24" s="8">
@@ -2916,18 +3033,18 @@
       <c r="Z24" s="9">
         <v>32</v>
       </c>
-      <c r="AA24" s="9">
+      <c r="AA24" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="3"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2935,7 +3052,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="5"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2959,9 +3076,9 @@
         <v>1</v>
       </c>
       <c r="Z25" s="21"/>
-      <c r="AA25" s="5"/>
+      <c r="AA25" s="46"/>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -2969,10 +3086,10 @@
         <v>46</v>
       </c>
       <c r="C26" s="51"/>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="64"/>
       <c r="F26" s="10"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2982,7 +3099,7 @@
         <v>48</v>
       </c>
       <c r="L26" s="11"/>
-      <c r="M26" s="12"/>
+      <c r="M26" s="47"/>
       <c r="N26" s="11" t="s">
         <v>49</v>
       </c>
@@ -3000,16 +3117,16 @@
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="32"/>
-      <c r="AA26" s="12" t="s">
+      <c r="AA26" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3019,10 +3136,10 @@
       <c r="C28" s="9">
         <v>0</v>
       </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="59">
+        <v>0</v>
+      </c>
+      <c r="E28" s="60">
         <v>40</v>
       </c>
       <c r="F28" s="7">
@@ -3046,7 +3163,7 @@
       <c r="L28" s="8">
         <v>112</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="45">
         <v>2</v>
       </c>
       <c r="N28" s="8">
@@ -3130,18 +3247,18 @@
       <c r="AN28" s="9">
         <v>98</v>
       </c>
-      <c r="AO28" s="16">
+      <c r="AO28" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:51">
+    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="3"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -3149,7 +3266,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="5"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3191,9 +3308,9 @@
       <c r="AL29" s="4"/>
       <c r="AM29" s="3"/>
       <c r="AN29" s="5"/>
-      <c r="AO29" s="54"/>
+      <c r="AO29" s="46"/>
     </row>
-    <row r="30" spans="1:51">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -3201,10 +3318,10 @@
         <v>46</v>
       </c>
       <c r="C30" s="51"/>
-      <c r="D30" s="52" t="s">
+      <c r="D30" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -3212,7 +3329,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="47"/>
       <c r="N30" s="11" t="s">
         <v>49</v>
       </c>
@@ -3220,8 +3337,10 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="12"/>
       <c r="R30" s="11"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="12"/>
+      <c r="S30" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="T30" s="56"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -3244,11 +3363,11 @@
       <c r="AL30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="12"/>
-      <c r="AO30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="56"/>
+      <c r="AO30" s="47"/>
     </row>
-    <row r="32" spans="1:51">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3258,10 +3377,10 @@
       <c r="C32" s="8">
         <v>0</v>
       </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
+      <c r="D32" s="59">
+        <v>0</v>
+      </c>
+      <c r="E32" s="60">
         <v>26</v>
       </c>
       <c r="F32" s="7">
@@ -3285,13 +3404,13 @@
       <c r="L32" s="8">
         <v>112</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="45">
         <v>2</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>27</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="9">
         <v>11</v>
       </c>
       <c r="P32" s="8">
@@ -3327,18 +3446,18 @@
       <c r="Z32" s="9">
         <v>32</v>
       </c>
-      <c r="AA32" s="9">
+      <c r="AA32" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:52">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -3346,9 +3465,9 @@
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="5"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="3"/>
@@ -3370,9 +3489,9 @@
         <v>9</v>
       </c>
       <c r="Z33" s="21"/>
-      <c r="AA33" s="5"/>
+      <c r="AA33" s="46"/>
     </row>
-    <row r="34" spans="1:52">
+    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -3380,10 +3499,10 @@
         <v>46</v>
       </c>
       <c r="C34" s="51"/>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="51"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="10"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -3393,11 +3512,11 @@
         <v>48</v>
       </c>
       <c r="L34" s="11"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="11" t="s">
+      <c r="M34" s="47"/>
+      <c r="N34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O34" s="11"/>
+      <c r="O34" s="12"/>
       <c r="P34" s="51"/>
       <c r="Q34" s="51"/>
       <c r="R34" s="10"/>
@@ -3411,11 +3530,11 @@
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="32"/>
-      <c r="AA34" s="12" t="s">
+      <c r="AA34" s="47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:52">
+    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3425,10 +3544,10 @@
       <c r="C36" s="9">
         <v>0</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="59">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="65">
         <v>194</v>
       </c>
       <c r="F36" s="7">
@@ -3452,13 +3571,13 @@
       <c r="L36" s="8">
         <v>112</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="45">
         <v>2</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>27</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="9">
         <v>11</v>
       </c>
       <c r="P36" s="8">
@@ -3570,14 +3689,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:52">
+    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
@@ -3585,9 +3704,9 @@
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
       <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="21"/>
       <c r="P37" s="20"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
@@ -3645,7 +3764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:52">
+    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3653,10 +3772,10 @@
         <v>46</v>
       </c>
       <c r="C38" s="51"/>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="53"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="10"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -3664,18 +3783,18 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11" t="s">
+      <c r="M38" s="47"/>
+      <c r="N38" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O38" s="11"/>
+      <c r="O38" s="12"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
-      <c r="S38" s="56" t="s">
+      <c r="S38" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="T38" s="57"/>
+      <c r="T38" s="56"/>
       <c r="U38" s="52" t="s">
         <v>73</v>
       </c>
@@ -3714,7 +3833,7 @@
       <c r="AX38" s="11"/>
       <c r="AY38" s="12"/>
     </row>
-    <row r="39" spans="1:52">
+    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B39" s="7">
         <v>27</v>
       </c>
@@ -3866,7 +3985,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:52">
+    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="D40" s="20" t="s">
@@ -3946,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:52">
+    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B41" s="52" t="s">
         <v>73</v>
       </c>
@@ -4014,7 +4133,7 @@
       <c r="AX41" s="11"/>
       <c r="AY41" s="12"/>
     </row>
-    <row r="42" spans="1:52">
+    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B42" s="7">
         <v>67</v>
       </c>
@@ -4166,7 +4285,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:52">
+    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
@@ -4258,7 +4377,7 @@
       <c r="AX43" s="21"/>
       <c r="AY43" s="21"/>
     </row>
-    <row r="44" spans="1:52">
+    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -4320,7 +4439,7 @@
       <c r="AX44" s="53"/>
       <c r="AY44" s="12"/>
     </row>
-    <row r="45" spans="1:52">
+    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B45" s="7">
         <v>43</v>
       </c>
@@ -4472,7 +4591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:52">
+    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4524,7 +4643,7 @@
       <c r="AX46" s="4"/>
       <c r="AY46" s="54"/>
     </row>
-    <row r="47" spans="1:52">
+    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -4589,7 +4708,7 @@
       </c>
       <c r="AZ47" s="53"/>
     </row>
-    <row r="48" spans="1:52">
+    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
       <c r="B48" s="16">
         <v>14</v>
       </c>
@@ -4741,7 +4860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:52">
+    <row r="49" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B49" s="54"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4793,8 +4912,8 @@
       <c r="AX49" s="4"/>
       <c r="AY49" s="54"/>
     </row>
-    <row r="50" spans="2:52">
-      <c r="B50" s="58"/>
+    <row r="50" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B50" s="57"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="10"/>
@@ -4854,7 +4973,7 @@
       </c>
       <c r="AZ50" s="53"/>
     </row>
-    <row r="51" spans="2:52">
+    <row r="51" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B51" s="16">
         <v>14</v>
       </c>
@@ -5006,7 +5125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:52">
+    <row r="52" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B52" s="54"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -5058,8 +5177,8 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="2:52">
-      <c r="B53" s="58"/>
+    <row r="53" spans="2:52" x14ac:dyDescent="0.15">
+      <c r="B53" s="57"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -5122,7 +5241,7 @@
       <c r="AX53" s="53"/>
       <c r="AY53" s="12"/>
     </row>
-    <row r="54" spans="2:52">
+    <row r="54" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B54" s="7">
         <v>54</v>
       </c>
@@ -5274,7 +5393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:52">
+    <row r="55" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5326,7 +5445,7 @@
       <c r="AX55" s="4"/>
       <c r="AY55" s="5"/>
     </row>
-    <row r="56" spans="2:52">
+    <row r="56" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -5392,7 +5511,7 @@
       <c r="AX56" s="11"/>
       <c r="AY56" s="12"/>
     </row>
-    <row r="57" spans="2:52">
+    <row r="57" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B57" s="7">
         <v>68</v>
       </c>
@@ -5544,7 +5663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:52">
+    <row r="58" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="5"/>
@@ -5596,7 +5715,7 @@
       <c r="AX58" s="4"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="2:52">
+    <row r="59" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B59" s="10"/>
       <c r="C59" s="52" t="s">
         <v>74</v>
@@ -5658,7 +5777,7 @@
       <c r="AX59" s="11"/>
       <c r="AY59" s="12"/>
     </row>
-    <row r="60" spans="2:52">
+    <row r="60" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B60" s="7">
         <v>54</v>
       </c>
@@ -5806,11 +5925,11 @@
       <c r="AX60" s="9">
         <v>98</v>
       </c>
-      <c r="AY60" s="9">
+      <c r="AY60" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:52">
+    <row r="61" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="20"/>
@@ -5872,9 +5991,9 @@
       <c r="AV61" s="20"/>
       <c r="AW61" s="19"/>
       <c r="AX61" s="21"/>
-      <c r="AY61" s="21"/>
+      <c r="AY61" s="70"/>
     </row>
-    <row r="62" spans="2:52">
+    <row r="62" spans="2:52" x14ac:dyDescent="0.15">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -5932,1587 +6051,4721 @@
       <c r="AP62" s="11"/>
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
-      <c r="AS62" s="56" t="s">
+      <c r="AS62" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="AT62" s="57"/>
+      <c r="AT62" s="56"/>
       <c r="AU62" s="11"/>
       <c r="AV62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW62" s="56" t="s">
+      <c r="AW62" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="AX62" s="57"/>
-      <c r="AY62" s="12"/>
+      <c r="AX62" s="56"/>
+      <c r="AY62" s="47"/>
     </row>
-    <row r="66" spans="2:51">
+    <row r="65" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B66" s="7">
         <v>1</v>
       </c>
       <c r="C66" s="9">
         <v>0</v>
       </c>
-      <c r="D66" s="7">
-        <v>0</v>
-      </c>
-      <c r="E66" s="9">
+      <c r="D66" s="59">
+        <v>0</v>
+      </c>
+      <c r="E66" s="65">
         <v>210</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="7">
         <v>12</v>
       </c>
-      <c r="G66" s="1">
-        <v>0</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0</v>
-      </c>
-      <c r="I66" s="1">
+      <c r="G66" s="8">
+        <v>0</v>
+      </c>
+      <c r="H66" s="8">
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
         <v>1</v>
       </c>
-      <c r="J66" s="1">
+      <c r="J66" s="8">
         <v>140</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="8">
         <v>12</v>
       </c>
-      <c r="L66" s="1">
-        <v>0</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="L66" s="8">
+        <v>0</v>
+      </c>
+      <c r="M66" s="45">
         <v>2</v>
       </c>
-      <c r="N66" s="1">
+      <c r="N66" s="8">
         <v>60</v>
       </c>
-      <c r="O66" s="1">
+      <c r="O66" s="8">
         <v>83</v>
       </c>
-      <c r="P66" s="1">
+      <c r="P66" s="8">
         <v>116</v>
       </c>
-      <c r="Q66" s="1">
+      <c r="Q66" s="8">
         <v>97</v>
       </c>
-      <c r="R66" s="1">
+      <c r="R66" s="8">
         <v>116</v>
       </c>
-      <c r="S66" s="1">
+      <c r="S66" s="8">
         <v>101</v>
       </c>
-      <c r="T66" s="1">
+      <c r="T66" s="8">
         <v>109</v>
       </c>
-      <c r="U66" s="1">
+      <c r="U66" s="8">
         <v>101</v>
       </c>
-      <c r="V66" s="1">
+      <c r="V66" s="8">
         <v>110</v>
       </c>
-      <c r="W66" s="1">
+      <c r="W66" s="8">
         <v>116</v>
       </c>
-      <c r="X66" s="1">
+      <c r="X66" s="8">
         <v>62</v>
       </c>
-      <c r="Y66" s="1">
+      <c r="Y66" s="8">
         <v>60</v>
       </c>
-      <c r="Z66" s="1">
+      <c r="Z66" s="8">
         <v>73</v>
       </c>
-      <c r="AA66" s="1">
+      <c r="AA66" s="8">
         <v>110</v>
       </c>
-      <c r="AB66" s="1">
+      <c r="AB66" s="8">
         <v>102</v>
       </c>
-      <c r="AC66" s="1">
+      <c r="AC66" s="8">
         <v>111</v>
       </c>
-      <c r="AD66" s="1">
+      <c r="AD66" s="8">
         <v>49</v>
       </c>
-      <c r="AE66" s="1">
+      <c r="AE66" s="8">
         <v>62</v>
       </c>
-      <c r="AF66" s="1">
+      <c r="AF66" s="8">
         <v>51</v>
       </c>
-      <c r="AG66" s="1">
+      <c r="AG66" s="8">
         <v>57</v>
       </c>
-      <c r="AH66" s="1">
+      <c r="AH66" s="8">
         <v>52</v>
       </c>
-      <c r="AI66" s="1">
+      <c r="AI66" s="8">
         <v>57</v>
       </c>
-      <c r="AJ66" s="1">
+      <c r="AJ66" s="8">
         <v>51</v>
       </c>
-      <c r="AK66" s="1">
+      <c r="AK66" s="8">
         <v>56</v>
       </c>
-      <c r="AL66" s="1">
+      <c r="AL66" s="8">
         <v>49</v>
       </c>
-      <c r="AM66" s="1">
+      <c r="AM66" s="8">
         <v>51</v>
       </c>
-      <c r="AN66" s="1">
+      <c r="AN66" s="8">
         <v>55</v>
       </c>
-      <c r="AO66" s="1">
+      <c r="AO66" s="8">
         <v>54</v>
       </c>
-      <c r="AP66" s="1">
+      <c r="AP66" s="8">
         <v>49</v>
       </c>
-      <c r="AQ66" s="1">
+      <c r="AQ66" s="8">
         <v>56</v>
       </c>
-      <c r="AR66" s="1">
+      <c r="AR66" s="8">
         <v>49</v>
       </c>
-      <c r="AS66" s="1">
+      <c r="AS66" s="8">
         <v>49</v>
       </c>
-      <c r="AT66" s="1">
+      <c r="AT66" s="8">
         <v>52</v>
       </c>
-      <c r="AU66" s="1">
+      <c r="AU66" s="8">
         <v>57</v>
       </c>
-      <c r="AV66" s="1">
+      <c r="AV66" s="8">
         <v>60</v>
       </c>
-      <c r="AW66" s="1">
+      <c r="AW66" s="8">
         <v>47</v>
       </c>
-      <c r="AX66" s="1">
+      <c r="AX66" s="8">
         <v>73</v>
       </c>
-      <c r="AY66" s="1">
+      <c r="AY66" s="9">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:51">
+    <row r="67" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="5"/>
-      <c r="K67" s="1" t="s">
+      <c r="D67" s="61"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="L67" s="4"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O67" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P67" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="Q67" s="1" t="s">
+      <c r="Q67" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="R67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="T67" s="1" t="s">
+      <c r="T67" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="U67" s="1" t="s">
+      <c r="U67" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="V67" s="1" t="s">
+      <c r="V67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="W67" s="1" t="s">
+      <c r="W67" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X67" s="1" t="s">
+      <c r="X67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Y67" s="1" t="s">
+      <c r="Y67" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="Z67" s="1" t="s">
+      <c r="Z67" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AA67" s="1" t="s">
+      <c r="AA67" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB67" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="1" t="s">
+      <c r="AB67" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AD67" s="1">
+      <c r="AD67" s="4">
         <v>1</v>
       </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AE67" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AF67" s="1">
+      <c r="AF67" s="4">
         <v>2</v>
       </c>
-      <c r="AG67" s="1">
+      <c r="AG67" s="4">
         <v>3</v>
       </c>
-      <c r="AH67" s="1">
+      <c r="AH67" s="4">
         <v>7</v>
       </c>
-      <c r="AI67" s="1">
+      <c r="AI67" s="4">
         <v>3</v>
       </c>
-      <c r="AJ67" s="1">
+      <c r="AJ67" s="4">
         <v>2</v>
       </c>
-      <c r="AK67" s="1">
+      <c r="AK67" s="4">
         <v>1</v>
       </c>
-      <c r="AL67" s="1">
+      <c r="AL67" s="4">
         <v>4</v>
       </c>
-      <c r="AM67" s="1">
+      <c r="AM67" s="4">
         <v>6</v>
       </c>
-      <c r="AN67" s="1">
+      <c r="AN67" s="4">
         <v>7</v>
       </c>
-      <c r="AO67" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP67" s="1">
+      <c r="AO67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="4">
         <v>1</v>
       </c>
-      <c r="AQ67" s="1">
+      <c r="AQ67" s="4">
         <v>8</v>
       </c>
+      <c r="AR67" s="4"/>
+      <c r="AS67" s="4"/>
+      <c r="AT67" s="4"/>
+      <c r="AU67" s="4"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" s="4"/>
+      <c r="AX67" s="4"/>
+      <c r="AY67" s="5"/>
     </row>
-    <row r="68" spans="2:51">
+    <row r="68" spans="2:51" x14ac:dyDescent="0.15">
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="12"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="68"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
+      <c r="X68" s="11"/>
+      <c r="Y68" s="11"/>
+      <c r="Z68" s="11"/>
+      <c r="AA68" s="11"/>
+      <c r="AB68" s="11"/>
+      <c r="AC68" s="11"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="11"/>
+      <c r="AF68" s="11"/>
+      <c r="AG68" s="11"/>
+      <c r="AH68" s="11"/>
+      <c r="AI68" s="11"/>
+      <c r="AJ68" s="11"/>
+      <c r="AK68" s="11"/>
+      <c r="AL68" s="11"/>
+      <c r="AM68" s="11"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="11"/>
+      <c r="AP68" s="11"/>
+      <c r="AQ68" s="11"/>
+      <c r="AR68" s="11"/>
+      <c r="AS68" s="11"/>
+      <c r="AT68" s="11"/>
+      <c r="AU68" s="11"/>
+      <c r="AV68" s="11"/>
+      <c r="AW68" s="11"/>
+      <c r="AX68" s="11"/>
+      <c r="AY68" s="12"/>
     </row>
-    <row r="69" spans="2:51">
-      <c r="B69" s="1">
+    <row r="69" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B69" s="7">
         <v>102</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="8">
         <v>111</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="8">
         <v>49</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" s="8">
         <v>62</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="8">
         <v>60</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="8">
         <v>73</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="8">
         <v>110</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="8">
         <v>102</v>
       </c>
-      <c r="J69" s="1">
+      <c r="J69" s="8">
         <v>111</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="8">
         <v>50</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69" s="8">
         <v>62</v>
       </c>
-      <c r="M69" s="1">
+      <c r="M69" s="8">
         <v>55</v>
       </c>
-      <c r="N69" s="1">
+      <c r="N69" s="8">
         <v>67</v>
       </c>
-      <c r="O69" s="1">
+      <c r="O69" s="8">
         <v>51</v>
       </c>
-      <c r="P69" s="1">
+      <c r="P69" s="8">
         <v>48</v>
       </c>
-      <c r="Q69" s="1">
+      <c r="Q69" s="8">
         <v>69</v>
       </c>
-      <c r="R69" s="1">
+      <c r="R69" s="8">
         <v>53</v>
       </c>
-      <c r="S69" s="1">
+      <c r="S69" s="8">
         <v>50</v>
       </c>
-      <c r="T69" s="1">
+      <c r="T69" s="8">
         <v>55</v>
       </c>
-      <c r="U69" s="1">
+      <c r="U69" s="8">
         <v>65</v>
       </c>
-      <c r="V69" s="1">
+      <c r="V69" s="8">
         <v>49</v>
       </c>
-      <c r="W69" s="1">
+      <c r="W69" s="8">
         <v>65</v>
       </c>
-      <c r="X69" s="1">
+      <c r="X69" s="8">
         <v>52</v>
       </c>
-      <c r="Y69" s="1">
+      <c r="Y69" s="8">
         <v>70</v>
       </c>
-      <c r="Z69" s="1">
+      <c r="Z69" s="8">
         <v>53</v>
       </c>
-      <c r="AA69" s="1">
+      <c r="AA69" s="8">
         <v>53</v>
       </c>
-      <c r="AB69" s="1">
+      <c r="AB69" s="8">
         <v>56</v>
       </c>
-      <c r="AC69" s="1">
+      <c r="AC69" s="8">
         <v>55</v>
       </c>
-      <c r="AD69" s="1">
+      <c r="AD69" s="8">
         <v>53</v>
       </c>
-      <c r="AE69" s="1">
+      <c r="AE69" s="8">
         <v>50</v>
       </c>
-      <c r="AF69" s="1">
+      <c r="AF69" s="8">
         <v>65</v>
       </c>
-      <c r="AG69" s="1">
+      <c r="AG69" s="8">
         <v>69</v>
       </c>
-      <c r="AH69" s="1">
+      <c r="AH69" s="8">
         <v>55</v>
       </c>
-      <c r="AI69" s="1">
+      <c r="AI69" s="8">
         <v>66</v>
       </c>
-      <c r="AJ69" s="1">
+      <c r="AJ69" s="8">
         <v>65</v>
       </c>
-      <c r="AK69" s="1">
+      <c r="AK69" s="8">
         <v>54</v>
       </c>
-      <c r="AL69" s="1">
+      <c r="AL69" s="8">
         <v>65</v>
       </c>
-      <c r="AM69" s="1">
+      <c r="AM69" s="8">
         <v>69</v>
       </c>
-      <c r="AN69" s="1">
+      <c r="AN69" s="8">
         <v>67</v>
       </c>
-      <c r="AO69" s="1">
+      <c r="AO69" s="8">
         <v>51</v>
       </c>
-      <c r="AP69" s="1">
+      <c r="AP69" s="8">
         <v>55</v>
       </c>
-      <c r="AQ69" s="1">
+      <c r="AQ69" s="8">
         <v>65</v>
       </c>
-      <c r="AR69" s="1">
+      <c r="AR69" s="8">
         <v>67</v>
       </c>
-      <c r="AS69" s="1">
+      <c r="AS69" s="8">
         <v>51</v>
       </c>
-      <c r="AT69" s="1">
+      <c r="AT69" s="8">
         <v>50</v>
       </c>
-      <c r="AU69" s="1">
+      <c r="AU69" s="8">
         <v>52</v>
       </c>
-      <c r="AV69" s="1">
+      <c r="AV69" s="8">
         <v>65</v>
       </c>
-      <c r="AW69" s="1">
+      <c r="AW69" s="8">
         <v>49</v>
       </c>
-      <c r="AX69" s="1">
+      <c r="AX69" s="8">
         <v>66</v>
       </c>
-      <c r="AY69" s="1">
+      <c r="AY69" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:51">
-      <c r="B72" s="1">
+    <row r="70" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="5"/>
+    </row>
+    <row r="71" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
+      <c r="X71" s="11"/>
+      <c r="Y71" s="11"/>
+      <c r="Z71" s="11"/>
+      <c r="AA71" s="11"/>
+      <c r="AB71" s="11"/>
+      <c r="AC71" s="11"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="11"/>
+      <c r="AF71" s="11"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="11"/>
+      <c r="AP71" s="11"/>
+      <c r="AQ71" s="11"/>
+      <c r="AR71" s="11"/>
+      <c r="AS71" s="11"/>
+      <c r="AT71" s="11"/>
+      <c r="AU71" s="11"/>
+      <c r="AV71" s="11"/>
+      <c r="AW71" s="11"/>
+      <c r="AX71" s="11"/>
+      <c r="AY71" s="12"/>
+    </row>
+    <row r="72" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B72" s="7">
         <v>55</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="8">
         <v>70</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="8">
         <v>50</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="8">
         <v>70</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="8">
         <v>55</v>
       </c>
-      <c r="G72" s="1">
+      <c r="G72" s="8">
         <v>67</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="8">
         <v>56</v>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="8">
         <v>68</v>
       </c>
-      <c r="J72" s="1">
+      <c r="J72" s="8">
         <v>52</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="8">
         <v>68</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72" s="8">
         <v>51</v>
       </c>
-      <c r="M72" s="1">
+      <c r="M72" s="8">
         <v>53</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N72" s="8">
         <v>54</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O72" s="8">
         <v>70</v>
       </c>
-      <c r="P72" s="1">
+      <c r="P72" s="8">
         <v>49</v>
       </c>
-      <c r="Q72" s="1">
+      <c r="Q72" s="8">
         <v>56</v>
       </c>
-      <c r="R72" s="1">
+      <c r="R72" s="8">
         <v>55</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S72" s="8">
         <v>69</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T72" s="8">
         <v>52</v>
       </c>
-      <c r="U72" s="1">
+      <c r="U72" s="8">
         <v>54</v>
       </c>
-      <c r="V72" s="1">
+      <c r="V72" s="8">
         <v>69</v>
       </c>
-      <c r="W72" s="1">
+      <c r="W72" s="8">
         <v>48</v>
       </c>
-      <c r="X72" s="1">
+      <c r="X72" s="8">
         <v>51</v>
       </c>
-      <c r="Y72" s="1">
+      <c r="Y72" s="8">
         <v>52</v>
       </c>
-      <c r="Z72" s="1">
+      <c r="Z72" s="8">
         <v>56</v>
       </c>
-      <c r="AA72" s="1">
+      <c r="AA72" s="8">
         <v>48</v>
       </c>
-      <c r="AB72" s="1">
+      <c r="AB72" s="8">
         <v>49</v>
       </c>
-      <c r="AC72" s="1">
+      <c r="AC72" s="8">
         <v>66</v>
       </c>
-      <c r="AD72" s="1">
+      <c r="AD72" s="8">
         <v>66</v>
       </c>
-      <c r="AE72" s="1">
+      <c r="AE72" s="8">
         <v>55</v>
       </c>
-      <c r="AF72" s="1">
+      <c r="AF72" s="8">
         <v>49</v>
       </c>
-      <c r="AG72" s="1">
+      <c r="AG72" s="8">
         <v>55</v>
       </c>
-      <c r="AH72" s="1">
+      <c r="AH72" s="8">
         <v>69</v>
       </c>
-      <c r="AI72" s="1">
+      <c r="AI72" s="8">
         <v>50</v>
       </c>
-      <c r="AJ72" s="1">
+      <c r="AJ72" s="8">
         <v>48</v>
       </c>
-      <c r="AK72" s="1">
+      <c r="AK72" s="8">
         <v>52</v>
       </c>
-      <c r="AL72" s="1">
+      <c r="AL72" s="8">
         <v>48</v>
       </c>
-      <c r="AM72" s="1">
+      <c r="AM72" s="8">
         <v>48</v>
       </c>
-      <c r="AN72" s="1">
+      <c r="AN72" s="8">
         <v>70</v>
       </c>
-      <c r="AO72" s="1">
+      <c r="AO72" s="8">
         <v>65</v>
       </c>
-      <c r="AP72" s="1">
+      <c r="AP72" s="8">
         <v>49</v>
       </c>
-      <c r="AQ72" s="1">
+      <c r="AQ72" s="8">
         <v>53</v>
       </c>
-      <c r="AR72" s="1">
+      <c r="AR72" s="8">
         <v>48</v>
       </c>
-      <c r="AS72" s="1">
+      <c r="AS72" s="8">
         <v>65</v>
       </c>
-      <c r="AT72" s="1">
+      <c r="AT72" s="8">
         <v>65</v>
       </c>
-      <c r="AU72" s="1">
+      <c r="AU72" s="8">
         <v>70</v>
       </c>
-      <c r="AV72" s="1">
+      <c r="AV72" s="8">
         <v>70</v>
       </c>
-      <c r="AW72" s="1">
+      <c r="AW72" s="8">
         <v>51</v>
       </c>
-      <c r="AX72" s="1">
+      <c r="AX72" s="8">
         <v>67</v>
       </c>
-      <c r="AY72" s="1">
+      <c r="AY72" s="9">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="2:51">
-      <c r="B75" s="1">
+    <row r="73" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="4"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="4"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="4"/>
+      <c r="AV73" s="4"/>
+      <c r="AW73" s="4"/>
+      <c r="AX73" s="4"/>
+      <c r="AY73" s="5"/>
+    </row>
+    <row r="74" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
+      <c r="X74" s="11"/>
+      <c r="Y74" s="11"/>
+      <c r="Z74" s="11"/>
+      <c r="AA74" s="11"/>
+      <c r="AB74" s="11"/>
+      <c r="AC74" s="11"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="11"/>
+      <c r="AF74" s="11"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="11"/>
+      <c r="AP74" s="11"/>
+      <c r="AQ74" s="11"/>
+      <c r="AR74" s="11"/>
+      <c r="AS74" s="11"/>
+      <c r="AT74" s="11"/>
+      <c r="AU74" s="11"/>
+      <c r="AV74" s="11"/>
+      <c r="AW74" s="11"/>
+      <c r="AX74" s="11"/>
+      <c r="AY74" s="12"/>
+    </row>
+    <row r="75" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B75" s="7">
         <v>54</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="8">
         <v>51</v>
       </c>
-      <c r="D75" s="1">
+      <c r="D75" s="8">
         <v>56</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="8">
         <v>70</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="8">
         <v>48</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="8">
         <v>51</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="8">
         <v>52</v>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="8">
         <v>57</v>
       </c>
-      <c r="J75" s="1">
+      <c r="J75" s="8">
         <v>48</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="8">
         <v>51</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75" s="8">
         <v>48</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="8">
         <v>70</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N75" s="8">
         <v>66</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O75" s="8">
         <v>54</v>
       </c>
-      <c r="P75" s="1">
+      <c r="P75" s="8">
         <v>50</v>
       </c>
-      <c r="Q75" s="1">
+      <c r="Q75" s="8">
         <v>57</v>
       </c>
-      <c r="R75" s="1">
+      <c r="R75" s="8">
         <v>50</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S75" s="8">
         <v>55</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T75" s="8">
         <v>56</v>
       </c>
-      <c r="U75" s="1">
+      <c r="U75" s="8">
         <v>68</v>
       </c>
-      <c r="V75" s="1">
+      <c r="V75" s="8">
         <v>69</v>
       </c>
-      <c r="W75" s="1">
+      <c r="W75" s="8">
         <v>57</v>
       </c>
-      <c r="X75" s="1">
+      <c r="X75" s="8">
         <v>54</v>
       </c>
-      <c r="Y75" s="1">
+      <c r="Y75" s="8">
         <v>53</v>
       </c>
-      <c r="Z75" s="1">
+      <c r="Z75" s="8">
         <v>69</v>
       </c>
-      <c r="AA75" s="1">
+      <c r="AA75" s="8">
         <v>67</v>
       </c>
-      <c r="AB75" s="1">
+      <c r="AB75" s="8">
         <v>65</v>
       </c>
-      <c r="AC75" s="1">
+      <c r="AC75" s="8">
         <v>69</v>
       </c>
-      <c r="AD75" s="1">
+      <c r="AD75" s="8">
         <v>66</v>
       </c>
-      <c r="AE75" s="1">
+      <c r="AE75" s="8">
         <v>48</v>
       </c>
-      <c r="AF75" s="1">
+      <c r="AF75" s="8">
         <v>52</v>
       </c>
-      <c r="AG75" s="1">
+      <c r="AG75" s="8">
         <v>68</v>
       </c>
-      <c r="AH75" s="1">
+      <c r="AH75" s="8">
         <v>50</v>
       </c>
-      <c r="AI75" s="1">
+      <c r="AI75" s="8">
         <v>70</v>
       </c>
-      <c r="AJ75" s="1">
+      <c r="AJ75" s="8">
         <v>48</v>
       </c>
-      <c r="AK75" s="1">
+      <c r="AK75" s="8">
         <v>69</v>
       </c>
-      <c r="AL75" s="1">
+      <c r="AL75" s="8">
         <v>69</v>
       </c>
-      <c r="AM75" s="1">
+      <c r="AM75" s="8">
         <v>53</v>
       </c>
-      <c r="AN75" s="1">
+      <c r="AN75" s="8">
         <v>49</v>
       </c>
-      <c r="AO75" s="1">
+      <c r="AO75" s="8">
         <v>60</v>
       </c>
-      <c r="AP75" s="1">
+      <c r="AP75" s="8">
         <v>47</v>
       </c>
-      <c r="AQ75" s="1">
+      <c r="AQ75" s="8">
         <v>73</v>
       </c>
-      <c r="AR75" s="1">
+      <c r="AR75" s="8">
         <v>110</v>
       </c>
-      <c r="AS75" s="1">
+      <c r="AS75" s="8">
         <v>102</v>
       </c>
-      <c r="AT75" s="1">
+      <c r="AT75" s="8">
         <v>111</v>
       </c>
-      <c r="AU75" s="1">
+      <c r="AU75" s="8">
         <v>50</v>
       </c>
-      <c r="AV75" s="1">
+      <c r="AV75" s="8">
         <v>62</v>
       </c>
-      <c r="AW75" s="1">
+      <c r="AW75" s="8">
         <v>60</v>
       </c>
-      <c r="AX75" s="1">
+      <c r="AX75" s="8">
         <v>47</v>
       </c>
-      <c r="AY75" s="1">
+      <c r="AY75" s="9">
         <v>83</v>
       </c>
     </row>
-    <row r="78" spans="2:51">
-      <c r="B78" s="1">
+    <row r="76" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="4"/>
+      <c r="AH76" s="4"/>
+      <c r="AI76" s="4"/>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
+      <c r="AL76" s="4"/>
+      <c r="AM76" s="4"/>
+      <c r="AN76" s="4"/>
+      <c r="AO76" s="4"/>
+      <c r="AP76" s="4"/>
+      <c r="AQ76" s="4"/>
+      <c r="AR76" s="4"/>
+      <c r="AS76" s="4"/>
+      <c r="AT76" s="4"/>
+      <c r="AU76" s="4"/>
+      <c r="AV76" s="4"/>
+      <c r="AW76" s="4"/>
+      <c r="AX76" s="4"/>
+      <c r="AY76" s="5"/>
+    </row>
+    <row r="77" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
+      <c r="P77" s="11"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
+      <c r="Y77" s="11"/>
+      <c r="Z77" s="11"/>
+      <c r="AA77" s="11"/>
+      <c r="AB77" s="11"/>
+      <c r="AC77" s="11"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="11"/>
+      <c r="AF77" s="11"/>
+      <c r="AG77" s="11"/>
+      <c r="AH77" s="11"/>
+      <c r="AI77" s="11"/>
+      <c r="AJ77" s="11"/>
+      <c r="AK77" s="11"/>
+      <c r="AL77" s="11"/>
+      <c r="AM77" s="11"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="11"/>
+      <c r="AP77" s="11"/>
+      <c r="AQ77" s="11"/>
+      <c r="AR77" s="11"/>
+      <c r="AS77" s="11"/>
+      <c r="AT77" s="11"/>
+      <c r="AU77" s="11"/>
+      <c r="AV77" s="11"/>
+      <c r="AW77" s="11"/>
+      <c r="AX77" s="11"/>
+      <c r="AY77" s="12"/>
+    </row>
+    <row r="78" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B78" s="7">
         <v>116</v>
       </c>
-      <c r="C78" s="1">
+      <c r="C78" s="8">
         <v>97</v>
       </c>
-      <c r="D78" s="1">
+      <c r="D78" s="8">
         <v>116</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="8">
         <v>101</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="8">
         <v>109</v>
       </c>
-      <c r="G78" s="1">
+      <c r="G78" s="8">
         <v>101</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="8">
         <v>110</v>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="8">
         <v>116</v>
       </c>
-      <c r="J78" s="1">
+      <c r="J78" s="8">
         <v>62</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="45">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="2:275">
-      <c r="B81" s="1">
+    <row r="79" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="46"/>
+    </row>
+    <row r="80" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B80" s="10"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="47"/>
+    </row>
+    <row r="83" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B83" s="1">
         <v>1</v>
       </c>
-      <c r="C81" s="1">
-        <v>0</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>29</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="1">
+      <c r="J83" s="1">
+        <v>40</v>
+      </c>
+      <c r="K83" s="1">
+        <v>81</v>
+      </c>
+      <c r="L83" s="1">
+        <v>112</v>
+      </c>
+      <c r="M83" s="1">
+        <v>2</v>
+      </c>
+      <c r="N83" s="74">
+        <v>27</v>
+      </c>
+      <c r="O83" s="74">
+        <v>11</v>
+      </c>
+      <c r="P83" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>32</v>
+      </c>
+      <c r="R83" s="1">
+        <v>0</v>
+      </c>
+      <c r="S83" s="1">
+        <v>15</v>
+      </c>
+      <c r="T83" s="1">
+        <v>30</v>
+      </c>
+      <c r="U83" s="1">
+        <v>97</v>
+      </c>
+      <c r="V83" s="1">
+        <v>118</v>
+      </c>
+      <c r="W83" s="1">
+        <v>115</v>
+      </c>
+      <c r="X83" s="1">
+        <v>104</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>97</v>
+      </c>
+      <c r="Z83" s="1">
+        <v>99</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>103</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>111</v>
+      </c>
+      <c r="AC83" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B86" s="1">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="74">
+        <v>3</v>
+      </c>
+      <c r="E86" s="74">
+        <v>77</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1">
+        <v>40</v>
+      </c>
+      <c r="K86" s="1">
+        <v>81</v>
+      </c>
+      <c r="L86" s="1">
+        <v>112</v>
+      </c>
+      <c r="M86" s="1">
+        <v>2</v>
+      </c>
+      <c r="N86" s="74">
+        <v>27</v>
+      </c>
+      <c r="O86" s="74">
+        <v>11</v>
+      </c>
+      <c r="P86" s="1">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>32</v>
+      </c>
+      <c r="R86" s="1">
+        <v>15</v>
+      </c>
+      <c r="S86" s="74">
+        <v>27</v>
+      </c>
+      <c r="T86" s="74">
+        <v>77</v>
+      </c>
+      <c r="U86" s="1">
+        <v>32</v>
+      </c>
+      <c r="V86" s="1">
+        <v>50</v>
+      </c>
+      <c r="W86" s="1">
+        <v>53</v>
+      </c>
+      <c r="X86" s="1">
+        <v>83</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>69</v>
+      </c>
+      <c r="Z86" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>40</v>
+      </c>
+      <c r="AB86" s="1">
+        <v>87</v>
+      </c>
+      <c r="AC86" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD86" s="1">
+        <v>68</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>41</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>83</v>
+      </c>
+      <c r="AH86" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>65</v>
+      </c>
+      <c r="AJ86" s="1">
+        <v>67</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>71</v>
+      </c>
+      <c r="AL86" s="1">
+        <v>79</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO86" s="1">
+        <v>13</v>
+      </c>
+      <c r="AP86" s="1">
+        <v>49</v>
+      </c>
+      <c r="AQ86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AR86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS86" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT86" s="1">
+        <v>77</v>
+      </c>
+      <c r="AU86" s="1">
+        <v>85</v>
+      </c>
+      <c r="AV86" s="1">
+        <v>53</v>
+      </c>
+      <c r="AW86" s="1">
+        <v>51</v>
+      </c>
+      <c r="AX86" s="1">
+        <v>57</v>
+      </c>
+      <c r="AY86" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B87" s="1">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1">
+        <v>32</v>
+      </c>
+      <c r="D87" s="1">
+        <v>83</v>
+      </c>
+      <c r="E87" s="1">
+        <v>72</v>
+      </c>
+      <c r="F87" s="1">
+        <v>65</v>
+      </c>
+      <c r="G87" s="1">
+        <v>67</v>
+      </c>
+      <c r="H87" s="1">
+        <v>71</v>
+      </c>
+      <c r="I87" s="1">
+        <v>79</v>
+      </c>
+      <c r="J87" s="1">
+        <v>32</v>
+      </c>
+      <c r="K87" s="1">
+        <v>48</v>
+      </c>
+      <c r="L87" s="1">
+        <v>56</v>
+      </c>
+      <c r="M87" s="1">
+        <v>48</v>
+      </c>
+      <c r="N87" s="1">
+        <v>53</v>
+      </c>
+      <c r="O87" s="1">
+        <v>32</v>
+      </c>
+      <c r="P87" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>32</v>
+      </c>
+      <c r="R87" s="1">
+        <v>48</v>
+      </c>
+      <c r="S87" s="1">
+        <v>57</v>
+      </c>
+      <c r="T87" s="1">
+        <v>52</v>
+      </c>
+      <c r="U87" s="1">
+        <v>53</v>
+      </c>
+      <c r="V87" s="1">
+        <v>32</v>
+      </c>
+      <c r="W87" s="1">
+        <v>32</v>
+      </c>
+      <c r="X87" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>51</v>
+      </c>
+      <c r="Z87" s="1">
+        <v>50</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>51</v>
+      </c>
+      <c r="AB87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC87" s="1">
+        <v>48</v>
+      </c>
+      <c r="AD87" s="1">
+        <v>94</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>83</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO87" s="1">
+        <v>69</v>
+      </c>
+      <c r="AP87" s="1">
+        <v>70</v>
+      </c>
+      <c r="AQ87" s="1">
+        <v>65</v>
+      </c>
+      <c r="AR87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS87" s="1">
+        <v>80</v>
+      </c>
+      <c r="AT87" s="1">
+        <v>81</v>
+      </c>
+      <c r="AU87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV87" s="1">
+        <v>65</v>
+      </c>
+      <c r="AW87" s="1">
+        <v>83</v>
+      </c>
+      <c r="AX87" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY87" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B88" s="1">
+        <v>65</v>
+      </c>
+      <c r="C88" s="1">
+        <v>32</v>
+      </c>
+      <c r="D88" s="1">
+        <v>66</v>
+      </c>
+      <c r="E88" s="1">
+        <v>81</v>
+      </c>
+      <c r="F88" s="1">
+        <v>60</v>
+      </c>
+      <c r="G88" s="1">
+        <v>84</v>
+      </c>
+      <c r="H88" s="1">
+        <v>50</v>
+      </c>
+      <c r="I88" s="1">
+        <v>45</v>
+      </c>
+      <c r="J88" s="1">
+        <v>45</v>
+      </c>
+      <c r="K88" s="1">
+        <v>62</v>
+      </c>
+      <c r="L88" s="1">
+        <v>32</v>
+      </c>
+      <c r="M88" s="1">
+        <v>32</v>
+      </c>
+      <c r="N88" s="1">
+        <v>13</v>
+      </c>
+      <c r="O88" s="1">
+        <v>32</v>
+      </c>
+      <c r="P88" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>32</v>
+      </c>
+      <c r="R88" s="1">
+        <v>32</v>
+      </c>
+      <c r="S88" s="1">
+        <v>32</v>
+      </c>
+      <c r="T88" s="1">
+        <v>32</v>
+      </c>
+      <c r="U88" s="1">
+        <v>32</v>
+      </c>
+      <c r="V88" s="1">
+        <v>32</v>
+      </c>
+      <c r="W88" s="1">
+        <v>32</v>
+      </c>
+      <c r="X88" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH88" s="1">
+        <v>77</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AJ88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>69</v>
+      </c>
+      <c r="AL88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN88" s="1">
+        <v>72</v>
+      </c>
+      <c r="AO88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AP88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ88" s="1">
+        <v>75</v>
+      </c>
+      <c r="AR88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AS88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT88" s="1">
+        <v>76</v>
+      </c>
+      <c r="AU88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AV88" s="1">
+        <v>32</v>
+      </c>
+      <c r="AW88" s="1">
+        <v>78</v>
+      </c>
+      <c r="AX88" s="1">
+        <v>81</v>
+      </c>
+      <c r="AY88" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B89" s="1">
+        <v>82</v>
+      </c>
+      <c r="C89" s="1">
+        <v>81</v>
+      </c>
+      <c r="D89" s="1">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1">
+        <v>83</v>
+      </c>
+      <c r="F89" s="1">
+        <v>81</v>
+      </c>
+      <c r="G89" s="1">
+        <v>32</v>
+      </c>
+      <c r="H89" s="1">
+        <v>86</v>
+      </c>
+      <c r="I89" s="1">
+        <v>81</v>
+      </c>
+      <c r="J89" s="1">
+        <v>32</v>
+      </c>
+      <c r="K89" s="1">
+        <v>84</v>
+      </c>
+      <c r="L89" s="1">
+        <v>81</v>
+      </c>
+      <c r="M89" s="1">
+        <v>32</v>
+      </c>
+      <c r="N89" s="1">
+        <v>71</v>
+      </c>
+      <c r="O89" s="1">
+        <v>81</v>
+      </c>
+      <c r="P89" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>90</v>
+      </c>
+      <c r="R89" s="1">
+        <v>81</v>
+      </c>
+      <c r="S89" s="1">
+        <v>32</v>
+      </c>
+      <c r="T89" s="1">
+        <v>81</v>
+      </c>
+      <c r="U89" s="1">
+        <v>81</v>
+      </c>
+      <c r="V89" s="1">
+        <v>32</v>
+      </c>
+      <c r="W89" s="1">
+        <v>85</v>
+      </c>
+      <c r="X89" s="1">
+        <v>81</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>88</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>81</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>13</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH89" s="1">
+        <v>77</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>85</v>
+      </c>
+      <c r="AJ89" s="1">
+        <v>53</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>52</v>
+      </c>
+      <c r="AL89" s="1">
+        <v>48</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP89" s="1">
+        <v>80</v>
+      </c>
+      <c r="AQ89" s="1">
+        <v>86</v>
+      </c>
+      <c r="AR89" s="1">
+        <v>71</v>
+      </c>
+      <c r="AS89" s="1">
+        <v>67</v>
+      </c>
+      <c r="AT89" s="1">
+        <v>71</v>
+      </c>
+      <c r="AU89" s="1">
+        <v>79</v>
+      </c>
+      <c r="AV89" s="1">
+        <v>32</v>
+      </c>
+      <c r="AW89" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX89" s="1">
+        <v>56</v>
+      </c>
+      <c r="AY89" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B90" s="1">
+        <v>53</v>
+      </c>
+      <c r="C90" s="1">
+        <v>32</v>
+      </c>
+      <c r="D90" s="1">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1">
+        <v>32</v>
+      </c>
+      <c r="F90" s="1">
+        <v>49</v>
+      </c>
+      <c r="G90" s="1">
+        <v>48</v>
+      </c>
+      <c r="H90" s="1">
+        <v>52</v>
+      </c>
+      <c r="I90" s="1">
+        <v>48</v>
+      </c>
+      <c r="J90" s="1">
+        <v>32</v>
+      </c>
+      <c r="K90" s="1">
+        <v>32</v>
+      </c>
+      <c r="L90" s="1">
+        <v>32</v>
+      </c>
+      <c r="M90" s="1">
+        <v>51</v>
+      </c>
+      <c r="N90" s="1">
+        <v>50</v>
+      </c>
+      <c r="O90" s="1">
+        <v>48</v>
+      </c>
+      <c r="P90" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>48</v>
+      </c>
+      <c r="R90" s="1">
+        <v>94</v>
+      </c>
+      <c r="S90" s="1">
+        <v>83</v>
+      </c>
+      <c r="T90" s="1">
+        <v>32</v>
+      </c>
+      <c r="U90" s="1">
+        <v>32</v>
+      </c>
+      <c r="V90" s="1">
+        <v>32</v>
+      </c>
+      <c r="W90" s="1">
+        <v>32</v>
+      </c>
+      <c r="X90" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC90" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD90" s="1">
+        <v>74</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>54</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>67</v>
+      </c>
+      <c r="AH90" s="1">
+        <v>81</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ90" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>81</v>
+      </c>
+      <c r="AL90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>73</v>
+      </c>
+      <c r="AN90" s="1">
+        <v>81</v>
+      </c>
+      <c r="AO90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP90" s="1">
+        <v>79</v>
+      </c>
+      <c r="AQ90" s="1">
+        <v>81</v>
+      </c>
+      <c r="AR90" s="1">
+        <v>60</v>
+      </c>
+      <c r="AS90" s="1">
+        <v>84</v>
+      </c>
+      <c r="AT90" s="1">
+        <v>49</v>
+      </c>
+      <c r="AU90" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV90" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW90" s="1">
+        <v>62</v>
+      </c>
+      <c r="AX90" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY90" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B91" s="1">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1">
+        <v>32</v>
+      </c>
+      <c r="D91" s="1">
+        <v>32</v>
+      </c>
+      <c r="E91" s="1">
+        <v>32</v>
+      </c>
+      <c r="F91" s="1">
+        <v>32</v>
+      </c>
+      <c r="G91" s="1">
+        <v>32</v>
+      </c>
+      <c r="H91" s="1">
+        <v>32</v>
+      </c>
+      <c r="I91" s="1">
+        <v>32</v>
+      </c>
+      <c r="J91" s="1">
+        <v>32</v>
+      </c>
+      <c r="K91" s="1">
+        <v>32</v>
+      </c>
+      <c r="L91" s="1">
+        <v>32</v>
+      </c>
+      <c r="M91" s="1">
+        <v>32</v>
+      </c>
+      <c r="N91" s="1">
+        <v>32</v>
+      </c>
+      <c r="O91" s="1">
+        <v>32</v>
+      </c>
+      <c r="P91" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>32</v>
+      </c>
+      <c r="R91" s="1">
+        <v>32</v>
+      </c>
+      <c r="S91" s="1">
+        <v>32</v>
+      </c>
+      <c r="T91" s="1">
+        <v>32</v>
+      </c>
+      <c r="U91" s="1">
+        <v>32</v>
+      </c>
+      <c r="V91" s="1">
+        <v>89</v>
+      </c>
+      <c r="W91" s="1">
+        <v>65</v>
+      </c>
+      <c r="X91" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>66</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB91" s="1">
+        <v>77</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AD91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>69</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH91" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AJ91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>75</v>
+      </c>
+      <c r="AL91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN91" s="1">
+        <v>76</v>
+      </c>
+      <c r="AO91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AP91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ91" s="1">
+        <v>78</v>
+      </c>
+      <c r="AR91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AS91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT91" s="1">
+        <v>82</v>
+      </c>
+      <c r="AU91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AV91" s="1">
+        <v>32</v>
+      </c>
+      <c r="AW91" s="1">
+        <v>83</v>
+      </c>
+      <c r="AX91" s="1">
+        <v>81</v>
+      </c>
+      <c r="AY91" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B92" s="1">
+        <v>86</v>
+      </c>
+      <c r="C92" s="1">
+        <v>81</v>
+      </c>
+      <c r="D92" s="1">
+        <v>32</v>
+      </c>
+      <c r="E92" s="1">
+        <v>84</v>
+      </c>
+      <c r="F92" s="1">
+        <v>81</v>
+      </c>
+      <c r="G92" s="1">
+        <v>32</v>
+      </c>
+      <c r="H92" s="1">
+        <v>71</v>
+      </c>
+      <c r="I92" s="1">
+        <v>81</v>
+      </c>
+      <c r="J92" s="1">
+        <v>32</v>
+      </c>
+      <c r="K92" s="1">
+        <v>90</v>
+      </c>
+      <c r="L92" s="1">
+        <v>81</v>
+      </c>
+      <c r="M92" s="1">
+        <v>32</v>
+      </c>
+      <c r="N92" s="1">
+        <v>81</v>
+      </c>
+      <c r="O92" s="1">
+        <v>81</v>
+      </c>
+      <c r="P92" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>85</v>
+      </c>
+      <c r="R92" s="1">
+        <v>81</v>
+      </c>
+      <c r="S92" s="1">
+        <v>32</v>
+      </c>
+      <c r="T92" s="1">
+        <v>88</v>
+      </c>
+      <c r="U92" s="1">
+        <v>83</v>
+      </c>
+      <c r="V92" s="1">
+        <v>32</v>
+      </c>
+      <c r="W92" s="1">
+        <v>32</v>
+      </c>
+      <c r="X92" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>13</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>51</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>42</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>77</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>85</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>57</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>51</v>
+      </c>
+      <c r="AH92" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>55</v>
+      </c>
+      <c r="AJ92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL92" s="1">
+        <v>83</v>
+      </c>
+      <c r="AM92" s="1">
+        <v>72</v>
+      </c>
+      <c r="AN92" s="1">
+        <v>65</v>
+      </c>
+      <c r="AO92" s="1">
+        <v>67</v>
+      </c>
+      <c r="AP92" s="1">
+        <v>71</v>
+      </c>
+      <c r="AQ92" s="1">
+        <v>79</v>
+      </c>
+      <c r="AR92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS92" s="1">
+        <v>48</v>
+      </c>
+      <c r="AT92" s="1">
+        <v>57</v>
+      </c>
+      <c r="AU92" s="1">
+        <v>53</v>
+      </c>
+      <c r="AV92" s="1">
+        <v>48</v>
+      </c>
+      <c r="AW92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AX92" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY92" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B93" s="1">
+        <v>49</v>
+      </c>
+      <c r="C93" s="1">
+        <v>49</v>
+      </c>
+      <c r="D93" s="1">
+        <v>52</v>
+      </c>
+      <c r="E93" s="1">
+        <v>48</v>
+      </c>
+      <c r="F93" s="1">
+        <v>32</v>
+      </c>
+      <c r="G93" s="1">
+        <v>32</v>
+      </c>
+      <c r="H93" s="1">
+        <v>32</v>
+      </c>
+      <c r="I93" s="1">
+        <v>55</v>
+      </c>
+      <c r="J93" s="1">
+        <v>51</v>
+      </c>
+      <c r="K93" s="1">
+        <v>56</v>
+      </c>
+      <c r="L93" s="1">
+        <v>32</v>
+      </c>
+      <c r="M93" s="1">
+        <v>48</v>
+      </c>
+      <c r="N93" s="1">
+        <v>94</v>
+      </c>
+      <c r="O93" s="1">
+        <v>32</v>
+      </c>
+      <c r="P93" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>32</v>
+      </c>
+      <c r="R93" s="1">
+        <v>32</v>
+      </c>
+      <c r="S93" s="1">
+        <v>32</v>
+      </c>
+      <c r="T93" s="1">
+        <v>32</v>
+      </c>
+      <c r="U93" s="1">
+        <v>32</v>
+      </c>
+      <c r="V93" s="1">
+        <v>32</v>
+      </c>
+      <c r="W93" s="1">
+        <v>32</v>
+      </c>
+      <c r="X93" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>69</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>70</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>54</v>
+      </c>
+      <c r="AB93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC93" s="1">
+        <v>80</v>
+      </c>
+      <c r="AD93" s="1">
+        <v>81</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>65</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>49</v>
+      </c>
+      <c r="AH93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>89</v>
+      </c>
+      <c r="AJ93" s="1">
+        <v>52</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL93" s="1">
+        <v>66</v>
+      </c>
+      <c r="AM93" s="1">
+        <v>81</v>
+      </c>
+      <c r="AN93" s="1">
+        <v>60</v>
+      </c>
+      <c r="AO93" s="1">
+        <v>84</v>
+      </c>
+      <c r="AP93" s="1">
+        <v>50</v>
+      </c>
+      <c r="AQ93" s="1">
+        <v>45</v>
+      </c>
+      <c r="AR93" s="1">
+        <v>45</v>
+      </c>
+      <c r="AS93" s="1">
+        <v>62</v>
+      </c>
+      <c r="AT93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV93" s="1">
+        <v>13</v>
+      </c>
+      <c r="AW93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AX93" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY93" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B94" s="1">
+        <v>32</v>
+      </c>
+      <c r="C94" s="1">
+        <v>70</v>
+      </c>
+      <c r="D94" s="1">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1">
+        <v>57</v>
+      </c>
+      <c r="F94" s="1">
+        <v>51</v>
+      </c>
+      <c r="G94" s="1">
+        <v>50</v>
+      </c>
+      <c r="H94" s="1">
+        <v>55</v>
+      </c>
+      <c r="I94" s="1">
+        <v>32</v>
+      </c>
+      <c r="J94" s="1">
+        <v>32</v>
+      </c>
+      <c r="K94" s="1">
+        <v>32</v>
+      </c>
+      <c r="L94" s="1">
+        <v>32</v>
+      </c>
+      <c r="M94" s="1">
+        <v>32</v>
+      </c>
+      <c r="N94" s="1">
+        <v>32</v>
+      </c>
+      <c r="O94" s="1">
+        <v>32</v>
+      </c>
+      <c r="P94" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>32</v>
+      </c>
+      <c r="R94" s="1">
+        <v>77</v>
+      </c>
+      <c r="S94" s="1">
+        <v>81</v>
+      </c>
+      <c r="T94" s="1">
+        <v>32</v>
+      </c>
+      <c r="U94" s="1">
+        <v>69</v>
+      </c>
+      <c r="V94" s="1">
+        <v>81</v>
+      </c>
+      <c r="W94" s="1">
+        <v>32</v>
+      </c>
+      <c r="X94" s="1">
+        <v>72</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>81</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>75</v>
+      </c>
+      <c r="AB94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AC94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD94" s="1">
+        <v>76</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>78</v>
+      </c>
+      <c r="AH94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ94" s="1">
+        <v>82</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>83</v>
+      </c>
+      <c r="AN94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AO94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP94" s="1">
+        <v>86</v>
+      </c>
+      <c r="AQ94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AR94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS94" s="1">
+        <v>84</v>
+      </c>
+      <c r="AT94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AU94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV94" s="1">
+        <v>71</v>
+      </c>
+      <c r="AW94" s="1">
+        <v>81</v>
+      </c>
+      <c r="AX94" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY94" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B95" s="1">
+        <v>81</v>
+      </c>
+      <c r="C95" s="1">
+        <v>32</v>
+      </c>
+      <c r="D95" s="1">
+        <v>81</v>
+      </c>
+      <c r="E95" s="1">
+        <v>81</v>
+      </c>
+      <c r="F95" s="1">
+        <v>32</v>
+      </c>
+      <c r="G95" s="1">
+        <v>85</v>
+      </c>
+      <c r="H95" s="1">
+        <v>81</v>
+      </c>
+      <c r="I95" s="1">
+        <v>32</v>
+      </c>
+      <c r="J95" s="1">
+        <v>88</v>
+      </c>
+      <c r="K95" s="1">
+        <v>81</v>
+      </c>
+      <c r="L95" s="1">
+        <v>32</v>
+      </c>
+      <c r="M95" s="1">
+        <v>13</v>
+      </c>
+      <c r="N95" s="1">
+        <v>52</v>
+      </c>
+      <c r="O95" s="1">
+        <v>43</v>
+      </c>
+      <c r="P95" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>32</v>
+      </c>
+      <c r="R95" s="1">
+        <v>70</v>
+      </c>
+      <c r="S95" s="1">
+        <v>77</v>
+      </c>
+      <c r="T95" s="1">
+        <v>57</v>
+      </c>
+      <c r="U95" s="1">
+        <v>51</v>
+      </c>
+      <c r="V95" s="1">
+        <v>50</v>
+      </c>
+      <c r="W95" s="1">
+        <v>55</v>
+      </c>
+      <c r="X95" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>83</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>72</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>67</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>71</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>79</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>48</v>
+      </c>
+      <c r="AH95" s="1">
+        <v>57</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>53</v>
+      </c>
+      <c r="AJ95" s="1">
+        <v>48</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN95" s="1">
+        <v>49</v>
+      </c>
+      <c r="AO95" s="1">
+        <v>49</v>
+      </c>
+      <c r="AP95" s="1">
+        <v>52</v>
+      </c>
+      <c r="AQ95" s="1">
+        <v>48</v>
+      </c>
+      <c r="AR95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU95" s="1">
+        <v>55</v>
+      </c>
+      <c r="AV95" s="1">
+        <v>51</v>
+      </c>
+      <c r="AW95" s="1">
+        <v>56</v>
+      </c>
+      <c r="AX95" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY95" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96" s="1">
+        <v>32</v>
+      </c>
+      <c r="D96" s="1">
+        <v>32</v>
+      </c>
+      <c r="E96" s="1">
+        <v>32</v>
+      </c>
+      <c r="F96" s="1">
+        <v>32</v>
+      </c>
+      <c r="G96" s="1">
+        <v>32</v>
+      </c>
+      <c r="H96" s="1">
+        <v>32</v>
+      </c>
+      <c r="I96" s="1">
+        <v>32</v>
+      </c>
+      <c r="J96" s="1">
+        <v>32</v>
+      </c>
+      <c r="K96" s="1">
+        <v>32</v>
+      </c>
+      <c r="L96" s="1">
+        <v>32</v>
+      </c>
+      <c r="M96" s="1">
+        <v>69</v>
+      </c>
+      <c r="N96" s="1">
+        <v>70</v>
+      </c>
+      <c r="O96" s="1">
+        <v>54</v>
+      </c>
+      <c r="P96" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>80</v>
+      </c>
+      <c r="R96" s="1">
+        <v>81</v>
+      </c>
+      <c r="S96" s="1">
+        <v>32</v>
+      </c>
+      <c r="T96" s="1">
+        <v>65</v>
+      </c>
+      <c r="U96" s="1">
+        <v>49</v>
+      </c>
+      <c r="V96" s="1">
+        <v>32</v>
+      </c>
+      <c r="W96" s="1">
+        <v>89</v>
+      </c>
+      <c r="X96" s="1">
+        <v>52</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z96" s="1">
+        <v>66</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>81</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>60</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>84</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>45</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>45</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>62</v>
+      </c>
+      <c r="AH96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ96" s="1">
+        <v>13</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AR96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AT96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AW96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AX96" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY96" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B97" s="1">
+        <v>32</v>
+      </c>
+      <c r="C97" s="1">
+        <v>32</v>
+      </c>
+      <c r="D97" s="1">
+        <v>32</v>
+      </c>
+      <c r="E97" s="1">
+        <v>32</v>
+      </c>
+      <c r="F97" s="1">
+        <v>77</v>
+      </c>
+      <c r="G97" s="1">
+        <v>81</v>
+      </c>
+      <c r="H97" s="1">
+        <v>32</v>
+      </c>
+      <c r="I97" s="1">
+        <v>69</v>
+      </c>
+      <c r="J97" s="1">
+        <v>81</v>
+      </c>
+      <c r="K97" s="1">
+        <v>32</v>
+      </c>
+      <c r="L97" s="1">
+        <v>72</v>
+      </c>
+      <c r="M97" s="1">
+        <v>81</v>
+      </c>
+      <c r="N97" s="1">
+        <v>32</v>
+      </c>
+      <c r="O97" s="1">
+        <v>75</v>
+      </c>
+      <c r="P97" s="1">
+        <v>81</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>32</v>
+      </c>
+      <c r="R97" s="1">
+        <v>76</v>
+      </c>
+      <c r="S97" s="1">
+        <v>81</v>
+      </c>
+      <c r="T97" s="1">
+        <v>32</v>
+      </c>
+      <c r="U97" s="1">
+        <v>78</v>
+      </c>
+      <c r="V97" s="1">
+        <v>81</v>
+      </c>
+      <c r="W97" s="1">
+        <v>32</v>
+      </c>
+      <c r="X97" s="1">
+        <v>82</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>81</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>83</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>86</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AF97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>84</v>
+      </c>
+      <c r="AH97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ97" s="1">
+        <v>71</v>
+      </c>
+      <c r="AK97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AL97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AM97" s="1">
+        <v>90</v>
+      </c>
+      <c r="AN97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AO97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AQ97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AR97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS97" s="1">
+        <v>85</v>
+      </c>
+      <c r="AT97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AU97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV97" s="1">
+        <v>88</v>
+      </c>
+      <c r="AW97" s="1">
+        <v>81</v>
+      </c>
+      <c r="AX97" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY97" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B98" s="1">
+        <v>42</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42</v>
+      </c>
+      <c r="D98" s="1">
+        <v>32</v>
+      </c>
+      <c r="E98" s="1">
+        <v>32</v>
+      </c>
+      <c r="F98" s="1">
+        <v>42</v>
+      </c>
+      <c r="G98" s="1">
+        <v>42</v>
+      </c>
+      <c r="H98" s="1">
+        <v>32</v>
+      </c>
+      <c r="I98" s="1">
+        <v>32</v>
+      </c>
+      <c r="J98" s="1">
+        <v>67</v>
+      </c>
+      <c r="K98" s="1">
+        <v>90</v>
+      </c>
+      <c r="L98" s="1">
+        <v>45</v>
+      </c>
+      <c r="M98" s="1">
+        <v>83</v>
+      </c>
+      <c r="N98" s="1">
+        <v>72</v>
+      </c>
+      <c r="O98" s="1">
+        <v>65</v>
+      </c>
+      <c r="P98" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>32</v>
+      </c>
+      <c r="R98" s="1">
+        <v>67</v>
+      </c>
+      <c r="S98" s="1">
+        <v>72</v>
+      </c>
+      <c r="T98" s="1">
+        <v>69</v>
+      </c>
+      <c r="U98" s="1">
+        <v>67</v>
+      </c>
+      <c r="V98" s="1">
+        <v>75</v>
+      </c>
+      <c r="W98" s="1">
+        <v>32</v>
+      </c>
+      <c r="X98" s="1">
+        <v>73</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>78</v>
+      </c>
+      <c r="Z98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>52</v>
+      </c>
+      <c r="AB98" s="1">
+        <v>53</v>
+      </c>
+      <c r="AC98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AD98" s="1">
+        <v>77</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>73</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>78</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>85</v>
+      </c>
+      <c r="AH98" s="1">
+        <v>84</v>
+      </c>
+      <c r="AI98" s="1">
+        <v>69</v>
+      </c>
+      <c r="AJ98" s="1">
+        <v>83</v>
+      </c>
+      <c r="AK98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>66</v>
+      </c>
+      <c r="AM98" s="1">
+        <v>69</v>
+      </c>
+      <c r="AN98" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO98" s="1">
+        <v>79</v>
+      </c>
+      <c r="AP98" s="1">
+        <v>82</v>
+      </c>
+      <c r="AQ98" s="1">
+        <v>69</v>
+      </c>
+      <c r="AR98" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS98" s="1">
+        <v>68</v>
+      </c>
+      <c r="AT98" s="1">
+        <v>69</v>
+      </c>
+      <c r="AU98" s="1">
+        <v>80</v>
+      </c>
+      <c r="AV98" s="1">
+        <v>65</v>
+      </c>
+      <c r="AW98" s="1">
+        <v>82</v>
+      </c>
+      <c r="AX98" s="1">
+        <v>84</v>
+      </c>
+      <c r="AY98" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B99" s="1">
+        <v>82</v>
+      </c>
+      <c r="C99" s="1">
+        <v>69</v>
+      </c>
+      <c r="D99" s="1">
+        <v>32</v>
+      </c>
+      <c r="E99" s="1">
+        <v>32</v>
+      </c>
+      <c r="F99" s="1">
+        <v>13</v>
+      </c>
+      <c r="G99" s="1">
+        <v>42</v>
+      </c>
+      <c r="H99" s="1">
+        <v>42</v>
+      </c>
+      <c r="I99" s="1">
+        <v>32</v>
+      </c>
+      <c r="J99" s="1">
+        <v>32</v>
+      </c>
+      <c r="K99" s="1">
+        <v>65</v>
+      </c>
+      <c r="L99" s="1">
+        <v>108</v>
+      </c>
+      <c r="M99" s="1">
+        <v>108</v>
+      </c>
+      <c r="N99" s="1">
+        <v>32</v>
+      </c>
+      <c r="O99" s="1">
+        <v>115</v>
+      </c>
+      <c r="P99" s="1">
+        <v>99</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>104</v>
+      </c>
+      <c r="R99" s="1">
+        <v>101</v>
+      </c>
+      <c r="S99" s="1">
+        <v>100</v>
+      </c>
+      <c r="T99" s="1">
+        <v>117</v>
+      </c>
+      <c r="U99" s="1">
+        <v>108</v>
+      </c>
+      <c r="V99" s="1">
+        <v>101</v>
+      </c>
+      <c r="W99" s="1">
+        <v>100</v>
+      </c>
+      <c r="X99" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>77</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>85</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AB99" s="1">
+        <v>111</v>
+      </c>
+      <c r="AC99" s="1">
+        <v>114</v>
+      </c>
+      <c r="AD99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>70</v>
+      </c>
+      <c r="AF99" s="1">
+        <v>77</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH99" s="1">
+        <v>102</v>
+      </c>
+      <c r="AI99" s="1">
+        <v>108</v>
+      </c>
+      <c r="AJ99" s="1">
+        <v>105</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>103</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>104</v>
+      </c>
+      <c r="AM99" s="1">
+        <v>116</v>
+      </c>
+      <c r="AN99" s="1">
+        <v>115</v>
+      </c>
+      <c r="AO99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP99" s="1">
+        <v>111</v>
+      </c>
+      <c r="AQ99" s="1">
+        <v>112</v>
+      </c>
+      <c r="AR99" s="1">
+        <v>101</v>
+      </c>
+      <c r="AS99" s="1">
+        <v>114</v>
+      </c>
+      <c r="AT99" s="1">
+        <v>97</v>
+      </c>
+      <c r="AU99" s="1">
+        <v>116</v>
+      </c>
+      <c r="AV99" s="1">
+        <v>101</v>
+      </c>
+      <c r="AW99" s="1">
+        <v>100</v>
+      </c>
+      <c r="AX99" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B100" s="1">
+        <v>121</v>
+      </c>
+      <c r="C100" s="1">
+        <v>32</v>
+      </c>
+      <c r="D100" s="1">
+        <v>77</v>
+      </c>
+      <c r="E100" s="1">
+        <v>85</v>
+      </c>
+      <c r="F100" s="1">
+        <v>32</v>
+      </c>
+      <c r="G100" s="1">
+        <v>111</v>
+      </c>
+      <c r="H100" s="1">
+        <v>114</v>
+      </c>
+      <c r="I100" s="1">
+        <v>32</v>
+      </c>
+      <c r="J100" s="1">
+        <v>70</v>
+      </c>
+      <c r="K100" s="1">
+        <v>77</v>
+      </c>
+      <c r="L100" s="1">
+        <v>32</v>
+      </c>
+      <c r="M100" s="1">
+        <v>97</v>
+      </c>
+      <c r="N100" s="1">
+        <v>114</v>
+      </c>
+      <c r="O100" s="1">
+        <v>101</v>
+      </c>
+      <c r="P100" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>34</v>
+      </c>
+      <c r="R100" s="1">
+        <v>69</v>
+      </c>
+      <c r="S100" s="1">
+        <v>97</v>
+      </c>
+      <c r="T100" s="1">
+        <v>115</v>
+      </c>
+      <c r="U100" s="1">
+        <v>116</v>
+      </c>
+      <c r="V100" s="1">
+        <v>101</v>
+      </c>
+      <c r="W100" s="1">
+        <v>114</v>
+      </c>
+      <c r="X100" s="1">
+        <v>110</v>
+      </c>
+      <c r="Y100" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z100" s="1">
+        <v>69</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>120</v>
+      </c>
+      <c r="AB100" s="1">
+        <v>112</v>
+      </c>
+      <c r="AC100" s="1">
+        <v>114</v>
+      </c>
+      <c r="AD100" s="1">
+        <v>101</v>
+      </c>
+      <c r="AE100" s="1">
+        <v>115</v>
+      </c>
+      <c r="AF100" s="1">
+        <v>115</v>
+      </c>
+      <c r="AG100" s="1">
+        <v>34</v>
+      </c>
+      <c r="AH100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AK100" s="1">
+        <v>42</v>
+      </c>
+      <c r="AL100" s="1">
+        <v>42</v>
+      </c>
+      <c r="AM100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AN100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AO100" s="1">
+        <v>72</v>
+      </c>
+      <c r="AP100" s="1">
+        <v>79</v>
+      </c>
+      <c r="AQ100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AR100" s="1">
+        <v>70</v>
+      </c>
+      <c r="AS100" s="1">
+        <v>76</v>
+      </c>
+      <c r="AT100" s="1">
+        <v>73</v>
+      </c>
+      <c r="AU100" s="1">
+        <v>71</v>
+      </c>
+      <c r="AV100" s="1">
+        <v>72</v>
+      </c>
+      <c r="AW100" s="1">
+        <v>84</v>
+      </c>
+      <c r="AX100" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY100" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="101" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B101" s="1">
+        <v>69</v>
+      </c>
+      <c r="C101" s="1">
+        <v>80</v>
+      </c>
+      <c r="D101" s="1">
+        <v>65</v>
+      </c>
+      <c r="E101" s="1">
+        <v>82</v>
+      </c>
+      <c r="F101" s="1">
+        <v>84</v>
+      </c>
+      <c r="G101" s="1">
+        <v>85</v>
+      </c>
+      <c r="H101" s="1">
+        <v>82</v>
+      </c>
+      <c r="I101" s="1">
+        <v>69</v>
+      </c>
+      <c r="J101" s="1">
+        <v>47</v>
+      </c>
+      <c r="K101" s="1">
+        <v>65</v>
+      </c>
+      <c r="L101" s="1">
+        <v>82</v>
+      </c>
+      <c r="M101" s="1">
+        <v>82</v>
+      </c>
+      <c r="N101" s="1">
+        <v>73</v>
+      </c>
+      <c r="O101" s="1">
+        <v>86</v>
+      </c>
+      <c r="P101" s="1">
+        <v>65</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>76</v>
+      </c>
+      <c r="R101" s="1">
+        <v>32</v>
+      </c>
+      <c r="S101" s="1">
+        <v>65</v>
+      </c>
+      <c r="T101" s="1">
+        <v>84</v>
+      </c>
+      <c r="U101" s="1">
+        <v>32</v>
+      </c>
+      <c r="V101" s="1">
+        <v>80</v>
+      </c>
+      <c r="W101" s="1">
+        <v>86</v>
+      </c>
+      <c r="X101" s="1">
+        <v>71</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>32</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>84</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>50</v>
+      </c>
+      <c r="AB101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC101" s="1">
+        <v>70</v>
+      </c>
+      <c r="AD101" s="1">
+        <v>82</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>79</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>77</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH101" s="1">
+        <v>49</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>56</v>
+      </c>
+      <c r="AJ101" s="1">
+        <v>68</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>69</v>
+      </c>
+      <c r="AL101" s="1">
+        <v>67</v>
+      </c>
+      <c r="AM101" s="1">
+        <v>49</v>
+      </c>
+      <c r="AN101" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO101" s="1">
+        <v>44</v>
+      </c>
+      <c r="AP101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AQ101" s="1">
+        <v>13</v>
+      </c>
+      <c r="AR101" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS101" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AU101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AV101" s="1">
+        <v>72</v>
+      </c>
+      <c r="AW101" s="1">
+        <v>79</v>
+      </c>
+      <c r="AX101" s="1">
+        <v>32</v>
+      </c>
+      <c r="AY101" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B102" s="1">
+        <v>86</v>
+      </c>
+      <c r="C102" s="1">
+        <v>71</v>
+      </c>
+      <c r="D102" s="1">
+        <v>32</v>
+      </c>
+      <c r="E102" s="1">
+        <v>67</v>
+      </c>
+      <c r="F102" s="1">
+        <v>72</v>
+      </c>
+      <c r="G102" s="1">
+        <v>69</v>
+      </c>
+      <c r="H102" s="1">
+        <v>67</v>
+      </c>
+      <c r="I102" s="1">
+        <v>75</v>
+      </c>
+      <c r="J102" s="1">
+        <v>32</v>
+      </c>
+      <c r="K102" s="1">
+        <v>73</v>
+      </c>
+      <c r="L102" s="1">
+        <v>78</v>
+      </c>
+      <c r="M102" s="1">
+        <v>32</v>
+      </c>
+      <c r="N102" s="1">
+        <v>52</v>
+      </c>
+      <c r="O102" s="1">
+        <v>53</v>
+      </c>
+      <c r="P102" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>77</v>
+      </c>
+      <c r="R102" s="1">
+        <v>73</v>
+      </c>
+      <c r="S102" s="1">
+        <v>78</v>
+      </c>
+      <c r="T102" s="1">
+        <v>85</v>
+      </c>
+      <c r="U102" s="1">
+        <v>84</v>
+      </c>
+      <c r="V102" s="1">
+        <v>69</v>
+      </c>
+      <c r="W102" s="1">
+        <v>83</v>
+      </c>
+      <c r="X102" s="1">
+        <v>32</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>66</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>69</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>70</v>
+      </c>
+      <c r="AB102" s="1">
+        <v>79</v>
+      </c>
+      <c r="AC102" s="1">
+        <v>82</v>
+      </c>
+      <c r="AD102" s="1">
+        <v>69</v>
+      </c>
+      <c r="AE102" s="1">
+        <v>32</v>
+      </c>
+      <c r="AF102" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG102" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH102" s="1">
+        <v>80</v>
+      </c>
+      <c r="AI102" s="1">
+        <v>65</v>
+      </c>
+      <c r="AJ102" s="1">
+        <v>82</v>
+      </c>
+      <c r="AK102" s="1">
+        <v>84</v>
+      </c>
+      <c r="AL102" s="1">
+        <v>85</v>
+      </c>
+      <c r="AM102" s="1">
+        <v>82</v>
+      </c>
+      <c r="AN102" s="1">
+        <v>69</v>
+      </c>
+      <c r="AO102" s="1">
+        <v>32</v>
+      </c>
+      <c r="AP102" s="1">
+        <v>13</v>
+      </c>
+      <c r="AQ102" s="1">
+        <v>30</v>
+      </c>
+      <c r="AR102" s="74">
+        <v>27</v>
+      </c>
+      <c r="AS102" s="74">
+        <v>98</v>
+      </c>
+      <c r="AT102" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B120" s="13">
+        <v>1</v>
+      </c>
+      <c r="C120" s="15">
+        <v>0</v>
+      </c>
+      <c r="D120" s="71">
+        <v>1</v>
+      </c>
+      <c r="E120" s="72">
         <v>18</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F120" s="13">
         <v>12</v>
       </c>
-      <c r="G81" s="1">
-        <v>0</v>
-      </c>
-      <c r="H81" s="1">
-        <v>0</v>
-      </c>
-      <c r="I81" s="1">
+      <c r="G120" s="14">
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>0</v>
+      </c>
+      <c r="I120" s="14">
         <v>1</v>
       </c>
-      <c r="J81" s="1">
+      <c r="J120" s="14">
         <v>140</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K120" s="14">
         <v>12</v>
       </c>
-      <c r="L81" s="1">
-        <v>0</v>
-      </c>
-      <c r="M81" s="1">
+      <c r="L120" s="14">
+        <v>0</v>
+      </c>
+      <c r="M120" s="73">
         <v>2</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N120" s="1">
         <v>60</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O120" s="1">
         <v>82</v>
       </c>
-      <c r="P81" s="1">
+      <c r="P120" s="1">
         <v>101</v>
       </c>
-      <c r="Q81" s="1">
+      <c r="Q120" s="1">
         <v>115</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R120" s="1">
         <v>112</v>
       </c>
-      <c r="S81" s="1">
+      <c r="S120" s="1">
         <v>111</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T120" s="1">
         <v>110</v>
       </c>
-      <c r="U81" s="1">
+      <c r="U120" s="1">
         <v>115</v>
       </c>
-      <c r="V81" s="1">
+      <c r="V120" s="1">
         <v>101</v>
       </c>
-      <c r="W81" s="1">
+      <c r="W120" s="1">
         <v>62</v>
       </c>
-      <c r="X81" s="1">
+      <c r="X120" s="1">
         <v>60</v>
       </c>
-      <c r="Y81" s="1">
+      <c r="Y120" s="1">
         <v>83</v>
       </c>
-      <c r="Z81" s="1">
+      <c r="Z120" s="1">
         <v>116</v>
       </c>
-      <c r="AA81" s="1">
+      <c r="AA120" s="1">
         <v>97</v>
       </c>
-      <c r="AB81" s="1">
+      <c r="AB120" s="1">
         <v>116</v>
       </c>
-      <c r="AC81" s="1">
+      <c r="AC120" s="1">
         <v>101</v>
       </c>
-      <c r="AD81" s="1">
+      <c r="AD120" s="1">
         <v>109</v>
       </c>
-      <c r="AE81" s="1">
+      <c r="AE120" s="1">
         <v>101</v>
       </c>
-      <c r="AF81" s="1">
+      <c r="AF120" s="1">
         <v>110</v>
       </c>
-      <c r="AG81" s="1">
+      <c r="AG120" s="1">
         <v>116</v>
       </c>
-      <c r="AH81" s="1">
+      <c r="AH120" s="1">
         <v>78</v>
       </c>
-      <c r="AI81" s="1">
+      <c r="AI120" s="1">
         <v>97</v>
       </c>
-      <c r="AJ81" s="1">
+      <c r="AJ120" s="1">
         <v>109</v>
       </c>
-      <c r="AK81" s="1">
+      <c r="AK120" s="1">
         <v>101</v>
       </c>
-      <c r="AL81" s="1">
+      <c r="AL120" s="1">
         <v>62</v>
       </c>
-      <c r="AM81" s="1">
+      <c r="AM120" s="1">
         <v>73</v>
       </c>
-      <c r="AN81" s="1">
+      <c r="AN120" s="1">
         <v>78</v>
       </c>
-      <c r="AO81" s="1">
+      <c r="AO120" s="1">
         <v>86</v>
       </c>
-      <c r="AP81" s="1">
+      <c r="AP120" s="1">
         <v>60</v>
       </c>
-      <c r="AQ81" s="1">
+      <c r="AQ120" s="1">
         <v>47</v>
       </c>
-      <c r="AR81" s="1">
+      <c r="AR120" s="1">
         <v>83</v>
       </c>
-      <c r="AS81" s="1">
+      <c r="AS120" s="1">
         <v>116</v>
       </c>
-      <c r="AT81" s="1">
+      <c r="AT120" s="1">
         <v>97</v>
       </c>
-      <c r="AU81" s="1">
+      <c r="AU120" s="1">
         <v>116</v>
       </c>
-      <c r="AV81" s="1">
+      <c r="AV120" s="1">
         <v>101</v>
       </c>
-      <c r="AW81" s="1">
+      <c r="AW120" s="1">
         <v>109</v>
       </c>
-      <c r="AX81" s="1">
+      <c r="AX120" s="1">
         <v>101</v>
       </c>
-      <c r="AY81" s="1">
+      <c r="AY120" s="1">
         <v>110</v>
       </c>
-      <c r="AZ81" s="1">
+    </row>
+    <row r="121" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B121" s="1">
         <v>116</v>
       </c>
-      <c r="BA81" s="1">
+      <c r="C121" s="1">
         <v>78</v>
       </c>
-      <c r="BB81" s="1">
+      <c r="D121" s="1">
         <v>97</v>
       </c>
-      <c r="BC81" s="1">
+      <c r="E121" s="1">
         <v>109</v>
       </c>
-      <c r="BD81" s="1">
+      <c r="F121" s="1">
         <v>101</v>
       </c>
-      <c r="BE81" s="1">
+      <c r="G121" s="1">
         <v>62</v>
       </c>
-      <c r="BF81" s="1">
+      <c r="H121" s="1">
         <v>60</v>
       </c>
-      <c r="BG81" s="1">
+      <c r="I121" s="1">
         <v>83</v>
       </c>
-      <c r="BH81" s="1">
+      <c r="J121" s="1">
         <v>101</v>
       </c>
-      <c r="BI81" s="1">
+      <c r="K121" s="1">
         <v>114</v>
       </c>
-      <c r="BJ81" s="1">
+      <c r="L121" s="1">
         <v>118</v>
       </c>
-      <c r="BK81" s="1">
+      <c r="M121" s="1">
         <v>105</v>
       </c>
-      <c r="BL81" s="1">
+      <c r="N121" s="1">
         <v>99</v>
       </c>
-      <c r="BM81" s="1">
+      <c r="O121" s="1">
         <v>101</v>
       </c>
-      <c r="BN81" s="1">
+      <c r="P121" s="1">
         <v>84</v>
       </c>
-      <c r="BO81" s="1">
+      <c r="Q121" s="1">
         <v>121</v>
       </c>
-      <c r="BP81" s="1">
+      <c r="R121" s="1">
         <v>112</v>
       </c>
-      <c r="BQ81" s="1">
+      <c r="S121" s="1">
         <v>101</v>
       </c>
-      <c r="BR81" s="1">
+      <c r="T121" s="1">
         <v>62</v>
       </c>
-      <c r="BS81" s="1">
+      <c r="U121" s="1">
         <v>84</v>
       </c>
-      <c r="BT81" s="1">
+      <c r="V121" s="1">
         <v>75</v>
       </c>
-      <c r="BU81" s="1">
+      <c r="W121" s="1">
         <v>84</v>
       </c>
-      <c r="BV81" s="1">
+      <c r="X121" s="1">
         <v>60</v>
       </c>
-      <c r="BW81" s="1">
+      <c r="Y121" s="1">
         <v>47</v>
       </c>
-      <c r="BX81" s="1">
+      <c r="Z121" s="1">
         <v>83</v>
       </c>
-      <c r="BY81" s="1">
+      <c r="AA121" s="1">
         <v>101</v>
       </c>
-      <c r="BZ81" s="1">
+      <c r="AB121" s="1">
         <v>114</v>
       </c>
-      <c r="CA81" s="1">
+      <c r="AC121" s="1">
         <v>118</v>
       </c>
-      <c r="CB81" s="1">
+      <c r="AD121" s="1">
         <v>105</v>
       </c>
-      <c r="CC81" s="1">
+      <c r="AE121" s="1">
         <v>99</v>
       </c>
-      <c r="CD81" s="1">
+      <c r="AF121" s="1">
         <v>101</v>
       </c>
-      <c r="CE81" s="1">
+      <c r="AG121" s="1">
         <v>84</v>
       </c>
-      <c r="CF81" s="1">
+      <c r="AH121" s="1">
         <v>121</v>
       </c>
-      <c r="CG81" s="1">
+      <c r="AI121" s="1">
         <v>112</v>
       </c>
-      <c r="CH81" s="1">
+      <c r="AJ121" s="1">
         <v>101</v>
       </c>
-      <c r="CI81" s="1">
+      <c r="AK121" s="1">
         <v>62</v>
       </c>
-      <c r="CJ81" s="1">
+      <c r="AL121" s="1">
         <v>60</v>
       </c>
-      <c r="CK81" s="1">
+      <c r="AM121" s="1">
         <v>83</v>
       </c>
-      <c r="CL81" s="1">
+      <c r="AN121" s="1">
         <v>101</v>
       </c>
-      <c r="CM81" s="1">
+      <c r="AO121" s="1">
         <v>114</v>
       </c>
-      <c r="CN81" s="1">
+      <c r="AP121" s="1">
         <v>105</v>
       </c>
-      <c r="CO81" s="1">
+      <c r="AQ121" s="1">
         <v>97</v>
       </c>
-      <c r="CP81" s="1">
+      <c r="AR121" s="1">
         <v>108</v>
       </c>
-      <c r="CQ81" s="1">
+      <c r="AS121" s="1">
         <v>78</v>
       </c>
-      <c r="CR81" s="1">
+      <c r="AT121" s="1">
         <v>111</v>
       </c>
-      <c r="CS81" s="1">
+      <c r="AU121" s="1">
         <v>62</v>
       </c>
-      <c r="CT81" s="1">
+      <c r="AV121" s="1">
         <v>49</v>
       </c>
-      <c r="CU81" s="1">
+      <c r="AW121" s="1">
         <v>60</v>
       </c>
-      <c r="CV81" s="1">
+      <c r="AX121" s="1">
         <v>47</v>
       </c>
-      <c r="CW81" s="1">
+      <c r="AY121" s="1">
         <v>83</v>
       </c>
-      <c r="CX81" s="1">
+    </row>
+    <row r="122" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B122" s="1">
         <v>101</v>
       </c>
-      <c r="CY81" s="1">
+      <c r="C122" s="1">
         <v>114</v>
       </c>
-      <c r="CZ81" s="1">
+      <c r="D122" s="1">
         <v>105</v>
       </c>
-      <c r="DA81" s="1">
+      <c r="E122" s="1">
         <v>97</v>
       </c>
-      <c r="DB81" s="1">
+      <c r="F122" s="1">
         <v>108</v>
       </c>
-      <c r="DC81" s="1">
+      <c r="G122" s="1">
         <v>78</v>
       </c>
-      <c r="DD81" s="1">
+      <c r="H122" s="1">
         <v>111</v>
       </c>
-      <c r="DE81" s="1">
+      <c r="I122" s="1">
         <v>62</v>
       </c>
-      <c r="DF81" s="1">
+      <c r="J122" s="1">
         <v>60</v>
       </c>
-      <c r="DG81" s="1">
+      <c r="K122" s="1">
         <v>69</v>
       </c>
-      <c r="DH81" s="1">
+      <c r="L122" s="1">
         <v>110</v>
       </c>
-      <c r="DI81" s="1">
+      <c r="M122" s="1">
         <v>99</v>
       </c>
-      <c r="DJ81" s="1">
+      <c r="N122" s="1">
         <v>114</v>
       </c>
-      <c r="DK81" s="1">
+      <c r="O122" s="1">
         <v>121</v>
       </c>
-      <c r="DL81" s="1">
+      <c r="P122" s="1">
         <v>112</v>
       </c>
-      <c r="DM81" s="1">
+      <c r="Q122" s="1">
         <v>116</v>
       </c>
-      <c r="DN81" s="1">
+      <c r="R122" s="1">
         <v>105</v>
       </c>
-      <c r="DO81" s="1">
+      <c r="S122" s="1">
         <v>111</v>
       </c>
-      <c r="DP81" s="1">
+      <c r="T122" s="1">
         <v>110</v>
       </c>
-      <c r="DQ81" s="1">
+      <c r="U122" s="1">
         <v>62</v>
       </c>
-      <c r="DR81" s="1">
+      <c r="V122" s="1">
         <v>89</v>
       </c>
-      <c r="DS81" s="1">
+      <c r="W122" s="1">
         <v>60</v>
       </c>
-      <c r="DT81" s="1">
+      <c r="X122" s="1">
         <v>47</v>
       </c>
-      <c r="DU81" s="1">
+      <c r="Y122" s="1">
         <v>69</v>
       </c>
-      <c r="DV81" s="1">
+      <c r="Z122" s="1">
         <v>110</v>
       </c>
-      <c r="DW81" s="1">
+      <c r="AA122" s="1">
         <v>99</v>
       </c>
-      <c r="DX81" s="1">
+      <c r="AB122" s="1">
         <v>114</v>
       </c>
-      <c r="DY81" s="1">
+      <c r="AC122" s="1">
         <v>121</v>
       </c>
-      <c r="DZ81" s="1">
+      <c r="AD122" s="1">
         <v>112</v>
       </c>
-      <c r="EA81" s="1">
+      <c r="AE122" s="1">
         <v>116</v>
       </c>
-      <c r="EB81" s="1">
+      <c r="AF122" s="1">
         <v>105</v>
       </c>
-      <c r="EC81" s="1">
+      <c r="AG122" s="1">
         <v>111</v>
       </c>
-      <c r="ED81" s="1">
+      <c r="AH122" s="1">
         <v>110</v>
       </c>
-      <c r="EE81" s="1">
+      <c r="AI122" s="1">
         <v>62</v>
       </c>
-      <c r="EF81" s="1">
+      <c r="AJ122" s="1">
         <v>60</v>
       </c>
-      <c r="EG81" s="1">
+      <c r="AK122" s="1">
         <v>77</v>
       </c>
-      <c r="EH81" s="1">
+      <c r="AL122" s="1">
         <v>101</v>
       </c>
-      <c r="EI81" s="1">
+      <c r="AM122" s="1">
         <v>116</v>
       </c>
-      <c r="EJ81" s="1">
+      <c r="AN122" s="1">
         <v>104</v>
       </c>
-      <c r="EK81" s="1">
+      <c r="AO122" s="1">
         <v>111</v>
       </c>
-      <c r="EL81" s="1">
+      <c r="AP122" s="1">
         <v>100</v>
       </c>
-      <c r="EM81" s="1">
+      <c r="AQ122" s="1">
         <v>62</v>
       </c>
-      <c r="EN81" s="1">
+      <c r="AR122" s="1">
         <v>54</v>
       </c>
-      <c r="EO81" s="1">
+      <c r="AS122" s="1">
         <v>60</v>
       </c>
-      <c r="EP81" s="1">
+      <c r="AT122" s="1">
         <v>47</v>
       </c>
-      <c r="EQ81" s="1">
+      <c r="AU122" s="1">
         <v>77</v>
       </c>
-      <c r="ER81" s="1">
+      <c r="AV122" s="1">
         <v>101</v>
       </c>
-      <c r="ES81" s="1">
+      <c r="AW122" s="1">
         <v>116</v>
       </c>
-      <c r="ET81" s="1">
+      <c r="AX122" s="1">
         <v>104</v>
       </c>
-      <c r="EU81" s="1">
+      <c r="AY122" s="1">
         <v>111</v>
       </c>
-      <c r="EV81" s="1">
+    </row>
+    <row r="123" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B123" s="1">
         <v>100</v>
       </c>
-      <c r="EW81" s="1">
+      <c r="C123" s="1">
         <v>62</v>
       </c>
-      <c r="EX81" s="1">
+      <c r="D123" s="1">
         <v>60</v>
       </c>
-      <c r="EY81" s="1">
+      <c r="E123" s="1">
         <v>70</v>
       </c>
-      <c r="EZ81" s="1">
+      <c r="F123" s="1">
         <v>108</v>
       </c>
-      <c r="FA81" s="1">
+      <c r="G123" s="1">
         <v>97</v>
       </c>
-      <c r="FB81" s="1">
+      <c r="H123" s="1">
         <v>103</v>
       </c>
-      <c r="FC81" s="1">
+      <c r="I123" s="1">
         <v>62</v>
       </c>
-      <c r="FD81" s="1">
+      <c r="J123" s="1">
         <v>69</v>
       </c>
-      <c r="FE81" s="1">
+      <c r="K123" s="1">
         <v>60</v>
       </c>
-      <c r="FF81" s="1">
+      <c r="L123" s="1">
         <v>47</v>
       </c>
-      <c r="FG81" s="1">
+      <c r="M123" s="1">
         <v>70</v>
       </c>
-      <c r="FH81" s="1">
+      <c r="N123" s="1">
         <v>108</v>
       </c>
-      <c r="FI81" s="1">
+      <c r="O123" s="1">
         <v>97</v>
       </c>
-      <c r="FJ81" s="1">
+      <c r="P123" s="1">
         <v>103</v>
       </c>
-      <c r="FK81" s="1">
+      <c r="Q123" s="1">
         <v>62</v>
       </c>
-      <c r="FL81" s="1">
+      <c r="R123" s="1">
         <v>60</v>
       </c>
-      <c r="FM81" s="1">
+      <c r="S123" s="1">
         <v>69</v>
       </c>
-      <c r="FN81" s="1">
+      <c r="T123" s="1">
         <v>114</v>
       </c>
-      <c r="FO81" s="1">
+      <c r="U123" s="1">
         <v>114</v>
       </c>
-      <c r="FP81" s="1">
+      <c r="V123" s="1">
         <v>111</v>
       </c>
-      <c r="FQ81" s="1">
+      <c r="W123" s="1">
         <v>114</v>
       </c>
-      <c r="FR81" s="1">
+      <c r="X123" s="1">
         <v>62</v>
       </c>
-      <c r="FS81" s="1">
+      <c r="Y123" s="1">
         <v>60</v>
       </c>
-      <c r="FT81" s="1">
+      <c r="Z123" s="1">
         <v>69</v>
       </c>
-      <c r="FU81" s="1">
+      <c r="AA123" s="1">
         <v>114</v>
       </c>
-      <c r="FV81" s="1">
+      <c r="AB123" s="1">
         <v>114</v>
       </c>
-      <c r="FW81" s="1">
+      <c r="AC123" s="1">
         <v>111</v>
       </c>
-      <c r="FX81" s="1">
+      <c r="AD123" s="1">
         <v>114</v>
       </c>
-      <c r="FY81" s="1">
+      <c r="AE123" s="1">
         <v>82</v>
       </c>
-      <c r="FZ81" s="1">
+      <c r="AF123" s="1">
         <v>101</v>
       </c>
-      <c r="GA81" s="1">
+      <c r="AG123" s="1">
         <v>97</v>
       </c>
-      <c r="GB81" s="1">
+      <c r="AH123" s="1">
         <v>115</v>
       </c>
-      <c r="GC81" s="1">
+      <c r="AI123" s="1">
         <v>111</v>
       </c>
-      <c r="GD81" s="1">
+      <c r="AJ123" s="1">
         <v>110</v>
       </c>
-      <c r="GE81" s="1">
+      <c r="AK123" s="1">
         <v>62</v>
       </c>
-      <c r="GF81" s="1">
+      <c r="AL123" s="1">
         <v>196</v>
       </c>
-      <c r="GG81" s="1">
+      <c r="AM123" s="1">
         <v>250</v>
       </c>
-      <c r="GH81" s="1">
+      <c r="AN123" s="1">
         <v>206</v>
       </c>
-      <c r="GI81" s="1">
+      <c r="AO123" s="1">
         <v>222</v>
       </c>
-      <c r="GJ81" s="1">
+      <c r="AP123" s="1">
         <v>200</v>
       </c>
-      <c r="GK81" s="1">
+      <c r="AQ123" s="1">
         <v>168</v>
       </c>
-      <c r="GL81" s="1">
+      <c r="AR123" s="1">
         <v>202</v>
       </c>
-      <c r="GM81" s="1">
+      <c r="AS123" s="1">
         <v>185</v>
       </c>
-      <c r="GN81" s="1">
+      <c r="AT123" s="1">
         <v>211</v>
       </c>
-      <c r="GO81" s="1">
+      <c r="AU123" s="1">
         <v>195</v>
       </c>
-      <c r="GP81" s="1">
+      <c r="AV123" s="1">
         <v>184</v>
       </c>
-      <c r="GQ81" s="1">
+      <c r="AW123" s="1">
         <v>195</v>
       </c>
-      <c r="GR81" s="1">
+      <c r="AX123" s="1">
         <v>183</v>
       </c>
-      <c r="GS81" s="1">
+      <c r="AY123" s="1">
         <v>162</v>
       </c>
-      <c r="GT81" s="1">
+    </row>
+    <row r="124" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B124" s="1">
         <v>198</v>
       </c>
-      <c r="GU81" s="1">
+      <c r="C124" s="1">
         <v>177</v>
       </c>
-      <c r="GV81" s="1">
+      <c r="D124" s="1">
         <v>163</v>
       </c>
-      <c r="GW81" s="1">
+      <c r="E124" s="1">
         <v>172</v>
       </c>
-      <c r="GX81" s="1">
+      <c r="F124" s="1">
         <v>199</v>
       </c>
-      <c r="GY81" s="1">
+      <c r="G124" s="1">
         <v>235</v>
       </c>
-      <c r="GZ81" s="1">
+      <c r="H124" s="1">
         <v>215</v>
       </c>
-      <c r="HA81" s="1">
+      <c r="I124" s="1">
         <v>208</v>
       </c>
-      <c r="HB81" s="1">
+      <c r="J124" s="1">
         <v>207</v>
       </c>
-      <c r="HC81" s="1">
+      <c r="K124" s="1">
         <v>184</v>
       </c>
-      <c r="HD81" s="1">
+      <c r="L124" s="1">
         <v>200</v>
       </c>
-      <c r="HE81" s="1">
+      <c r="M124" s="1">
         <v>183</v>
       </c>
-      <c r="HF81" s="1">
+      <c r="N124" s="1">
         <v>200</v>
       </c>
-      <c r="HG81" s="1">
+      <c r="O124" s="1">
         <v>207</v>
       </c>
-      <c r="HH81" s="1">
+      <c r="P124" s="1">
         <v>163</v>
       </c>
-      <c r="HI81" s="1">
+      <c r="Q124" s="1">
         <v>161</v>
       </c>
-      <c r="HJ81" s="1">
+      <c r="R124" s="1">
         <v>60</v>
       </c>
-      <c r="HK81" s="1">
+      <c r="S124" s="1">
         <v>47</v>
       </c>
-      <c r="HL81" s="1">
+      <c r="T124" s="1">
         <v>69</v>
       </c>
-      <c r="HM81" s="1">
+      <c r="U124" s="1">
         <v>114</v>
       </c>
-      <c r="HN81" s="1">
+      <c r="V124" s="1">
         <v>114</v>
       </c>
-      <c r="HO81" s="1">
+      <c r="W124" s="1">
         <v>111</v>
       </c>
-      <c r="HP81" s="1">
+      <c r="X124" s="1">
         <v>114</v>
       </c>
-      <c r="HQ81" s="1">
+      <c r="Y124" s="1">
         <v>82</v>
       </c>
-      <c r="HR81" s="1">
+      <c r="Z124" s="1">
         <v>101</v>
       </c>
-      <c r="HS81" s="1">
+      <c r="AA124" s="1">
         <v>97</v>
       </c>
-      <c r="HT81" s="1">
+      <c r="AB124" s="1">
         <v>115</v>
       </c>
-      <c r="HU81" s="1">
+      <c r="AC124" s="1">
         <v>111</v>
       </c>
-      <c r="HV81" s="1">
+      <c r="AD124" s="1">
         <v>110</v>
       </c>
-      <c r="HW81" s="1">
+      <c r="AE124" s="1">
         <v>62</v>
       </c>
-      <c r="HX81" s="1">
+      <c r="AF124" s="1">
         <v>60</v>
       </c>
-      <c r="HY81" s="1">
+      <c r="AG124" s="1">
         <v>67</v>
       </c>
-      <c r="HZ81" s="1">
+      <c r="AH124" s="1">
         <v>111</v>
       </c>
-      <c r="IA81" s="1">
+      <c r="AI124" s="1">
         <v>109</v>
       </c>
-      <c r="IB81" s="1">
+      <c r="AJ124" s="1">
         <v>109</v>
       </c>
-      <c r="IC81" s="1">
+      <c r="AK124" s="1">
         <v>97</v>
       </c>
-      <c r="ID81" s="1">
+      <c r="AL124" s="1">
         <v>110</v>
       </c>
-      <c r="IE81" s="1">
+      <c r="AM124" s="1">
         <v>100</v>
       </c>
-      <c r="IF81" s="1">
+      <c r="AN124" s="1">
         <v>62</v>
       </c>
-      <c r="IG81" s="1">
+      <c r="AO124" s="1">
         <v>112</v>
       </c>
-      <c r="IH81" s="1">
+      <c r="AP124" s="1">
         <v>114</v>
       </c>
-      <c r="II81" s="1">
+      <c r="AQ124" s="1">
         <v>105</v>
       </c>
-      <c r="IJ81" s="1">
+      <c r="AR124" s="1">
         <v>110</v>
       </c>
-      <c r="IK81" s="1">
+      <c r="AS124" s="1">
         <v>116</v>
       </c>
-      <c r="IL81" s="1">
+      <c r="AT124" s="1">
         <v>60</v>
       </c>
-      <c r="IM81" s="1">
+      <c r="AU124" s="1">
         <v>47</v>
       </c>
-      <c r="IN81" s="1">
+      <c r="AV124" s="1">
         <v>67</v>
       </c>
-      <c r="IO81" s="1">
+      <c r="AW124" s="1">
         <v>111</v>
       </c>
-      <c r="IP81" s="1">
+      <c r="AX124" s="1">
         <v>109</v>
       </c>
-      <c r="IQ81" s="1">
+      <c r="AY124" s="1">
         <v>109</v>
       </c>
-      <c r="IR81" s="1">
+    </row>
+    <row r="125" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B125" s="1">
         <v>97</v>
       </c>
-      <c r="IS81" s="1">
+      <c r="C125" s="1">
         <v>110</v>
       </c>
-      <c r="IT81" s="1">
+      <c r="D125" s="1">
         <v>100</v>
       </c>
-      <c r="IU81" s="1">
+      <c r="E125" s="1">
         <v>62</v>
       </c>
-      <c r="IV81" s="1">
+      <c r="F125" s="1">
         <v>60</v>
       </c>
-      <c r="IW81" s="1">
+      <c r="G125" s="1">
         <v>47</v>
       </c>
-      <c r="IX81" s="1">
+      <c r="H125" s="1">
         <v>69</v>
       </c>
-      <c r="IY81" s="1">
+      <c r="I125" s="1">
         <v>114</v>
       </c>
-      <c r="IZ81" s="1">
+      <c r="J125" s="1">
         <v>114</v>
       </c>
-      <c r="JA81" s="1">
+      <c r="K125" s="1">
         <v>111</v>
       </c>
-      <c r="JB81" s="1">
+      <c r="L125" s="1">
         <v>114</v>
       </c>
-      <c r="JC81" s="1">
+      <c r="M125" s="1">
         <v>62</v>
       </c>
-      <c r="JD81" s="1">
+      <c r="N125" s="1">
         <v>60</v>
       </c>
-      <c r="JE81" s="1">
+      <c r="O125" s="1">
         <v>47</v>
       </c>
-      <c r="JF81" s="1">
+      <c r="P125" s="1">
         <v>82</v>
       </c>
-      <c r="JG81" s="1">
+      <c r="Q125" s="1">
         <v>101</v>
       </c>
-      <c r="JH81" s="1">
+      <c r="R125" s="1">
         <v>115</v>
       </c>
-      <c r="JI81" s="1">
+      <c r="S125" s="1">
         <v>112</v>
       </c>
-      <c r="JJ81" s="1">
+      <c r="T125" s="1">
         <v>111</v>
       </c>
-      <c r="JK81" s="1">
+      <c r="U125" s="1">
         <v>110</v>
       </c>
-      <c r="JL81" s="1">
+      <c r="V125" s="1">
         <v>115</v>
       </c>
-      <c r="JM81" s="1">
+      <c r="W125" s="1">
         <v>101</v>
       </c>
-      <c r="JN81" s="1">
+      <c r="X125" s="1">
         <v>62</v>
       </c>
-      <c r="JO81" s="1">
+      <c r="Y125" s="74">
         <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B127" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="128" spans="2:51" x14ac:dyDescent="0.15">
+      <c r="B128" s="13">
+        <v>1</v>
+      </c>
+      <c r="C128" s="15">
+        <v>0</v>
+      </c>
+      <c r="D128" s="13">
+        <v>2</v>
+      </c>
+      <c r="E128" s="15">
+        <v>104</v>
+      </c>
+      <c r="F128" s="13">
+        <v>41</v>
+      </c>
+      <c r="G128" s="14">
+        <v>0</v>
+      </c>
+      <c r="H128" s="14">
+        <v>0</v>
+      </c>
+      <c r="I128" s="14">
+        <v>1</v>
+      </c>
+      <c r="J128" s="14">
+        <v>170</v>
+      </c>
+      <c r="K128" s="14">
+        <v>42</v>
+      </c>
+      <c r="L128" s="14">
+        <v>0</v>
+      </c>
+      <c r="M128" s="15">
+        <v>2</v>
+      </c>
+      <c r="N128" s="1">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>0</v>
+      </c>
+      <c r="P128" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>0</v>
+      </c>
+      <c r="R128" s="1">
+        <v>0</v>
+      </c>
+      <c r="S128" s="1">
+        <v>0</v>
+      </c>
+      <c r="T128" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7524,16 +10777,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -7625,7 +10878,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -7648,7 +10901,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -7665,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -7692,16 +10945,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FF2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:FF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="FF1" sqref="A1:FF1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:162" ht="14.25">
+    <row r="1" spans="1:162" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -8189,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:162" ht="14.25">
+    <row r="2" spans="1:162" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8675,6 +11928,2653 @@
       </c>
       <c r="FF2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:162" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AFM2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AEX1" workbookViewId="0">
+      <selection activeCell="AFM2" sqref="A2:AFM2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:845" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>29</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>40</v>
+      </c>
+      <c r="J1">
+        <v>81</v>
+      </c>
+      <c r="K1">
+        <v>112</v>
+      </c>
+      <c r="L1">
+        <v>2</v>
+      </c>
+      <c r="M1">
+        <v>27</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>32</v>
+      </c>
+      <c r="P1">
+        <v>32</v>
+      </c>
+      <c r="Q1">
+        <v>0</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>30</v>
+      </c>
+      <c r="T1">
+        <v>97</v>
+      </c>
+      <c r="U1">
+        <v>118</v>
+      </c>
+      <c r="V1">
+        <v>115</v>
+      </c>
+      <c r="W1">
+        <v>104</v>
+      </c>
+      <c r="X1">
+        <v>97</v>
+      </c>
+      <c r="Y1">
+        <v>99</v>
+      </c>
+      <c r="Z1">
+        <v>103</v>
+      </c>
+      <c r="AA1">
+        <v>111</v>
+      </c>
+      <c r="AB1">
+        <v>32</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:845" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>77</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>81</v>
+      </c>
+      <c r="K2">
+        <v>112</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>27</v>
+      </c>
+      <c r="N2">
+        <v>11</v>
+      </c>
+      <c r="O2">
+        <v>33</v>
+      </c>
+      <c r="P2">
+        <v>32</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>27</v>
+      </c>
+      <c r="S2">
+        <v>77</v>
+      </c>
+      <c r="T2">
+        <v>32</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>53</v>
+      </c>
+      <c r="W2">
+        <v>83</v>
+      </c>
+      <c r="X2">
+        <v>69</v>
+      </c>
+      <c r="Y2">
+        <v>80</v>
+      </c>
+      <c r="Z2">
+        <v>40</v>
+      </c>
+      <c r="AA2">
+        <v>87</v>
+      </c>
+      <c r="AB2">
+        <v>69</v>
+      </c>
+      <c r="AC2">
+        <v>68</v>
+      </c>
+      <c r="AD2">
+        <v>41</v>
+      </c>
+      <c r="AE2">
+        <v>32</v>
+      </c>
+      <c r="AF2">
+        <v>83</v>
+      </c>
+      <c r="AG2">
+        <v>72</v>
+      </c>
+      <c r="AH2">
+        <v>65</v>
+      </c>
+      <c r="AI2">
+        <v>67</v>
+      </c>
+      <c r="AJ2">
+        <v>71</v>
+      </c>
+      <c r="AK2">
+        <v>79</v>
+      </c>
+      <c r="AL2">
+        <v>32</v>
+      </c>
+      <c r="AM2">
+        <v>32</v>
+      </c>
+      <c r="AN2">
+        <v>13</v>
+      </c>
+      <c r="AO2">
+        <v>49</v>
+      </c>
+      <c r="AP2">
+        <v>32</v>
+      </c>
+      <c r="AQ2">
+        <v>32</v>
+      </c>
+      <c r="AR2">
+        <v>32</v>
+      </c>
+      <c r="AS2">
+        <v>77</v>
+      </c>
+      <c r="AT2">
+        <v>85</v>
+      </c>
+      <c r="AU2">
+        <v>53</v>
+      </c>
+      <c r="AV2">
+        <v>51</v>
+      </c>
+      <c r="AW2">
+        <v>57</v>
+      </c>
+      <c r="AX2">
+        <v>53</v>
+      </c>
+      <c r="AY2">
+        <v>32</v>
+      </c>
+      <c r="AZ2">
+        <v>32</v>
+      </c>
+      <c r="BA2">
+        <v>83</v>
+      </c>
+      <c r="BB2">
+        <v>72</v>
+      </c>
+      <c r="BC2">
+        <v>65</v>
+      </c>
+      <c r="BD2">
+        <v>67</v>
+      </c>
+      <c r="BE2">
+        <v>71</v>
+      </c>
+      <c r="BF2">
+        <v>79</v>
+      </c>
+      <c r="BG2">
+        <v>32</v>
+      </c>
+      <c r="BH2">
+        <v>48</v>
+      </c>
+      <c r="BI2">
+        <v>56</v>
+      </c>
+      <c r="BJ2">
+        <v>48</v>
+      </c>
+      <c r="BK2">
+        <v>53</v>
+      </c>
+      <c r="BL2">
+        <v>32</v>
+      </c>
+      <c r="BM2">
+        <v>32</v>
+      </c>
+      <c r="BN2">
+        <v>32</v>
+      </c>
+      <c r="BO2">
+        <v>48</v>
+      </c>
+      <c r="BP2">
+        <v>57</v>
+      </c>
+      <c r="BQ2">
+        <v>52</v>
+      </c>
+      <c r="BR2">
+        <v>53</v>
+      </c>
+      <c r="BS2">
+        <v>32</v>
+      </c>
+      <c r="BT2">
+        <v>32</v>
+      </c>
+      <c r="BU2">
+        <v>32</v>
+      </c>
+      <c r="BV2">
+        <v>51</v>
+      </c>
+      <c r="BW2">
+        <v>50</v>
+      </c>
+      <c r="BX2">
+        <v>51</v>
+      </c>
+      <c r="BY2">
+        <v>32</v>
+      </c>
+      <c r="BZ2">
+        <v>48</v>
+      </c>
+      <c r="CA2">
+        <v>94</v>
+      </c>
+      <c r="CB2">
+        <v>83</v>
+      </c>
+      <c r="CC2">
+        <v>32</v>
+      </c>
+      <c r="CD2">
+        <v>32</v>
+      </c>
+      <c r="CE2">
+        <v>32</v>
+      </c>
+      <c r="CF2">
+        <v>32</v>
+      </c>
+      <c r="CG2">
+        <v>32</v>
+      </c>
+      <c r="CH2">
+        <v>32</v>
+      </c>
+      <c r="CI2">
+        <v>32</v>
+      </c>
+      <c r="CJ2">
+        <v>32</v>
+      </c>
+      <c r="CK2">
+        <v>32</v>
+      </c>
+      <c r="CL2">
+        <v>69</v>
+      </c>
+      <c r="CM2">
+        <v>70</v>
+      </c>
+      <c r="CN2">
+        <v>65</v>
+      </c>
+      <c r="CO2">
+        <v>32</v>
+      </c>
+      <c r="CP2">
+        <v>80</v>
+      </c>
+      <c r="CQ2">
+        <v>81</v>
+      </c>
+      <c r="CR2">
+        <v>32</v>
+      </c>
+      <c r="CS2">
+        <v>65</v>
+      </c>
+      <c r="CT2">
+        <v>83</v>
+      </c>
+      <c r="CU2">
+        <v>32</v>
+      </c>
+      <c r="CV2">
+        <v>89</v>
+      </c>
+      <c r="CW2">
+        <v>65</v>
+      </c>
+      <c r="CX2">
+        <v>32</v>
+      </c>
+      <c r="CY2">
+        <v>66</v>
+      </c>
+      <c r="CZ2">
+        <v>81</v>
+      </c>
+      <c r="DA2">
+        <v>60</v>
+      </c>
+      <c r="DB2">
+        <v>84</v>
+      </c>
+      <c r="DC2">
+        <v>50</v>
+      </c>
+      <c r="DD2">
+        <v>45</v>
+      </c>
+      <c r="DE2">
+        <v>45</v>
+      </c>
+      <c r="DF2">
+        <v>62</v>
+      </c>
+      <c r="DG2">
+        <v>32</v>
+      </c>
+      <c r="DH2">
+        <v>32</v>
+      </c>
+      <c r="DI2">
+        <v>13</v>
+      </c>
+      <c r="DJ2">
+        <v>32</v>
+      </c>
+      <c r="DK2">
+        <v>32</v>
+      </c>
+      <c r="DL2">
+        <v>32</v>
+      </c>
+      <c r="DM2">
+        <v>32</v>
+      </c>
+      <c r="DN2">
+        <v>32</v>
+      </c>
+      <c r="DO2">
+        <v>32</v>
+      </c>
+      <c r="DP2">
+        <v>32</v>
+      </c>
+      <c r="DQ2">
+        <v>32</v>
+      </c>
+      <c r="DR2">
+        <v>32</v>
+      </c>
+      <c r="DS2">
+        <v>32</v>
+      </c>
+      <c r="DT2">
+        <v>32</v>
+      </c>
+      <c r="DU2">
+        <v>32</v>
+      </c>
+      <c r="DV2">
+        <v>32</v>
+      </c>
+      <c r="DW2">
+        <v>32</v>
+      </c>
+      <c r="DX2">
+        <v>32</v>
+      </c>
+      <c r="DY2">
+        <v>32</v>
+      </c>
+      <c r="DZ2">
+        <v>32</v>
+      </c>
+      <c r="EA2">
+        <v>32</v>
+      </c>
+      <c r="EB2">
+        <v>32</v>
+      </c>
+      <c r="EC2">
+        <v>77</v>
+      </c>
+      <c r="ED2">
+        <v>81</v>
+      </c>
+      <c r="EE2">
+        <v>32</v>
+      </c>
+      <c r="EF2">
+        <v>69</v>
+      </c>
+      <c r="EG2">
+        <v>81</v>
+      </c>
+      <c r="EH2">
+        <v>32</v>
+      </c>
+      <c r="EI2">
+        <v>72</v>
+      </c>
+      <c r="EJ2">
+        <v>81</v>
+      </c>
+      <c r="EK2">
+        <v>32</v>
+      </c>
+      <c r="EL2">
+        <v>75</v>
+      </c>
+      <c r="EM2">
+        <v>81</v>
+      </c>
+      <c r="EN2">
+        <v>32</v>
+      </c>
+      <c r="EO2">
+        <v>76</v>
+      </c>
+      <c r="EP2">
+        <v>81</v>
+      </c>
+      <c r="EQ2">
+        <v>32</v>
+      </c>
+      <c r="ER2">
+        <v>78</v>
+      </c>
+      <c r="ES2">
+        <v>81</v>
+      </c>
+      <c r="ET2">
+        <v>32</v>
+      </c>
+      <c r="EU2">
+        <v>82</v>
+      </c>
+      <c r="EV2">
+        <v>81</v>
+      </c>
+      <c r="EW2">
+        <v>32</v>
+      </c>
+      <c r="EX2">
+        <v>83</v>
+      </c>
+      <c r="EY2">
+        <v>81</v>
+      </c>
+      <c r="EZ2">
+        <v>32</v>
+      </c>
+      <c r="FA2">
+        <v>86</v>
+      </c>
+      <c r="FB2">
+        <v>81</v>
+      </c>
+      <c r="FC2">
+        <v>32</v>
+      </c>
+      <c r="FD2">
+        <v>84</v>
+      </c>
+      <c r="FE2">
+        <v>81</v>
+      </c>
+      <c r="FF2">
+        <v>32</v>
+      </c>
+      <c r="FG2">
+        <v>71</v>
+      </c>
+      <c r="FH2">
+        <v>81</v>
+      </c>
+      <c r="FI2">
+        <v>32</v>
+      </c>
+      <c r="FJ2">
+        <v>90</v>
+      </c>
+      <c r="FK2">
+        <v>81</v>
+      </c>
+      <c r="FL2">
+        <v>32</v>
+      </c>
+      <c r="FM2">
+        <v>81</v>
+      </c>
+      <c r="FN2">
+        <v>81</v>
+      </c>
+      <c r="FO2">
+        <v>32</v>
+      </c>
+      <c r="FP2">
+        <v>85</v>
+      </c>
+      <c r="FQ2">
+        <v>81</v>
+      </c>
+      <c r="FR2">
+        <v>32</v>
+      </c>
+      <c r="FS2">
+        <v>88</v>
+      </c>
+      <c r="FT2">
+        <v>81</v>
+      </c>
+      <c r="FU2">
+        <v>32</v>
+      </c>
+      <c r="FV2">
+        <v>13</v>
+      </c>
+      <c r="FW2">
+        <v>50</v>
+      </c>
+      <c r="FX2">
+        <v>32</v>
+      </c>
+      <c r="FY2">
+        <v>32</v>
+      </c>
+      <c r="FZ2">
+        <v>32</v>
+      </c>
+      <c r="GA2">
+        <v>77</v>
+      </c>
+      <c r="GB2">
+        <v>85</v>
+      </c>
+      <c r="GC2">
+        <v>53</v>
+      </c>
+      <c r="GD2">
+        <v>52</v>
+      </c>
+      <c r="GE2">
+        <v>48</v>
+      </c>
+      <c r="GF2">
+        <v>32</v>
+      </c>
+      <c r="GG2">
+        <v>32</v>
+      </c>
+      <c r="GH2">
+        <v>32</v>
+      </c>
+      <c r="GI2">
+        <v>80</v>
+      </c>
+      <c r="GJ2">
+        <v>86</v>
+      </c>
+      <c r="GK2">
+        <v>71</v>
+      </c>
+      <c r="GL2">
+        <v>67</v>
+      </c>
+      <c r="GM2">
+        <v>71</v>
+      </c>
+      <c r="GN2">
+        <v>79</v>
+      </c>
+      <c r="GO2">
+        <v>32</v>
+      </c>
+      <c r="GP2">
+        <v>48</v>
+      </c>
+      <c r="GQ2">
+        <v>56</v>
+      </c>
+      <c r="GR2">
+        <v>52</v>
+      </c>
+      <c r="GS2">
+        <v>53</v>
+      </c>
+      <c r="GT2">
+        <v>32</v>
+      </c>
+      <c r="GU2">
+        <v>32</v>
+      </c>
+      <c r="GV2">
+        <v>32</v>
+      </c>
+      <c r="GW2">
+        <v>49</v>
+      </c>
+      <c r="GX2">
+        <v>48</v>
+      </c>
+      <c r="GY2">
+        <v>52</v>
+      </c>
+      <c r="GZ2">
+        <v>48</v>
+      </c>
+      <c r="HA2">
+        <v>32</v>
+      </c>
+      <c r="HB2">
+        <v>32</v>
+      </c>
+      <c r="HC2">
+        <v>32</v>
+      </c>
+      <c r="HD2">
+        <v>51</v>
+      </c>
+      <c r="HE2">
+        <v>50</v>
+      </c>
+      <c r="HF2">
+        <v>48</v>
+      </c>
+      <c r="HG2">
+        <v>32</v>
+      </c>
+      <c r="HH2">
+        <v>48</v>
+      </c>
+      <c r="HI2">
+        <v>94</v>
+      </c>
+      <c r="HJ2">
+        <v>83</v>
+      </c>
+      <c r="HK2">
+        <v>32</v>
+      </c>
+      <c r="HL2">
+        <v>32</v>
+      </c>
+      <c r="HM2">
+        <v>32</v>
+      </c>
+      <c r="HN2">
+        <v>32</v>
+      </c>
+      <c r="HO2">
+        <v>32</v>
+      </c>
+      <c r="HP2">
+        <v>32</v>
+      </c>
+      <c r="HQ2">
+        <v>32</v>
+      </c>
+      <c r="HR2">
+        <v>32</v>
+      </c>
+      <c r="HS2">
+        <v>32</v>
+      </c>
+      <c r="HT2">
+        <v>69</v>
+      </c>
+      <c r="HU2">
+        <v>74</v>
+      </c>
+      <c r="HV2">
+        <v>54</v>
+      </c>
+      <c r="HW2">
+        <v>32</v>
+      </c>
+      <c r="HX2">
+        <v>67</v>
+      </c>
+      <c r="HY2">
+        <v>81</v>
+      </c>
+      <c r="HZ2">
+        <v>32</v>
+      </c>
+      <c r="IA2">
+        <v>68</v>
+      </c>
+      <c r="IB2">
+        <v>81</v>
+      </c>
+      <c r="IC2">
+        <v>32</v>
+      </c>
+      <c r="ID2">
+        <v>73</v>
+      </c>
+      <c r="IE2">
+        <v>81</v>
+      </c>
+      <c r="IF2">
+        <v>32</v>
+      </c>
+      <c r="IG2">
+        <v>79</v>
+      </c>
+      <c r="IH2">
+        <v>81</v>
+      </c>
+      <c r="II2">
+        <v>60</v>
+      </c>
+      <c r="IJ2">
+        <v>84</v>
+      </c>
+      <c r="IK2">
+        <v>49</v>
+      </c>
+      <c r="IL2">
+        <v>45</v>
+      </c>
+      <c r="IM2">
+        <v>45</v>
+      </c>
+      <c r="IN2">
+        <v>62</v>
+      </c>
+      <c r="IO2">
+        <v>32</v>
+      </c>
+      <c r="IP2">
+        <v>32</v>
+      </c>
+      <c r="IQ2">
+        <v>13</v>
+      </c>
+      <c r="IR2">
+        <v>32</v>
+      </c>
+      <c r="IS2">
+        <v>32</v>
+      </c>
+      <c r="IT2">
+        <v>32</v>
+      </c>
+      <c r="IU2">
+        <v>32</v>
+      </c>
+      <c r="IV2">
+        <v>32</v>
+      </c>
+      <c r="IW2">
+        <v>32</v>
+      </c>
+      <c r="IX2">
+        <v>32</v>
+      </c>
+      <c r="IY2">
+        <v>32</v>
+      </c>
+      <c r="IZ2">
+        <v>32</v>
+      </c>
+      <c r="JA2">
+        <v>32</v>
+      </c>
+      <c r="JB2">
+        <v>32</v>
+      </c>
+      <c r="JC2">
+        <v>32</v>
+      </c>
+      <c r="JD2">
+        <v>32</v>
+      </c>
+      <c r="JE2">
+        <v>32</v>
+      </c>
+      <c r="JF2">
+        <v>32</v>
+      </c>
+      <c r="JG2">
+        <v>32</v>
+      </c>
+      <c r="JH2">
+        <v>32</v>
+      </c>
+      <c r="JI2">
+        <v>32</v>
+      </c>
+      <c r="JJ2">
+        <v>32</v>
+      </c>
+      <c r="JK2">
+        <v>89</v>
+      </c>
+      <c r="JL2">
+        <v>65</v>
+      </c>
+      <c r="JM2">
+        <v>32</v>
+      </c>
+      <c r="JN2">
+        <v>66</v>
+      </c>
+      <c r="JO2">
+        <v>81</v>
+      </c>
+      <c r="JP2">
+        <v>32</v>
+      </c>
+      <c r="JQ2">
+        <v>77</v>
+      </c>
+      <c r="JR2">
+        <v>81</v>
+      </c>
+      <c r="JS2">
+        <v>32</v>
+      </c>
+      <c r="JT2">
+        <v>69</v>
+      </c>
+      <c r="JU2">
+        <v>81</v>
+      </c>
+      <c r="JV2">
+        <v>32</v>
+      </c>
+      <c r="JW2">
+        <v>72</v>
+      </c>
+      <c r="JX2">
+        <v>81</v>
+      </c>
+      <c r="JY2">
+        <v>32</v>
+      </c>
+      <c r="JZ2">
+        <v>75</v>
+      </c>
+      <c r="KA2">
+        <v>81</v>
+      </c>
+      <c r="KB2">
+        <v>32</v>
+      </c>
+      <c r="KC2">
+        <v>76</v>
+      </c>
+      <c r="KD2">
+        <v>81</v>
+      </c>
+      <c r="KE2">
+        <v>32</v>
+      </c>
+      <c r="KF2">
+        <v>78</v>
+      </c>
+      <c r="KG2">
+        <v>81</v>
+      </c>
+      <c r="KH2">
+        <v>32</v>
+      </c>
+      <c r="KI2">
+        <v>82</v>
+      </c>
+      <c r="KJ2">
+        <v>81</v>
+      </c>
+      <c r="KK2">
+        <v>32</v>
+      </c>
+      <c r="KL2">
+        <v>83</v>
+      </c>
+      <c r="KM2">
+        <v>81</v>
+      </c>
+      <c r="KN2">
+        <v>32</v>
+      </c>
+      <c r="KO2">
+        <v>86</v>
+      </c>
+      <c r="KP2">
+        <v>81</v>
+      </c>
+      <c r="KQ2">
+        <v>32</v>
+      </c>
+      <c r="KR2">
+        <v>84</v>
+      </c>
+      <c r="KS2">
+        <v>81</v>
+      </c>
+      <c r="KT2">
+        <v>32</v>
+      </c>
+      <c r="KU2">
+        <v>71</v>
+      </c>
+      <c r="KV2">
+        <v>81</v>
+      </c>
+      <c r="KW2">
+        <v>32</v>
+      </c>
+      <c r="KX2">
+        <v>90</v>
+      </c>
+      <c r="KY2">
+        <v>81</v>
+      </c>
+      <c r="KZ2">
+        <v>32</v>
+      </c>
+      <c r="LA2">
+        <v>81</v>
+      </c>
+      <c r="LB2">
+        <v>81</v>
+      </c>
+      <c r="LC2">
+        <v>32</v>
+      </c>
+      <c r="LD2">
+        <v>85</v>
+      </c>
+      <c r="LE2">
+        <v>81</v>
+      </c>
+      <c r="LF2">
+        <v>32</v>
+      </c>
+      <c r="LG2">
+        <v>88</v>
+      </c>
+      <c r="LH2">
+        <v>83</v>
+      </c>
+      <c r="LI2">
+        <v>32</v>
+      </c>
+      <c r="LJ2">
+        <v>32</v>
+      </c>
+      <c r="LK2">
+        <v>32</v>
+      </c>
+      <c r="LL2">
+        <v>13</v>
+      </c>
+      <c r="LM2">
+        <v>51</v>
+      </c>
+      <c r="LN2">
+        <v>32</v>
+      </c>
+      <c r="LO2">
+        <v>32</v>
+      </c>
+      <c r="LP2">
+        <v>42</v>
+      </c>
+      <c r="LQ2">
+        <v>77</v>
+      </c>
+      <c r="LR2">
+        <v>85</v>
+      </c>
+      <c r="LS2">
+        <v>57</v>
+      </c>
+      <c r="LT2">
+        <v>51</v>
+      </c>
+      <c r="LU2">
+        <v>50</v>
+      </c>
+      <c r="LV2">
+        <v>55</v>
+      </c>
+      <c r="LW2">
+        <v>32</v>
+      </c>
+      <c r="LX2">
+        <v>32</v>
+      </c>
+      <c r="LY2">
+        <v>83</v>
+      </c>
+      <c r="LZ2">
+        <v>72</v>
+      </c>
+      <c r="MA2">
+        <v>65</v>
+      </c>
+      <c r="MB2">
+        <v>67</v>
+      </c>
+      <c r="MC2">
+        <v>71</v>
+      </c>
+      <c r="MD2">
+        <v>79</v>
+      </c>
+      <c r="ME2">
+        <v>32</v>
+      </c>
+      <c r="MF2">
+        <v>48</v>
+      </c>
+      <c r="MG2">
+        <v>57</v>
+      </c>
+      <c r="MH2">
+        <v>53</v>
+      </c>
+      <c r="MI2">
+        <v>48</v>
+      </c>
+      <c r="MJ2">
+        <v>32</v>
+      </c>
+      <c r="MK2">
+        <v>32</v>
+      </c>
+      <c r="ML2">
+        <v>32</v>
+      </c>
+      <c r="MM2">
+        <v>49</v>
+      </c>
+      <c r="MN2">
+        <v>49</v>
+      </c>
+      <c r="MO2">
+        <v>52</v>
+      </c>
+      <c r="MP2">
+        <v>48</v>
+      </c>
+      <c r="MQ2">
+        <v>32</v>
+      </c>
+      <c r="MR2">
+        <v>32</v>
+      </c>
+      <c r="MS2">
+        <v>32</v>
+      </c>
+      <c r="MT2">
+        <v>55</v>
+      </c>
+      <c r="MU2">
+        <v>51</v>
+      </c>
+      <c r="MV2">
+        <v>56</v>
+      </c>
+      <c r="MW2">
+        <v>32</v>
+      </c>
+      <c r="MX2">
+        <v>48</v>
+      </c>
+      <c r="MY2">
+        <v>94</v>
+      </c>
+      <c r="MZ2">
+        <v>32</v>
+      </c>
+      <c r="NA2">
+        <v>32</v>
+      </c>
+      <c r="NB2">
+        <v>32</v>
+      </c>
+      <c r="NC2">
+        <v>32</v>
+      </c>
+      <c r="ND2">
+        <v>32</v>
+      </c>
+      <c r="NE2">
+        <v>32</v>
+      </c>
+      <c r="NF2">
+        <v>32</v>
+      </c>
+      <c r="NG2">
+        <v>32</v>
+      </c>
+      <c r="NH2">
+        <v>32</v>
+      </c>
+      <c r="NI2">
+        <v>32</v>
+      </c>
+      <c r="NJ2">
+        <v>69</v>
+      </c>
+      <c r="NK2">
+        <v>70</v>
+      </c>
+      <c r="NL2">
+        <v>54</v>
+      </c>
+      <c r="NM2">
+        <v>32</v>
+      </c>
+      <c r="NN2">
+        <v>80</v>
+      </c>
+      <c r="NO2">
+        <v>81</v>
+      </c>
+      <c r="NP2">
+        <v>32</v>
+      </c>
+      <c r="NQ2">
+        <v>65</v>
+      </c>
+      <c r="NR2">
+        <v>49</v>
+      </c>
+      <c r="NS2">
+        <v>32</v>
+      </c>
+      <c r="NT2">
+        <v>89</v>
+      </c>
+      <c r="NU2">
+        <v>52</v>
+      </c>
+      <c r="NV2">
+        <v>32</v>
+      </c>
+      <c r="NW2">
+        <v>66</v>
+      </c>
+      <c r="NX2">
+        <v>81</v>
+      </c>
+      <c r="NY2">
+        <v>60</v>
+      </c>
+      <c r="NZ2">
+        <v>84</v>
+      </c>
+      <c r="OA2">
+        <v>50</v>
+      </c>
+      <c r="OB2">
+        <v>45</v>
+      </c>
+      <c r="OC2">
+        <v>45</v>
+      </c>
+      <c r="OD2">
+        <v>62</v>
+      </c>
+      <c r="OE2">
+        <v>32</v>
+      </c>
+      <c r="OF2">
+        <v>32</v>
+      </c>
+      <c r="OG2">
+        <v>13</v>
+      </c>
+      <c r="OH2">
+        <v>32</v>
+      </c>
+      <c r="OI2">
+        <v>32</v>
+      </c>
+      <c r="OJ2">
+        <v>32</v>
+      </c>
+      <c r="OK2">
+        <v>32</v>
+      </c>
+      <c r="OL2">
+        <v>70</v>
+      </c>
+      <c r="OM2">
+        <v>77</v>
+      </c>
+      <c r="ON2">
+        <v>57</v>
+      </c>
+      <c r="OO2">
+        <v>51</v>
+      </c>
+      <c r="OP2">
+        <v>50</v>
+      </c>
+      <c r="OQ2">
+        <v>55</v>
+      </c>
+      <c r="OR2">
+        <v>32</v>
+      </c>
+      <c r="OS2">
+        <v>32</v>
+      </c>
+      <c r="OT2">
+        <v>32</v>
+      </c>
+      <c r="OU2">
+        <v>32</v>
+      </c>
+      <c r="OV2">
+        <v>32</v>
+      </c>
+      <c r="OW2">
+        <v>32</v>
+      </c>
+      <c r="OX2">
+        <v>32</v>
+      </c>
+      <c r="OY2">
+        <v>32</v>
+      </c>
+      <c r="OZ2">
+        <v>32</v>
+      </c>
+      <c r="PA2">
+        <v>77</v>
+      </c>
+      <c r="PB2">
+        <v>81</v>
+      </c>
+      <c r="PC2">
+        <v>32</v>
+      </c>
+      <c r="PD2">
+        <v>69</v>
+      </c>
+      <c r="PE2">
+        <v>81</v>
+      </c>
+      <c r="PF2">
+        <v>32</v>
+      </c>
+      <c r="PG2">
+        <v>72</v>
+      </c>
+      <c r="PH2">
+        <v>81</v>
+      </c>
+      <c r="PI2">
+        <v>32</v>
+      </c>
+      <c r="PJ2">
+        <v>75</v>
+      </c>
+      <c r="PK2">
+        <v>81</v>
+      </c>
+      <c r="PL2">
+        <v>32</v>
+      </c>
+      <c r="PM2">
+        <v>76</v>
+      </c>
+      <c r="PN2">
+        <v>81</v>
+      </c>
+      <c r="PO2">
+        <v>32</v>
+      </c>
+      <c r="PP2">
+        <v>78</v>
+      </c>
+      <c r="PQ2">
+        <v>81</v>
+      </c>
+      <c r="PR2">
+        <v>32</v>
+      </c>
+      <c r="PS2">
+        <v>82</v>
+      </c>
+      <c r="PT2">
+        <v>81</v>
+      </c>
+      <c r="PU2">
+        <v>32</v>
+      </c>
+      <c r="PV2">
+        <v>83</v>
+      </c>
+      <c r="PW2">
+        <v>81</v>
+      </c>
+      <c r="PX2">
+        <v>32</v>
+      </c>
+      <c r="PY2">
+        <v>86</v>
+      </c>
+      <c r="PZ2">
+        <v>81</v>
+      </c>
+      <c r="QA2">
+        <v>32</v>
+      </c>
+      <c r="QB2">
+        <v>84</v>
+      </c>
+      <c r="QC2">
+        <v>81</v>
+      </c>
+      <c r="QD2">
+        <v>32</v>
+      </c>
+      <c r="QE2">
+        <v>71</v>
+      </c>
+      <c r="QF2">
+        <v>81</v>
+      </c>
+      <c r="QG2">
+        <v>32</v>
+      </c>
+      <c r="QH2">
+        <v>90</v>
+      </c>
+      <c r="QI2">
+        <v>81</v>
+      </c>
+      <c r="QJ2">
+        <v>32</v>
+      </c>
+      <c r="QK2">
+        <v>81</v>
+      </c>
+      <c r="QL2">
+        <v>81</v>
+      </c>
+      <c r="QM2">
+        <v>32</v>
+      </c>
+      <c r="QN2">
+        <v>85</v>
+      </c>
+      <c r="QO2">
+        <v>81</v>
+      </c>
+      <c r="QP2">
+        <v>32</v>
+      </c>
+      <c r="QQ2">
+        <v>88</v>
+      </c>
+      <c r="QR2">
+        <v>81</v>
+      </c>
+      <c r="QS2">
+        <v>32</v>
+      </c>
+      <c r="QT2">
+        <v>13</v>
+      </c>
+      <c r="QU2">
+        <v>52</v>
+      </c>
+      <c r="QV2">
+        <v>43</v>
+      </c>
+      <c r="QW2">
+        <v>32</v>
+      </c>
+      <c r="QX2">
+        <v>32</v>
+      </c>
+      <c r="QY2">
+        <v>70</v>
+      </c>
+      <c r="QZ2">
+        <v>77</v>
+      </c>
+      <c r="RA2">
+        <v>57</v>
+      </c>
+      <c r="RB2">
+        <v>51</v>
+      </c>
+      <c r="RC2">
+        <v>50</v>
+      </c>
+      <c r="RD2">
+        <v>55</v>
+      </c>
+      <c r="RE2">
+        <v>32</v>
+      </c>
+      <c r="RF2">
+        <v>32</v>
+      </c>
+      <c r="RG2">
+        <v>83</v>
+      </c>
+      <c r="RH2">
+        <v>72</v>
+      </c>
+      <c r="RI2">
+        <v>65</v>
+      </c>
+      <c r="RJ2">
+        <v>67</v>
+      </c>
+      <c r="RK2">
+        <v>71</v>
+      </c>
+      <c r="RL2">
+        <v>79</v>
+      </c>
+      <c r="RM2">
+        <v>32</v>
+      </c>
+      <c r="RN2">
+        <v>48</v>
+      </c>
+      <c r="RO2">
+        <v>57</v>
+      </c>
+      <c r="RP2">
+        <v>53</v>
+      </c>
+      <c r="RQ2">
+        <v>48</v>
+      </c>
+      <c r="RR2">
+        <v>32</v>
+      </c>
+      <c r="RS2">
+        <v>32</v>
+      </c>
+      <c r="RT2">
+        <v>32</v>
+      </c>
+      <c r="RU2">
+        <v>49</v>
+      </c>
+      <c r="RV2">
+        <v>49</v>
+      </c>
+      <c r="RW2">
+        <v>52</v>
+      </c>
+      <c r="RX2">
+        <v>48</v>
+      </c>
+      <c r="RY2">
+        <v>32</v>
+      </c>
+      <c r="RZ2">
+        <v>32</v>
+      </c>
+      <c r="SA2">
+        <v>32</v>
+      </c>
+      <c r="SB2">
+        <v>55</v>
+      </c>
+      <c r="SC2">
+        <v>51</v>
+      </c>
+      <c r="SD2">
+        <v>56</v>
+      </c>
+      <c r="SE2">
+        <v>32</v>
+      </c>
+      <c r="SF2">
+        <v>48</v>
+      </c>
+      <c r="SG2">
+        <v>94</v>
+      </c>
+      <c r="SH2">
+        <v>32</v>
+      </c>
+      <c r="SI2">
+        <v>32</v>
+      </c>
+      <c r="SJ2">
+        <v>32</v>
+      </c>
+      <c r="SK2">
+        <v>32</v>
+      </c>
+      <c r="SL2">
+        <v>32</v>
+      </c>
+      <c r="SM2">
+        <v>32</v>
+      </c>
+      <c r="SN2">
+        <v>32</v>
+      </c>
+      <c r="SO2">
+        <v>32</v>
+      </c>
+      <c r="SP2">
+        <v>32</v>
+      </c>
+      <c r="SQ2">
+        <v>32</v>
+      </c>
+      <c r="SR2">
+        <v>69</v>
+      </c>
+      <c r="SS2">
+        <v>70</v>
+      </c>
+      <c r="ST2">
+        <v>54</v>
+      </c>
+      <c r="SU2">
+        <v>32</v>
+      </c>
+      <c r="SV2">
+        <v>80</v>
+      </c>
+      <c r="SW2">
+        <v>81</v>
+      </c>
+      <c r="SX2">
+        <v>32</v>
+      </c>
+      <c r="SY2">
+        <v>65</v>
+      </c>
+      <c r="SZ2">
+        <v>49</v>
+      </c>
+      <c r="TA2">
+        <v>32</v>
+      </c>
+      <c r="TB2">
+        <v>89</v>
+      </c>
+      <c r="TC2">
+        <v>52</v>
+      </c>
+      <c r="TD2">
+        <v>32</v>
+      </c>
+      <c r="TE2">
+        <v>66</v>
+      </c>
+      <c r="TF2">
+        <v>81</v>
+      </c>
+      <c r="TG2">
+        <v>60</v>
+      </c>
+      <c r="TH2">
+        <v>84</v>
+      </c>
+      <c r="TI2">
+        <v>50</v>
+      </c>
+      <c r="TJ2">
+        <v>45</v>
+      </c>
+      <c r="TK2">
+        <v>45</v>
+      </c>
+      <c r="TL2">
+        <v>62</v>
+      </c>
+      <c r="TM2">
+        <v>32</v>
+      </c>
+      <c r="TN2">
+        <v>32</v>
+      </c>
+      <c r="TO2">
+        <v>13</v>
+      </c>
+      <c r="TP2">
+        <v>32</v>
+      </c>
+      <c r="TQ2">
+        <v>32</v>
+      </c>
+      <c r="TR2">
+        <v>32</v>
+      </c>
+      <c r="TS2">
+        <v>32</v>
+      </c>
+      <c r="TT2">
+        <v>32</v>
+      </c>
+      <c r="TU2">
+        <v>32</v>
+      </c>
+      <c r="TV2">
+        <v>32</v>
+      </c>
+      <c r="TW2">
+        <v>32</v>
+      </c>
+      <c r="TX2">
+        <v>32</v>
+      </c>
+      <c r="TY2">
+        <v>32</v>
+      </c>
+      <c r="TZ2">
+        <v>32</v>
+      </c>
+      <c r="UA2">
+        <v>32</v>
+      </c>
+      <c r="UB2">
+        <v>32</v>
+      </c>
+      <c r="UC2">
+        <v>32</v>
+      </c>
+      <c r="UD2">
+        <v>32</v>
+      </c>
+      <c r="UE2">
+        <v>32</v>
+      </c>
+      <c r="UF2">
+        <v>32</v>
+      </c>
+      <c r="UG2">
+        <v>32</v>
+      </c>
+      <c r="UH2">
+        <v>32</v>
+      </c>
+      <c r="UI2">
+        <v>77</v>
+      </c>
+      <c r="UJ2">
+        <v>81</v>
+      </c>
+      <c r="UK2">
+        <v>32</v>
+      </c>
+      <c r="UL2">
+        <v>69</v>
+      </c>
+      <c r="UM2">
+        <v>81</v>
+      </c>
+      <c r="UN2">
+        <v>32</v>
+      </c>
+      <c r="UO2">
+        <v>72</v>
+      </c>
+      <c r="UP2">
+        <v>81</v>
+      </c>
+      <c r="UQ2">
+        <v>32</v>
+      </c>
+      <c r="UR2">
+        <v>75</v>
+      </c>
+      <c r="US2">
+        <v>81</v>
+      </c>
+      <c r="UT2">
+        <v>32</v>
+      </c>
+      <c r="UU2">
+        <v>76</v>
+      </c>
+      <c r="UV2">
+        <v>81</v>
+      </c>
+      <c r="UW2">
+        <v>32</v>
+      </c>
+      <c r="UX2">
+        <v>78</v>
+      </c>
+      <c r="UY2">
+        <v>81</v>
+      </c>
+      <c r="UZ2">
+        <v>32</v>
+      </c>
+      <c r="VA2">
+        <v>82</v>
+      </c>
+      <c r="VB2">
+        <v>81</v>
+      </c>
+      <c r="VC2">
+        <v>32</v>
+      </c>
+      <c r="VD2">
+        <v>83</v>
+      </c>
+      <c r="VE2">
+        <v>81</v>
+      </c>
+      <c r="VF2">
+        <v>32</v>
+      </c>
+      <c r="VG2">
+        <v>86</v>
+      </c>
+      <c r="VH2">
+        <v>81</v>
+      </c>
+      <c r="VI2">
+        <v>32</v>
+      </c>
+      <c r="VJ2">
+        <v>84</v>
+      </c>
+      <c r="VK2">
+        <v>81</v>
+      </c>
+      <c r="VL2">
+        <v>32</v>
+      </c>
+      <c r="VM2">
+        <v>71</v>
+      </c>
+      <c r="VN2">
+        <v>81</v>
+      </c>
+      <c r="VO2">
+        <v>32</v>
+      </c>
+      <c r="VP2">
+        <v>90</v>
+      </c>
+      <c r="VQ2">
+        <v>81</v>
+      </c>
+      <c r="VR2">
+        <v>32</v>
+      </c>
+      <c r="VS2">
+        <v>81</v>
+      </c>
+      <c r="VT2">
+        <v>81</v>
+      </c>
+      <c r="VU2">
+        <v>32</v>
+      </c>
+      <c r="VV2">
+        <v>85</v>
+      </c>
+      <c r="VW2">
+        <v>81</v>
+      </c>
+      <c r="VX2">
+        <v>32</v>
+      </c>
+      <c r="VY2">
+        <v>88</v>
+      </c>
+      <c r="VZ2">
+        <v>81</v>
+      </c>
+      <c r="WA2">
+        <v>32</v>
+      </c>
+      <c r="WB2">
+        <v>13</v>
+      </c>
+      <c r="WC2">
+        <v>42</v>
+      </c>
+      <c r="WD2">
+        <v>42</v>
+      </c>
+      <c r="WE2">
+        <v>32</v>
+      </c>
+      <c r="WF2">
+        <v>32</v>
+      </c>
+      <c r="WG2">
+        <v>42</v>
+      </c>
+      <c r="WH2">
+        <v>42</v>
+      </c>
+      <c r="WI2">
+        <v>32</v>
+      </c>
+      <c r="WJ2">
+        <v>32</v>
+      </c>
+      <c r="WK2">
+        <v>67</v>
+      </c>
+      <c r="WL2">
+        <v>90</v>
+      </c>
+      <c r="WM2">
+        <v>45</v>
+      </c>
+      <c r="WN2">
+        <v>83</v>
+      </c>
+      <c r="WO2">
+        <v>72</v>
+      </c>
+      <c r="WP2">
+        <v>65</v>
+      </c>
+      <c r="WQ2">
+        <v>32</v>
+      </c>
+      <c r="WR2">
+        <v>32</v>
+      </c>
+      <c r="WS2">
+        <v>67</v>
+      </c>
+      <c r="WT2">
+        <v>72</v>
+      </c>
+      <c r="WU2">
+        <v>69</v>
+      </c>
+      <c r="WV2">
+        <v>67</v>
+      </c>
+      <c r="WW2">
+        <v>75</v>
+      </c>
+      <c r="WX2">
+        <v>32</v>
+      </c>
+      <c r="WY2">
+        <v>73</v>
+      </c>
+      <c r="WZ2">
+        <v>78</v>
+      </c>
+      <c r="XA2">
+        <v>32</v>
+      </c>
+      <c r="XB2">
+        <v>52</v>
+      </c>
+      <c r="XC2">
+        <v>53</v>
+      </c>
+      <c r="XD2">
+        <v>32</v>
+      </c>
+      <c r="XE2">
+        <v>77</v>
+      </c>
+      <c r="XF2">
+        <v>73</v>
+      </c>
+      <c r="XG2">
+        <v>78</v>
+      </c>
+      <c r="XH2">
+        <v>85</v>
+      </c>
+      <c r="XI2">
+        <v>84</v>
+      </c>
+      <c r="XJ2">
+        <v>69</v>
+      </c>
+      <c r="XK2">
+        <v>83</v>
+      </c>
+      <c r="XL2">
+        <v>32</v>
+      </c>
+      <c r="XM2">
+        <v>66</v>
+      </c>
+      <c r="XN2">
+        <v>69</v>
+      </c>
+      <c r="XO2">
+        <v>70</v>
+      </c>
+      <c r="XP2">
+        <v>79</v>
+      </c>
+      <c r="XQ2">
+        <v>82</v>
+      </c>
+      <c r="XR2">
+        <v>69</v>
+      </c>
+      <c r="XS2">
+        <v>32</v>
+      </c>
+      <c r="XT2">
+        <v>68</v>
+      </c>
+      <c r="XU2">
+        <v>69</v>
+      </c>
+      <c r="XV2">
+        <v>80</v>
+      </c>
+      <c r="XW2">
+        <v>65</v>
+      </c>
+      <c r="XX2">
+        <v>82</v>
+      </c>
+      <c r="XY2">
+        <v>84</v>
+      </c>
+      <c r="XZ2">
+        <v>85</v>
+      </c>
+      <c r="YA2">
+        <v>82</v>
+      </c>
+      <c r="YB2">
+        <v>69</v>
+      </c>
+      <c r="YC2">
+        <v>32</v>
+      </c>
+      <c r="YD2">
+        <v>32</v>
+      </c>
+      <c r="YE2">
+        <v>13</v>
+      </c>
+      <c r="YF2">
+        <v>42</v>
+      </c>
+      <c r="YG2">
+        <v>42</v>
+      </c>
+      <c r="YH2">
+        <v>32</v>
+      </c>
+      <c r="YI2">
+        <v>32</v>
+      </c>
+      <c r="YJ2">
+        <v>65</v>
+      </c>
+      <c r="YK2">
+        <v>108</v>
+      </c>
+      <c r="YL2">
+        <v>108</v>
+      </c>
+      <c r="YM2">
+        <v>32</v>
+      </c>
+      <c r="YN2">
+        <v>115</v>
+      </c>
+      <c r="YO2">
+        <v>99</v>
+      </c>
+      <c r="YP2">
+        <v>104</v>
+      </c>
+      <c r="YQ2">
+        <v>101</v>
+      </c>
+      <c r="YR2">
+        <v>100</v>
+      </c>
+      <c r="YS2">
+        <v>117</v>
+      </c>
+      <c r="YT2">
+        <v>108</v>
+      </c>
+      <c r="YU2">
+        <v>101</v>
+      </c>
+      <c r="YV2">
+        <v>100</v>
+      </c>
+      <c r="YW2">
+        <v>32</v>
+      </c>
+      <c r="YX2">
+        <v>77</v>
+      </c>
+      <c r="YY2">
+        <v>85</v>
+      </c>
+      <c r="YZ2">
+        <v>32</v>
+      </c>
+      <c r="ZA2">
+        <v>111</v>
+      </c>
+      <c r="ZB2">
+        <v>114</v>
+      </c>
+      <c r="ZC2">
+        <v>32</v>
+      </c>
+      <c r="ZD2">
+        <v>70</v>
+      </c>
+      <c r="ZE2">
+        <v>77</v>
+      </c>
+      <c r="ZF2">
+        <v>32</v>
+      </c>
+      <c r="ZG2">
+        <v>102</v>
+      </c>
+      <c r="ZH2">
+        <v>108</v>
+      </c>
+      <c r="ZI2">
+        <v>105</v>
+      </c>
+      <c r="ZJ2">
+        <v>103</v>
+      </c>
+      <c r="ZK2">
+        <v>104</v>
+      </c>
+      <c r="ZL2">
+        <v>116</v>
+      </c>
+      <c r="ZM2">
+        <v>115</v>
+      </c>
+      <c r="ZN2">
+        <v>32</v>
+      </c>
+      <c r="ZO2">
+        <v>111</v>
+      </c>
+      <c r="ZP2">
+        <v>112</v>
+      </c>
+      <c r="ZQ2">
+        <v>101</v>
+      </c>
+      <c r="ZR2">
+        <v>114</v>
+      </c>
+      <c r="ZS2">
+        <v>97</v>
+      </c>
+      <c r="ZT2">
+        <v>116</v>
+      </c>
+      <c r="ZU2">
+        <v>101</v>
+      </c>
+      <c r="ZV2">
+        <v>100</v>
+      </c>
+      <c r="ZW2">
+        <v>32</v>
+      </c>
+      <c r="ZX2">
+        <v>98</v>
+      </c>
+      <c r="ZY2">
+        <v>121</v>
+      </c>
+      <c r="ZZ2">
+        <v>32</v>
+      </c>
+      <c r="AAA2">
+        <v>77</v>
+      </c>
+      <c r="AAB2">
+        <v>85</v>
+      </c>
+      <c r="AAC2">
+        <v>32</v>
+      </c>
+      <c r="AAD2">
+        <v>111</v>
+      </c>
+      <c r="AAE2">
+        <v>114</v>
+      </c>
+      <c r="AAF2">
+        <v>32</v>
+      </c>
+      <c r="AAG2">
+        <v>70</v>
+      </c>
+      <c r="AAH2">
+        <v>77</v>
+      </c>
+      <c r="AAI2">
+        <v>32</v>
+      </c>
+      <c r="AAJ2">
+        <v>97</v>
+      </c>
+      <c r="AAK2">
+        <v>114</v>
+      </c>
+      <c r="AAL2">
+        <v>101</v>
+      </c>
+      <c r="AAM2">
+        <v>32</v>
+      </c>
+      <c r="AAN2">
+        <v>34</v>
+      </c>
+      <c r="AAO2">
+        <v>69</v>
+      </c>
+      <c r="AAP2">
+        <v>97</v>
+      </c>
+      <c r="AAQ2">
+        <v>115</v>
+      </c>
+      <c r="AAR2">
+        <v>116</v>
+      </c>
+      <c r="AAS2">
+        <v>101</v>
+      </c>
+      <c r="AAT2">
+        <v>114</v>
+      </c>
+      <c r="AAU2">
+        <v>110</v>
+      </c>
+      <c r="AAV2">
+        <v>32</v>
+      </c>
+      <c r="AAW2">
+        <v>69</v>
+      </c>
+      <c r="AAX2">
+        <v>120</v>
+      </c>
+      <c r="AAY2">
+        <v>112</v>
+      </c>
+      <c r="AAZ2">
+        <v>114</v>
+      </c>
+      <c r="ABA2">
+        <v>101</v>
+      </c>
+      <c r="ABB2">
+        <v>115</v>
+      </c>
+      <c r="ABC2">
+        <v>115</v>
+      </c>
+      <c r="ABD2">
+        <v>34</v>
+      </c>
+      <c r="ABE2">
+        <v>32</v>
+      </c>
+      <c r="ABF2">
+        <v>32</v>
+      </c>
+      <c r="ABG2">
+        <v>32</v>
+      </c>
+      <c r="ABH2">
+        <v>42</v>
+      </c>
+      <c r="ABI2">
+        <v>42</v>
+      </c>
+      <c r="ABJ2">
+        <v>32</v>
+      </c>
+      <c r="ABK2">
+        <v>32</v>
+      </c>
+      <c r="ABL2">
+        <v>72</v>
+      </c>
+      <c r="ABM2">
+        <v>79</v>
+      </c>
+      <c r="ABN2">
+        <v>32</v>
+      </c>
+      <c r="ABO2">
+        <v>70</v>
+      </c>
+      <c r="ABP2">
+        <v>76</v>
+      </c>
+      <c r="ABQ2">
+        <v>73</v>
+      </c>
+      <c r="ABR2">
+        <v>71</v>
+      </c>
+      <c r="ABS2">
+        <v>72</v>
+      </c>
+      <c r="ABT2">
+        <v>84</v>
+      </c>
+      <c r="ABU2">
+        <v>32</v>
+      </c>
+      <c r="ABV2">
+        <v>68</v>
+      </c>
+      <c r="ABW2">
+        <v>69</v>
+      </c>
+      <c r="ABX2">
+        <v>80</v>
+      </c>
+      <c r="ABY2">
+        <v>65</v>
+      </c>
+      <c r="ABZ2">
+        <v>82</v>
+      </c>
+      <c r="ACA2">
+        <v>84</v>
+      </c>
+      <c r="ACB2">
+        <v>85</v>
+      </c>
+      <c r="ACC2">
+        <v>82</v>
+      </c>
+      <c r="ACD2">
+        <v>69</v>
+      </c>
+      <c r="ACE2">
+        <v>47</v>
+      </c>
+      <c r="ACF2">
+        <v>65</v>
+      </c>
+      <c r="ACG2">
+        <v>82</v>
+      </c>
+      <c r="ACH2">
+        <v>82</v>
+      </c>
+      <c r="ACI2">
+        <v>73</v>
+      </c>
+      <c r="ACJ2">
+        <v>86</v>
+      </c>
+      <c r="ACK2">
+        <v>65</v>
+      </c>
+      <c r="ACL2">
+        <v>76</v>
+      </c>
+      <c r="ACM2">
+        <v>32</v>
+      </c>
+      <c r="ACN2">
+        <v>65</v>
+      </c>
+      <c r="ACO2">
+        <v>84</v>
+      </c>
+      <c r="ACP2">
+        <v>32</v>
+      </c>
+      <c r="ACQ2">
+        <v>80</v>
+      </c>
+      <c r="ACR2">
+        <v>86</v>
+      </c>
+      <c r="ACS2">
+        <v>71</v>
+      </c>
+      <c r="ACT2">
+        <v>32</v>
+      </c>
+      <c r="ACU2">
+        <v>84</v>
+      </c>
+      <c r="ACV2">
+        <v>50</v>
+      </c>
+      <c r="ACW2">
+        <v>32</v>
+      </c>
+      <c r="ACX2">
+        <v>70</v>
+      </c>
+      <c r="ACY2">
+        <v>82</v>
+      </c>
+      <c r="ACZ2">
+        <v>79</v>
+      </c>
+      <c r="ADA2">
+        <v>77</v>
+      </c>
+      <c r="ADB2">
+        <v>32</v>
+      </c>
+      <c r="ADC2">
+        <v>49</v>
+      </c>
+      <c r="ADD2">
+        <v>56</v>
+      </c>
+      <c r="ADE2">
+        <v>68</v>
+      </c>
+      <c r="ADF2">
+        <v>69</v>
+      </c>
+      <c r="ADG2">
+        <v>67</v>
+      </c>
+      <c r="ADH2">
+        <v>49</v>
+      </c>
+      <c r="ADI2">
+        <v>50</v>
+      </c>
+      <c r="ADJ2">
+        <v>44</v>
+      </c>
+      <c r="ADK2">
+        <v>32</v>
+      </c>
+      <c r="ADL2">
+        <v>13</v>
+      </c>
+      <c r="ADM2">
+        <v>42</v>
+      </c>
+      <c r="ADN2">
+        <v>42</v>
+      </c>
+      <c r="ADO2">
+        <v>32</v>
+      </c>
+      <c r="ADP2">
+        <v>32</v>
+      </c>
+      <c r="ADQ2">
+        <v>72</v>
+      </c>
+      <c r="ADR2">
+        <v>79</v>
+      </c>
+      <c r="ADS2">
+        <v>32</v>
+      </c>
+      <c r="ADT2">
+        <v>80</v>
+      </c>
+      <c r="ADU2">
+        <v>86</v>
+      </c>
+      <c r="ADV2">
+        <v>71</v>
+      </c>
+      <c r="ADW2">
+        <v>32</v>
+      </c>
+      <c r="ADX2">
+        <v>67</v>
+      </c>
+      <c r="ADY2">
+        <v>72</v>
+      </c>
+      <c r="ADZ2">
+        <v>69</v>
+      </c>
+      <c r="AEA2">
+        <v>67</v>
+      </c>
+      <c r="AEB2">
+        <v>75</v>
+      </c>
+      <c r="AEC2">
+        <v>32</v>
+      </c>
+      <c r="AED2">
+        <v>73</v>
+      </c>
+      <c r="AEE2">
+        <v>78</v>
+      </c>
+      <c r="AEF2">
+        <v>32</v>
+      </c>
+      <c r="AEG2">
+        <v>52</v>
+      </c>
+      <c r="AEH2">
+        <v>53</v>
+      </c>
+      <c r="AEI2">
+        <v>32</v>
+      </c>
+      <c r="AEJ2">
+        <v>77</v>
+      </c>
+      <c r="AEK2">
+        <v>73</v>
+      </c>
+      <c r="AEL2">
+        <v>78</v>
+      </c>
+      <c r="AEM2">
+        <v>85</v>
+      </c>
+      <c r="AEN2">
+        <v>84</v>
+      </c>
+      <c r="AEO2">
+        <v>69</v>
+      </c>
+      <c r="AEP2">
+        <v>83</v>
+      </c>
+      <c r="AEQ2">
+        <v>32</v>
+      </c>
+      <c r="AER2">
+        <v>66</v>
+      </c>
+      <c r="AES2">
+        <v>69</v>
+      </c>
+      <c r="AET2">
+        <v>70</v>
+      </c>
+      <c r="AEU2">
+        <v>79</v>
+      </c>
+      <c r="AEV2">
+        <v>82</v>
+      </c>
+      <c r="AEW2">
+        <v>69</v>
+      </c>
+      <c r="AEX2">
+        <v>32</v>
+      </c>
+      <c r="AEY2">
+        <v>68</v>
+      </c>
+      <c r="AEZ2">
+        <v>69</v>
+      </c>
+      <c r="AFA2">
+        <v>80</v>
+      </c>
+      <c r="AFB2">
+        <v>65</v>
+      </c>
+      <c r="AFC2">
+        <v>82</v>
+      </c>
+      <c r="AFD2">
+        <v>84</v>
+      </c>
+      <c r="AFE2">
+        <v>85</v>
+      </c>
+      <c r="AFF2">
+        <v>82</v>
+      </c>
+      <c r="AFG2">
+        <v>69</v>
+      </c>
+      <c r="AFH2">
+        <v>32</v>
+      </c>
+      <c r="AFI2">
+        <v>13</v>
+      </c>
+      <c r="AFJ2">
+        <v>30</v>
+      </c>
+      <c r="AFK2">
+        <v>27</v>
+      </c>
+      <c r="AFL2">
+        <v>98</v>
+      </c>
+      <c r="AFM2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Eterm通讯协议.xlsx
+++ b/Eterm通讯协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805"/>
@@ -454,8 +454,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,10 +1007,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1034,7 +1034,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1108,7 +1108,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1143,7 +1142,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1319,23 +1317,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:AZ128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT89" sqref="AT89"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.75" style="1" customWidth="1"/>
     <col min="2" max="225" width="3.625" style="1" customWidth="1"/>
     <col min="226" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,12 +1488,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51">
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:51">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1739,7 +1737,7 @@
       <c r="AX5" s="4"/>
       <c r="AY5" s="5"/>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1800,7 +1798,7 @@
       <c r="AX6" s="11"/>
       <c r="AY6" s="12"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1955,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2086,7 +2084,7 @@
       <c r="AX8" s="20"/>
       <c r="AY8" s="21"/>
     </row>
-    <row r="9" spans="1:51" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" s="18" customFormat="1">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -2147,7 +2145,7 @@
       <c r="AX9" s="22"/>
       <c r="AY9" s="23"/>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:51">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -2343,12 +2341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:51">
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -2463,7 +2461,7 @@
       <c r="AX13" s="8"/>
       <c r="AY13" s="9"/>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:51">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2518,7 +2516,7 @@
       <c r="AX14" s="4"/>
       <c r="AY14" s="5"/>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:51">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -2579,12 +2577,12 @@
       <c r="AX15" s="11"/>
       <c r="AY15" s="12"/>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51">
       <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:51">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2737,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:51">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -2846,7 +2844,7 @@
       </c>
       <c r="AY18" s="5"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:51">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2905,7 +2903,7 @@
       <c r="AX19" s="48"/>
       <c r="AY19" s="49"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:51">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2925,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:51">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -2939,7 +2937,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:51">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -2949,12 +2947,12 @@
       <c r="E22" s="48"/>
       <c r="F22" s="49"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:51">
       <c r="B23" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:51">
       <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:51">
       <c r="A25" s="1" t="s">
         <v>6</v>
       </c>
@@ -3078,7 +3076,7 @@
       <c r="Z25" s="21"/>
       <c r="AA25" s="46"/>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:51">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3121,12 +3119,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:51">
       <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:51">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -3251,7 +3249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:51">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
@@ -3310,7 +3308,7 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="46"/>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:51">
       <c r="A30" s="1" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3365,7 @@
       <c r="AN30" s="56"/>
       <c r="AO30" s="47"/>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:51">
       <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
@@ -3450,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:52">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -3491,7 +3489,7 @@
       <c r="Z33" s="21"/>
       <c r="AA33" s="46"/>
     </row>
-    <row r="34" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:52">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -3534,7 +3532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:52">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -3689,7 +3687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:52">
       <c r="A37" s="1" t="s">
         <v>6</v>
       </c>
@@ -3764,7 +3762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:52">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -3833,7 +3831,7 @@
       <c r="AX38" s="11"/>
       <c r="AY38" s="12"/>
     </row>
-    <row r="39" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:52">
       <c r="B39" s="7">
         <v>27</v>
       </c>
@@ -3985,7 +3983,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:52">
       <c r="B40" s="3"/>
       <c r="C40" s="5"/>
       <c r="D40" s="20" t="s">
@@ -4065,7 +4063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:52">
       <c r="B41" s="52" t="s">
         <v>73</v>
       </c>
@@ -4133,7 +4131,7 @@
       <c r="AX41" s="11"/>
       <c r="AY41" s="12"/>
     </row>
-    <row r="42" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:52">
       <c r="B42" s="7">
         <v>67</v>
       </c>
@@ -4285,7 +4283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:52">
       <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
@@ -4377,7 +4375,7 @@
       <c r="AX43" s="21"/>
       <c r="AY43" s="21"/>
     </row>
-    <row r="44" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:52">
       <c r="B44" s="10"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -4439,7 +4437,7 @@
       <c r="AX44" s="53"/>
       <c r="AY44" s="12"/>
     </row>
-    <row r="45" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:52">
       <c r="B45" s="7">
         <v>43</v>
       </c>
@@ -4591,7 +4589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:52">
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -4643,7 +4641,7 @@
       <c r="AX46" s="4"/>
       <c r="AY46" s="54"/>
     </row>
-    <row r="47" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:52">
       <c r="B47" s="10"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -4708,7 +4706,7 @@
       </c>
       <c r="AZ47" s="53"/>
     </row>
-    <row r="48" spans="1:52" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:52">
       <c r="B48" s="16">
         <v>14</v>
       </c>
@@ -4860,7 +4858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:52">
       <c r="B49" s="54"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -4912,7 +4910,7 @@
       <c r="AX49" s="4"/>
       <c r="AY49" s="54"/>
     </row>
-    <row r="50" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:52">
       <c r="B50" s="57"/>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -4973,7 +4971,7 @@
       </c>
       <c r="AZ50" s="53"/>
     </row>
-    <row r="51" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:52">
       <c r="B51" s="16">
         <v>14</v>
       </c>
@@ -5125,7 +5123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:52">
       <c r="B52" s="54"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -5177,7 +5175,7 @@
       <c r="AX52" s="5"/>
       <c r="AY52" s="5"/>
     </row>
-    <row r="53" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:52">
       <c r="B53" s="57"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -5241,7 +5239,7 @@
       <c r="AX53" s="53"/>
       <c r="AY53" s="12"/>
     </row>
-    <row r="54" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:52">
       <c r="B54" s="7">
         <v>54</v>
       </c>
@@ -5393,7 +5391,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:52">
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -5445,7 +5443,7 @@
       <c r="AX55" s="4"/>
       <c r="AY55" s="5"/>
     </row>
-    <row r="56" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:52">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -5511,7 +5509,7 @@
       <c r="AX56" s="11"/>
       <c r="AY56" s="12"/>
     </row>
-    <row r="57" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:52">
       <c r="B57" s="7">
         <v>68</v>
       </c>
@@ -5663,7 +5661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:52">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="5"/>
@@ -5715,7 +5713,7 @@
       <c r="AX58" s="4"/>
       <c r="AY58" s="5"/>
     </row>
-    <row r="59" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:52">
       <c r="B59" s="10"/>
       <c r="C59" s="52" t="s">
         <v>74</v>
@@ -5777,7 +5775,7 @@
       <c r="AX59" s="11"/>
       <c r="AY59" s="12"/>
     </row>
-    <row r="60" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:52">
       <c r="B60" s="7">
         <v>54</v>
       </c>
@@ -5929,7 +5927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:52">
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="20"/>
@@ -5993,7 +5991,7 @@
       <c r="AX61" s="21"/>
       <c r="AY61" s="70"/>
     </row>
-    <row r="62" spans="2:52" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:52">
       <c r="B62" s="10"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -6065,12 +6063,12 @@
       <c r="AX62" s="56"/>
       <c r="AY62" s="47"/>
     </row>
-    <row r="65" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:51">
       <c r="B65" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:51">
       <c r="B66" s="7">
         <v>1</v>
       </c>
@@ -6222,7 +6220,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:51">
       <c r="B67" s="3"/>
       <c r="C67" s="5"/>
       <c r="D67" s="61"/>
@@ -6336,7 +6334,7 @@
       <c r="AX67" s="4"/>
       <c r="AY67" s="5"/>
     </row>
-    <row r="68" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:51">
       <c r="B68" s="10"/>
       <c r="C68" s="12"/>
       <c r="D68" s="63"/>
@@ -6388,7 +6386,7 @@
       <c r="AX68" s="11"/>
       <c r="AY68" s="12"/>
     </row>
-    <row r="69" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:51">
       <c r="B69" s="7">
         <v>102</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:51">
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6592,7 +6590,7 @@
       <c r="AX70" s="4"/>
       <c r="AY70" s="5"/>
     </row>
-    <row r="71" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:51">
       <c r="B71" s="10"/>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -6644,7 +6642,7 @@
       <c r="AX71" s="11"/>
       <c r="AY71" s="12"/>
     </row>
-    <row r="72" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:51">
       <c r="B72" s="7">
         <v>55</v>
       </c>
@@ -6796,7 +6794,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:51">
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6848,7 +6846,7 @@
       <c r="AX73" s="4"/>
       <c r="AY73" s="5"/>
     </row>
-    <row r="74" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:51">
       <c r="B74" s="10"/>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -6900,7 +6898,7 @@
       <c r="AX74" s="11"/>
       <c r="AY74" s="12"/>
     </row>
-    <row r="75" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:51">
       <c r="B75" s="7">
         <v>54</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:51">
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -7104,7 +7102,7 @@
       <c r="AX76" s="4"/>
       <c r="AY76" s="5"/>
     </row>
-    <row r="77" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:51">
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -7156,7 +7154,7 @@
       <c r="AX77" s="11"/>
       <c r="AY77" s="12"/>
     </row>
-    <row r="78" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:51">
       <c r="B78" s="7">
         <v>116</v>
       </c>
@@ -7188,7 +7186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:51">
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7200,7 +7198,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="46"/>
     </row>
-    <row r="80" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:51">
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -7212,7 +7210,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="47"/>
     </row>
-    <row r="83" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:51">
       <c r="B83" s="1">
         <v>1</v>
       </c>
@@ -7301,7 +7299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:51">
       <c r="B86" s="1">
         <v>1</v>
       </c>
@@ -7453,7 +7451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:51">
       <c r="B87" s="1">
         <v>32</v>
       </c>
@@ -7605,7 +7603,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:51">
       <c r="B88" s="1">
         <v>65</v>
       </c>
@@ -7757,7 +7755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:51">
       <c r="B89" s="1">
         <v>82</v>
       </c>
@@ -7909,7 +7907,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="90" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:51">
       <c r="B90" s="1">
         <v>53</v>
       </c>
@@ -8061,7 +8059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:51">
       <c r="B91" s="1">
         <v>13</v>
       </c>
@@ -8213,7 +8211,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:51">
       <c r="B92" s="1">
         <v>86</v>
       </c>
@@ -8365,7 +8363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:51">
       <c r="B93" s="1">
         <v>49</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:51">
       <c r="B94" s="1">
         <v>32</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:51">
       <c r="B95" s="1">
         <v>81</v>
       </c>
@@ -8821,7 +8819,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:51">
       <c r="B96" s="1">
         <v>94</v>
       </c>
@@ -8973,7 +8971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:51">
       <c r="B97" s="1">
         <v>32</v>
       </c>
@@ -9125,7 +9123,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:51">
       <c r="B98" s="1">
         <v>42</v>
       </c>
@@ -9277,7 +9275,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:51">
       <c r="B99" s="1">
         <v>82</v>
       </c>
@@ -9429,7 +9427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:51">
       <c r="B100" s="1">
         <v>121</v>
       </c>
@@ -9581,7 +9579,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="101" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:51">
       <c r="B101" s="1">
         <v>69</v>
       </c>
@@ -9733,7 +9731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:51">
       <c r="B102" s="1">
         <v>86</v>
       </c>
@@ -9870,7 +9868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:51">
       <c r="B120" s="13">
         <v>1</v>
       </c>
@@ -10022,7 +10020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="121" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:51">
       <c r="B121" s="1">
         <v>116</v>
       </c>
@@ -10174,7 +10172,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:51">
       <c r="B122" s="1">
         <v>101</v>
       </c>
@@ -10326,7 +10324,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="123" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:51">
       <c r="B123" s="1">
         <v>100</v>
       </c>
@@ -10478,7 +10476,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:51">
       <c r="B124" s="1">
         <v>198</v>
       </c>
@@ -10630,7 +10628,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:51">
       <c r="B125" s="1">
         <v>97</v>
       </c>
@@ -10704,12 +10702,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:51">
       <c r="B127" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="2:51" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:51">
       <c r="B128" s="13">
         <v>1</v>
       </c>
@@ -10777,16 +10775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30">
       <c r="A1">
         <v>0</v>
       </c>
@@ -10878,7 +10876,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:30">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -10901,7 +10899,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:30">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -10918,7 +10916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:30">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -10945,16 +10943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:FF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:162" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:162" ht="14.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -11442,7 +11440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:162" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:162" ht="14.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -11930,7 +11928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:162" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:162">
       <c r="A6" t="s">
         <v>107</v>
       </c>
@@ -11942,16 +11940,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AFM2"/>
   <sheetViews>
     <sheetView topLeftCell="AEX1" workbookViewId="0">
       <selection activeCell="AFM2" sqref="A2:AFM2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:845" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:845">
       <c r="A1">
         <v>1</v>
       </c>
@@ -12040,7 +12038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:845" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:845">
       <c r="A2">
         <v>1</v>
       </c>

--- a/Eterm通讯协议.xlsx
+++ b/Eterm通讯协议.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="登陆ETerm通讯" sheetId="1" r:id="rId1"/>
     <sheet name="GB2312特殊" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -109,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="189">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -754,7 +755,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>镕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -766,7 +783,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4D</t>
+    <t>怋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">第二位如果小于7F </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析最后一位等于原来第二位-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果第二位大于7F（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +867,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -842,8 +935,23 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="console"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="console"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cansole"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +1000,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1293,13 +1419,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1627,9 +1877,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1674,6 +1921,228 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1758,7 +2227,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -15955,7 +16424,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="110" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="109" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="106" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.875" style="108" customWidth="1"/>
     <col min="5" max="6" width="5.875" style="106" customWidth="1"/>
@@ -15964,49 +16433,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="C1" s="109" t="s">
+      <c r="C1" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="124" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="109"/>
+      <c r="H1" s="124"/>
     </row>
     <row r="2" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="113" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="114">
-        <f>HEX2DEC(C2)</f>
+      <c r="E2" s="113">
+        <f t="shared" ref="E2:F4" si="0">HEX2DEC(C2)</f>
         <v>176</v>
       </c>
-      <c r="F2" s="114">
-        <f>HEX2DEC(D2)</f>
+      <c r="F2" s="113">
+        <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="G2" s="115" t="str">
-        <f>DEC2BIN(E2,8)</f>
+      <c r="G2" s="114" t="str">
+        <f t="shared" ref="G2:H4" si="1">DEC2BIN(E2,8)</f>
         <v>10110000</v>
       </c>
-      <c r="H2" s="115" t="str">
-        <f>DEC2BIN(F2,8)</f>
+      <c r="H2" s="114" t="str">
+        <f t="shared" si="1"/>
         <v>11010111</v>
       </c>
-      <c r="I2" s="116"/>
+      <c r="I2" s="115"/>
       <c r="J2" s="107" t="s">
         <v>161</v>
       </c>
@@ -16025,33 +16494,33 @@
       <c r="W2" s="105"/>
     </row>
     <row r="3" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118" t="s">
+      <c r="A3" s="116"/>
+      <c r="B3" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="119">
+      <c r="C3" s="118">
         <v>22</v>
       </c>
-      <c r="D3" s="119">
+      <c r="D3" s="118">
         <v>57</v>
       </c>
-      <c r="E3" s="118">
-        <f>HEX2DEC(C3)</f>
+      <c r="E3" s="117">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="F3" s="118">
-        <f>HEX2DEC(D3)</f>
+      <c r="F3" s="117">
+        <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="G3" s="119" t="str">
-        <f>DEC2BIN(E3,8)</f>
+      <c r="G3" s="118" t="str">
+        <f t="shared" si="1"/>
         <v>00100010</v>
       </c>
-      <c r="H3" s="119" t="str">
-        <f>DEC2BIN(F3,8)</f>
+      <c r="H3" s="118" t="str">
+        <f t="shared" si="1"/>
         <v>01010111</v>
       </c>
-      <c r="I3" s="120"/>
+      <c r="I3" s="119"/>
       <c r="J3" s="105"/>
       <c r="K3" s="105"/>
       <c r="L3" s="105"/>
@@ -16068,35 +16537,35 @@
       <c r="W3" s="105"/>
     </row>
     <row r="4" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A4" s="117" t="s">
+      <c r="A4" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="117" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="118" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="118">
-        <f>HEX2DEC(C4)</f>
+      <c r="E4" s="117">
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="F4" s="118">
-        <f>HEX2DEC(D4)</f>
+      <c r="F4" s="117">
+        <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="G4" s="119" t="str">
-        <f>DEC2BIN(E4,8)</f>
+      <c r="G4" s="118" t="str">
+        <f t="shared" si="1"/>
         <v>10110001</v>
       </c>
-      <c r="H4" s="119" t="str">
-        <f>DEC2BIN(F4,8)</f>
+      <c r="H4" s="118" t="str">
+        <f t="shared" si="1"/>
         <v>10101000</v>
       </c>
-      <c r="I4" s="120"/>
+      <c r="I4" s="119"/>
       <c r="J4" s="105"/>
       <c r="K4" s="105"/>
       <c r="L4" s="105"/>
@@ -16113,33 +16582,33 @@
       <c r="W4" s="105"/>
     </row>
     <row r="5" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="119">
+      <c r="C5" s="118">
         <v>23</v>
       </c>
-      <c r="D5" s="119">
+      <c r="D5" s="118">
         <v>28</v>
       </c>
-      <c r="E5" s="118">
-        <f t="shared" ref="E5:E15" si="0">HEX2DEC(C5)</f>
+      <c r="E5" s="117">
+        <f t="shared" ref="E5:E15" si="2">HEX2DEC(C5)</f>
         <v>35</v>
       </c>
-      <c r="F5" s="118">
-        <f t="shared" ref="F5:F15" si="1">HEX2DEC(D5)</f>
+      <c r="F5" s="117">
+        <f t="shared" ref="F5:F15" si="3">HEX2DEC(D5)</f>
         <v>40</v>
       </c>
-      <c r="G5" s="119" t="str">
-        <f t="shared" ref="G5:G15" si="2">DEC2BIN(E5,8)</f>
+      <c r="G5" s="118" t="str">
+        <f t="shared" ref="G5:G15" si="4">DEC2BIN(E5,8)</f>
         <v>00100011</v>
       </c>
-      <c r="H5" s="119" t="str">
-        <f t="shared" ref="H5:H15" si="3">DEC2BIN(F5,8)</f>
+      <c r="H5" s="118" t="str">
+        <f t="shared" ref="H5:H15" si="5">DEC2BIN(F5,8)</f>
         <v>00101000</v>
       </c>
-      <c r="I5" s="120"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="105"/>
       <c r="K5" s="105"/>
       <c r="L5" s="105"/>
@@ -16156,35 +16625,35 @@
       <c r="W5" s="105"/>
     </row>
     <row r="6" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A6" s="117" t="s">
+      <c r="A6" s="116" t="s">
         <v>142</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="117" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="119" t="s">
+      <c r="C6" s="118" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="118" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="118">
-        <f t="shared" si="0"/>
+      <c r="E6" s="117">
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
-      <c r="F6" s="118">
-        <f t="shared" si="1"/>
+      <c r="F6" s="117">
+        <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="G6" s="119" t="str">
-        <f t="shared" si="2"/>
+      <c r="G6" s="118" t="str">
+        <f t="shared" si="4"/>
         <v>10110010</v>
       </c>
-      <c r="H6" s="119" t="str">
-        <f t="shared" si="3"/>
+      <c r="H6" s="118" t="str">
+        <f t="shared" si="5"/>
         <v>11001100</v>
       </c>
-      <c r="I6" s="120"/>
+      <c r="I6" s="119"/>
       <c r="J6" s="105"/>
       <c r="K6" s="105"/>
       <c r="L6" s="105"/>
@@ -16201,33 +16670,33 @@
       <c r="W6" s="105"/>
     </row>
     <row r="7" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A7" s="121"/>
-      <c r="B7" s="122" t="s">
+      <c r="A7" s="120"/>
+      <c r="B7" s="121" t="s">
         <v>134</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="122">
         <v>24</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="122">
-        <f t="shared" si="0"/>
+      <c r="E7" s="121">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F7" s="122">
-        <f t="shared" si="1"/>
+      <c r="F7" s="121">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="G7" s="123" t="str">
-        <f t="shared" si="2"/>
+      <c r="G7" s="122" t="str">
+        <f t="shared" si="4"/>
         <v>00100100</v>
       </c>
-      <c r="H7" s="123" t="str">
-        <f t="shared" si="3"/>
+      <c r="H7" s="122" t="str">
+        <f t="shared" si="5"/>
         <v>01001100</v>
       </c>
-      <c r="I7" s="124"/>
+      <c r="I7" s="123"/>
       <c r="J7" s="105"/>
       <c r="K7" s="105"/>
       <c r="L7" s="105"/>
@@ -16244,32 +16713,32 @@
       <c r="W7" s="105"/>
     </row>
     <row r="8" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="110" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="112" t="s">
+      <c r="C8" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="D8" s="112" t="s">
+      <c r="D8" s="111" t="s">
         <v>159</v>
       </c>
       <c r="E8" s="105">
-        <f t="shared" ref="E8:E9" si="4">HEX2DEC(C8)</f>
+        <f t="shared" ref="E8:E9" si="6">HEX2DEC(C8)</f>
         <v>179</v>
       </c>
       <c r="F8" s="105">
-        <f t="shared" ref="F8:F9" si="5">HEX2DEC(D8)</f>
+        <f t="shared" ref="F8:F9" si="7">HEX2DEC(D8)</f>
         <v>172</v>
       </c>
-      <c r="G8" s="112" t="str">
-        <f t="shared" ref="G8:G9" si="6">DEC2BIN(E8,8)</f>
+      <c r="G8" s="111" t="str">
+        <f t="shared" ref="G8:G9" si="8">DEC2BIN(E8,8)</f>
         <v>10110011</v>
       </c>
-      <c r="H8" s="112" t="str">
-        <f t="shared" ref="H8:H9" si="7">DEC2BIN(F8,8)</f>
+      <c r="H8" s="111" t="str">
+        <f t="shared" ref="H8:H9" si="9">DEC2BIN(F8,8)</f>
         <v>10101100</v>
       </c>
       <c r="I8" s="105"/>
@@ -16289,30 +16758,30 @@
       <c r="W8" s="105"/>
     </row>
     <row r="9" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A9" s="111"/>
+      <c r="A9" s="110"/>
       <c r="B9" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="111">
         <v>33</v>
       </c>
-      <c r="D9" s="112" t="s">
+      <c r="D9" s="111" t="s">
         <v>157</v>
       </c>
       <c r="E9" s="105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>51</v>
       </c>
       <c r="F9" s="105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
-      <c r="G9" s="112" t="str">
-        <f t="shared" si="6"/>
+      <c r="G9" s="111" t="str">
+        <f t="shared" si="8"/>
         <v>00110011</v>
       </c>
-      <c r="H9" s="112" t="str">
-        <f t="shared" si="7"/>
+      <c r="H9" s="111" t="str">
+        <f t="shared" si="9"/>
         <v>00101100</v>
       </c>
       <c r="I9" s="105"/>
@@ -16332,32 +16801,32 @@
       <c r="W9" s="105"/>
     </row>
     <row r="10" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="110" t="s">
         <v>156</v>
       </c>
       <c r="B10" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="112" t="s">
+      <c r="C10" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="112" t="s">
+      <c r="D10" s="111" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="105">
-        <f>HEX2DEC(C10)</f>
+        <f t="shared" ref="E10:F12" si="10">HEX2DEC(C10)</f>
         <v>180</v>
       </c>
       <c r="F10" s="105">
-        <f>HEX2DEC(D10)</f>
+        <f t="shared" si="10"/>
         <v>207</v>
       </c>
-      <c r="G10" s="112" t="str">
-        <f>DEC2BIN(E10,8)</f>
+      <c r="G10" s="111" t="str">
+        <f t="shared" ref="G10:H12" si="11">DEC2BIN(E10,8)</f>
         <v>10110100</v>
       </c>
-      <c r="H10" s="112" t="str">
-        <f>DEC2BIN(F10,8)</f>
+      <c r="H10" s="111" t="str">
+        <f t="shared" si="11"/>
         <v>11001111</v>
       </c>
       <c r="I10" s="107" t="s">
@@ -16379,30 +16848,30 @@
       <c r="W10" s="105"/>
     </row>
     <row r="11" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A11" s="111"/>
+      <c r="A11" s="110"/>
       <c r="B11" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C11" s="112">
+      <c r="C11" s="111">
         <v>34</v>
       </c>
-      <c r="D11" s="112" t="s">
+      <c r="D11" s="111" t="s">
         <v>153</v>
       </c>
       <c r="E11" s="105">
-        <f>HEX2DEC(C11)</f>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="F11" s="105">
-        <f>HEX2DEC(D11)</f>
+        <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="G11" s="112" t="str">
-        <f>DEC2BIN(E11,8)</f>
+      <c r="G11" s="111" t="str">
+        <f t="shared" si="11"/>
         <v>00110100</v>
       </c>
-      <c r="H11" s="112" t="str">
-        <f>DEC2BIN(F11,8)</f>
+      <c r="H11" s="111" t="str">
+        <f t="shared" si="11"/>
         <v>01001111</v>
       </c>
       <c r="I11" s="105"/>
@@ -16422,32 +16891,32 @@
       <c r="W11" s="105"/>
     </row>
     <row r="12" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="110" t="s">
         <v>150</v>
       </c>
       <c r="B12" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="112" t="s">
+      <c r="C12" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="112" t="s">
+      <c r="D12" s="111" t="s">
         <v>152</v>
       </c>
       <c r="E12" s="105">
-        <f>HEX2DEC(C12)</f>
+        <f t="shared" si="10"/>
         <v>181</v>
       </c>
       <c r="F12" s="105">
-        <f>HEX2DEC(D12)</f>
+        <f t="shared" si="10"/>
         <v>164</v>
       </c>
-      <c r="G12" s="112" t="str">
-        <f>DEC2BIN(E12,8)</f>
+      <c r="G12" s="111" t="str">
+        <f t="shared" si="11"/>
         <v>10110101</v>
       </c>
-      <c r="H12" s="112" t="str">
-        <f>DEC2BIN(F12,8)</f>
+      <c r="H12" s="111" t="str">
+        <f t="shared" si="11"/>
         <v>10100100</v>
       </c>
       <c r="I12" s="107" t="s">
@@ -16469,30 +16938,30 @@
       <c r="W12" s="105"/>
     </row>
     <row r="13" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A13" s="111"/>
+      <c r="A13" s="110"/>
       <c r="B13" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="112">
+      <c r="C13" s="111">
         <v>35</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="111">
         <v>24</v>
       </c>
       <c r="E13" s="105">
-        <f t="shared" ref="E13" si="8">HEX2DEC(C13)</f>
+        <f t="shared" ref="E13" si="12">HEX2DEC(C13)</f>
         <v>53</v>
       </c>
       <c r="F13" s="105">
-        <f t="shared" ref="F13" si="9">HEX2DEC(D13)</f>
+        <f t="shared" ref="F13" si="13">HEX2DEC(D13)</f>
         <v>36</v>
       </c>
-      <c r="G13" s="112" t="str">
-        <f t="shared" ref="G13" si="10">DEC2BIN(E13,8)</f>
+      <c r="G13" s="111" t="str">
+        <f t="shared" ref="G13" si="14">DEC2BIN(E13,8)</f>
         <v>00110101</v>
       </c>
-      <c r="H13" s="112" t="str">
-        <f t="shared" ref="H13" si="11">DEC2BIN(F13,8)</f>
+      <c r="H13" s="111" t="str">
+        <f t="shared" ref="H13" si="15">DEC2BIN(F13,8)</f>
         <v>00100100</v>
       </c>
       <c r="I13" s="105"/>
@@ -16512,32 +16981,32 @@
       <c r="W13" s="105"/>
     </row>
     <row r="14" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="110" t="s">
         <v>146</v>
       </c>
       <c r="B14" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="112" t="s">
+      <c r="C14" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="112" t="s">
+      <c r="D14" s="111" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
       <c r="F14" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>161</v>
       </c>
-      <c r="G14" s="112" t="str">
-        <f t="shared" si="2"/>
+      <c r="G14" s="111" t="str">
+        <f t="shared" si="4"/>
         <v>10110110</v>
       </c>
-      <c r="H14" s="112" t="str">
-        <f t="shared" si="3"/>
+      <c r="H14" s="111" t="str">
+        <f t="shared" si="5"/>
         <v>10100001</v>
       </c>
       <c r="I14" s="107" t="s">
@@ -16559,30 +17028,30 @@
       <c r="W14" s="105"/>
     </row>
     <row r="15" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A15" s="111"/>
+      <c r="A15" s="110"/>
       <c r="B15" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C15" s="112">
+      <c r="C15" s="111">
         <v>36</v>
       </c>
-      <c r="D15" s="112">
+      <c r="D15" s="111">
         <v>21</v>
       </c>
       <c r="E15" s="105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="F15" s="105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="G15" s="112" t="str">
-        <f t="shared" si="2"/>
+      <c r="G15" s="111" t="str">
+        <f t="shared" si="4"/>
         <v>00110110</v>
       </c>
-      <c r="H15" s="112" t="str">
-        <f t="shared" si="3"/>
+      <c r="H15" s="111" t="str">
+        <f t="shared" si="5"/>
         <v>00100001</v>
       </c>
       <c r="I15" s="105"/>
@@ -16602,14 +17071,14 @@
       <c r="W15" s="105"/>
     </row>
     <row r="16" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A16" s="111"/>
+      <c r="A16" s="110"/>
       <c r="B16" s="105"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="112"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
       <c r="E16" s="105"/>
       <c r="F16" s="105"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
       <c r="I16" s="105"/>
       <c r="J16" s="105"/>
       <c r="K16" s="105"/>
@@ -16627,14 +17096,14 @@
       <c r="W16" s="105"/>
     </row>
     <row r="17" spans="1:23" s="104" customFormat="1" ht="16.5">
-      <c r="A17" s="111"/>
+      <c r="A17" s="110"/>
       <c r="B17" s="105"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="111"/>
       <c r="E17" s="105"/>
       <c r="F17" s="105"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
       <c r="I17" s="105"/>
       <c r="J17" s="105"/>
       <c r="K17" s="105"/>
@@ -16698,410 +17167,3911 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="5.5" style="130" customWidth="1"/>
+    <col min="4" max="5" width="5.5" style="131" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="132" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="130" customWidth="1"/>
+    <col min="8" max="9" width="5.875" style="131" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="132" customWidth="1"/>
+    <col min="11" max="11" width="9" style="130"/>
+    <col min="12" max="13" width="9" style="131"/>
+    <col min="14" max="14" width="9" style="132"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:17" ht="16.5">
+      <c r="A1" s="110" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="C1" s="125" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="112" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112">
+      <c r="D1" s="126"/>
+      <c r="E1" s="126">
         <v>46</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="105">
+      <c r="F1" s="127"/>
+      <c r="G1" s="133">
         <f>HEX2DEC(C1)</f>
         <v>233</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105">
+      <c r="H1" s="134"/>
+      <c r="I1" s="134">
         <f>HEX2DEC(E1)</f>
         <v>70</v>
       </c>
-      <c r="J1" s="105"/>
-      <c r="K1" s="112" t="str">
-        <f>DEC2BIN(G1,8)</f>
+      <c r="J1" s="135"/>
+      <c r="K1" s="125" t="str">
+        <f t="shared" ref="K1:K13" si="0">DEC2BIN(G1,8)</f>
         <v>11101001</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112" t="str">
-        <f>DEC2BIN(I1,8)</f>
+      <c r="L1" s="126"/>
+      <c r="M1" s="163" t="str">
+        <f t="shared" ref="M1:M13" si="1">DEC2BIN(I1,8)</f>
         <v>01000110</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="16.5">
-      <c r="A2" s="111"/>
+      <c r="N1" s="138"/>
+    </row>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1">
+      <c r="A2" s="110"/>
       <c r="B2" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C2" s="128">
         <v>78</v>
       </c>
-      <c r="D2" s="112">
+      <c r="D2" s="118" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="118">
         <v>64</v>
       </c>
-      <c r="E2" s="112" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="112">
+      <c r="F2" s="129">
         <v>45</v>
       </c>
-      <c r="G2" s="105">
-        <f>HEX2DEC(C2)</f>
+      <c r="G2" s="136">
+        <f t="shared" ref="G1:G13" si="2">HEX2DEC(C2)</f>
         <v>120</v>
       </c>
-      <c r="H2" s="105">
-        <f t="shared" ref="H2:J2" si="0">HEX2DEC(D2)</f>
+      <c r="H2" s="117">
+        <f t="shared" ref="H2:J2" si="3">HEX2DEC(D2)</f>
+        <v>77</v>
+      </c>
+      <c r="I2" s="117">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="I2" s="105">
+      <c r="J2" s="137">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="K2" s="128" t="str">
         <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="J2" s="105">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="K2" s="112" t="str">
-        <f>DEC2BIN(G2,8)</f>
         <v>01111000</v>
       </c>
-      <c r="L2" s="112" t="str">
+      <c r="L2" s="118" t="str">
         <f>DEC2BIN(H2,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="M2" s="118" t="str">
+        <f t="shared" si="1"/>
         <v>01100100</v>
       </c>
-      <c r="M2" s="112" t="str">
-        <f>DEC2BIN(I2,8)</f>
-        <v>01001101</v>
-      </c>
-      <c r="N2" s="112" t="str">
+      <c r="N2" s="165" t="str">
         <f>DEC2BIN(J2,8)</f>
         <v>01000101</v>
       </c>
-      <c r="O2" s="112">
-        <f>G2*256+H2</f>
-        <v>30820</v>
-      </c>
-      <c r="P2" s="112">
-        <f>I2*256+J2</f>
-        <v>19781</v>
-      </c>
-      <c r="Q2">
-        <f>O2-G1</f>
-        <v>30587</v>
-      </c>
-      <c r="R2">
-        <f>P2-I1</f>
-        <v>19711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="14.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="105">
+      <c r="O2" s="160">
+        <f t="shared" ref="O2" si="4">G1-I2</f>
+        <v>133</v>
+      </c>
+      <c r="P2" s="160">
+        <f t="shared" ref="P2:P16" si="5">I1-J2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.25">
+      <c r="A3" s="141" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143">
+        <v>56</v>
+      </c>
+      <c r="F3" s="150"/>
+      <c r="G3" s="153">
         <f>HEX2DEC(C3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105">
+        <v>233</v>
+      </c>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144">
         <f>HEX2DEC(E3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="112" t="str">
-        <f>DEC2BIN(G3,8)</f>
+        <v>86</v>
+      </c>
+      <c r="J3" s="154"/>
+      <c r="K3" s="126" t="str">
+        <f t="shared" ref="K3:K6" si="6">DEC2BIN(G3,8)</f>
+        <v>11101001</v>
+      </c>
+      <c r="L3" s="126"/>
+      <c r="M3" s="163" t="str">
+        <f t="shared" ref="M3:M6" si="7">DEC2BIN(I3,8)</f>
+        <v>01010110</v>
+      </c>
+      <c r="N3" s="138"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1">
+      <c r="A4" s="145"/>
+      <c r="B4" s="146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="157" t="str">
+        <f t="shared" ref="C4:E4" si="8">DEC2HEX(G4)</f>
+        <v>78</v>
+      </c>
+      <c r="D4" s="140" t="str">
+        <f t="shared" si="8"/>
+        <v>4D</v>
+      </c>
+      <c r="E4" s="140" t="str">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="F4" s="139" t="str">
+        <f>DEC2HEX(J4)</f>
+        <v>55</v>
+      </c>
+      <c r="G4" s="155">
+        <v>120</v>
+      </c>
+      <c r="H4" s="146">
+        <v>77</v>
+      </c>
+      <c r="I4" s="146">
+        <v>100</v>
+      </c>
+      <c r="J4" s="156">
+        <v>85</v>
+      </c>
+      <c r="K4" s="148" t="str">
+        <f t="shared" si="6"/>
+        <v>01111000</v>
+      </c>
+      <c r="L4" s="148" t="str">
+        <f t="shared" ref="L4:L8" si="9">DEC2BIN(H4,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="M4" s="148" t="str">
+        <f t="shared" si="7"/>
+        <v>01100100</v>
+      </c>
+      <c r="N4" s="162" t="str">
+        <f t="shared" ref="N4:N8" si="10">DEC2BIN(J4,8)</f>
+        <v>01010101</v>
+      </c>
+      <c r="O4" s="160">
+        <f t="shared" ref="O4" si="11">G3-I4</f>
+        <v>133</v>
+      </c>
+      <c r="P4" s="160">
+        <f t="shared" ref="P4:P16" si="12">I3-J4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25">
+      <c r="A5" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="149">
+        <v>90</v>
+      </c>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143">
+        <v>42</v>
+      </c>
+      <c r="F5" s="150"/>
+      <c r="G5" s="153">
+        <f>HEX2DEC(C5)</f>
+        <v>144</v>
+      </c>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144">
+        <f>HEX2DEC(E5)</f>
+        <v>66</v>
+      </c>
+      <c r="J5" s="154"/>
+      <c r="K5" s="128" t="str">
+        <f t="shared" si="6"/>
+        <v>10010000</v>
+      </c>
+      <c r="L5" s="118"/>
+      <c r="M5" s="164" t="str">
+        <f t="shared" si="7"/>
+        <v>01000010</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1">
+      <c r="A6" s="109"/>
+      <c r="B6" s="105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="157" t="str">
+        <f t="shared" ref="C6" si="13">DEC2HEX(G6)</f>
+        <v>78</v>
+      </c>
+      <c r="D6" s="140" t="str">
+        <f t="shared" ref="D6" si="14">DEC2HEX(H6)</f>
+        <v>48</v>
+      </c>
+      <c r="E6" s="140" t="str">
+        <f t="shared" ref="E6" si="15">DEC2HEX(I6)</f>
+        <v>40</v>
+      </c>
+      <c r="F6" s="139" t="str">
+        <f>DEC2HEX(J6)</f>
+        <v>41</v>
+      </c>
+      <c r="G6" s="136">
+        <v>120</v>
+      </c>
+      <c r="H6" s="117">
+        <v>72</v>
+      </c>
+      <c r="I6" s="117">
+        <v>64</v>
+      </c>
+      <c r="J6" s="137">
+        <v>65</v>
+      </c>
+      <c r="K6" s="128" t="str">
+        <f t="shared" si="6"/>
+        <v>01111000</v>
+      </c>
+      <c r="L6" s="118" t="str">
+        <f t="shared" ref="L6:L8" si="16">DEC2BIN(H6,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M6" s="161" t="str">
+        <f t="shared" si="7"/>
+        <v>01000000</v>
+      </c>
+      <c r="N6" s="165" t="str">
+        <f t="shared" ref="N6:N8" si="17">DEC2BIN(J6,8)</f>
+        <v>01000001</v>
+      </c>
+      <c r="O6" s="160">
+        <f t="shared" ref="O6" si="18">G5-I6</f>
+        <v>80</v>
+      </c>
+      <c r="P6" s="160">
+        <f t="shared" ref="P6:P16" si="19">I5-J6</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25">
+      <c r="A7" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="150"/>
+      <c r="G7" s="153">
+        <f>HEX2DEC(C7)</f>
+        <v>154</v>
+      </c>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144">
+        <f>HEX2DEC(E7)</f>
+        <v>78</v>
+      </c>
+      <c r="J7" s="154"/>
+      <c r="K7" s="125" t="str">
+        <f t="shared" ref="K7:K8" si="20">DEC2BIN(G7,8)</f>
+        <v>10011010</v>
+      </c>
+      <c r="L7" s="126"/>
+      <c r="M7" s="163" t="str">
+        <f t="shared" ref="M7:M8" si="21">DEC2BIN(I7,8)</f>
+        <v>01001110</v>
+      </c>
+      <c r="N7" s="138"/>
+      <c r="Q7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" thickBot="1">
+      <c r="A8" s="145"/>
+      <c r="B8" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="151" t="str">
+        <f t="shared" ref="C8" si="22">DEC2HEX(G8)</f>
+        <v>78</v>
+      </c>
+      <c r="D8" s="147" t="str">
+        <f t="shared" ref="D8" si="23">DEC2HEX(H8)</f>
+        <v>48</v>
+      </c>
+      <c r="E8" s="147" t="str">
+        <f t="shared" ref="E8" si="24">DEC2HEX(I8)</f>
+        <v>68</v>
+      </c>
+      <c r="F8" s="152" t="str">
+        <f>DEC2HEX(J8)</f>
+        <v>4D</v>
+      </c>
+      <c r="G8" s="155">
+        <v>120</v>
+      </c>
+      <c r="H8" s="146">
+        <v>72</v>
+      </c>
+      <c r="I8" s="146">
+        <v>104</v>
+      </c>
+      <c r="J8" s="156">
+        <v>77</v>
+      </c>
+      <c r="K8" s="159" t="str">
+        <f t="shared" si="20"/>
+        <v>01111000</v>
+      </c>
+      <c r="L8" s="148" t="str">
+        <f t="shared" ref="L8" si="25">DEC2BIN(H8,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M8" s="148" t="str">
+        <f t="shared" si="21"/>
+        <v>01101000</v>
+      </c>
+      <c r="N8" s="162" t="str">
+        <f t="shared" ref="N8" si="26">DEC2BIN(J8,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="O8" s="160">
+        <f t="shared" ref="O8" si="27">G7-I8</f>
+        <v>50</v>
+      </c>
+      <c r="P8" s="160">
+        <f t="shared" ref="P8:P16" si="28">I7-J8</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.25">
+      <c r="A9" s="141" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" s="143"/>
+      <c r="E9" s="143" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="150"/>
+      <c r="G9" s="153">
+        <f>HEX2DEC(C9)</f>
+        <v>138</v>
+      </c>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144">
+        <f>HEX2DEC(E9)</f>
+        <v>78</v>
+      </c>
+      <c r="J9" s="154"/>
+      <c r="K9" s="125" t="str">
+        <f t="shared" ref="K9:K10" si="29">DEC2BIN(G9,8)</f>
+        <v>10001010</v>
+      </c>
+      <c r="L9" s="126"/>
+      <c r="M9" s="163" t="str">
+        <f t="shared" ref="M9:M10" si="30">DEC2BIN(I9,8)</f>
+        <v>01001110</v>
+      </c>
+      <c r="N9" s="138"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1">
+      <c r="A10" s="145"/>
+      <c r="B10" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="151" t="str">
+        <f t="shared" ref="C10" si="31">DEC2HEX(G10)</f>
+        <v>78</v>
+      </c>
+      <c r="D10" s="147" t="str">
+        <f t="shared" ref="D10" si="32">DEC2HEX(H10)</f>
+        <v>47</v>
+      </c>
+      <c r="E10" s="147" t="str">
+        <f t="shared" ref="E10" si="33">DEC2HEX(I10)</f>
+        <v>68</v>
+      </c>
+      <c r="F10" s="152" t="str">
+        <f>DEC2HEX(J10)</f>
+        <v>4D</v>
+      </c>
+      <c r="G10" s="155">
+        <v>120</v>
+      </c>
+      <c r="H10" s="146">
+        <v>71</v>
+      </c>
+      <c r="I10" s="146">
+        <v>104</v>
+      </c>
+      <c r="J10" s="156">
+        <v>77</v>
+      </c>
+      <c r="K10" s="159" t="str">
+        <f t="shared" si="29"/>
+        <v>01111000</v>
+      </c>
+      <c r="L10" s="148" t="str">
+        <f t="shared" ref="L10" si="34">DEC2BIN(H10,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M10" s="148" t="str">
+        <f t="shared" si="30"/>
+        <v>01101000</v>
+      </c>
+      <c r="N10" s="162" t="str">
+        <f t="shared" ref="N10" si="35">DEC2BIN(J10,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="O10" s="160">
+        <f t="shared" ref="O10" si="36">G9-I10</f>
+        <v>34</v>
+      </c>
+      <c r="P10" s="160">
+        <f t="shared" ref="P10:P16" si="37">I9-J10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25">
+      <c r="A11" s="141" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="143"/>
+      <c r="E11" s="143" t="s">
+        <v>177</v>
+      </c>
+      <c r="F11" s="150"/>
+      <c r="G11" s="153">
+        <f>HEX2DEC(C11)</f>
+        <v>155</v>
+      </c>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144">
+        <f>HEX2DEC(E11)</f>
+        <v>78</v>
+      </c>
+      <c r="J11" s="154"/>
+      <c r="K11" s="125" t="str">
+        <f t="shared" ref="K11:K12" si="38">DEC2BIN(G11,8)</f>
+        <v>10011011</v>
+      </c>
+      <c r="L11" s="126"/>
+      <c r="M11" s="163" t="str">
+        <f t="shared" ref="M11:M12" si="39">DEC2BIN(I11,8)</f>
+        <v>01001110</v>
+      </c>
+      <c r="N11" s="138"/>
+    </row>
+    <row r="12" spans="1:17" ht="15" thickBot="1">
+      <c r="A12" s="145"/>
+      <c r="B12" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="151" t="str">
+        <f t="shared" ref="C12" si="40">DEC2HEX(G12)</f>
+        <v>78</v>
+      </c>
+      <c r="D12" s="147" t="str">
+        <f t="shared" ref="D12" si="41">DEC2HEX(H12)</f>
+        <v>48</v>
+      </c>
+      <c r="E12" s="147" t="str">
+        <f t="shared" ref="E12" si="42">DEC2HEX(I12)</f>
+        <v>6C</v>
+      </c>
+      <c r="F12" s="152" t="str">
+        <f>DEC2HEX(J12)</f>
+        <v>4D</v>
+      </c>
+      <c r="G12" s="155">
+        <v>120</v>
+      </c>
+      <c r="H12" s="146">
+        <v>72</v>
+      </c>
+      <c r="I12" s="146">
+        <v>108</v>
+      </c>
+      <c r="J12" s="156">
+        <v>77</v>
+      </c>
+      <c r="K12" s="159" t="str">
+        <f t="shared" si="38"/>
+        <v>01111000</v>
+      </c>
+      <c r="L12" s="148" t="str">
+        <f t="shared" ref="L12" si="43">DEC2BIN(H12,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M12" s="148" t="str">
+        <f t="shared" si="39"/>
+        <v>01101100</v>
+      </c>
+      <c r="N12" s="162" t="str">
+        <f t="shared" ref="N12" si="44">DEC2BIN(J12,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="O12" s="160">
+        <f t="shared" ref="O12" si="45">G11-I12</f>
+        <v>47</v>
+      </c>
+      <c r="P12" s="160">
+        <f t="shared" ref="P12:P16" si="46">I11-J12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13" s="141" t="s">
+        <v>178</v>
+      </c>
+      <c r="B13" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="150"/>
+      <c r="G13" s="153">
+        <f>HEX2DEC(C13)</f>
+        <v>155</v>
+      </c>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144">
+        <f>HEX2DEC(E13)</f>
+        <v>77</v>
+      </c>
+      <c r="J13" s="154"/>
+      <c r="K13" s="125" t="str">
+        <f t="shared" ref="K13:K14" si="47">DEC2BIN(G13,8)</f>
+        <v>10011011</v>
+      </c>
+      <c r="L13" s="126"/>
+      <c r="M13" s="163" t="str">
+        <f t="shared" ref="M13:M14" si="48">DEC2BIN(I13,8)</f>
+        <v>01001101</v>
+      </c>
+      <c r="N13" s="138"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="A14" s="145"/>
+      <c r="B14" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="151" t="str">
+        <f t="shared" ref="C14" si="49">DEC2HEX(G14)</f>
+        <v>78</v>
+      </c>
+      <c r="D14" s="147" t="str">
+        <f t="shared" ref="D14" si="50">DEC2HEX(H14)</f>
+        <v>48</v>
+      </c>
+      <c r="E14" s="147" t="str">
+        <f t="shared" ref="E14" si="51">DEC2HEX(I14)</f>
+        <v>6C</v>
+      </c>
+      <c r="F14" s="152" t="str">
+        <f>DEC2HEX(J14)</f>
+        <v>4C</v>
+      </c>
+      <c r="G14" s="155">
+        <v>120</v>
+      </c>
+      <c r="H14" s="146">
+        <v>72</v>
+      </c>
+      <c r="I14" s="146">
+        <v>108</v>
+      </c>
+      <c r="J14" s="156">
+        <v>76</v>
+      </c>
+      <c r="K14" s="159" t="str">
+        <f t="shared" si="47"/>
+        <v>01111000</v>
+      </c>
+      <c r="L14" s="148" t="str">
+        <f t="shared" ref="L14" si="52">DEC2BIN(H14,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M14" s="148" t="str">
+        <f t="shared" si="48"/>
+        <v>01101100</v>
+      </c>
+      <c r="N14" s="162" t="str">
+        <f t="shared" ref="N14" si="53">DEC2BIN(J14,8)</f>
+        <v>01001100</v>
+      </c>
+      <c r="O14" s="160">
+        <f t="shared" ref="O14" si="54">G13-I14</f>
+        <v>47</v>
+      </c>
+      <c r="P14" s="160">
+        <f t="shared" ref="P14:P16" si="55">I13-J14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25">
+      <c r="A15" s="141" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143">
+        <v>40</v>
+      </c>
+      <c r="F15" s="150"/>
+      <c r="G15" s="153">
+        <f>HEX2DEC(C15)</f>
+        <v>155</v>
+      </c>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144">
+        <f>HEX2DEC(E15)</f>
+        <v>64</v>
+      </c>
+      <c r="J15" s="154"/>
+      <c r="K15" s="125" t="str">
+        <f t="shared" ref="K15:K16" si="56">DEC2BIN(G15,8)</f>
+        <v>10011011</v>
+      </c>
+      <c r="L15" s="126"/>
+      <c r="M15" s="163" t="str">
+        <f t="shared" ref="M15:M16" si="57">DEC2BIN(I15,8)</f>
+        <v>01000000</v>
+      </c>
+      <c r="N15" s="138"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" thickBot="1">
+      <c r="A16" s="145"/>
+      <c r="B16" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="151" t="str">
+        <f t="shared" ref="C16" si="58">DEC2HEX(G16)</f>
+        <v>78</v>
+      </c>
+      <c r="D16" s="147" t="str">
+        <f t="shared" ref="D16" si="59">DEC2HEX(H16)</f>
+        <v>48</v>
+      </c>
+      <c r="E16" s="147" t="str">
+        <f t="shared" ref="E16" si="60">DEC2HEX(I16)</f>
+        <v>6C</v>
+      </c>
+      <c r="F16" s="152" t="str">
+        <f>DEC2HEX(J16)</f>
+        <v>3F</v>
+      </c>
+      <c r="G16" s="155">
+        <v>120</v>
+      </c>
+      <c r="H16" s="146">
+        <v>72</v>
+      </c>
+      <c r="I16" s="146">
+        <v>108</v>
+      </c>
+      <c r="J16" s="156">
+        <v>63</v>
+      </c>
+      <c r="K16" s="159" t="str">
+        <f t="shared" si="56"/>
+        <v>01111000</v>
+      </c>
+      <c r="L16" s="148" t="str">
+        <f t="shared" ref="L16" si="61">DEC2BIN(H16,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M16" s="148" t="str">
+        <f t="shared" si="57"/>
+        <v>01101100</v>
+      </c>
+      <c r="N16" s="162" t="str">
+        <f t="shared" ref="N16" si="62">DEC2BIN(J16,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O16" s="160">
+        <f t="shared" ref="O16" si="63">G15-I16</f>
+        <v>47</v>
+      </c>
+      <c r="P16" s="160">
+        <f t="shared" ref="P16" si="64">I15-J16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25">
+      <c r="A17" s="141" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="143"/>
+      <c r="E17" s="143">
+        <v>50</v>
+      </c>
+      <c r="F17" s="150"/>
+      <c r="G17" s="153">
+        <f>HEX2DEC(C17)</f>
+        <v>155</v>
+      </c>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144">
+        <f>HEX2DEC(E17)</f>
+        <v>80</v>
+      </c>
+      <c r="J17" s="154"/>
+      <c r="K17" s="125" t="str">
+        <f t="shared" ref="K17:K22" si="65">DEC2BIN(G17,8)</f>
+        <v>10011011</v>
+      </c>
+      <c r="L17" s="126"/>
+      <c r="M17" s="163" t="str">
+        <f t="shared" ref="M17:M22" si="66">DEC2BIN(I17,8)</f>
+        <v>01010000</v>
+      </c>
+      <c r="N17" s="138"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1">
+      <c r="A18" s="145"/>
+      <c r="B18" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="151" t="str">
+        <f t="shared" ref="C18" si="67">DEC2HEX(G18)</f>
+        <v>78</v>
+      </c>
+      <c r="D18" s="147" t="str">
+        <f t="shared" ref="D18" si="68">DEC2HEX(H18)</f>
+        <v>48</v>
+      </c>
+      <c r="E18" s="147" t="str">
+        <f t="shared" ref="E18" si="69">DEC2HEX(I18)</f>
+        <v>6C</v>
+      </c>
+      <c r="F18" s="152" t="str">
+        <f>DEC2HEX(J18)</f>
+        <v>4F</v>
+      </c>
+      <c r="G18" s="155">
+        <v>120</v>
+      </c>
+      <c r="H18" s="146">
+        <v>72</v>
+      </c>
+      <c r="I18" s="146">
+        <v>108</v>
+      </c>
+      <c r="J18" s="156">
+        <v>79</v>
+      </c>
+      <c r="K18" s="159" t="str">
+        <f t="shared" si="65"/>
+        <v>01111000</v>
+      </c>
+      <c r="L18" s="148" t="str">
+        <f t="shared" ref="L18" si="70">DEC2BIN(H18,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M18" s="148" t="str">
+        <f t="shared" si="66"/>
+        <v>01101100</v>
+      </c>
+      <c r="N18" s="162" t="str">
+        <f t="shared" ref="N18" si="71">DEC2BIN(J18,8)</f>
+        <v>01001111</v>
+      </c>
+      <c r="O18" s="160">
+        <f>G17-I18</f>
+        <v>47</v>
+      </c>
+      <c r="P18" s="160">
+        <f>I17-J18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="14.25">
+      <c r="A19" s="141"/>
+      <c r="B19" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="149">
+        <v>81</v>
+      </c>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143">
+        <v>79</v>
+      </c>
+      <c r="F19" s="150"/>
+      <c r="G19" s="153">
+        <f t="shared" ref="G19:G20" si="72">HEX2DEC(C19)</f>
+        <v>129</v>
+      </c>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144">
+        <f t="shared" ref="I19:I20" si="73">HEX2DEC(E19)</f>
+        <v>121</v>
+      </c>
+      <c r="J19" s="154"/>
+      <c r="K19" s="125" t="str">
+        <f t="shared" si="65"/>
+        <v>10000001</v>
+      </c>
+      <c r="L19" s="126"/>
+      <c r="M19" s="163" t="str">
+        <f t="shared" si="66"/>
+        <v>01111001</v>
+      </c>
+      <c r="N19" s="138"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="160"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1">
+      <c r="A20" s="145"/>
+      <c r="B20" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="151" t="str">
+        <f t="shared" ref="C20" si="74">DEC2HEX(G20)</f>
+        <v>78</v>
+      </c>
+      <c r="D20" s="147" t="str">
+        <f t="shared" ref="D20" si="75">DEC2HEX(H20)</f>
+        <v>47</v>
+      </c>
+      <c r="E20" s="147" t="str">
+        <f t="shared" ref="E20" si="76">DEC2HEX(I20)</f>
+        <v>44</v>
+      </c>
+      <c r="F20" s="152" t="str">
+        <f t="shared" ref="F20" si="77">DEC2HEX(J20)</f>
+        <v>78</v>
+      </c>
+      <c r="G20" s="155">
+        <v>120</v>
+      </c>
+      <c r="H20" s="146">
+        <v>71</v>
+      </c>
+      <c r="I20" s="146">
+        <v>68</v>
+      </c>
+      <c r="J20" s="156">
+        <v>120</v>
+      </c>
+      <c r="K20" s="159" t="str">
+        <f t="shared" si="65"/>
+        <v>01111000</v>
+      </c>
+      <c r="L20" s="148" t="str">
+        <f t="shared" ref="L20" si="78">DEC2BIN(H20,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M20" s="148" t="str">
+        <f t="shared" si="66"/>
+        <v>01000100</v>
+      </c>
+      <c r="N20" s="162" t="str">
+        <f t="shared" ref="N20" si="79">DEC2BIN(J20,8)</f>
+        <v>01111000</v>
+      </c>
+      <c r="O20" s="160">
+        <f t="shared" ref="O20" si="80">G19-I20</f>
+        <v>61</v>
+      </c>
+      <c r="P20" s="160">
+        <f t="shared" ref="P20" si="81">I19-J20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="14.25">
+      <c r="A21" s="141"/>
+      <c r="B21" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="149">
+        <v>81</v>
+      </c>
+      <c r="D21" s="143"/>
+      <c r="E21" s="143" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="150"/>
+      <c r="G21" s="153">
+        <f t="shared" ref="G21:G22" si="82">HEX2DEC(C21)</f>
+        <v>129</v>
+      </c>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144">
+        <f t="shared" ref="I21:I22" si="83">HEX2DEC(E21)</f>
+        <v>111</v>
+      </c>
+      <c r="J21" s="154"/>
+      <c r="K21" s="125" t="str">
+        <f t="shared" si="65"/>
+        <v>10000001</v>
+      </c>
+      <c r="L21" s="126"/>
+      <c r="M21" s="163" t="str">
+        <f t="shared" si="66"/>
+        <v>01101111</v>
+      </c>
+      <c r="N21" s="138"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1">
+      <c r="A22" s="145"/>
+      <c r="B22" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="151" t="str">
+        <f t="shared" ref="C22" si="84">DEC2HEX(G22)</f>
+        <v>78</v>
+      </c>
+      <c r="D22" s="147" t="str">
+        <f t="shared" ref="D22" si="85">DEC2HEX(H22)</f>
+        <v>47</v>
+      </c>
+      <c r="E22" s="147" t="str">
+        <f t="shared" ref="E22" si="86">DEC2HEX(I22)</f>
+        <v>44</v>
+      </c>
+      <c r="F22" s="152" t="str">
+        <f t="shared" ref="F22" si="87">DEC2HEX(J22)</f>
+        <v>6E</v>
+      </c>
+      <c r="G22" s="155">
+        <v>120</v>
+      </c>
+      <c r="H22" s="146">
+        <v>71</v>
+      </c>
+      <c r="I22" s="146">
+        <v>68</v>
+      </c>
+      <c r="J22" s="156">
+        <v>110</v>
+      </c>
+      <c r="K22" s="159" t="str">
+        <f t="shared" si="65"/>
+        <v>01111000</v>
+      </c>
+      <c r="L22" s="148" t="str">
+        <f t="shared" ref="L22" si="88">DEC2BIN(H22,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M22" s="148" t="str">
+        <f t="shared" si="66"/>
+        <v>01000100</v>
+      </c>
+      <c r="N22" s="162" t="str">
+        <f t="shared" ref="N22" si="89">DEC2BIN(J22,8)</f>
+        <v>01101110</v>
+      </c>
+      <c r="O22" s="160">
+        <f t="shared" ref="O22" si="90">G21-I22</f>
+        <v>61</v>
+      </c>
+      <c r="P22" s="160">
+        <f t="shared" ref="P22" si="91">I21-J22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="14.25">
+      <c r="A23" s="141"/>
+      <c r="B23" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" s="149">
+        <v>81</v>
+      </c>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143">
+        <v>80</v>
+      </c>
+      <c r="F23" s="150"/>
+      <c r="G23" s="153">
+        <f t="shared" ref="G23:G36" si="92">HEX2DEC(C23)</f>
+        <v>129</v>
+      </c>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144">
+        <f t="shared" ref="I23:I36" si="93">HEX2DEC(E23)</f>
+        <v>128</v>
+      </c>
+      <c r="J23" s="154"/>
+      <c r="K23" s="125" t="str">
+        <f t="shared" ref="K23:K36" si="94">DEC2BIN(G23,8)</f>
+        <v>10000001</v>
+      </c>
+      <c r="L23" s="126"/>
+      <c r="M23" s="163" t="str">
+        <f t="shared" ref="M23:M36" si="95">DEC2BIN(I23,8)</f>
+        <v>10000000</v>
+      </c>
+      <c r="N23" s="138"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" thickBot="1">
+      <c r="A24" s="145"/>
+      <c r="B24" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="151" t="str">
+        <f t="shared" ref="C24:C36" si="96">DEC2HEX(G24)</f>
+        <v>78</v>
+      </c>
+      <c r="D24" s="147" t="str">
+        <f t="shared" ref="D24:D36" si="97">DEC2HEX(H24)</f>
+        <v>47</v>
+      </c>
+      <c r="E24" s="147" t="str">
+        <f t="shared" ref="E24:E36" si="98">DEC2HEX(I24)</f>
+        <v>45</v>
+      </c>
+      <c r="F24" s="152" t="str">
+        <f t="shared" ref="F24:F36" si="99">DEC2HEX(J24)</f>
+        <v>3F</v>
+      </c>
+      <c r="G24" s="155">
+        <v>120</v>
+      </c>
+      <c r="H24" s="146">
+        <v>71</v>
+      </c>
+      <c r="I24" s="146">
+        <v>69</v>
+      </c>
+      <c r="J24" s="156">
+        <v>63</v>
+      </c>
+      <c r="K24" s="159" t="str">
+        <f t="shared" si="94"/>
+        <v>01111000</v>
+      </c>
+      <c r="L24" s="148" t="str">
+        <f t="shared" ref="L24:L36" si="100">DEC2BIN(H24,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M24" s="148" t="str">
+        <f t="shared" si="95"/>
+        <v>01000101</v>
+      </c>
+      <c r="N24" s="162" t="str">
+        <f t="shared" ref="N24:N36" si="101">DEC2BIN(J24,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O24" s="160">
+        <f t="shared" ref="O24:O36" si="102">G23-I24</f>
+        <v>60</v>
+      </c>
+      <c r="P24" s="160">
+        <f t="shared" ref="P24:P36" si="103">I23-J24</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="14.25">
+      <c r="A25" s="141"/>
+      <c r="B25" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C25" s="149">
+        <v>82</v>
+      </c>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143">
+        <v>80</v>
+      </c>
+      <c r="F25" s="150"/>
+      <c r="G25" s="153">
+        <f t="shared" ref="G25:G36" si="104">HEX2DEC(C25)</f>
+        <v>130</v>
+      </c>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144">
+        <f t="shared" ref="I25:I36" si="105">HEX2DEC(E25)</f>
+        <v>128</v>
+      </c>
+      <c r="J25" s="154"/>
+      <c r="K25" s="125" t="str">
+        <f t="shared" si="94"/>
+        <v>10000010</v>
+      </c>
+      <c r="L25" s="126"/>
+      <c r="M25" s="163" t="str">
+        <f t="shared" si="95"/>
+        <v>10000000</v>
+      </c>
+      <c r="N25" s="138"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" thickBot="1">
+      <c r="A26" s="145"/>
+      <c r="B26" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="151" t="str">
+        <f t="shared" ref="C26:C36" si="106">DEC2HEX(G26)</f>
+        <v>78</v>
+      </c>
+      <c r="D26" s="147" t="str">
+        <f t="shared" ref="D26:D36" si="107">DEC2HEX(H26)</f>
+        <v>47</v>
+      </c>
+      <c r="E26" s="147" t="str">
+        <f t="shared" ref="E26:E36" si="108">DEC2HEX(I26)</f>
+        <v>49</v>
+      </c>
+      <c r="F26" s="152" t="str">
+        <f t="shared" ref="F26:F36" si="109">DEC2HEX(J26)</f>
+        <v>3F</v>
+      </c>
+      <c r="G26" s="155">
+        <v>120</v>
+      </c>
+      <c r="H26" s="146">
+        <v>71</v>
+      </c>
+      <c r="I26" s="146">
+        <v>73</v>
+      </c>
+      <c r="J26" s="156">
+        <v>63</v>
+      </c>
+      <c r="K26" s="159" t="str">
+        <f t="shared" si="94"/>
+        <v>01111000</v>
+      </c>
+      <c r="L26" s="148" t="str">
+        <f t="shared" ref="L26:L36" si="110">DEC2BIN(H26,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M26" s="148" t="str">
+        <f t="shared" si="95"/>
+        <v>01001001</v>
+      </c>
+      <c r="N26" s="162" t="str">
+        <f t="shared" ref="N26:N36" si="111">DEC2BIN(J26,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O26" s="160">
+        <f t="shared" ref="O26:O36" si="112">G25-I26</f>
+        <v>57</v>
+      </c>
+      <c r="P26" s="160">
+        <f t="shared" ref="P26:P36" si="113">I25-J26</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="14.25">
+      <c r="A27" s="141"/>
+      <c r="B27" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" s="149">
+        <v>83</v>
+      </c>
+      <c r="D27" s="143"/>
+      <c r="E27" s="143">
+        <v>80</v>
+      </c>
+      <c r="F27" s="150"/>
+      <c r="G27" s="153">
+        <f t="shared" ref="G27:G36" si="114">HEX2DEC(C27)</f>
+        <v>131</v>
+      </c>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144">
+        <f t="shared" ref="I27:I36" si="115">HEX2DEC(E27)</f>
+        <v>128</v>
+      </c>
+      <c r="J27" s="154"/>
+      <c r="K27" s="125" t="str">
+        <f t="shared" si="94"/>
+        <v>10000011</v>
+      </c>
+      <c r="L27" s="126"/>
+      <c r="M27" s="163" t="str">
+        <f t="shared" si="95"/>
+        <v>10000000</v>
+      </c>
+      <c r="N27" s="138"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" thickBot="1">
+      <c r="A28" s="145"/>
+      <c r="B28" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="151" t="str">
+        <f t="shared" ref="C28:C36" si="116">DEC2HEX(G28)</f>
+        <v>78</v>
+      </c>
+      <c r="D28" s="147" t="str">
+        <f t="shared" ref="D28:D36" si="117">DEC2HEX(H28)</f>
+        <v>47</v>
+      </c>
+      <c r="E28" s="147" t="str">
+        <f t="shared" ref="E28:E36" si="118">DEC2HEX(I28)</f>
+        <v>4D</v>
+      </c>
+      <c r="F28" s="152" t="str">
+        <f t="shared" ref="F28:F36" si="119">DEC2HEX(J28)</f>
+        <v>3F</v>
+      </c>
+      <c r="G28" s="155">
+        <v>120</v>
+      </c>
+      <c r="H28" s="146">
+        <v>71</v>
+      </c>
+      <c r="I28" s="146">
+        <v>77</v>
+      </c>
+      <c r="J28" s="156">
+        <v>63</v>
+      </c>
+      <c r="K28" s="159" t="str">
+        <f t="shared" si="94"/>
+        <v>01111000</v>
+      </c>
+      <c r="L28" s="148" t="str">
+        <f t="shared" ref="L28:L36" si="120">DEC2BIN(H28,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M28" s="148" t="str">
+        <f t="shared" si="95"/>
+        <v>01001101</v>
+      </c>
+      <c r="N28" s="162" t="str">
+        <f t="shared" ref="N28:N36" si="121">DEC2BIN(J28,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O28" s="160">
+        <f t="shared" ref="O28:O36" si="122">G27-I28</f>
+        <v>54</v>
+      </c>
+      <c r="P28" s="160">
+        <f t="shared" ref="P28:P36" si="123">I27-J28</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="14.25">
+      <c r="A29" s="141"/>
+      <c r="B29" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="149">
+        <v>84</v>
+      </c>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143">
+        <v>80</v>
+      </c>
+      <c r="F29" s="150"/>
+      <c r="G29" s="153">
+        <f t="shared" ref="G29:G36" si="124">HEX2DEC(C29)</f>
+        <v>132</v>
+      </c>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144">
+        <f>HEX2DEC(E29)</f>
+        <v>128</v>
+      </c>
+      <c r="J29" s="154"/>
+      <c r="K29" s="125" t="str">
+        <f t="shared" si="94"/>
+        <v>10000100</v>
+      </c>
+      <c r="L29" s="126"/>
+      <c r="M29" s="163" t="str">
+        <f>DEC2BIN(I29,8)</f>
+        <v>10000000</v>
+      </c>
+      <c r="N29" s="138"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" thickBot="1">
+      <c r="A30" s="145"/>
+      <c r="B30" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="151" t="str">
+        <f t="shared" ref="C30:C36" si="125">DEC2HEX(G30)</f>
+        <v>78</v>
+      </c>
+      <c r="D30" s="147" t="str">
+        <f t="shared" ref="D30:D36" si="126">DEC2HEX(H30)</f>
+        <v>47</v>
+      </c>
+      <c r="E30" s="147" t="str">
+        <f t="shared" ref="E30:E36" si="127">DEC2HEX(I30)</f>
+        <v>51</v>
+      </c>
+      <c r="F30" s="152" t="str">
+        <f t="shared" ref="F30:F36" si="128">DEC2HEX(J30)</f>
+        <v>3F</v>
+      </c>
+      <c r="G30" s="155">
+        <v>120</v>
+      </c>
+      <c r="H30" s="146">
+        <v>71</v>
+      </c>
+      <c r="I30" s="146">
+        <v>81</v>
+      </c>
+      <c r="J30" s="156">
+        <v>63</v>
+      </c>
+      <c r="K30" s="159" t="str">
+        <f t="shared" si="94"/>
+        <v>01111000</v>
+      </c>
+      <c r="L30" s="148" t="str">
+        <f t="shared" ref="L30:L36" si="129">DEC2BIN(H30,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M30" s="148" t="str">
+        <f t="shared" si="95"/>
+        <v>01010001</v>
+      </c>
+      <c r="N30" s="162" t="str">
+        <f t="shared" ref="N30:N36" si="130">DEC2BIN(J30,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O30" s="160">
+        <f t="shared" ref="O30:O36" si="131">G29-I30</f>
+        <v>51</v>
+      </c>
+      <c r="P30" s="160">
+        <f t="shared" ref="P30:P36" si="132">I29-J30</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="14.25">
+      <c r="A31" s="141"/>
+      <c r="B31" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="149">
+        <v>85</v>
+      </c>
+      <c r="D31" s="143"/>
+      <c r="E31" s="143">
+        <v>80</v>
+      </c>
+      <c r="F31" s="150"/>
+      <c r="G31" s="153">
+        <f t="shared" ref="G31:G36" si="133">HEX2DEC(C31)</f>
+        <v>133</v>
+      </c>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144">
+        <f t="shared" ref="I31:I36" si="134">HEX2DEC(E31)</f>
+        <v>128</v>
+      </c>
+      <c r="J31" s="154"/>
+      <c r="K31" s="125" t="str">
+        <f t="shared" si="94"/>
+        <v>10000101</v>
+      </c>
+      <c r="L31" s="126"/>
+      <c r="M31" s="163" t="str">
+        <f t="shared" si="95"/>
+        <v>10000000</v>
+      </c>
+      <c r="N31" s="138"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" thickBot="1">
+      <c r="A32" s="145"/>
+      <c r="B32" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="151" t="str">
+        <f t="shared" ref="C32:C36" si="135">DEC2HEX(G32)</f>
+        <v>78</v>
+      </c>
+      <c r="D32" s="147" t="str">
+        <f t="shared" ref="D32:D36" si="136">DEC2HEX(H32)</f>
+        <v>47</v>
+      </c>
+      <c r="E32" s="147" t="str">
+        <f t="shared" ref="E32:E36" si="137">DEC2HEX(I32)</f>
+        <v>55</v>
+      </c>
+      <c r="F32" s="152" t="str">
+        <f t="shared" ref="F32:F36" si="138">DEC2HEX(J32)</f>
+        <v>3F</v>
+      </c>
+      <c r="G32" s="155">
+        <v>120</v>
+      </c>
+      <c r="H32" s="146">
+        <v>71</v>
+      </c>
+      <c r="I32" s="146">
+        <v>85</v>
+      </c>
+      <c r="J32" s="156">
+        <v>63</v>
+      </c>
+      <c r="K32" s="159" t="str">
+        <f t="shared" si="94"/>
+        <v>01111000</v>
+      </c>
+      <c r="L32" s="148" t="str">
+        <f t="shared" ref="L32:L36" si="139">DEC2BIN(H32,8)</f>
+        <v>01000111</v>
+      </c>
+      <c r="M32" s="148" t="str">
+        <f t="shared" si="95"/>
+        <v>01010101</v>
+      </c>
+      <c r="N32" s="162" t="str">
+        <f t="shared" ref="N32:N36" si="140">DEC2BIN(J32,8)</f>
+        <v>00111111</v>
+      </c>
+      <c r="O32" s="160">
+        <f t="shared" ref="O32:O36" si="141">G31-I32</f>
+        <v>48</v>
+      </c>
+      <c r="P32" s="160">
+        <f t="shared" ref="P32:P36" si="142">I31-J32</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="14.25">
+      <c r="A33" s="141"/>
+      <c r="B33" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="149"/>
+      <c r="D33" s="143"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="153">
+        <f t="shared" ref="G33:G36" si="143">HEX2DEC(C33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144">
+        <f t="shared" ref="I33:I36" si="144">HEX2DEC(E33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="154"/>
+      <c r="K33" s="125" t="str">
+        <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="112" t="str">
-        <f>DEC2BIN(I3,8)</f>
+      <c r="L33" s="126"/>
+      <c r="M33" s="163" t="str">
+        <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="14.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="105">
-        <f>HEX2DEC(C4)</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105">
-        <f>HEX2DEC(E4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="112" t="str">
-        <f>DEC2BIN(G4,8)</f>
+      <c r="N33" s="138"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" thickBot="1">
+      <c r="A34" s="145"/>
+      <c r="B34" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="151" t="str">
+        <f t="shared" ref="C34:C36" si="145">DEC2HEX(G34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="147" t="str">
+        <f t="shared" ref="D34:D36" si="146">DEC2HEX(H34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="147" t="str">
+        <f t="shared" ref="E34:E36" si="147">DEC2HEX(I34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="152" t="str">
+        <f t="shared" ref="F34:F36" si="148">DEC2HEX(J34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="155"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="159" t="str">
+        <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="112" t="str">
-        <f>DEC2BIN(I4,8)</f>
+      <c r="L34" s="148" t="str">
+        <f t="shared" ref="L34:L36" si="149">DEC2BIN(H34,8)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="14.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="105">
-        <f>HEX2DEC(C5)</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105">
-        <f>HEX2DEC(E5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="112" t="str">
-        <f>DEC2BIN(G5,8)</f>
+      <c r="M34" s="148" t="str">
+        <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112" t="str">
-        <f>DEC2BIN(I5,8)</f>
+      <c r="N34" s="162" t="str">
+        <f t="shared" ref="N34:N36" si="150">DEC2BIN(J34,8)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="14.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="105">
-        <f>HEX2DEC(C6)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105">
-        <f>HEX2DEC(E6)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="105"/>
-      <c r="K6" s="112" t="str">
-        <f>DEC2BIN(G6,8)</f>
+      <c r="O34" s="160">
+        <f t="shared" ref="O34:O36" si="151">G33-I34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="160">
+        <f t="shared" ref="P34:P36" si="152">I33-J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="14.25">
+      <c r="A35" s="141"/>
+      <c r="B35" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="149"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="153">
+        <f t="shared" ref="G35:G36" si="153">HEX2DEC(C35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144">
+        <f t="shared" ref="I35:I36" si="154">HEX2DEC(E35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="154"/>
+      <c r="K35" s="125" t="str">
+        <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112" t="str">
-        <f>DEC2BIN(I6,8)</f>
+      <c r="L35" s="126"/>
+      <c r="M35" s="163" t="str">
+        <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="14.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="105">
-        <f>HEX2DEC(C7)</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105">
-        <f>HEX2DEC(E7)</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="105"/>
-      <c r="K7" s="112" t="str">
-        <f>DEC2BIN(G7,8)</f>
+      <c r="N35" s="138"/>
+    </row>
+    <row r="36" spans="1:16" ht="15" thickBot="1">
+      <c r="A36" s="145"/>
+      <c r="B36" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="151" t="str">
+        <f t="shared" ref="C36" si="155">DEC2HEX(G36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="147" t="str">
+        <f t="shared" ref="D36" si="156">DEC2HEX(H36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="147" t="str">
+        <f t="shared" ref="E36:F36" si="157">DEC2HEX(I36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="152" t="str">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="155"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="159" t="str">
+        <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L7" s="112"/>
-      <c r="M7" s="112" t="str">
-        <f>DEC2BIN(I7,8)</f>
+      <c r="L36" s="148" t="str">
+        <f t="shared" ref="L36" si="158">DEC2BIN(H36,8)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="105">
-        <f>HEX2DEC(C8)</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105">
-        <f>HEX2DEC(E8)</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="112" t="str">
-        <f>DEC2BIN(G8,8)</f>
+      <c r="M36" s="148" t="str">
+        <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112" t="str">
-        <f>DEC2BIN(I8,8)</f>
+      <c r="N36" s="162" t="str">
+        <f t="shared" ref="N36" si="159">DEC2BIN(J36,8)</f>
         <v>00000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="14.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="106"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="105">
-        <f>HEX2DEC(C9)</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105">
-        <f>HEX2DEC(E9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="112" t="str">
-        <f>DEC2BIN(G9,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112" t="str">
-        <f>DEC2BIN(I9,8)</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="14.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="105">
-        <f>HEX2DEC(C10)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105">
-        <f>HEX2DEC(E10)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="112" t="str">
-        <f>DEC2BIN(G10,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112" t="str">
-        <f>DEC2BIN(I10,8)</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" ht="14.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="105">
-        <f>HEX2DEC(C11)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105">
-        <f>HEX2DEC(E11)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="105"/>
-      <c r="K11" s="112" t="str">
-        <f>DEC2BIN(G11,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112" t="str">
-        <f>DEC2BIN(I11,8)</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="14.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="105">
-        <f>HEX2DEC(C12)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105">
-        <f>HEX2DEC(E12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="112" t="str">
-        <f>DEC2BIN(G12,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112" t="str">
-        <f>DEC2BIN(I12,8)</f>
-        <v>00000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="14.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="105">
-        <f>HEX2DEC(C13)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105">
-        <f>HEX2DEC(E13)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="105"/>
-      <c r="K13" s="112" t="str">
-        <f>DEC2BIN(G13,8)</f>
-        <v>00000000</v>
-      </c>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112" t="str">
-        <f>DEC2BIN(I13,8)</f>
-        <v>00000000</v>
+      <c r="O36" s="160">
+        <f t="shared" ref="O36" si="160">G35-I36</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="160">
+        <f t="shared" ref="P36" si="161">I35-J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="14.25">
+      <c r="A37" s="141" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="158" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="149" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="143"/>
+      <c r="E37" s="143" t="s">
+        <v>183</v>
+      </c>
+      <c r="F37" s="150"/>
+      <c r="G37" s="153">
+        <f t="shared" ref="G37:G38" si="162">HEX2DEC(C37)</f>
+        <v>157</v>
+      </c>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144">
+        <f t="shared" ref="I37:I38" si="163">HEX2DEC(E37)</f>
+        <v>254</v>
+      </c>
+      <c r="J37" s="154"/>
+      <c r="K37" s="125" t="str">
+        <f t="shared" ref="K37:K38" si="164">DEC2BIN(G37,8)</f>
+        <v>10011101</v>
+      </c>
+      <c r="L37" s="126"/>
+      <c r="M37" s="163" t="str">
+        <f t="shared" ref="M37:M38" si="165">DEC2BIN(I37,8)</f>
+        <v>11111110</v>
+      </c>
+      <c r="N37" s="138"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" thickBot="1">
+      <c r="A38" s="145"/>
+      <c r="B38" s="156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="151" t="str">
+        <f t="shared" ref="C38" si="166">DEC2HEX(G38)</f>
+        <v>78</v>
+      </c>
+      <c r="D38" s="147" t="str">
+        <f t="shared" ref="D38" si="167">DEC2HEX(H38)</f>
+        <v>48</v>
+      </c>
+      <c r="E38" s="147" t="str">
+        <f t="shared" ref="E38" si="168">DEC2HEX(I38)</f>
+        <v>76</v>
+      </c>
+      <c r="F38" s="152" t="str">
+        <f t="shared" ref="F38" si="169">DEC2HEX(J38)</f>
+        <v>7D</v>
+      </c>
+      <c r="G38" s="155">
+        <v>120</v>
+      </c>
+      <c r="H38" s="146">
+        <v>72</v>
+      </c>
+      <c r="I38" s="146">
+        <v>118</v>
+      </c>
+      <c r="J38" s="156">
+        <v>125</v>
+      </c>
+      <c r="K38" s="159" t="str">
+        <f t="shared" si="164"/>
+        <v>01111000</v>
+      </c>
+      <c r="L38" s="148" t="str">
+        <f t="shared" ref="L38" si="170">DEC2BIN(H38,8)</f>
+        <v>01001000</v>
+      </c>
+      <c r="M38" s="148" t="str">
+        <f t="shared" si="165"/>
+        <v>01110110</v>
+      </c>
+      <c r="N38" s="162" t="str">
+        <f t="shared" ref="N38" si="171">DEC2BIN(J38,8)</f>
+        <v>01111101</v>
+      </c>
+      <c r="O38" s="160">
+        <f t="shared" ref="O38" si="172">G37-I38</f>
+        <v>39</v>
+      </c>
+      <c r="P38" s="160">
+        <f t="shared" ref="P38" si="173">I37-J38</f>
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:X36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="169" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="171" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="167" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="170" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="171" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="167" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="170" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5" style="171" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="166"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24">
+      <c r="A1" s="185"/>
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="181"/>
+      <c r="F1" s="181"/>
+      <c r="G1" s="181"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="185">
+        <v>9</v>
+      </c>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="183" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="181"/>
+      <c r="O1" s="181"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="185" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="181"/>
+      <c r="S1" s="181"/>
+      <c r="T1" s="181"/>
+      <c r="U1" s="183" t="s">
+        <v>101</v>
+      </c>
+      <c r="V1" s="181"/>
+      <c r="W1" s="181"/>
+      <c r="X1" s="184"/>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="186"/>
+      <c r="B2" s="187"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="167" t="str">
+        <f>MID(TEXT(HEX2BIN($I1,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I1,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I1,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I1,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M2" s="172" t="str">
+        <f>MID(TEXT(HEX2BIN($M1,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="173" t="str">
+        <f>MID(TEXT(HEX2BIN($M1,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O2" s="173" t="str">
+        <f>MID(TEXT(HEX2BIN($M1,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="174" t="str">
+        <f>MID(TEXT(HEX2BIN($M1,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2" s="191" t="str">
+        <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="R2" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S2" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T2" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="193" t="str">
+        <f>MID(TEXT(HEX2BIN($U1,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($U1,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($U1,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="194" t="str">
+        <f>MID(TEXT(HEX2BIN($U1,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" s="186">
+        <v>4</v>
+      </c>
+      <c r="B3" s="187"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="187">
+        <v>8</v>
+      </c>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="186">
+        <v>7</v>
+      </c>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="189">
+        <v>6</v>
+      </c>
+      <c r="N3" s="187"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="190"/>
+      <c r="Q3" s="186">
+        <v>7</v>
+      </c>
+      <c r="R3" s="187"/>
+      <c r="S3" s="187"/>
+      <c r="T3" s="187"/>
+      <c r="U3" s="189" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="187"/>
+      <c r="W3" s="187"/>
+      <c r="X3" s="190"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1">
+      <c r="A4" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($A3,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($A3,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($A3,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="177" t="str">
+        <f>MID(TEXT(HEX2BIN($A3,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E3,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E3,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E3,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="178" t="str">
+        <f>MID(TEXT(HEX2BIN($E3,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($I3,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($I3,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($I3,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($I3,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="180" t="str">
+        <f>MID(TEXT(HEX2BIN($M3,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($M3,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($M3,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="196" t="str">
+        <f>MID(TEXT(HEX2BIN($M3,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U4" s="197" t="str">
+        <f>MID(TEXT(HEX2BIN($U3,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($U3,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W4" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($U3,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X4" s="196" t="str">
+        <f>MID(TEXT(HEX2BIN($U3,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" s="185"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="185">
+        <v>8</v>
+      </c>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="183">
+        <v>5</v>
+      </c>
+      <c r="N5" s="181"/>
+      <c r="O5" s="181"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="185">
+        <v>8</v>
+      </c>
+      <c r="R5" s="181"/>
+      <c r="S5" s="181"/>
+      <c r="T5" s="181"/>
+      <c r="U5" s="183">
+        <v>0</v>
+      </c>
+      <c r="V5" s="181"/>
+      <c r="W5" s="181"/>
+      <c r="X5" s="184"/>
+    </row>
+    <row r="6" spans="1:24">
+      <c r="A6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="167" t="str">
+        <f>MID(TEXT(HEX2BIN($I5,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I5,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I5,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="168" t="str">
+        <f>MID(TEXT(HEX2BIN($I5,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="172" t="str">
+        <f>MID(TEXT(HEX2BIN($M5,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="173" t="str">
+        <f>MID(TEXT(HEX2BIN($M5,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O6" s="173" t="str">
+        <f>MID(TEXT(HEX2BIN($M5,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="174" t="str">
+        <f>MID(TEXT(HEX2BIN($M5,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="191" t="str">
+        <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="193" t="str">
+        <f>MID(TEXT(HEX2BIN($U5,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($U5,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="192" t="str">
+        <f>MID(TEXT(HEX2BIN($U5,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="194" t="str">
+        <f>MID(TEXT(HEX2BIN($U5,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
+      <c r="A7" s="186">
+        <v>4</v>
+      </c>
+      <c r="B7" s="187"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="188"/>
+      <c r="E7" s="187">
+        <v>7</v>
+      </c>
+      <c r="F7" s="187"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="186">
+        <v>5</v>
+      </c>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="189">
+        <v>5</v>
+      </c>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="186">
+        <v>3</v>
+      </c>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="189" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="187"/>
+      <c r="W7" s="187"/>
+      <c r="X7" s="190"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" thickBot="1">
+      <c r="A8" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($A7,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($A7,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($A7,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="177" t="str">
+        <f>MID(TEXT(HEX2BIN($A7,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E7,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E7,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($E7,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H8" s="178" t="str">
+        <f>MID(TEXT(HEX2BIN($E7,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($I7,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="176" t="str">
+        <f>MID(TEXT(HEX2BIN($I7,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K8" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($I7,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($I7,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="180" t="str">
+        <f>MID(TEXT(HEX2BIN($M7,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="179" t="str">
+        <f>MID(TEXT(HEX2BIN($M7,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($M7,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="196" t="str">
+        <f>MID(TEXT(HEX2BIN($M7,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="175" t="str">
+        <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U8" s="197" t="str">
+        <f>MID(TEXT(HEX2BIN($U7,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($U7,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W8" s="195" t="str">
+        <f>MID(TEXT(HEX2BIN($U7,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="196" t="str">
+        <f>MID(TEXT(HEX2BIN($U7,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
+      <c r="A9" s="185"/>
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="185">
+        <v>8</v>
+      </c>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="183">
+        <v>4</v>
+      </c>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="185">
+        <v>8</v>
+      </c>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="183">
+        <v>0</v>
+      </c>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="184"/>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" s="186"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="167" t="str">
+        <f t="shared" ref="I10:I36" si="0">MID(TEXT(HEX2BIN($I9,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="168" t="str">
+        <f t="shared" ref="J10:J36" si="1">MID(TEXT(HEX2BIN($I9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="168" t="str">
+        <f t="shared" ref="K10:K36" si="2">MID(TEXT(HEX2BIN($I9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="168" t="str">
+        <f t="shared" ref="L10:L36" si="3">MID(TEXT(HEX2BIN($I9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="172" t="str">
+        <f t="shared" ref="M10:M36" si="4">MID(TEXT(HEX2BIN($M9,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="173" t="str">
+        <f t="shared" ref="N10:N36" si="5">MID(TEXT(HEX2BIN($M9,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="173" t="str">
+        <f t="shared" ref="O10:O36" si="6">MID(TEXT(HEX2BIN($M9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="174" t="str">
+        <f t="shared" ref="P10:P36" si="7">MID(TEXT(HEX2BIN($M9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="191" t="str">
+        <f t="shared" ref="Q10:Q36" si="8">MID(TEXT(HEX2BIN($Q9,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="192" t="str">
+        <f t="shared" ref="R10:R36" si="9">MID(TEXT(HEX2BIN($Q9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="192" t="str">
+        <f t="shared" ref="S10:S36" si="10">MID(TEXT(HEX2BIN($Q9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="192" t="str">
+        <f t="shared" ref="T10:T36" si="11">MID(TEXT(HEX2BIN($Q9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="193" t="str">
+        <f t="shared" ref="U10:U36" si="12">MID(TEXT(HEX2BIN($U9,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="192" t="str">
+        <f t="shared" ref="V10:V36" si="13">MID(TEXT(HEX2BIN($U9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="192" t="str">
+        <f t="shared" ref="W10:W36" si="14">MID(TEXT(HEX2BIN($U9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="194" t="str">
+        <f t="shared" ref="X10:X36" si="15">MID(TEXT(HEX2BIN($U9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" s="186">
+        <v>4</v>
+      </c>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="187">
+        <v>7</v>
+      </c>
+      <c r="F11" s="187"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="186">
+        <v>5</v>
+      </c>
+      <c r="J11" s="187"/>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="189">
+        <v>1</v>
+      </c>
+      <c r="N11" s="187"/>
+      <c r="O11" s="187"/>
+      <c r="P11" s="190"/>
+      <c r="Q11" s="186">
+        <v>3</v>
+      </c>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="189" t="s">
+        <v>23</v>
+      </c>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="190"/>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1">
+      <c r="A12" s="175" t="str">
+        <f t="shared" ref="A12:A36" si="16">MID(TEXT(HEX2BIN($A11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="176" t="str">
+        <f t="shared" ref="B12:B36" si="17">MID(TEXT(HEX2BIN($A11,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="176" t="str">
+        <f t="shared" ref="C12:C36" si="18">MID(TEXT(HEX2BIN($A11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="177" t="str">
+        <f t="shared" ref="D12:D36" si="19">MID(TEXT(HEX2BIN($A11,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="176" t="str">
+        <f t="shared" ref="E12:E36" si="20">MID(TEXT(HEX2BIN($E11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="176" t="str">
+        <f t="shared" ref="F12:F36" si="21">MID(TEXT(HEX2BIN($E11,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="176" t="str">
+        <f t="shared" ref="G12:G36" si="22">MID(TEXT(HEX2BIN($E11,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="178" t="str">
+        <f t="shared" ref="H12:H36" si="23">MID(TEXT(HEX2BIN($E11,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="175" t="str">
+        <f t="shared" ref="I12:I36" si="24">MID(TEXT(HEX2BIN($I11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="176" t="str">
+        <f t="shared" ref="J12:J36" si="25">MID(TEXT(HEX2BIN($I11,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K12" s="179" t="str">
+        <f t="shared" ref="K12:K36" si="26">MID(TEXT(HEX2BIN($I11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="179" t="str">
+        <f t="shared" ref="L12:L36" si="27">MID(TEXT(HEX2BIN($I11,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="180" t="str">
+        <f t="shared" ref="M12:M36" si="28">MID(TEXT(HEX2BIN($M11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="179" t="str">
+        <f t="shared" ref="N12:N36" si="29">MID(TEXT(HEX2BIN($M11,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="195" t="str">
+        <f t="shared" ref="O12:O36" si="30">MID(TEXT(HEX2BIN($M11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="196" t="str">
+        <f t="shared" ref="P12:P36" si="31">MID(TEXT(HEX2BIN($M11,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="175" t="str">
+        <f t="shared" ref="Q12:Q36" si="32">MID(TEXT(HEX2BIN($Q11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="195" t="str">
+        <f t="shared" ref="R12:R36" si="33">MID(TEXT(HEX2BIN($Q11,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="195" t="str">
+        <f t="shared" ref="S12:S36" si="34">MID(TEXT(HEX2BIN($Q11,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T12" s="195" t="str">
+        <f t="shared" ref="T12:T36" si="35">MID(TEXT(HEX2BIN($Q11,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U12" s="197" t="str">
+        <f t="shared" ref="U12:U36" si="36">MID(TEXT(HEX2BIN($U11,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="195" t="str">
+        <f t="shared" ref="V12:V36" si="37">MID(TEXT(HEX2BIN($U11,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W12" s="195" t="str">
+        <f t="shared" ref="W12:W36" si="38">MID(TEXT(HEX2BIN($U11,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="196" t="str">
+        <f t="shared" ref="X12:X36" si="39">MID(TEXT(HEX2BIN($U11,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="185"/>
+      <c r="B13" s="181"/>
+      <c r="C13" s="181"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="181"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="185">
+        <v>9</v>
+      </c>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="183" t="s">
+        <v>188</v>
+      </c>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="185">
+        <v>5</v>
+      </c>
+      <c r="R13" s="181"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="183">
+        <v>0</v>
+      </c>
+      <c r="V13" s="181"/>
+      <c r="W13" s="181"/>
+      <c r="X13" s="184"/>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="186"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="188"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="187"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="167" t="str">
+        <f t="shared" ref="I14:I36" si="40">MID(TEXT(HEX2BIN($I13,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J14" s="168" t="str">
+        <f t="shared" ref="J14:J36" si="41">MID(TEXT(HEX2BIN($I13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="168" t="str">
+        <f t="shared" ref="K14:K36" si="42">MID(TEXT(HEX2BIN($I13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="168" t="str">
+        <f t="shared" ref="L14:L36" si="43">MID(TEXT(HEX2BIN($I13,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M14" s="172" t="str">
+        <f t="shared" ref="M14:M36" si="44">MID(TEXT(HEX2BIN($M13,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N14" s="173" t="str">
+        <f t="shared" ref="N14:N36" si="45">MID(TEXT(HEX2BIN($M13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="173" t="str">
+        <f t="shared" ref="O14:O36" si="46">MID(TEXT(HEX2BIN($M13,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P14" s="174" t="str">
+        <f t="shared" ref="P14:P36" si="47">MID(TEXT(HEX2BIN($M13,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="191" t="str">
+        <f t="shared" ref="Q14:Q36" si="48">MID(TEXT(HEX2BIN($Q13,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="192" t="str">
+        <f t="shared" ref="R14:R36" si="49">MID(TEXT(HEX2BIN($Q13,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S14" s="192" t="str">
+        <f t="shared" ref="S14:S36" si="50">MID(TEXT(HEX2BIN($Q13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="192" t="str">
+        <f t="shared" ref="T14:T36" si="51">MID(TEXT(HEX2BIN($Q13,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U14" s="193" t="str">
+        <f t="shared" ref="U14:U36" si="52">MID(TEXT(HEX2BIN($U13,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="192" t="str">
+        <f t="shared" ref="V14:V36" si="53">MID(TEXT(HEX2BIN($U13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="192" t="str">
+        <f t="shared" ref="W14:W36" si="54">MID(TEXT(HEX2BIN($U13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="194" t="str">
+        <f t="shared" ref="X14:X36" si="55">MID(TEXT(HEX2BIN($U13,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="186">
+        <v>4</v>
+      </c>
+      <c r="B15" s="187"/>
+      <c r="C15" s="187"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="187">
+        <v>8</v>
+      </c>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="186">
+        <v>6</v>
+      </c>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="189" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="190"/>
+      <c r="Q15" s="186">
+        <v>4</v>
+      </c>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="189" t="s">
+        <v>23</v>
+      </c>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="190"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1">
+      <c r="A16" s="175" t="str">
+        <f t="shared" ref="A16:A36" si="56">MID(TEXT(HEX2BIN($A15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="176" t="str">
+        <f t="shared" ref="B16:B36" si="57">MID(TEXT(HEX2BIN($A15,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="176" t="str">
+        <f t="shared" ref="C16:C36" si="58">MID(TEXT(HEX2BIN($A15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="177" t="str">
+        <f t="shared" ref="D16:D36" si="59">MID(TEXT(HEX2BIN($A15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="176" t="str">
+        <f t="shared" ref="E16:E36" si="60">MID(TEXT(HEX2BIN($E15,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="176" t="str">
+        <f t="shared" ref="F16:F36" si="61">MID(TEXT(HEX2BIN($E15,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="176" t="str">
+        <f t="shared" ref="G16:G36" si="62">MID(TEXT(HEX2BIN($E15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="178" t="str">
+        <f t="shared" ref="H16:H36" si="63">MID(TEXT(HEX2BIN($E15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="175" t="str">
+        <f t="shared" ref="I16:I36" si="64">MID(TEXT(HEX2BIN($I15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="176" t="str">
+        <f t="shared" ref="J16:J36" si="65">MID(TEXT(HEX2BIN($I15,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="179" t="str">
+        <f t="shared" ref="K16:K36" si="66">MID(TEXT(HEX2BIN($I15,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L16" s="179" t="str">
+        <f t="shared" ref="L16:L36" si="67">MID(TEXT(HEX2BIN($I15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="180" t="str">
+        <f t="shared" ref="M16:M36" si="68">MID(TEXT(HEX2BIN($M15,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N16" s="179" t="str">
+        <f t="shared" ref="N16:N36" si="69">MID(TEXT(HEX2BIN($M15,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O16" s="195" t="str">
+        <f t="shared" ref="O16:O36" si="70">MID(TEXT(HEX2BIN($M15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="196" t="str">
+        <f t="shared" ref="P16:P36" si="71">MID(TEXT(HEX2BIN($M15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="175" t="str">
+        <f t="shared" ref="Q16:Q36" si="72">MID(TEXT(HEX2BIN($Q15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="195" t="str">
+        <f t="shared" ref="R16:R36" si="73">MID(TEXT(HEX2BIN($Q15,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="195" t="str">
+        <f t="shared" ref="S16:S36" si="74">MID(TEXT(HEX2BIN($Q15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="195" t="str">
+        <f t="shared" ref="T16:T36" si="75">MID(TEXT(HEX2BIN($Q15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="197" t="str">
+        <f t="shared" ref="U16:U36" si="76">MID(TEXT(HEX2BIN($U15,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V16" s="195" t="str">
+        <f t="shared" ref="V16:V36" si="77">MID(TEXT(HEX2BIN($U15,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W16" s="195" t="str">
+        <f t="shared" ref="W16:W36" si="78">MID(TEXT(HEX2BIN($U15,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="196" t="str">
+        <f t="shared" ref="X16:X36" si="79">MID(TEXT(HEX2BIN($U15,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="185"/>
+      <c r="B17" s="181"/>
+      <c r="C17" s="181"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="181"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="181"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="181"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="185"/>
+      <c r="R17" s="181"/>
+      <c r="S17" s="181"/>
+      <c r="T17" s="181"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="181"/>
+      <c r="W17" s="181"/>
+      <c r="X17" s="184"/>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="186"/>
+      <c r="B18" s="187"/>
+      <c r="C18" s="187"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="187"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="167" t="str">
+        <f t="shared" ref="I18:I36" si="80">MID(TEXT(HEX2BIN($I17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="168" t="str">
+        <f t="shared" ref="J18:J36" si="81">MID(TEXT(HEX2BIN($I17,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="168" t="str">
+        <f t="shared" ref="K18:K36" si="82">MID(TEXT(HEX2BIN($I17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="168" t="str">
+        <f t="shared" ref="L18:L36" si="83">MID(TEXT(HEX2BIN($I17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="172" t="str">
+        <f t="shared" ref="M18:M36" si="84">MID(TEXT(HEX2BIN($M17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="173" t="str">
+        <f t="shared" ref="N18:N36" si="85">MID(TEXT(HEX2BIN($M17,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="173" t="str">
+        <f t="shared" ref="O18:O36" si="86">MID(TEXT(HEX2BIN($M17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="174" t="str">
+        <f t="shared" ref="P18:P36" si="87">MID(TEXT(HEX2BIN($M17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="191" t="str">
+        <f t="shared" ref="Q18:Q36" si="88">MID(TEXT(HEX2BIN($Q17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="192" t="str">
+        <f t="shared" ref="R18:R36" si="89">MID(TEXT(HEX2BIN($Q17,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="192" t="str">
+        <f t="shared" ref="S18:S36" si="90">MID(TEXT(HEX2BIN($Q17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="192" t="str">
+        <f t="shared" ref="T18:T36" si="91">MID(TEXT(HEX2BIN($Q17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="193" t="str">
+        <f t="shared" ref="U18:U36" si="92">MID(TEXT(HEX2BIN($U17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="192" t="str">
+        <f t="shared" ref="V18:V36" si="93">MID(TEXT(HEX2BIN($U17,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="192" t="str">
+        <f t="shared" ref="W18:W36" si="94">MID(TEXT(HEX2BIN($U17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="194" t="str">
+        <f t="shared" ref="X18:X36" si="95">MID(TEXT(HEX2BIN($U17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" s="186"/>
+      <c r="B19" s="187"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="187"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="186"/>
+      <c r="J19" s="187"/>
+      <c r="K19" s="187"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="189"/>
+      <c r="N19" s="187"/>
+      <c r="O19" s="187"/>
+      <c r="P19" s="190"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="190"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1">
+      <c r="A20" s="175" t="str">
+        <f t="shared" ref="A20:A36" si="96">MID(TEXT(HEX2BIN($A19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="176" t="str">
+        <f t="shared" ref="B20:B36" si="97">MID(TEXT(HEX2BIN($A19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="176" t="str">
+        <f t="shared" ref="C20:C36" si="98">MID(TEXT(HEX2BIN($A19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="177" t="str">
+        <f t="shared" ref="D20:D36" si="99">MID(TEXT(HEX2BIN($A19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="176" t="str">
+        <f t="shared" ref="E20:E36" si="100">MID(TEXT(HEX2BIN($E19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="176" t="str">
+        <f t="shared" ref="F20:F36" si="101">MID(TEXT(HEX2BIN($E19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="176" t="str">
+        <f t="shared" ref="G20:G36" si="102">MID(TEXT(HEX2BIN($E19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="178" t="str">
+        <f t="shared" ref="H20:H36" si="103">MID(TEXT(HEX2BIN($E19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="175" t="str">
+        <f t="shared" ref="I20:I36" si="104">MID(TEXT(HEX2BIN($I19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="176" t="str">
+        <f t="shared" ref="J20:J36" si="105">MID(TEXT(HEX2BIN($I19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="179" t="str">
+        <f t="shared" ref="K20:K36" si="106">MID(TEXT(HEX2BIN($I19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="179" t="str">
+        <f t="shared" ref="L20:L36" si="107">MID(TEXT(HEX2BIN($I19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="180" t="str">
+        <f t="shared" ref="M20:M36" si="108">MID(TEXT(HEX2BIN($M19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="179" t="str">
+        <f t="shared" ref="N20:N36" si="109">MID(TEXT(HEX2BIN($M19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="195" t="str">
+        <f t="shared" ref="O20:O36" si="110">MID(TEXT(HEX2BIN($M19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="196" t="str">
+        <f t="shared" ref="P20:P36" si="111">MID(TEXT(HEX2BIN($M19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="175" t="str">
+        <f t="shared" ref="Q20:Q36" si="112">MID(TEXT(HEX2BIN($Q19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="195" t="str">
+        <f t="shared" ref="R20:R36" si="113">MID(TEXT(HEX2BIN($Q19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="195" t="str">
+        <f t="shared" ref="S20:S36" si="114">MID(TEXT(HEX2BIN($Q19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="195" t="str">
+        <f t="shared" ref="T20:T36" si="115">MID(TEXT(HEX2BIN($Q19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="197" t="str">
+        <f t="shared" ref="U20:U36" si="116">MID(TEXT(HEX2BIN($U19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="195" t="str">
+        <f t="shared" ref="V20:V36" si="117">MID(TEXT(HEX2BIN($U19,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="195" t="str">
+        <f t="shared" ref="W20:W36" si="118">MID(TEXT(HEX2BIN($U19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="196" t="str">
+        <f t="shared" ref="X20:X36" si="119">MID(TEXT(HEX2BIN($U19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="A21" s="185"/>
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="185"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="185"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="183"/>
+      <c r="V21" s="181"/>
+      <c r="W21" s="181"/>
+      <c r="X21" s="184"/>
+    </row>
+    <row r="22" spans="1:24">
+      <c r="A22" s="186"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="187"/>
+      <c r="F22" s="187"/>
+      <c r="G22" s="187"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="167" t="str">
+        <f t="shared" ref="I22:I36" si="120">MID(TEXT(HEX2BIN($I21,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="168" t="str">
+        <f t="shared" ref="J22:J36" si="121">MID(TEXT(HEX2BIN($I21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="168" t="str">
+        <f t="shared" ref="K22:K36" si="122">MID(TEXT(HEX2BIN($I21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="168" t="str">
+        <f t="shared" ref="L22:L36" si="123">MID(TEXT(HEX2BIN($I21,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="172" t="str">
+        <f t="shared" ref="M22:M36" si="124">MID(TEXT(HEX2BIN($M21,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="173" t="str">
+        <f t="shared" ref="N22:N36" si="125">MID(TEXT(HEX2BIN($M21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="173" t="str">
+        <f t="shared" ref="O22:O36" si="126">MID(TEXT(HEX2BIN($M21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="174" t="str">
+        <f t="shared" ref="P22:P36" si="127">MID(TEXT(HEX2BIN($M21,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="191" t="str">
+        <f t="shared" ref="Q22:Q36" si="128">MID(TEXT(HEX2BIN($Q21,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="192" t="str">
+        <f t="shared" ref="R22:R36" si="129">MID(TEXT(HEX2BIN($Q21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="192" t="str">
+        <f t="shared" ref="S22:S36" si="130">MID(TEXT(HEX2BIN($Q21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="192" t="str">
+        <f t="shared" ref="T22:T36" si="131">MID(TEXT(HEX2BIN($Q21,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="193" t="str">
+        <f t="shared" ref="U22:U36" si="132">MID(TEXT(HEX2BIN($U21,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="192" t="str">
+        <f t="shared" ref="V22:V36" si="133">MID(TEXT(HEX2BIN($U21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="192" t="str">
+        <f t="shared" ref="W22:W36" si="134">MID(TEXT(HEX2BIN($U21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="194" t="str">
+        <f t="shared" ref="X22:X36" si="135">MID(TEXT(HEX2BIN($U21,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
+      <c r="A23" s="186"/>
+      <c r="B23" s="187"/>
+      <c r="C23" s="187"/>
+      <c r="D23" s="188"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="187"/>
+      <c r="G23" s="187"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="186"/>
+      <c r="J23" s="187"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="189"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="190"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="190"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1">
+      <c r="A24" s="175" t="str">
+        <f t="shared" ref="A24:A36" si="136">MID(TEXT(HEX2BIN($A23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="176" t="str">
+        <f t="shared" ref="B24:B36" si="137">MID(TEXT(HEX2BIN($A23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="176" t="str">
+        <f t="shared" ref="C24:C36" si="138">MID(TEXT(HEX2BIN($A23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="177" t="str">
+        <f t="shared" ref="D24:D36" si="139">MID(TEXT(HEX2BIN($A23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="176" t="str">
+        <f t="shared" ref="E24:E36" si="140">MID(TEXT(HEX2BIN($E23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="176" t="str">
+        <f t="shared" ref="F24:F36" si="141">MID(TEXT(HEX2BIN($E23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="176" t="str">
+        <f t="shared" ref="G24:G36" si="142">MID(TEXT(HEX2BIN($E23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="178" t="str">
+        <f t="shared" ref="H24:H36" si="143">MID(TEXT(HEX2BIN($E23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="175" t="str">
+        <f t="shared" ref="I24:I36" si="144">MID(TEXT(HEX2BIN($I23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="176" t="str">
+        <f t="shared" ref="J24:J36" si="145">MID(TEXT(HEX2BIN($I23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="179" t="str">
+        <f t="shared" ref="K24:K36" si="146">MID(TEXT(HEX2BIN($I23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="179" t="str">
+        <f t="shared" ref="L24:L36" si="147">MID(TEXT(HEX2BIN($I23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="180" t="str">
+        <f t="shared" ref="M24:M36" si="148">MID(TEXT(HEX2BIN($M23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="179" t="str">
+        <f t="shared" ref="N24:N36" si="149">MID(TEXT(HEX2BIN($M23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="195" t="str">
+        <f t="shared" ref="O24:O36" si="150">MID(TEXT(HEX2BIN($M23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="196" t="str">
+        <f t="shared" ref="P24:P36" si="151">MID(TEXT(HEX2BIN($M23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="175" t="str">
+        <f t="shared" ref="Q24:Q36" si="152">MID(TEXT(HEX2BIN($Q23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="195" t="str">
+        <f t="shared" ref="R24:R36" si="153">MID(TEXT(HEX2BIN($Q23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="195" t="str">
+        <f t="shared" ref="S24:S36" si="154">MID(TEXT(HEX2BIN($Q23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="195" t="str">
+        <f t="shared" ref="T24:T36" si="155">MID(TEXT(HEX2BIN($Q23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="197" t="str">
+        <f t="shared" ref="U24:U36" si="156">MID(TEXT(HEX2BIN($U23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="195" t="str">
+        <f t="shared" ref="V24:V36" si="157">MID(TEXT(HEX2BIN($U23,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="195" t="str">
+        <f t="shared" ref="W24:W36" si="158">MID(TEXT(HEX2BIN($U23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="196" t="str">
+        <f t="shared" ref="X24:X36" si="159">MID(TEXT(HEX2BIN($U23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
+      <c r="A25" s="185"/>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="181"/>
+      <c r="O25" s="181"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="185"/>
+      <c r="R25" s="181"/>
+      <c r="S25" s="181"/>
+      <c r="T25" s="181"/>
+      <c r="U25" s="183"/>
+      <c r="V25" s="181"/>
+      <c r="W25" s="181"/>
+      <c r="X25" s="184"/>
+    </row>
+    <row r="26" spans="1:24">
+      <c r="A26" s="186"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="188"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="167" t="str">
+        <f t="shared" ref="I26:I36" si="160">MID(TEXT(HEX2BIN($I25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="168" t="str">
+        <f t="shared" ref="J26:J36" si="161">MID(TEXT(HEX2BIN($I25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="168" t="str">
+        <f t="shared" ref="K26:K36" si="162">MID(TEXT(HEX2BIN($I25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="168" t="str">
+        <f t="shared" ref="L26:L36" si="163">MID(TEXT(HEX2BIN($I25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="172" t="str">
+        <f t="shared" ref="M26:M36" si="164">MID(TEXT(HEX2BIN($M25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="173" t="str">
+        <f t="shared" ref="N26:N36" si="165">MID(TEXT(HEX2BIN($M25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="173" t="str">
+        <f t="shared" ref="O26:O36" si="166">MID(TEXT(HEX2BIN($M25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="174" t="str">
+        <f t="shared" ref="P26:P36" si="167">MID(TEXT(HEX2BIN($M25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="191" t="str">
+        <f t="shared" ref="Q26:Q36" si="168">MID(TEXT(HEX2BIN($Q25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="192" t="str">
+        <f t="shared" ref="R26:R36" si="169">MID(TEXT(HEX2BIN($Q25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="192" t="str">
+        <f t="shared" ref="S26:S36" si="170">MID(TEXT(HEX2BIN($Q25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="192" t="str">
+        <f t="shared" ref="T26:T36" si="171">MID(TEXT(HEX2BIN($Q25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="193" t="str">
+        <f t="shared" ref="U26:U36" si="172">MID(TEXT(HEX2BIN($U25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="192" t="str">
+        <f t="shared" ref="V26:V36" si="173">MID(TEXT(HEX2BIN($U25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="192" t="str">
+        <f t="shared" ref="W26:W36" si="174">MID(TEXT(HEX2BIN($U25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="194" t="str">
+        <f t="shared" ref="X26:X36" si="175">MID(TEXT(HEX2BIN($U25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
+      <c r="A27" s="186"/>
+      <c r="B27" s="187"/>
+      <c r="C27" s="187"/>
+      <c r="D27" s="188"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="187"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="186"/>
+      <c r="J27" s="187"/>
+      <c r="K27" s="187"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="189"/>
+      <c r="N27" s="187"/>
+      <c r="O27" s="187"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="189"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="190"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1">
+      <c r="A28" s="175" t="str">
+        <f t="shared" ref="A28:A36" si="176">MID(TEXT(HEX2BIN($A27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="176" t="str">
+        <f t="shared" ref="B28:B36" si="177">MID(TEXT(HEX2BIN($A27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="176" t="str">
+        <f t="shared" ref="C28:C36" si="178">MID(TEXT(HEX2BIN($A27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="177" t="str">
+        <f t="shared" ref="D28:D36" si="179">MID(TEXT(HEX2BIN($A27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="176" t="str">
+        <f t="shared" ref="E28:E36" si="180">MID(TEXT(HEX2BIN($E27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="176" t="str">
+        <f t="shared" ref="F28:F36" si="181">MID(TEXT(HEX2BIN($E27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="176" t="str">
+        <f t="shared" ref="G28:G36" si="182">MID(TEXT(HEX2BIN($E27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="178" t="str">
+        <f t="shared" ref="H28:H36" si="183">MID(TEXT(HEX2BIN($E27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="175" t="str">
+        <f t="shared" ref="I28:I36" si="184">MID(TEXT(HEX2BIN($I27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="176" t="str">
+        <f t="shared" ref="J28:J36" si="185">MID(TEXT(HEX2BIN($I27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="179" t="str">
+        <f t="shared" ref="K28:K36" si="186">MID(TEXT(HEX2BIN($I27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="179" t="str">
+        <f t="shared" ref="L28:L36" si="187">MID(TEXT(HEX2BIN($I27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="180" t="str">
+        <f t="shared" ref="M28:M36" si="188">MID(TEXT(HEX2BIN($M27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="179" t="str">
+        <f t="shared" ref="N28:N36" si="189">MID(TEXT(HEX2BIN($M27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="195" t="str">
+        <f t="shared" ref="O28:O36" si="190">MID(TEXT(HEX2BIN($M27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="196" t="str">
+        <f t="shared" ref="P28:P36" si="191">MID(TEXT(HEX2BIN($M27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="175" t="str">
+        <f t="shared" ref="Q28:Q36" si="192">MID(TEXT(HEX2BIN($Q27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="195" t="str">
+        <f t="shared" ref="R28:R36" si="193">MID(TEXT(HEX2BIN($Q27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="195" t="str">
+        <f t="shared" ref="S28:S36" si="194">MID(TEXT(HEX2BIN($Q27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="195" t="str">
+        <f t="shared" ref="T28:T36" si="195">MID(TEXT(HEX2BIN($Q27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="197" t="str">
+        <f t="shared" ref="U28:U36" si="196">MID(TEXT(HEX2BIN($U27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="195" t="str">
+        <f t="shared" ref="V28:V36" si="197">MID(TEXT(HEX2BIN($U27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="195" t="str">
+        <f t="shared" ref="W28:W36" si="198">MID(TEXT(HEX2BIN($U27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="196" t="str">
+        <f t="shared" ref="X28:X36" si="199">MID(TEXT(HEX2BIN($U27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
+      <c r="A29" s="185"/>
+      <c r="B29" s="181"/>
+      <c r="C29" s="181"/>
+      <c r="D29" s="182"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="185"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="183"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="184"/>
+    </row>
+    <row r="30" spans="1:24">
+      <c r="A30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="188"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="187"/>
+      <c r="G30" s="187"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="167" t="str">
+        <f t="shared" ref="I30:I36" si="200">MID(TEXT(HEX2BIN($I29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="168" t="str">
+        <f t="shared" ref="J30:J36" si="201">MID(TEXT(HEX2BIN($I29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="168" t="str">
+        <f t="shared" ref="K30:K36" si="202">MID(TEXT(HEX2BIN($I29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="168" t="str">
+        <f t="shared" ref="L30:L36" si="203">MID(TEXT(HEX2BIN($I29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="172" t="str">
+        <f t="shared" ref="M30:M36" si="204">MID(TEXT(HEX2BIN($M29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="173" t="str">
+        <f t="shared" ref="N30:N36" si="205">MID(TEXT(HEX2BIN($M29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="173" t="str">
+        <f t="shared" ref="O30:O36" si="206">MID(TEXT(HEX2BIN($M29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="174" t="str">
+        <f t="shared" ref="P30:P36" si="207">MID(TEXT(HEX2BIN($M29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="191" t="str">
+        <f t="shared" ref="Q30:Q36" si="208">MID(TEXT(HEX2BIN($Q29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="192" t="str">
+        <f t="shared" ref="R30:R36" si="209">MID(TEXT(HEX2BIN($Q29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="192" t="str">
+        <f t="shared" ref="S30:S36" si="210">MID(TEXT(HEX2BIN($Q29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="192" t="str">
+        <f t="shared" ref="T30:T36" si="211">MID(TEXT(HEX2BIN($Q29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="193" t="str">
+        <f t="shared" ref="U30:U36" si="212">MID(TEXT(HEX2BIN($U29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="192" t="str">
+        <f t="shared" ref="V30:V36" si="213">MID(TEXT(HEX2BIN($U29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="192" t="str">
+        <f t="shared" ref="W30:W36" si="214">MID(TEXT(HEX2BIN($U29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="194" t="str">
+        <f t="shared" ref="X30:X36" si="215">MID(TEXT(HEX2BIN($U29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" s="186"/>
+      <c r="B31" s="187"/>
+      <c r="C31" s="187"/>
+      <c r="D31" s="188"/>
+      <c r="E31" s="187"/>
+      <c r="F31" s="187"/>
+      <c r="G31" s="187"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="187"/>
+      <c r="L31" s="187"/>
+      <c r="M31" s="189"/>
+      <c r="N31" s="187"/>
+      <c r="O31" s="187"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="190"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" thickBot="1">
+      <c r="A32" s="175" t="str">
+        <f t="shared" ref="A32:A36" si="216">MID(TEXT(HEX2BIN($A31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="176" t="str">
+        <f t="shared" ref="B32:B36" si="217">MID(TEXT(HEX2BIN($A31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="176" t="str">
+        <f t="shared" ref="C32:C36" si="218">MID(TEXT(HEX2BIN($A31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="177" t="str">
+        <f t="shared" ref="D32:D36" si="219">MID(TEXT(HEX2BIN($A31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="176" t="str">
+        <f t="shared" ref="E32:E36" si="220">MID(TEXT(HEX2BIN($E31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="176" t="str">
+        <f t="shared" ref="F32:F36" si="221">MID(TEXT(HEX2BIN($E31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="176" t="str">
+        <f t="shared" ref="G32:G36" si="222">MID(TEXT(HEX2BIN($E31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="178" t="str">
+        <f t="shared" ref="H32:H36" si="223">MID(TEXT(HEX2BIN($E31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="175" t="str">
+        <f t="shared" ref="I32:I36" si="224">MID(TEXT(HEX2BIN($I31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="176" t="str">
+        <f t="shared" ref="J32:J36" si="225">MID(TEXT(HEX2BIN($I31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="179" t="str">
+        <f t="shared" ref="K32:K36" si="226">MID(TEXT(HEX2BIN($I31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="179" t="str">
+        <f t="shared" ref="L32:L36" si="227">MID(TEXT(HEX2BIN($I31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="180" t="str">
+        <f t="shared" ref="M32:M36" si="228">MID(TEXT(HEX2BIN($M31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="179" t="str">
+        <f t="shared" ref="N32:N36" si="229">MID(TEXT(HEX2BIN($M31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="195" t="str">
+        <f t="shared" ref="O32:O36" si="230">MID(TEXT(HEX2BIN($M31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="196" t="str">
+        <f t="shared" ref="P32:P36" si="231">MID(TEXT(HEX2BIN($M31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="175" t="str">
+        <f t="shared" ref="Q32:Q36" si="232">MID(TEXT(HEX2BIN($Q31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="195" t="str">
+        <f t="shared" ref="R32:R36" si="233">MID(TEXT(HEX2BIN($Q31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="195" t="str">
+        <f t="shared" ref="S32:S36" si="234">MID(TEXT(HEX2BIN($Q31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="195" t="str">
+        <f t="shared" ref="T32:T36" si="235">MID(TEXT(HEX2BIN($Q31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="197" t="str">
+        <f t="shared" ref="U32:U36" si="236">MID(TEXT(HEX2BIN($U31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="195" t="str">
+        <f t="shared" ref="V32:V36" si="237">MID(TEXT(HEX2BIN($U31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="195" t="str">
+        <f t="shared" ref="W32:W36" si="238">MID(TEXT(HEX2BIN($U31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="196" t="str">
+        <f t="shared" ref="X32:X36" si="239">MID(TEXT(HEX2BIN($U31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="A33" s="185"/>
+      <c r="B33" s="181"/>
+      <c r="C33" s="181"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="181"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="185"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="183"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="184"/>
+    </row>
+    <row r="34" spans="1:24">
+      <c r="A34" s="186"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="187"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="187"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="167" t="str">
+        <f t="shared" ref="I34:I36" si="240">MID(TEXT(HEX2BIN($I33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="168" t="str">
+        <f t="shared" ref="J34:J36" si="241">MID(TEXT(HEX2BIN($I33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="168" t="str">
+        <f t="shared" ref="K34:K36" si="242">MID(TEXT(HEX2BIN($I33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="168" t="str">
+        <f t="shared" ref="L34:L36" si="243">MID(TEXT(HEX2BIN($I33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="172" t="str">
+        <f t="shared" ref="M34:M36" si="244">MID(TEXT(HEX2BIN($M33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="173" t="str">
+        <f t="shared" ref="N34:N36" si="245">MID(TEXT(HEX2BIN($M33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="173" t="str">
+        <f t="shared" ref="O34:O36" si="246">MID(TEXT(HEX2BIN($M33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="174" t="str">
+        <f t="shared" ref="P34:P36" si="247">MID(TEXT(HEX2BIN($M33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="191" t="str">
+        <f t="shared" ref="Q34:Q36" si="248">MID(TEXT(HEX2BIN($Q33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="192" t="str">
+        <f t="shared" ref="R34:R36" si="249">MID(TEXT(HEX2BIN($Q33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="192" t="str">
+        <f t="shared" ref="S34:S36" si="250">MID(TEXT(HEX2BIN($Q33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="192" t="str">
+        <f t="shared" ref="T34:T36" si="251">MID(TEXT(HEX2BIN($Q33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="193" t="str">
+        <f t="shared" ref="U34:U36" si="252">MID(TEXT(HEX2BIN($U33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="192" t="str">
+        <f t="shared" ref="V34:V36" si="253">MID(TEXT(HEX2BIN($U33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="192" t="str">
+        <f t="shared" ref="W34:W36" si="254">MID(TEXT(HEX2BIN($U33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="194" t="str">
+        <f t="shared" ref="X34:X36" si="255">MID(TEXT(HEX2BIN($U33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
+      <c r="A35" s="186"/>
+      <c r="B35" s="187"/>
+      <c r="C35" s="187"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="187"/>
+      <c r="F35" s="187"/>
+      <c r="G35" s="187"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="186"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="187"/>
+      <c r="O35" s="187"/>
+      <c r="P35" s="190"/>
+      <c r="Q35" s="186"/>
+      <c r="R35" s="187"/>
+      <c r="S35" s="187"/>
+      <c r="T35" s="187"/>
+      <c r="U35" s="189"/>
+      <c r="V35" s="187"/>
+      <c r="W35" s="187"/>
+      <c r="X35" s="190"/>
+    </row>
+    <row r="36" spans="1:24" ht="15" thickBot="1">
+      <c r="A36" s="175" t="str">
+        <f t="shared" ref="A36" si="256">MID(TEXT(HEX2BIN($A35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="176" t="str">
+        <f t="shared" ref="B36" si="257">MID(TEXT(HEX2BIN($A35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="176" t="str">
+        <f t="shared" ref="C36" si="258">MID(TEXT(HEX2BIN($A35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="177" t="str">
+        <f t="shared" ref="D36" si="259">MID(TEXT(HEX2BIN($A35,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="176" t="str">
+        <f t="shared" ref="E36" si="260">MID(TEXT(HEX2BIN($E35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="176" t="str">
+        <f t="shared" ref="F36" si="261">MID(TEXT(HEX2BIN($E35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="176" t="str">
+        <f t="shared" ref="G36" si="262">MID(TEXT(HEX2BIN($E35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="178" t="str">
+        <f t="shared" ref="H36" si="263">MID(TEXT(HEX2BIN($E35,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="175" t="str">
+        <f t="shared" ref="I36" si="264">MID(TEXT(HEX2BIN($I35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="176" t="str">
+        <f t="shared" ref="J36" si="265">MID(TEXT(HEX2BIN($I35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="179" t="str">
+        <f t="shared" ref="K36" si="266">MID(TEXT(HEX2BIN($I35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="179" t="str">
+        <f t="shared" ref="L36" si="267">MID(TEXT(HEX2BIN($I35,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="180" t="str">
+        <f t="shared" ref="M36" si="268">MID(TEXT(HEX2BIN($M35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="179" t="str">
+        <f t="shared" ref="N36" si="269">MID(TEXT(HEX2BIN($M35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="195" t="str">
+        <f t="shared" ref="O36" si="270">MID(TEXT(HEX2BIN($M35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="196" t="str">
+        <f t="shared" ref="P36" si="271">MID(TEXT(HEX2BIN($M35,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="175" t="str">
+        <f t="shared" ref="Q36" si="272">MID(TEXT(HEX2BIN($Q35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="195" t="str">
+        <f t="shared" ref="R36" si="273">MID(TEXT(HEX2BIN($Q35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="195" t="str">
+        <f t="shared" ref="S36" si="274">MID(TEXT(HEX2BIN($Q35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="195" t="str">
+        <f t="shared" ref="T36" si="275">MID(TEXT(HEX2BIN($Q35,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="197" t="str">
+        <f t="shared" ref="U36" si="276">MID(TEXT(HEX2BIN($U35,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="195" t="str">
+        <f t="shared" ref="V36" si="277">MID(TEXT(HEX2BIN($U35,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W36" s="195" t="str">
+        <f t="shared" ref="W36" si="278">MID(TEXT(HEX2BIN($U35,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X36" s="196" t="str">
+        <f t="shared" ref="X36" si="279">MID(TEXT(HEX2BIN($U35,4),"0000"),4,1)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Eterm通讯协议.xlsx
+++ b/Eterm通讯协议.xlsx
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="199">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,6 +862,46 @@
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETERM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -951,7 +991,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1018,8 +1058,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="49">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1543,13 +1589,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1922,227 +1990,275 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2227,7 +2343,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16433,18 +16549,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124" t="s">
+      <c r="D1" s="197"/>
+      <c r="E1" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124" t="s">
+      <c r="F1" s="197"/>
+      <c r="G1" s="197" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="124"/>
+      <c r="H1" s="197"/>
     </row>
     <row r="2" spans="1:23" s="104" customFormat="1" ht="16.5">
       <c r="A2" s="112" t="s">
@@ -17167,23 +17283,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="5.5" style="130" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="131" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="132" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="130" customWidth="1"/>
-    <col min="8" max="9" width="5.875" style="131" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="132" customWidth="1"/>
-    <col min="11" max="11" width="9" style="130"/>
-    <col min="12" max="13" width="9" style="131"/>
-    <col min="14" max="14" width="9" style="132"/>
+    <col min="3" max="3" width="5.5" style="129" customWidth="1"/>
+    <col min="4" max="5" width="5.5" style="130" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="131" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="129" customWidth="1"/>
+    <col min="8" max="9" width="5.875" style="130" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="131" customWidth="1"/>
+    <col min="11" max="11" width="9" style="129"/>
+    <col min="12" max="13" width="9" style="130"/>
+    <col min="14" max="14" width="9" style="131"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5">
@@ -17193,41 +17309,41 @@
       <c r="B1" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="124" t="s">
         <v>163</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126">
+      <c r="D1" s="125"/>
+      <c r="E1" s="125">
         <v>46</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="133">
+      <c r="F1" s="126"/>
+      <c r="G1" s="132">
         <f>HEX2DEC(C1)</f>
         <v>233</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134">
+      <c r="H1" s="133"/>
+      <c r="I1" s="133">
         <f>HEX2DEC(E1)</f>
         <v>70</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="125" t="str">
-        <f t="shared" ref="K1:K13" si="0">DEC2BIN(G1,8)</f>
+      <c r="J1" s="134"/>
+      <c r="K1" s="124" t="str">
+        <f t="shared" ref="K1:K2" si="0">DEC2BIN(G1,8)</f>
         <v>11101001</v>
       </c>
-      <c r="L1" s="126"/>
-      <c r="M1" s="163" t="str">
-        <f t="shared" ref="M1:M13" si="1">DEC2BIN(I1,8)</f>
+      <c r="L1" s="125"/>
+      <c r="M1" s="162" t="str">
+        <f t="shared" ref="M1:M2" si="1">DEC2BIN(I1,8)</f>
         <v>01000110</v>
       </c>
-      <c r="N1" s="138"/>
+      <c r="N1" s="137"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" thickBot="1">
       <c r="A2" s="110"/>
       <c r="B2" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="128">
+      <c r="C2" s="127">
         <v>78</v>
       </c>
       <c r="D2" s="118" t="s">
@@ -17236,11 +17352,11 @@
       <c r="E2" s="118">
         <v>64</v>
       </c>
-      <c r="F2" s="129">
+      <c r="F2" s="128">
         <v>45</v>
       </c>
-      <c r="G2" s="136">
-        <f t="shared" ref="G1:G13" si="2">HEX2DEC(C2)</f>
+      <c r="G2" s="135">
+        <f t="shared" ref="G2" si="2">HEX2DEC(C2)</f>
         <v>120</v>
       </c>
       <c r="H2" s="117">
@@ -17251,11 +17367,11 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="J2" s="137">
+      <c r="J2" s="136">
         <f t="shared" si="3"/>
         <v>69</v>
       </c>
-      <c r="K2" s="128" t="str">
+      <c r="K2" s="127" t="str">
         <f t="shared" si="0"/>
         <v>01111000</v>
       </c>
@@ -17267,110 +17383,110 @@
         <f t="shared" si="1"/>
         <v>01100100</v>
       </c>
-      <c r="N2" s="165" t="str">
+      <c r="N2" s="164" t="str">
         <f>DEC2BIN(J2,8)</f>
         <v>01000101</v>
       </c>
-      <c r="O2" s="160">
+      <c r="O2" s="159">
         <f t="shared" ref="O2" si="4">G1-I2</f>
         <v>133</v>
       </c>
-      <c r="P2" s="160">
-        <f t="shared" ref="P2:P16" si="5">I1-J2</f>
+      <c r="P2" s="159">
+        <f t="shared" ref="P2" si="5">I1-J2</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="149" t="s">
+      <c r="C3" s="148" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143">
+      <c r="D3" s="142"/>
+      <c r="E3" s="142">
         <v>56</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="153">
+      <c r="F3" s="149"/>
+      <c r="G3" s="152">
         <f>HEX2DEC(C3)</f>
         <v>233</v>
       </c>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144">
+      <c r="H3" s="143"/>
+      <c r="I3" s="143">
         <f>HEX2DEC(E3)</f>
         <v>86</v>
       </c>
-      <c r="J3" s="154"/>
-      <c r="K3" s="126" t="str">
+      <c r="J3" s="153"/>
+      <c r="K3" s="125" t="str">
         <f t="shared" ref="K3:K6" si="6">DEC2BIN(G3,8)</f>
         <v>11101001</v>
       </c>
-      <c r="L3" s="126"/>
-      <c r="M3" s="163" t="str">
+      <c r="L3" s="125"/>
+      <c r="M3" s="162" t="str">
         <f t="shared" ref="M3:M6" si="7">DEC2BIN(I3,8)</f>
         <v>01010110</v>
       </c>
-      <c r="N3" s="138"/>
+      <c r="N3" s="137"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="157" t="str">
+      <c r="C4" s="156" t="str">
         <f t="shared" ref="C4:E4" si="8">DEC2HEX(G4)</f>
         <v>78</v>
       </c>
-      <c r="D4" s="140" t="str">
+      <c r="D4" s="139" t="str">
         <f t="shared" si="8"/>
         <v>4D</v>
       </c>
-      <c r="E4" s="140" t="str">
+      <c r="E4" s="139" t="str">
         <f t="shared" si="8"/>
         <v>64</v>
       </c>
-      <c r="F4" s="139" t="str">
+      <c r="F4" s="138" t="str">
         <f>DEC2HEX(J4)</f>
         <v>55</v>
       </c>
-      <c r="G4" s="155">
+      <c r="G4" s="154">
         <v>120</v>
       </c>
-      <c r="H4" s="146">
+      <c r="H4" s="145">
         <v>77</v>
       </c>
-      <c r="I4" s="146">
+      <c r="I4" s="145">
         <v>100</v>
       </c>
-      <c r="J4" s="156">
+      <c r="J4" s="155">
         <v>85</v>
       </c>
-      <c r="K4" s="148" t="str">
+      <c r="K4" s="147" t="str">
         <f t="shared" si="6"/>
         <v>01111000</v>
       </c>
-      <c r="L4" s="148" t="str">
-        <f t="shared" ref="L4:L8" si="9">DEC2BIN(H4,8)</f>
+      <c r="L4" s="147" t="str">
+        <f t="shared" ref="L4" si="9">DEC2BIN(H4,8)</f>
         <v>01001101</v>
       </c>
-      <c r="M4" s="148" t="str">
+      <c r="M4" s="147" t="str">
         <f t="shared" si="7"/>
         <v>01100100</v>
       </c>
-      <c r="N4" s="162" t="str">
-        <f t="shared" ref="N4:N8" si="10">DEC2BIN(J4,8)</f>
+      <c r="N4" s="161" t="str">
+        <f t="shared" ref="N4" si="10">DEC2BIN(J4,8)</f>
         <v>01010101</v>
       </c>
-      <c r="O4" s="160">
+      <c r="O4" s="159">
         <f t="shared" ref="O4" si="11">G3-I4</f>
         <v>133</v>
       </c>
-      <c r="P4" s="160">
-        <f t="shared" ref="P4:P16" si="12">I3-J4</f>
+      <c r="P4" s="159">
+        <f t="shared" ref="P4" si="12">I3-J4</f>
         <v>1</v>
       </c>
     </row>
@@ -17381,30 +17497,30 @@
       <c r="B5" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="149">
+      <c r="C5" s="148">
         <v>90</v>
       </c>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143">
+      <c r="D5" s="142"/>
+      <c r="E5" s="142">
         <v>42</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="153">
+      <c r="F5" s="149"/>
+      <c r="G5" s="152">
         <f>HEX2DEC(C5)</f>
         <v>144</v>
       </c>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144">
+      <c r="H5" s="143"/>
+      <c r="I5" s="143">
         <f>HEX2DEC(E5)</f>
         <v>66</v>
       </c>
-      <c r="J5" s="154"/>
-      <c r="K5" s="128" t="str">
+      <c r="J5" s="153"/>
+      <c r="K5" s="127" t="str">
         <f t="shared" si="6"/>
         <v>10010000</v>
       </c>
       <c r="L5" s="118"/>
-      <c r="M5" s="164" t="str">
+      <c r="M5" s="163" t="str">
         <f t="shared" si="7"/>
         <v>01000010</v>
       </c>
@@ -17417,23 +17533,23 @@
       <c r="B6" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="157" t="str">
+      <c r="C6" s="156" t="str">
         <f t="shared" ref="C6" si="13">DEC2HEX(G6)</f>
         <v>78</v>
       </c>
-      <c r="D6" s="140" t="str">
+      <c r="D6" s="139" t="str">
         <f t="shared" ref="D6" si="14">DEC2HEX(H6)</f>
         <v>48</v>
       </c>
-      <c r="E6" s="140" t="str">
+      <c r="E6" s="139" t="str">
         <f t="shared" ref="E6" si="15">DEC2HEX(I6)</f>
         <v>40</v>
       </c>
-      <c r="F6" s="139" t="str">
+      <c r="F6" s="138" t="str">
         <f>DEC2HEX(J6)</f>
         <v>41</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="135">
         <v>120</v>
       </c>
       <c r="H6" s="117">
@@ -17442,31 +17558,31 @@
       <c r="I6" s="117">
         <v>64</v>
       </c>
-      <c r="J6" s="137">
+      <c r="J6" s="136">
         <v>65</v>
       </c>
-      <c r="K6" s="128" t="str">
+      <c r="K6" s="127" t="str">
         <f t="shared" si="6"/>
         <v>01111000</v>
       </c>
       <c r="L6" s="118" t="str">
-        <f t="shared" ref="L6:L8" si="16">DEC2BIN(H6,8)</f>
+        <f t="shared" ref="L6" si="16">DEC2BIN(H6,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M6" s="161" t="str">
+      <c r="M6" s="160" t="str">
         <f t="shared" si="7"/>
         <v>01000000</v>
       </c>
-      <c r="N6" s="165" t="str">
-        <f t="shared" ref="N6:N8" si="17">DEC2BIN(J6,8)</f>
+      <c r="N6" s="164" t="str">
+        <f t="shared" ref="N6" si="17">DEC2BIN(J6,8)</f>
         <v>01000001</v>
       </c>
-      <c r="O6" s="160">
+      <c r="O6" s="159">
         <f t="shared" ref="O6" si="18">G5-I6</f>
         <v>80</v>
       </c>
-      <c r="P6" s="160">
-        <f t="shared" ref="P6:P16" si="19">I5-J6</f>
+      <c r="P6" s="159">
+        <f t="shared" ref="P6" si="19">I5-J6</f>
         <v>1</v>
       </c>
       <c r="Q6" t="s">
@@ -17474,99 +17590,99 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="149" t="s">
+      <c r="C7" s="148" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143" t="s">
+      <c r="D7" s="142"/>
+      <c r="E7" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="F7" s="150"/>
-      <c r="G7" s="153">
+      <c r="F7" s="149"/>
+      <c r="G7" s="152">
         <f>HEX2DEC(C7)</f>
         <v>154</v>
       </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144">
+      <c r="H7" s="143"/>
+      <c r="I7" s="143">
         <f>HEX2DEC(E7)</f>
         <v>78</v>
       </c>
-      <c r="J7" s="154"/>
-      <c r="K7" s="125" t="str">
+      <c r="J7" s="153"/>
+      <c r="K7" s="124" t="str">
         <f t="shared" ref="K7:K8" si="20">DEC2BIN(G7,8)</f>
         <v>10011010</v>
       </c>
-      <c r="L7" s="126"/>
-      <c r="M7" s="163" t="str">
+      <c r="L7" s="125"/>
+      <c r="M7" s="162" t="str">
         <f t="shared" ref="M7:M8" si="21">DEC2BIN(I7,8)</f>
         <v>01001110</v>
       </c>
-      <c r="N7" s="138"/>
+      <c r="N7" s="137"/>
       <c r="Q7" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1">
-      <c r="A8" s="145"/>
-      <c r="B8" s="156" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="151" t="str">
+      <c r="C8" s="150" t="str">
         <f t="shared" ref="C8" si="22">DEC2HEX(G8)</f>
         <v>78</v>
       </c>
-      <c r="D8" s="147" t="str">
+      <c r="D8" s="146" t="str">
         <f t="shared" ref="D8" si="23">DEC2HEX(H8)</f>
         <v>48</v>
       </c>
-      <c r="E8" s="147" t="str">
+      <c r="E8" s="146" t="str">
         <f t="shared" ref="E8" si="24">DEC2HEX(I8)</f>
         <v>68</v>
       </c>
-      <c r="F8" s="152" t="str">
+      <c r="F8" s="151" t="str">
         <f>DEC2HEX(J8)</f>
         <v>4D</v>
       </c>
-      <c r="G8" s="155">
+      <c r="G8" s="154">
         <v>120</v>
       </c>
-      <c r="H8" s="146">
+      <c r="H8" s="145">
         <v>72</v>
       </c>
-      <c r="I8" s="146">
+      <c r="I8" s="145">
         <v>104</v>
       </c>
-      <c r="J8" s="156">
+      <c r="J8" s="155">
         <v>77</v>
       </c>
-      <c r="K8" s="159" t="str">
+      <c r="K8" s="158" t="str">
         <f t="shared" si="20"/>
         <v>01111000</v>
       </c>
-      <c r="L8" s="148" t="str">
+      <c r="L8" s="147" t="str">
         <f t="shared" ref="L8" si="25">DEC2BIN(H8,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M8" s="148" t="str">
+      <c r="M8" s="147" t="str">
         <f t="shared" si="21"/>
         <v>01101000</v>
       </c>
-      <c r="N8" s="162" t="str">
+      <c r="N8" s="161" t="str">
         <f t="shared" ref="N8" si="26">DEC2BIN(J8,8)</f>
         <v>01001101</v>
       </c>
-      <c r="O8" s="160">
+      <c r="O8" s="159">
         <f t="shared" ref="O8" si="27">G7-I8</f>
         <v>50</v>
       </c>
-      <c r="P8" s="160">
-        <f t="shared" ref="P8:P16" si="28">I7-J8</f>
+      <c r="P8" s="159">
+        <f t="shared" ref="P8" si="28">I7-J8</f>
         <v>1</v>
       </c>
       <c r="Q8" t="s">
@@ -17574,1373 +17690,1466 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="140" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="158" t="s">
+      <c r="B9" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C9" s="149" t="s">
+      <c r="C9" s="148" t="s">
         <v>174</v>
       </c>
-      <c r="D9" s="143"/>
-      <c r="E9" s="143" t="s">
+      <c r="D9" s="142"/>
+      <c r="E9" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="150"/>
-      <c r="G9" s="153">
+      <c r="F9" s="149"/>
+      <c r="G9" s="152">
         <f>HEX2DEC(C9)</f>
         <v>138</v>
       </c>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144">
+      <c r="H9" s="143"/>
+      <c r="I9" s="143">
         <f>HEX2DEC(E9)</f>
         <v>78</v>
       </c>
-      <c r="J9" s="154"/>
-      <c r="K9" s="125" t="str">
+      <c r="J9" s="153"/>
+      <c r="K9" s="124" t="str">
         <f t="shared" ref="K9:K10" si="29">DEC2BIN(G9,8)</f>
         <v>10001010</v>
       </c>
-      <c r="L9" s="126"/>
-      <c r="M9" s="163" t="str">
+      <c r="L9" s="125"/>
+      <c r="M9" s="162" t="str">
         <f t="shared" ref="M9:M10" si="30">DEC2BIN(I9,8)</f>
         <v>01001110</v>
       </c>
-      <c r="N9" s="138"/>
+      <c r="N9" s="137"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="156" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="151" t="str">
+      <c r="C10" s="150" t="str">
         <f t="shared" ref="C10" si="31">DEC2HEX(G10)</f>
         <v>78</v>
       </c>
-      <c r="D10" s="147" t="str">
+      <c r="D10" s="146" t="str">
         <f t="shared" ref="D10" si="32">DEC2HEX(H10)</f>
         <v>47</v>
       </c>
-      <c r="E10" s="147" t="str">
+      <c r="E10" s="146" t="str">
         <f t="shared" ref="E10" si="33">DEC2HEX(I10)</f>
         <v>68</v>
       </c>
-      <c r="F10" s="152" t="str">
+      <c r="F10" s="151" t="str">
         <f>DEC2HEX(J10)</f>
         <v>4D</v>
       </c>
-      <c r="G10" s="155">
+      <c r="G10" s="154">
         <v>120</v>
       </c>
-      <c r="H10" s="146">
+      <c r="H10" s="145">
         <v>71</v>
       </c>
-      <c r="I10" s="146">
+      <c r="I10" s="145">
         <v>104</v>
       </c>
-      <c r="J10" s="156">
+      <c r="J10" s="155">
         <v>77</v>
       </c>
-      <c r="K10" s="159" t="str">
+      <c r="K10" s="158" t="str">
         <f t="shared" si="29"/>
         <v>01111000</v>
       </c>
-      <c r="L10" s="148" t="str">
+      <c r="L10" s="147" t="str">
         <f t="shared" ref="L10" si="34">DEC2BIN(H10,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M10" s="148" t="str">
+      <c r="M10" s="147" t="str">
         <f t="shared" si="30"/>
         <v>01101000</v>
       </c>
-      <c r="N10" s="162" t="str">
+      <c r="N10" s="161" t="str">
         <f t="shared" ref="N10" si="35">DEC2BIN(J10,8)</f>
         <v>01001101</v>
       </c>
-      <c r="O10" s="160">
+      <c r="O10" s="159">
         <f t="shared" ref="O10" si="36">G9-I10</f>
         <v>34</v>
       </c>
-      <c r="P10" s="160">
-        <f t="shared" ref="P10:P16" si="37">I9-J10</f>
+      <c r="P10" s="159">
+        <f t="shared" ref="P10" si="37">I9-J10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="158" t="s">
+      <c r="B11" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="149" t="s">
+      <c r="C11" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143" t="s">
+      <c r="D11" s="142"/>
+      <c r="E11" s="142" t="s">
         <v>177</v>
       </c>
-      <c r="F11" s="150"/>
-      <c r="G11" s="153">
+      <c r="F11" s="149"/>
+      <c r="G11" s="152">
         <f>HEX2DEC(C11)</f>
         <v>155</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144">
+      <c r="H11" s="143"/>
+      <c r="I11" s="143">
         <f>HEX2DEC(E11)</f>
         <v>78</v>
       </c>
-      <c r="J11" s="154"/>
-      <c r="K11" s="125" t="str">
+      <c r="J11" s="153"/>
+      <c r="K11" s="124" t="str">
         <f t="shared" ref="K11:K12" si="38">DEC2BIN(G11,8)</f>
         <v>10011011</v>
       </c>
-      <c r="L11" s="126"/>
-      <c r="M11" s="163" t="str">
+      <c r="L11" s="125"/>
+      <c r="M11" s="162" t="str">
         <f t="shared" ref="M11:M12" si="39">DEC2BIN(I11,8)</f>
         <v>01001110</v>
       </c>
-      <c r="N11" s="138"/>
+      <c r="N11" s="137"/>
     </row>
     <row r="12" spans="1:17" ht="15" thickBot="1">
-      <c r="A12" s="145"/>
-      <c r="B12" s="156" t="s">
+      <c r="A12" s="144"/>
+      <c r="B12" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="151" t="str">
+      <c r="C12" s="150" t="str">
         <f t="shared" ref="C12" si="40">DEC2HEX(G12)</f>
         <v>78</v>
       </c>
-      <c r="D12" s="147" t="str">
+      <c r="D12" s="146" t="str">
         <f t="shared" ref="D12" si="41">DEC2HEX(H12)</f>
         <v>48</v>
       </c>
-      <c r="E12" s="147" t="str">
+      <c r="E12" s="146" t="str">
         <f t="shared" ref="E12" si="42">DEC2HEX(I12)</f>
         <v>6C</v>
       </c>
-      <c r="F12" s="152" t="str">
+      <c r="F12" s="151" t="str">
         <f>DEC2HEX(J12)</f>
         <v>4D</v>
       </c>
-      <c r="G12" s="155">
+      <c r="G12" s="154">
         <v>120</v>
       </c>
-      <c r="H12" s="146">
+      <c r="H12" s="145">
         <v>72</v>
       </c>
-      <c r="I12" s="146">
+      <c r="I12" s="145">
         <v>108</v>
       </c>
-      <c r="J12" s="156">
+      <c r="J12" s="155">
         <v>77</v>
       </c>
-      <c r="K12" s="159" t="str">
+      <c r="K12" s="158" t="str">
         <f t="shared" si="38"/>
         <v>01111000</v>
       </c>
-      <c r="L12" s="148" t="str">
+      <c r="L12" s="147" t="str">
         <f t="shared" ref="L12" si="43">DEC2BIN(H12,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M12" s="148" t="str">
+      <c r="M12" s="147" t="str">
         <f t="shared" si="39"/>
         <v>01101100</v>
       </c>
-      <c r="N12" s="162" t="str">
+      <c r="N12" s="161" t="str">
         <f t="shared" ref="N12" si="44">DEC2BIN(J12,8)</f>
         <v>01001101</v>
       </c>
-      <c r="O12" s="160">
+      <c r="O12" s="159">
         <f t="shared" ref="O12" si="45">G11-I12</f>
         <v>47</v>
       </c>
-      <c r="P12" s="160">
-        <f t="shared" ref="P12:P16" si="46">I11-J12</f>
+      <c r="P12" s="159">
+        <f t="shared" ref="P12" si="46">I11-J12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25">
-      <c r="A13" s="141" t="s">
+      <c r="A13" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="B13" s="158" t="s">
+      <c r="B13" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="149" t="s">
+      <c r="C13" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="F13" s="150"/>
-      <c r="G13" s="153">
+      <c r="F13" s="149"/>
+      <c r="G13" s="152">
         <f>HEX2DEC(C13)</f>
         <v>155</v>
       </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144">
+      <c r="H13" s="143"/>
+      <c r="I13" s="143">
         <f>HEX2DEC(E13)</f>
         <v>77</v>
       </c>
-      <c r="J13" s="154"/>
-      <c r="K13" s="125" t="str">
+      <c r="J13" s="153"/>
+      <c r="K13" s="124" t="str">
         <f t="shared" ref="K13:K14" si="47">DEC2BIN(G13,8)</f>
         <v>10011011</v>
       </c>
-      <c r="L13" s="126"/>
-      <c r="M13" s="163" t="str">
+      <c r="L13" s="125"/>
+      <c r="M13" s="162" t="str">
         <f t="shared" ref="M13:M14" si="48">DEC2BIN(I13,8)</f>
         <v>01001101</v>
       </c>
-      <c r="N13" s="138"/>
+      <c r="N13" s="137"/>
     </row>
     <row r="14" spans="1:17" ht="15" thickBot="1">
-      <c r="A14" s="145"/>
-      <c r="B14" s="156" t="s">
+      <c r="A14" s="144"/>
+      <c r="B14" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="151" t="str">
+      <c r="C14" s="150" t="str">
         <f t="shared" ref="C14" si="49">DEC2HEX(G14)</f>
         <v>78</v>
       </c>
-      <c r="D14" s="147" t="str">
+      <c r="D14" s="146" t="str">
         <f t="shared" ref="D14" si="50">DEC2HEX(H14)</f>
         <v>48</v>
       </c>
-      <c r="E14" s="147" t="str">
+      <c r="E14" s="146" t="str">
         <f t="shared" ref="E14" si="51">DEC2HEX(I14)</f>
         <v>6C</v>
       </c>
-      <c r="F14" s="152" t="str">
+      <c r="F14" s="151" t="str">
         <f>DEC2HEX(J14)</f>
         <v>4C</v>
       </c>
-      <c r="G14" s="155">
+      <c r="G14" s="154">
         <v>120</v>
       </c>
-      <c r="H14" s="146">
+      <c r="H14" s="145">
         <v>72</v>
       </c>
-      <c r="I14" s="146">
+      <c r="I14" s="145">
         <v>108</v>
       </c>
-      <c r="J14" s="156">
+      <c r="J14" s="155">
         <v>76</v>
       </c>
-      <c r="K14" s="159" t="str">
+      <c r="K14" s="158" t="str">
         <f t="shared" si="47"/>
         <v>01111000</v>
       </c>
-      <c r="L14" s="148" t="str">
+      <c r="L14" s="147" t="str">
         <f t="shared" ref="L14" si="52">DEC2BIN(H14,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M14" s="148" t="str">
+      <c r="M14" s="147" t="str">
         <f t="shared" si="48"/>
         <v>01101100</v>
       </c>
-      <c r="N14" s="162" t="str">
+      <c r="N14" s="161" t="str">
         <f t="shared" ref="N14" si="53">DEC2BIN(J14,8)</f>
         <v>01001100</v>
       </c>
-      <c r="O14" s="160">
+      <c r="O14" s="159">
         <f t="shared" ref="O14" si="54">G13-I14</f>
         <v>47</v>
       </c>
-      <c r="P14" s="160">
-        <f t="shared" ref="P14:P16" si="55">I13-J14</f>
+      <c r="P14" s="159">
+        <f t="shared" ref="P14" si="55">I13-J14</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25">
-      <c r="A15" s="141" t="s">
+      <c r="A15" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="149" t="s">
+      <c r="C15" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143">
+      <c r="D15" s="142"/>
+      <c r="E15" s="142">
         <v>40</v>
       </c>
-      <c r="F15" s="150"/>
-      <c r="G15" s="153">
+      <c r="F15" s="149"/>
+      <c r="G15" s="152">
         <f>HEX2DEC(C15)</f>
         <v>155</v>
       </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144">
+      <c r="H15" s="143"/>
+      <c r="I15" s="143">
         <f>HEX2DEC(E15)</f>
         <v>64</v>
       </c>
-      <c r="J15" s="154"/>
-      <c r="K15" s="125" t="str">
+      <c r="J15" s="153"/>
+      <c r="K15" s="124" t="str">
         <f t="shared" ref="K15:K16" si="56">DEC2BIN(G15,8)</f>
         <v>10011011</v>
       </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="163" t="str">
+      <c r="L15" s="125"/>
+      <c r="M15" s="162" t="str">
         <f t="shared" ref="M15:M16" si="57">DEC2BIN(I15,8)</f>
         <v>01000000</v>
       </c>
-      <c r="N15" s="138"/>
+      <c r="N15" s="137"/>
     </row>
     <row r="16" spans="1:17" ht="15" thickBot="1">
-      <c r="A16" s="145"/>
-      <c r="B16" s="156" t="s">
+      <c r="A16" s="144"/>
+      <c r="B16" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="151" t="str">
+      <c r="C16" s="150" t="str">
         <f t="shared" ref="C16" si="58">DEC2HEX(G16)</f>
         <v>78</v>
       </c>
-      <c r="D16" s="147" t="str">
+      <c r="D16" s="146" t="str">
         <f t="shared" ref="D16" si="59">DEC2HEX(H16)</f>
         <v>48</v>
       </c>
-      <c r="E16" s="147" t="str">
+      <c r="E16" s="146" t="str">
         <f t="shared" ref="E16" si="60">DEC2HEX(I16)</f>
         <v>6C</v>
       </c>
-      <c r="F16" s="152" t="str">
+      <c r="F16" s="151" t="str">
         <f>DEC2HEX(J16)</f>
         <v>3F</v>
       </c>
-      <c r="G16" s="155">
+      <c r="G16" s="154">
         <v>120</v>
       </c>
-      <c r="H16" s="146">
+      <c r="H16" s="145">
         <v>72</v>
       </c>
-      <c r="I16" s="146">
+      <c r="I16" s="145">
         <v>108</v>
       </c>
-      <c r="J16" s="156">
+      <c r="J16" s="155">
         <v>63</v>
       </c>
-      <c r="K16" s="159" t="str">
+      <c r="K16" s="158" t="str">
         <f t="shared" si="56"/>
         <v>01111000</v>
       </c>
-      <c r="L16" s="148" t="str">
+      <c r="L16" s="147" t="str">
         <f t="shared" ref="L16" si="61">DEC2BIN(H16,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M16" s="148" t="str">
+      <c r="M16" s="147" t="str">
         <f t="shared" si="57"/>
         <v>01101100</v>
       </c>
-      <c r="N16" s="162" t="str">
+      <c r="N16" s="161" t="str">
         <f t="shared" ref="N16" si="62">DEC2BIN(J16,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O16" s="160">
+      <c r="O16" s="159">
         <f t="shared" ref="O16" si="63">G15-I16</f>
         <v>47</v>
       </c>
-      <c r="P16" s="160">
+      <c r="P16" s="159">
         <f t="shared" ref="P16" si="64">I15-J16</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C17" s="149" t="s">
+      <c r="C17" s="148" t="s">
         <v>176</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143">
+      <c r="D17" s="142"/>
+      <c r="E17" s="142">
         <v>50</v>
       </c>
-      <c r="F17" s="150"/>
-      <c r="G17" s="153">
+      <c r="F17" s="149"/>
+      <c r="G17" s="152">
         <f>HEX2DEC(C17)</f>
         <v>155</v>
       </c>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144">
+      <c r="H17" s="143"/>
+      <c r="I17" s="143">
         <f>HEX2DEC(E17)</f>
         <v>80</v>
       </c>
-      <c r="J17" s="154"/>
-      <c r="K17" s="125" t="str">
+      <c r="J17" s="153"/>
+      <c r="K17" s="124" t="str">
         <f t="shared" ref="K17:K22" si="65">DEC2BIN(G17,8)</f>
         <v>10011011</v>
       </c>
-      <c r="L17" s="126"/>
-      <c r="M17" s="163" t="str">
+      <c r="L17" s="125"/>
+      <c r="M17" s="162" t="str">
         <f t="shared" ref="M17:M22" si="66">DEC2BIN(I17,8)</f>
         <v>01010000</v>
       </c>
-      <c r="N17" s="138"/>
+      <c r="N17" s="137"/>
     </row>
     <row r="18" spans="1:16" ht="15" thickBot="1">
-      <c r="A18" s="145"/>
-      <c r="B18" s="156" t="s">
+      <c r="A18" s="144"/>
+      <c r="B18" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="151" t="str">
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18" si="67">DEC2HEX(G18)</f>
         <v>78</v>
       </c>
-      <c r="D18" s="147" t="str">
+      <c r="D18" s="146" t="str">
         <f t="shared" ref="D18" si="68">DEC2HEX(H18)</f>
         <v>48</v>
       </c>
-      <c r="E18" s="147" t="str">
+      <c r="E18" s="146" t="str">
         <f t="shared" ref="E18" si="69">DEC2HEX(I18)</f>
         <v>6C</v>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f>DEC2HEX(J18)</f>
         <v>4F</v>
       </c>
-      <c r="G18" s="155">
+      <c r="G18" s="154">
         <v>120</v>
       </c>
-      <c r="H18" s="146">
+      <c r="H18" s="145">
         <v>72</v>
       </c>
-      <c r="I18" s="146">
+      <c r="I18" s="145">
         <v>108</v>
       </c>
-      <c r="J18" s="156">
+      <c r="J18" s="155">
         <v>79</v>
       </c>
-      <c r="K18" s="159" t="str">
+      <c r="K18" s="158" t="str">
         <f t="shared" si="65"/>
         <v>01111000</v>
       </c>
-      <c r="L18" s="148" t="str">
+      <c r="L18" s="147" t="str">
         <f t="shared" ref="L18" si="70">DEC2BIN(H18,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M18" s="148" t="str">
+      <c r="M18" s="147" t="str">
         <f t="shared" si="66"/>
         <v>01101100</v>
       </c>
-      <c r="N18" s="162" t="str">
+      <c r="N18" s="161" t="str">
         <f t="shared" ref="N18" si="71">DEC2BIN(J18,8)</f>
         <v>01001111</v>
       </c>
-      <c r="O18" s="160">
+      <c r="O18" s="159">
         <f>G17-I18</f>
         <v>47</v>
       </c>
-      <c r="P18" s="160">
+      <c r="P18" s="159">
         <f>I17-J18</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="158" t="s">
+      <c r="A19" s="140"/>
+      <c r="B19" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="149">
+      <c r="C19" s="148">
         <v>81</v>
       </c>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143">
+      <c r="D19" s="142"/>
+      <c r="E19" s="142">
         <v>79</v>
       </c>
-      <c r="F19" s="150"/>
-      <c r="G19" s="153">
-        <f t="shared" ref="G19:G20" si="72">HEX2DEC(C19)</f>
+      <c r="F19" s="149"/>
+      <c r="G19" s="152">
+        <f t="shared" ref="G19" si="72">HEX2DEC(C19)</f>
         <v>129</v>
       </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144">
-        <f t="shared" ref="I19:I20" si="73">HEX2DEC(E19)</f>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143">
+        <f t="shared" ref="I19" si="73">HEX2DEC(E19)</f>
         <v>121</v>
       </c>
-      <c r="J19" s="154"/>
-      <c r="K19" s="125" t="str">
+      <c r="J19" s="153"/>
+      <c r="K19" s="124" t="str">
         <f t="shared" si="65"/>
         <v>10000001</v>
       </c>
-      <c r="L19" s="126"/>
-      <c r="M19" s="163" t="str">
+      <c r="L19" s="125"/>
+      <c r="M19" s="162" t="str">
         <f t="shared" si="66"/>
         <v>01111001</v>
       </c>
-      <c r="N19" s="138"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="160"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1">
-      <c r="A20" s="145"/>
-      <c r="B20" s="156" t="s">
+      <c r="A20" s="144"/>
+      <c r="B20" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="151" t="str">
+      <c r="C20" s="150" t="str">
         <f t="shared" ref="C20" si="74">DEC2HEX(G20)</f>
         <v>78</v>
       </c>
-      <c r="D20" s="147" t="str">
+      <c r="D20" s="146" t="str">
         <f t="shared" ref="D20" si="75">DEC2HEX(H20)</f>
         <v>47</v>
       </c>
-      <c r="E20" s="147" t="str">
+      <c r="E20" s="146" t="str">
         <f t="shared" ref="E20" si="76">DEC2HEX(I20)</f>
         <v>44</v>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" ref="F20" si="77">DEC2HEX(J20)</f>
         <v>78</v>
       </c>
-      <c r="G20" s="155">
+      <c r="G20" s="154">
         <v>120</v>
       </c>
-      <c r="H20" s="146">
+      <c r="H20" s="145">
         <v>71</v>
       </c>
-      <c r="I20" s="146">
+      <c r="I20" s="145">
         <v>68</v>
       </c>
-      <c r="J20" s="156">
+      <c r="J20" s="155">
         <v>120</v>
       </c>
-      <c r="K20" s="159" t="str">
+      <c r="K20" s="158" t="str">
         <f t="shared" si="65"/>
         <v>01111000</v>
       </c>
-      <c r="L20" s="148" t="str">
+      <c r="L20" s="147" t="str">
         <f t="shared" ref="L20" si="78">DEC2BIN(H20,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M20" s="148" t="str">
+      <c r="M20" s="147" t="str">
         <f t="shared" si="66"/>
         <v>01000100</v>
       </c>
-      <c r="N20" s="162" t="str">
+      <c r="N20" s="161" t="str">
         <f t="shared" ref="N20" si="79">DEC2BIN(J20,8)</f>
         <v>01111000</v>
       </c>
-      <c r="O20" s="160">
+      <c r="O20" s="159">
         <f t="shared" ref="O20" si="80">G19-I20</f>
         <v>61</v>
       </c>
-      <c r="P20" s="160">
+      <c r="P20" s="159">
         <f t="shared" ref="P20" si="81">I19-J20</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="158" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="149">
+      <c r="C21" s="148">
         <v>81</v>
       </c>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143" t="s">
+      <c r="D21" s="142"/>
+      <c r="E21" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="150"/>
-      <c r="G21" s="153">
-        <f t="shared" ref="G21:G22" si="82">HEX2DEC(C21)</f>
+      <c r="F21" s="149"/>
+      <c r="G21" s="152">
+        <f t="shared" ref="G21" si="82">HEX2DEC(C21)</f>
         <v>129</v>
       </c>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144">
-        <f t="shared" ref="I21:I22" si="83">HEX2DEC(E21)</f>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143">
+        <f t="shared" ref="I21" si="83">HEX2DEC(E21)</f>
         <v>111</v>
       </c>
-      <c r="J21" s="154"/>
-      <c r="K21" s="125" t="str">
+      <c r="J21" s="153"/>
+      <c r="K21" s="124" t="str">
         <f t="shared" si="65"/>
         <v>10000001</v>
       </c>
-      <c r="L21" s="126"/>
-      <c r="M21" s="163" t="str">
+      <c r="L21" s="125"/>
+      <c r="M21" s="162" t="str">
         <f t="shared" si="66"/>
         <v>01101111</v>
       </c>
-      <c r="N21" s="138"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="1:16" ht="15" thickBot="1">
-      <c r="A22" s="145"/>
-      <c r="B22" s="156" t="s">
+      <c r="A22" s="144"/>
+      <c r="B22" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="151" t="str">
+      <c r="C22" s="150" t="str">
         <f t="shared" ref="C22" si="84">DEC2HEX(G22)</f>
         <v>78</v>
       </c>
-      <c r="D22" s="147" t="str">
+      <c r="D22" s="146" t="str">
         <f t="shared" ref="D22" si="85">DEC2HEX(H22)</f>
         <v>47</v>
       </c>
-      <c r="E22" s="147" t="str">
+      <c r="E22" s="146" t="str">
         <f t="shared" ref="E22" si="86">DEC2HEX(I22)</f>
         <v>44</v>
       </c>
-      <c r="F22" s="152" t="str">
+      <c r="F22" s="151" t="str">
         <f t="shared" ref="F22" si="87">DEC2HEX(J22)</f>
         <v>6E</v>
       </c>
-      <c r="G22" s="155">
+      <c r="G22" s="154">
         <v>120</v>
       </c>
-      <c r="H22" s="146">
+      <c r="H22" s="145">
         <v>71</v>
       </c>
-      <c r="I22" s="146">
+      <c r="I22" s="145">
         <v>68</v>
       </c>
-      <c r="J22" s="156">
+      <c r="J22" s="155">
         <v>110</v>
       </c>
-      <c r="K22" s="159" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="65"/>
         <v>01111000</v>
       </c>
-      <c r="L22" s="148" t="str">
+      <c r="L22" s="147" t="str">
         <f t="shared" ref="L22" si="88">DEC2BIN(H22,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M22" s="148" t="str">
+      <c r="M22" s="147" t="str">
         <f t="shared" si="66"/>
         <v>01000100</v>
       </c>
-      <c r="N22" s="162" t="str">
+      <c r="N22" s="161" t="str">
         <f t="shared" ref="N22" si="89">DEC2BIN(J22,8)</f>
         <v>01101110</v>
       </c>
-      <c r="O22" s="160">
+      <c r="O22" s="159">
         <f t="shared" ref="O22" si="90">G21-I22</f>
         <v>61</v>
       </c>
-      <c r="P22" s="160">
+      <c r="P22" s="159">
         <f t="shared" ref="P22" si="91">I21-J22</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="158" t="s">
+      <c r="A23" s="140"/>
+      <c r="B23" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="149">
+      <c r="C23" s="148">
         <v>81</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143">
+      <c r="D23" s="142"/>
+      <c r="E23" s="142">
         <v>80</v>
       </c>
-      <c r="F23" s="150"/>
-      <c r="G23" s="153">
-        <f t="shared" ref="G23:G36" si="92">HEX2DEC(C23)</f>
+      <c r="F23" s="149"/>
+      <c r="G23" s="152">
+        <f t="shared" ref="G23" si="92">HEX2DEC(C23)</f>
         <v>129</v>
       </c>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144">
-        <f t="shared" ref="I23:I36" si="93">HEX2DEC(E23)</f>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143">
+        <f t="shared" ref="I23" si="93">HEX2DEC(E23)</f>
         <v>128</v>
       </c>
-      <c r="J23" s="154"/>
-      <c r="K23" s="125" t="str">
+      <c r="J23" s="153"/>
+      <c r="K23" s="124" t="str">
         <f t="shared" ref="K23:K36" si="94">DEC2BIN(G23,8)</f>
         <v>10000001</v>
       </c>
-      <c r="L23" s="126"/>
-      <c r="M23" s="163" t="str">
+      <c r="L23" s="125"/>
+      <c r="M23" s="162" t="str">
         <f t="shared" ref="M23:M36" si="95">DEC2BIN(I23,8)</f>
         <v>10000000</v>
       </c>
-      <c r="N23" s="138"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="1:16" ht="15" thickBot="1">
-      <c r="A24" s="145"/>
-      <c r="B24" s="156" t="s">
+      <c r="A24" s="144"/>
+      <c r="B24" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="151" t="str">
-        <f t="shared" ref="C24:C36" si="96">DEC2HEX(G24)</f>
+      <c r="C24" s="150" t="str">
+        <f t="shared" ref="C24" si="96">DEC2HEX(G24)</f>
         <v>78</v>
       </c>
-      <c r="D24" s="147" t="str">
-        <f t="shared" ref="D24:D36" si="97">DEC2HEX(H24)</f>
+      <c r="D24" s="146" t="str">
+        <f t="shared" ref="D24" si="97">DEC2HEX(H24)</f>
         <v>47</v>
       </c>
-      <c r="E24" s="147" t="str">
-        <f t="shared" ref="E24:E36" si="98">DEC2HEX(I24)</f>
+      <c r="E24" s="146" t="str">
+        <f t="shared" ref="E24" si="98">DEC2HEX(I24)</f>
         <v>45</v>
       </c>
-      <c r="F24" s="152" t="str">
-        <f t="shared" ref="F24:F36" si="99">DEC2HEX(J24)</f>
+      <c r="F24" s="151" t="str">
+        <f t="shared" ref="F24" si="99">DEC2HEX(J24)</f>
         <v>3F</v>
       </c>
-      <c r="G24" s="155">
+      <c r="G24" s="154">
         <v>120</v>
       </c>
-      <c r="H24" s="146">
+      <c r="H24" s="145">
         <v>71</v>
       </c>
-      <c r="I24" s="146">
+      <c r="I24" s="145">
         <v>69</v>
       </c>
-      <c r="J24" s="156">
+      <c r="J24" s="155">
         <v>63</v>
       </c>
-      <c r="K24" s="159" t="str">
+      <c r="K24" s="158" t="str">
         <f t="shared" si="94"/>
         <v>01111000</v>
       </c>
-      <c r="L24" s="148" t="str">
-        <f t="shared" ref="L24:L36" si="100">DEC2BIN(H24,8)</f>
+      <c r="L24" s="147" t="str">
+        <f t="shared" ref="L24" si="100">DEC2BIN(H24,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M24" s="148" t="str">
+      <c r="M24" s="147" t="str">
         <f t="shared" si="95"/>
         <v>01000101</v>
       </c>
-      <c r="N24" s="162" t="str">
-        <f t="shared" ref="N24:N36" si="101">DEC2BIN(J24,8)</f>
+      <c r="N24" s="161" t="str">
+        <f t="shared" ref="N24" si="101">DEC2BIN(J24,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O24" s="160">
-        <f t="shared" ref="O24:O36" si="102">G23-I24</f>
+      <c r="O24" s="159">
+        <f t="shared" ref="O24" si="102">G23-I24</f>
         <v>60</v>
       </c>
-      <c r="P24" s="160">
-        <f t="shared" ref="P24:P36" si="103">I23-J24</f>
+      <c r="P24" s="159">
+        <f t="shared" ref="P24" si="103">I23-J24</f>
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="158" t="s">
+      <c r="A25" s="140"/>
+      <c r="B25" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>82</v>
       </c>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143">
+      <c r="D25" s="142"/>
+      <c r="E25" s="142">
         <v>80</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="153">
-        <f t="shared" ref="G25:G36" si="104">HEX2DEC(C25)</f>
+      <c r="F25" s="149"/>
+      <c r="G25" s="152">
+        <f t="shared" ref="G25" si="104">HEX2DEC(C25)</f>
         <v>130</v>
       </c>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144">
-        <f t="shared" ref="I25:I36" si="105">HEX2DEC(E25)</f>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143">
+        <f t="shared" ref="I25" si="105">HEX2DEC(E25)</f>
         <v>128</v>
       </c>
-      <c r="J25" s="154"/>
-      <c r="K25" s="125" t="str">
+      <c r="J25" s="153"/>
+      <c r="K25" s="124" t="str">
         <f t="shared" si="94"/>
         <v>10000010</v>
       </c>
-      <c r="L25" s="126"/>
-      <c r="M25" s="163" t="str">
+      <c r="L25" s="125"/>
+      <c r="M25" s="162" t="str">
         <f t="shared" si="95"/>
         <v>10000000</v>
       </c>
-      <c r="N25" s="138"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="1:16" ht="15" thickBot="1">
-      <c r="A26" s="145"/>
-      <c r="B26" s="156" t="s">
+      <c r="A26" s="144"/>
+      <c r="B26" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C26" s="151" t="str">
-        <f t="shared" ref="C26:C36" si="106">DEC2HEX(G26)</f>
+      <c r="C26" s="150" t="str">
+        <f t="shared" ref="C26" si="106">DEC2HEX(G26)</f>
         <v>78</v>
       </c>
-      <c r="D26" s="147" t="str">
-        <f t="shared" ref="D26:D36" si="107">DEC2HEX(H26)</f>
+      <c r="D26" s="146" t="str">
+        <f t="shared" ref="D26" si="107">DEC2HEX(H26)</f>
         <v>47</v>
       </c>
-      <c r="E26" s="147" t="str">
-        <f t="shared" ref="E26:E36" si="108">DEC2HEX(I26)</f>
+      <c r="E26" s="146" t="str">
+        <f t="shared" ref="E26" si="108">DEC2HEX(I26)</f>
         <v>49</v>
       </c>
-      <c r="F26" s="152" t="str">
-        <f t="shared" ref="F26:F36" si="109">DEC2HEX(J26)</f>
+      <c r="F26" s="151" t="str">
+        <f t="shared" ref="F26" si="109">DEC2HEX(J26)</f>
         <v>3F</v>
       </c>
-      <c r="G26" s="155">
+      <c r="G26" s="154">
         <v>120</v>
       </c>
-      <c r="H26" s="146">
+      <c r="H26" s="145">
         <v>71</v>
       </c>
-      <c r="I26" s="146">
+      <c r="I26" s="145">
         <v>73</v>
       </c>
-      <c r="J26" s="156">
+      <c r="J26" s="155">
         <v>63</v>
       </c>
-      <c r="K26" s="159" t="str">
+      <c r="K26" s="158" t="str">
         <f t="shared" si="94"/>
         <v>01111000</v>
       </c>
-      <c r="L26" s="148" t="str">
-        <f t="shared" ref="L26:L36" si="110">DEC2BIN(H26,8)</f>
+      <c r="L26" s="147" t="str">
+        <f t="shared" ref="L26" si="110">DEC2BIN(H26,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M26" s="148" t="str">
+      <c r="M26" s="147" t="str">
         <f t="shared" si="95"/>
         <v>01001001</v>
       </c>
-      <c r="N26" s="162" t="str">
-        <f t="shared" ref="N26:N36" si="111">DEC2BIN(J26,8)</f>
+      <c r="N26" s="161" t="str">
+        <f t="shared" ref="N26" si="111">DEC2BIN(J26,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O26" s="160">
-        <f t="shared" ref="O26:O36" si="112">G25-I26</f>
+      <c r="O26" s="159">
+        <f t="shared" ref="O26" si="112">G25-I26</f>
         <v>57</v>
       </c>
-      <c r="P26" s="160">
-        <f t="shared" ref="P26:P36" si="113">I25-J26</f>
+      <c r="P26" s="159">
+        <f t="shared" ref="P26" si="113">I25-J26</f>
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="158" t="s">
+      <c r="A27" s="140"/>
+      <c r="B27" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="149">
+      <c r="C27" s="148">
         <v>83</v>
       </c>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143">
+      <c r="D27" s="142"/>
+      <c r="E27" s="142">
         <v>80</v>
       </c>
-      <c r="F27" s="150"/>
-      <c r="G27" s="153">
-        <f t="shared" ref="G27:G36" si="114">HEX2DEC(C27)</f>
+      <c r="F27" s="149"/>
+      <c r="G27" s="152">
+        <f t="shared" ref="G27" si="114">HEX2DEC(C27)</f>
         <v>131</v>
       </c>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144">
-        <f t="shared" ref="I27:I36" si="115">HEX2DEC(E27)</f>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143">
+        <f t="shared" ref="I27" si="115">HEX2DEC(E27)</f>
         <v>128</v>
       </c>
-      <c r="J27" s="154"/>
-      <c r="K27" s="125" t="str">
+      <c r="J27" s="153"/>
+      <c r="K27" s="124" t="str">
         <f t="shared" si="94"/>
         <v>10000011</v>
       </c>
-      <c r="L27" s="126"/>
-      <c r="M27" s="163" t="str">
+      <c r="L27" s="125"/>
+      <c r="M27" s="162" t="str">
         <f t="shared" si="95"/>
         <v>10000000</v>
       </c>
-      <c r="N27" s="138"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="1:16" ht="15" thickBot="1">
-      <c r="A28" s="145"/>
-      <c r="B28" s="156" t="s">
+      <c r="A28" s="144"/>
+      <c r="B28" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="151" t="str">
-        <f t="shared" ref="C28:C36" si="116">DEC2HEX(G28)</f>
+      <c r="C28" s="150" t="str">
+        <f t="shared" ref="C28" si="116">DEC2HEX(G28)</f>
         <v>78</v>
       </c>
-      <c r="D28" s="147" t="str">
-        <f t="shared" ref="D28:D36" si="117">DEC2HEX(H28)</f>
+      <c r="D28" s="146" t="str">
+        <f t="shared" ref="D28" si="117">DEC2HEX(H28)</f>
         <v>47</v>
       </c>
-      <c r="E28" s="147" t="str">
-        <f t="shared" ref="E28:E36" si="118">DEC2HEX(I28)</f>
+      <c r="E28" s="146" t="str">
+        <f t="shared" ref="E28" si="118">DEC2HEX(I28)</f>
         <v>4D</v>
       </c>
-      <c r="F28" s="152" t="str">
-        <f t="shared" ref="F28:F36" si="119">DEC2HEX(J28)</f>
+      <c r="F28" s="151" t="str">
+        <f t="shared" ref="F28" si="119">DEC2HEX(J28)</f>
         <v>3F</v>
       </c>
-      <c r="G28" s="155">
+      <c r="G28" s="154">
         <v>120</v>
       </c>
-      <c r="H28" s="146">
+      <c r="H28" s="145">
         <v>71</v>
       </c>
-      <c r="I28" s="146">
+      <c r="I28" s="145">
         <v>77</v>
       </c>
-      <c r="J28" s="156">
+      <c r="J28" s="155">
         <v>63</v>
       </c>
-      <c r="K28" s="159" t="str">
+      <c r="K28" s="158" t="str">
         <f t="shared" si="94"/>
         <v>01111000</v>
       </c>
-      <c r="L28" s="148" t="str">
-        <f t="shared" ref="L28:L36" si="120">DEC2BIN(H28,8)</f>
+      <c r="L28" s="147" t="str">
+        <f t="shared" ref="L28" si="120">DEC2BIN(H28,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M28" s="148" t="str">
+      <c r="M28" s="147" t="str">
         <f t="shared" si="95"/>
         <v>01001101</v>
       </c>
-      <c r="N28" s="162" t="str">
-        <f t="shared" ref="N28:N36" si="121">DEC2BIN(J28,8)</f>
+      <c r="N28" s="161" t="str">
+        <f t="shared" ref="N28" si="121">DEC2BIN(J28,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O28" s="160">
-        <f t="shared" ref="O28:O36" si="122">G27-I28</f>
+      <c r="O28" s="159">
+        <f t="shared" ref="O28" si="122">G27-I28</f>
         <v>54</v>
       </c>
-      <c r="P28" s="160">
-        <f t="shared" ref="P28:P36" si="123">I27-J28</f>
+      <c r="P28" s="159">
+        <f t="shared" ref="P28" si="123">I27-J28</f>
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="14.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="158" t="s">
+      <c r="A29" s="140"/>
+      <c r="B29" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="149">
+      <c r="C29" s="148">
         <v>84</v>
       </c>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143">
+      <c r="D29" s="142"/>
+      <c r="E29" s="142">
         <v>80</v>
       </c>
-      <c r="F29" s="150"/>
-      <c r="G29" s="153">
-        <f t="shared" ref="G29:G36" si="124">HEX2DEC(C29)</f>
+      <c r="F29" s="149"/>
+      <c r="G29" s="152">
+        <f t="shared" ref="G29" si="124">HEX2DEC(C29)</f>
         <v>132</v>
       </c>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144">
+      <c r="H29" s="143"/>
+      <c r="I29" s="143">
         <f>HEX2DEC(E29)</f>
         <v>128</v>
       </c>
-      <c r="J29" s="154"/>
-      <c r="K29" s="125" t="str">
+      <c r="J29" s="153"/>
+      <c r="K29" s="124" t="str">
         <f t="shared" si="94"/>
         <v>10000100</v>
       </c>
-      <c r="L29" s="126"/>
-      <c r="M29" s="163" t="str">
+      <c r="L29" s="125"/>
+      <c r="M29" s="162" t="str">
         <f>DEC2BIN(I29,8)</f>
         <v>10000000</v>
       </c>
-      <c r="N29" s="138"/>
+      <c r="N29" s="137"/>
     </row>
     <row r="30" spans="1:16" ht="15" thickBot="1">
-      <c r="A30" s="145"/>
-      <c r="B30" s="156" t="s">
+      <c r="A30" s="144"/>
+      <c r="B30" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="151" t="str">
-        <f t="shared" ref="C30:C36" si="125">DEC2HEX(G30)</f>
+      <c r="C30" s="150" t="str">
+        <f t="shared" ref="C30" si="125">DEC2HEX(G30)</f>
         <v>78</v>
       </c>
-      <c r="D30" s="147" t="str">
-        <f t="shared" ref="D30:D36" si="126">DEC2HEX(H30)</f>
+      <c r="D30" s="146" t="str">
+        <f t="shared" ref="D30" si="126">DEC2HEX(H30)</f>
         <v>47</v>
       </c>
-      <c r="E30" s="147" t="str">
-        <f t="shared" ref="E30:E36" si="127">DEC2HEX(I30)</f>
+      <c r="E30" s="146" t="str">
+        <f t="shared" ref="E30" si="127">DEC2HEX(I30)</f>
         <v>51</v>
       </c>
-      <c r="F30" s="152" t="str">
-        <f t="shared" ref="F30:F36" si="128">DEC2HEX(J30)</f>
+      <c r="F30" s="151" t="str">
+        <f t="shared" ref="F30" si="128">DEC2HEX(J30)</f>
         <v>3F</v>
       </c>
-      <c r="G30" s="155">
+      <c r="G30" s="154">
         <v>120</v>
       </c>
-      <c r="H30" s="146">
+      <c r="H30" s="145">
         <v>71</v>
       </c>
-      <c r="I30" s="146">
+      <c r="I30" s="145">
         <v>81</v>
       </c>
-      <c r="J30" s="156">
+      <c r="J30" s="155">
         <v>63</v>
       </c>
-      <c r="K30" s="159" t="str">
+      <c r="K30" s="158" t="str">
         <f t="shared" si="94"/>
         <v>01111000</v>
       </c>
-      <c r="L30" s="148" t="str">
-        <f t="shared" ref="L30:L36" si="129">DEC2BIN(H30,8)</f>
+      <c r="L30" s="147" t="str">
+        <f t="shared" ref="L30" si="129">DEC2BIN(H30,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M30" s="148" t="str">
+      <c r="M30" s="147" t="str">
         <f t="shared" si="95"/>
         <v>01010001</v>
       </c>
-      <c r="N30" s="162" t="str">
-        <f t="shared" ref="N30:N36" si="130">DEC2BIN(J30,8)</f>
+      <c r="N30" s="161" t="str">
+        <f t="shared" ref="N30" si="130">DEC2BIN(J30,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O30" s="160">
-        <f t="shared" ref="O30:O36" si="131">G29-I30</f>
+      <c r="O30" s="159">
+        <f t="shared" ref="O30" si="131">G29-I30</f>
         <v>51</v>
       </c>
-      <c r="P30" s="160">
-        <f t="shared" ref="P30:P36" si="132">I29-J30</f>
+      <c r="P30" s="159">
+        <f t="shared" ref="P30" si="132">I29-J30</f>
         <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="14.25">
-      <c r="A31" s="141"/>
-      <c r="B31" s="158" t="s">
+      <c r="A31" s="140"/>
+      <c r="B31" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="149">
+      <c r="C31" s="148">
         <v>85</v>
       </c>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143">
+      <c r="D31" s="142"/>
+      <c r="E31" s="142">
         <v>80</v>
       </c>
-      <c r="F31" s="150"/>
-      <c r="G31" s="153">
-        <f t="shared" ref="G31:G36" si="133">HEX2DEC(C31)</f>
+      <c r="F31" s="149"/>
+      <c r="G31" s="152">
+        <f t="shared" ref="G31" si="133">HEX2DEC(C31)</f>
         <v>133</v>
       </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144">
-        <f t="shared" ref="I31:I36" si="134">HEX2DEC(E31)</f>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143">
+        <f t="shared" ref="I31" si="134">HEX2DEC(E31)</f>
         <v>128</v>
       </c>
-      <c r="J31" s="154"/>
-      <c r="K31" s="125" t="str">
+      <c r="J31" s="153"/>
+      <c r="K31" s="124" t="str">
         <f t="shared" si="94"/>
         <v>10000101</v>
       </c>
-      <c r="L31" s="126"/>
-      <c r="M31" s="163" t="str">
+      <c r="L31" s="125"/>
+      <c r="M31" s="162" t="str">
         <f t="shared" si="95"/>
         <v>10000000</v>
       </c>
-      <c r="N31" s="138"/>
+      <c r="N31" s="137"/>
     </row>
     <row r="32" spans="1:16" ht="15" thickBot="1">
-      <c r="A32" s="145"/>
-      <c r="B32" s="156" t="s">
+      <c r="A32" s="144"/>
+      <c r="B32" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="151" t="str">
-        <f t="shared" ref="C32:C36" si="135">DEC2HEX(G32)</f>
+      <c r="C32" s="150" t="str">
+        <f t="shared" ref="C32" si="135">DEC2HEX(G32)</f>
         <v>78</v>
       </c>
-      <c r="D32" s="147" t="str">
-        <f t="shared" ref="D32:D36" si="136">DEC2HEX(H32)</f>
+      <c r="D32" s="146" t="str">
+        <f t="shared" ref="D32" si="136">DEC2HEX(H32)</f>
         <v>47</v>
       </c>
-      <c r="E32" s="147" t="str">
-        <f t="shared" ref="E32:E36" si="137">DEC2HEX(I32)</f>
+      <c r="E32" s="146" t="str">
+        <f t="shared" ref="E32" si="137">DEC2HEX(I32)</f>
         <v>55</v>
       </c>
-      <c r="F32" s="152" t="str">
-        <f t="shared" ref="F32:F36" si="138">DEC2HEX(J32)</f>
+      <c r="F32" s="151" t="str">
+        <f t="shared" ref="F32" si="138">DEC2HEX(J32)</f>
         <v>3F</v>
       </c>
-      <c r="G32" s="155">
+      <c r="G32" s="154">
         <v>120</v>
       </c>
-      <c r="H32" s="146">
+      <c r="H32" s="145">
         <v>71</v>
       </c>
-      <c r="I32" s="146">
+      <c r="I32" s="145">
         <v>85</v>
       </c>
-      <c r="J32" s="156">
+      <c r="J32" s="155">
         <v>63</v>
       </c>
-      <c r="K32" s="159" t="str">
+      <c r="K32" s="158" t="str">
         <f t="shared" si="94"/>
         <v>01111000</v>
       </c>
-      <c r="L32" s="148" t="str">
-        <f t="shared" ref="L32:L36" si="139">DEC2BIN(H32,8)</f>
+      <c r="L32" s="147" t="str">
+        <f t="shared" ref="L32" si="139">DEC2BIN(H32,8)</f>
         <v>01000111</v>
       </c>
-      <c r="M32" s="148" t="str">
+      <c r="M32" s="147" t="str">
         <f t="shared" si="95"/>
         <v>01010101</v>
       </c>
-      <c r="N32" s="162" t="str">
-        <f t="shared" ref="N32:N36" si="140">DEC2BIN(J32,8)</f>
+      <c r="N32" s="161" t="str">
+        <f t="shared" ref="N32" si="140">DEC2BIN(J32,8)</f>
         <v>00111111</v>
       </c>
-      <c r="O32" s="160">
-        <f t="shared" ref="O32:O36" si="141">G31-I32</f>
+      <c r="O32" s="159">
+        <f t="shared" ref="O32" si="141">G31-I32</f>
         <v>48</v>
       </c>
-      <c r="P32" s="160">
-        <f t="shared" ref="P32:P36" si="142">I31-J32</f>
+      <c r="P32" s="159">
+        <f t="shared" ref="P32" si="142">I31-J32</f>
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="14.25">
-      <c r="A33" s="141"/>
-      <c r="B33" s="158" t="s">
+      <c r="A33" s="140"/>
+      <c r="B33" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="153">
-        <f t="shared" ref="G33:G36" si="143">HEX2DEC(C33)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144">
-        <f t="shared" ref="I33:I36" si="144">HEX2DEC(E33)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="154"/>
-      <c r="K33" s="125" t="str">
+      <c r="C33" s="148"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="152">
+        <f t="shared" ref="G33" si="143">HEX2DEC(C33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143">
+        <f t="shared" ref="I33" si="144">HEX2DEC(E33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="153"/>
+      <c r="K33" s="124" t="str">
         <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L33" s="126"/>
-      <c r="M33" s="163" t="str">
+      <c r="L33" s="125"/>
+      <c r="M33" s="162" t="str">
         <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="N33" s="138"/>
+      <c r="N33" s="137"/>
     </row>
     <row r="34" spans="1:16" ht="15" thickBot="1">
-      <c r="A34" s="145"/>
-      <c r="B34" s="156" t="s">
+      <c r="A34" s="144"/>
+      <c r="B34" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="151" t="str">
-        <f t="shared" ref="C34:C36" si="145">DEC2HEX(G34)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="147" t="str">
-        <f t="shared" ref="D34:D36" si="146">DEC2HEX(H34)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="147" t="str">
-        <f t="shared" ref="E34:E36" si="147">DEC2HEX(I34)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="152" t="str">
-        <f t="shared" ref="F34:F36" si="148">DEC2HEX(J34)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="155"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="159" t="str">
+      <c r="C34" s="150" t="str">
+        <f t="shared" ref="C34" si="145">DEC2HEX(G34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="146" t="str">
+        <f t="shared" ref="D34" si="146">DEC2HEX(H34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="146" t="str">
+        <f t="shared" ref="E34" si="147">DEC2HEX(I34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="151" t="str">
+        <f t="shared" ref="F34" si="148">DEC2HEX(J34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="154"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="158" t="str">
         <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L34" s="148" t="str">
-        <f t="shared" ref="L34:L36" si="149">DEC2BIN(H34,8)</f>
+      <c r="L34" s="147" t="str">
+        <f t="shared" ref="L34" si="149">DEC2BIN(H34,8)</f>
         <v>00000000</v>
       </c>
-      <c r="M34" s="148" t="str">
+      <c r="M34" s="147" t="str">
         <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="N34" s="162" t="str">
-        <f t="shared" ref="N34:N36" si="150">DEC2BIN(J34,8)</f>
+      <c r="N34" s="161" t="str">
+        <f t="shared" ref="N34" si="150">DEC2BIN(J34,8)</f>
         <v>00000000</v>
       </c>
-      <c r="O34" s="160">
-        <f t="shared" ref="O34:O36" si="151">G33-I34</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="160">
-        <f t="shared" ref="P34:P36" si="152">I33-J34</f>
+      <c r="O34" s="159">
+        <f t="shared" ref="O34" si="151">G33-I34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="159">
+        <f t="shared" ref="P34" si="152">I33-J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="14.25">
-      <c r="A35" s="141"/>
-      <c r="B35" s="158" t="s">
+      <c r="A35" s="140"/>
+      <c r="B35" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="149"/>
-      <c r="D35" s="143"/>
-      <c r="E35" s="143"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="153">
-        <f t="shared" ref="G35:G36" si="153">HEX2DEC(C35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144">
-        <f t="shared" ref="I35:I36" si="154">HEX2DEC(E35)</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="154"/>
-      <c r="K35" s="125" t="str">
+      <c r="C35" s="148"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="152">
+        <f t="shared" ref="G35" si="153">HEX2DEC(C35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143">
+        <f t="shared" ref="I35" si="154">HEX2DEC(E35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="153"/>
+      <c r="K35" s="124" t="str">
         <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L35" s="126"/>
-      <c r="M35" s="163" t="str">
+      <c r="L35" s="125"/>
+      <c r="M35" s="162" t="str">
         <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="N35" s="138"/>
+      <c r="N35" s="137"/>
     </row>
     <row r="36" spans="1:16" ht="15" thickBot="1">
-      <c r="A36" s="145"/>
-      <c r="B36" s="156" t="s">
+      <c r="A36" s="144"/>
+      <c r="B36" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C36" s="151" t="str">
+      <c r="C36" s="150" t="str">
         <f t="shared" ref="C36" si="155">DEC2HEX(G36)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="147" t="str">
+      <c r="D36" s="146" t="str">
         <f t="shared" ref="D36" si="156">DEC2HEX(H36)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="147" t="str">
+      <c r="E36" s="146" t="str">
         <f t="shared" ref="E36:F36" si="157">DEC2HEX(I36)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="152" t="str">
+      <c r="F36" s="151" t="str">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
-      <c r="G36" s="155"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="159" t="str">
+      <c r="G36" s="154"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="155"/>
+      <c r="K36" s="158" t="str">
         <f t="shared" si="94"/>
         <v>00000000</v>
       </c>
-      <c r="L36" s="148" t="str">
+      <c r="L36" s="147" t="str">
         <f t="shared" ref="L36" si="158">DEC2BIN(H36,8)</f>
         <v>00000000</v>
       </c>
-      <c r="M36" s="148" t="str">
+      <c r="M36" s="147" t="str">
         <f t="shared" si="95"/>
         <v>00000000</v>
       </c>
-      <c r="N36" s="162" t="str">
+      <c r="N36" s="161" t="str">
         <f t="shared" ref="N36" si="159">DEC2BIN(J36,8)</f>
         <v>00000000</v>
       </c>
-      <c r="O36" s="160">
+      <c r="O36" s="159">
         <f t="shared" ref="O36" si="160">G35-I36</f>
         <v>0</v>
       </c>
-      <c r="P36" s="160">
+      <c r="P36" s="159">
         <f t="shared" ref="P36" si="161">I35-J36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="14.25">
-      <c r="A37" s="141" t="s">
+      <c r="A37" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="B37" s="158" t="s">
+      <c r="B37" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="149" t="s">
+      <c r="C37" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="143" t="s">
+      <c r="D37" s="142"/>
+      <c r="E37" s="142" t="s">
         <v>183</v>
       </c>
-      <c r="F37" s="150"/>
-      <c r="G37" s="153">
-        <f t="shared" ref="G37:G38" si="162">HEX2DEC(C37)</f>
+      <c r="F37" s="149"/>
+      <c r="G37" s="152">
+        <f t="shared" ref="G37" si="162">HEX2DEC(C37)</f>
         <v>157</v>
       </c>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144">
-        <f t="shared" ref="I37:I38" si="163">HEX2DEC(E37)</f>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143">
+        <f t="shared" ref="I37" si="163">HEX2DEC(E37)</f>
         <v>254</v>
       </c>
-      <c r="J37" s="154"/>
-      <c r="K37" s="125" t="str">
+      <c r="J37" s="153"/>
+      <c r="K37" s="124" t="str">
         <f t="shared" ref="K37:K38" si="164">DEC2BIN(G37,8)</f>
         <v>10011101</v>
       </c>
-      <c r="L37" s="126"/>
-      <c r="M37" s="163" t="str">
+      <c r="L37" s="125"/>
+      <c r="M37" s="162" t="str">
         <f t="shared" ref="M37:M38" si="165">DEC2BIN(I37,8)</f>
         <v>11111110</v>
       </c>
-      <c r="N37" s="138"/>
+      <c r="N37" s="137"/>
     </row>
     <row r="38" spans="1:16" ht="15" thickBot="1">
-      <c r="A38" s="145"/>
-      <c r="B38" s="156" t="s">
+      <c r="A38" s="144"/>
+      <c r="B38" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="C38" s="151" t="str">
+      <c r="C38" s="150" t="str">
         <f t="shared" ref="C38" si="166">DEC2HEX(G38)</f>
         <v>78</v>
       </c>
-      <c r="D38" s="147" t="str">
+      <c r="D38" s="146" t="str">
         <f t="shared" ref="D38" si="167">DEC2HEX(H38)</f>
         <v>48</v>
       </c>
-      <c r="E38" s="147" t="str">
+      <c r="E38" s="146" t="str">
         <f t="shared" ref="E38" si="168">DEC2HEX(I38)</f>
         <v>76</v>
       </c>
-      <c r="F38" s="152" t="str">
+      <c r="F38" s="151" t="str">
         <f t="shared" ref="F38" si="169">DEC2HEX(J38)</f>
         <v>7D</v>
       </c>
-      <c r="G38" s="155">
+      <c r="G38" s="154">
         <v>120</v>
       </c>
-      <c r="H38" s="146">
+      <c r="H38" s="145">
         <v>72</v>
       </c>
-      <c r="I38" s="146">
+      <c r="I38" s="145">
         <v>118</v>
       </c>
-      <c r="J38" s="156">
+      <c r="J38" s="155">
         <v>125</v>
       </c>
-      <c r="K38" s="159" t="str">
+      <c r="K38" s="158" t="str">
         <f t="shared" si="164"/>
         <v>01111000</v>
       </c>
-      <c r="L38" s="148" t="str">
+      <c r="L38" s="147" t="str">
         <f t="shared" ref="L38" si="170">DEC2BIN(H38,8)</f>
         <v>01001000</v>
       </c>
-      <c r="M38" s="148" t="str">
+      <c r="M38" s="147" t="str">
         <f t="shared" si="165"/>
         <v>01110110</v>
       </c>
-      <c r="N38" s="162" t="str">
+      <c r="N38" s="161" t="str">
         <f t="shared" ref="N38" si="171">DEC2BIN(J38,8)</f>
         <v>01111101</v>
       </c>
-      <c r="O38" s="160">
+      <c r="O38" s="159">
         <f t="shared" ref="O38" si="172">G37-I38</f>
         <v>39</v>
       </c>
-      <c r="P38" s="160">
+      <c r="P38" s="159">
         <f t="shared" ref="P38" si="173">I37-J38</f>
         <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="14.25">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="213" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39" s="149"/>
+      <c r="G39" s="152">
+        <f t="shared" ref="G39" si="174">HEX2DEC(C39)</f>
+        <v>253</v>
+      </c>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143">
+        <f t="shared" ref="I39" si="175">HEX2DEC(E39)</f>
+        <v>160</v>
+      </c>
+      <c r="J39" s="153"/>
+      <c r="K39" s="124" t="str">
+        <f t="shared" ref="K39:K40" si="176">DEC2BIN(G39,8)</f>
+        <v>11111101</v>
+      </c>
+      <c r="L39" s="125"/>
+      <c r="M39" s="162" t="str">
+        <f t="shared" ref="M39:M40" si="177">DEC2BIN(I39,8)</f>
+        <v>10100000</v>
+      </c>
+      <c r="N39" s="137"/>
+    </row>
+    <row r="40" spans="1:16" ht="15" thickBot="1">
+      <c r="B40" s="213" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="150" t="str">
+        <f t="shared" ref="C40" si="178">DEC2HEX(G40)</f>
+        <v>78</v>
+      </c>
+      <c r="D40" s="146" t="str">
+        <f t="shared" ref="D40" si="179">DEC2HEX(H40)</f>
+        <v>4E</v>
+      </c>
+      <c r="E40" s="146" t="str">
+        <f t="shared" ref="E40" si="180">DEC2HEX(I40)</f>
+        <v>75</v>
+      </c>
+      <c r="F40" s="151" t="str">
+        <f t="shared" ref="F40" si="181">DEC2HEX(J40)</f>
+        <v>5F</v>
+      </c>
+      <c r="G40" s="154">
+        <v>120</v>
+      </c>
+      <c r="H40" s="145">
+        <v>78</v>
+      </c>
+      <c r="I40" s="145">
+        <v>117</v>
+      </c>
+      <c r="J40" s="155">
+        <v>95</v>
+      </c>
+      <c r="K40" s="158" t="str">
+        <f t="shared" si="176"/>
+        <v>01111000</v>
+      </c>
+      <c r="L40" s="147" t="str">
+        <f t="shared" ref="L40" si="182">DEC2BIN(H40,8)</f>
+        <v>01001110</v>
+      </c>
+      <c r="M40" s="147" t="str">
+        <f t="shared" si="177"/>
+        <v>01110101</v>
+      </c>
+      <c r="N40" s="161" t="str">
+        <f t="shared" ref="N40" si="183">DEC2BIN(J40,8)</f>
+        <v>01011111</v>
+      </c>
+      <c r="O40" s="159">
+        <f t="shared" ref="O40" si="184">G39-I40</f>
+        <v>136</v>
+      </c>
+      <c r="P40" s="159">
+        <f t="shared" ref="P40" si="185">I39-J40</f>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -18955,2121 +19164,2161 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="167" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5" style="169" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="171" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="167" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5" style="170" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.5" style="171" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.625" style="167" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.875" style="170" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="2.5" style="168" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="2.5" style="171" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="166"/>
+    <col min="1" max="1" width="2.5" style="166" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5" style="168" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="170" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="166" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="169" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.5" style="170" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.625" style="166" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.875" style="169" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="2.5" style="167" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="2.5" style="170" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="165"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="185"/>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="181"/>
-      <c r="F1" s="181"/>
-      <c r="G1" s="181"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="185">
+      <c r="A1" s="184"/>
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="181"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="184">
         <v>9</v>
       </c>
-      <c r="J1" s="181"/>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="183" t="s">
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="182" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="181"/>
-      <c r="O1" s="181"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="185" t="s">
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="183"/>
+      <c r="Q1" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="181"/>
-      <c r="S1" s="181"/>
-      <c r="T1" s="181"/>
-      <c r="U1" s="183" t="s">
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="181"/>
-      <c r="W1" s="181"/>
-      <c r="X1" s="184"/>
+      <c r="V1" s="180"/>
+      <c r="W1" s="180"/>
+      <c r="X1" s="183"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="186"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="167" t="str">
+      <c r="A2" s="212"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="168" t="str">
+      <c r="J2" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="168" t="str">
+      <c r="K2" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="168" t="str">
+      <c r="L2" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="172" t="str">
+      <c r="M2" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="173" t="str">
+      <c r="N2" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="173" t="str">
+      <c r="O2" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="174" t="str">
+      <c r="P2" s="207" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="191" t="str">
+      <c r="Q2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="192" t="str">
+      <c r="R2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S2" s="192" t="str">
+      <c r="S2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T2" s="192" t="str">
+      <c r="T2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="193" t="str">
+      <c r="U2" s="210" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V2" s="192" t="str">
+      <c r="V2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="192" t="str">
+      <c r="W2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X2" s="194" t="str">
+      <c r="X2" s="211" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
-      <c r="A3" s="186">
+      <c r="A3" s="185">
         <v>4</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="187">
+      <c r="B3" s="186"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="186">
         <v>8</v>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="186">
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="185">
         <v>7</v>
       </c>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="189">
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="188">
         <v>6</v>
       </c>
-      <c r="N3" s="187"/>
-      <c r="O3" s="187"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="186">
+      <c r="N3" s="186"/>
+      <c r="O3" s="186"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="185">
         <v>7</v>
       </c>
-      <c r="R3" s="187"/>
-      <c r="S3" s="187"/>
-      <c r="T3" s="187"/>
-      <c r="U3" s="189" t="s">
+      <c r="R3" s="186"/>
+      <c r="S3" s="186"/>
+      <c r="T3" s="186"/>
+      <c r="U3" s="188" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="187"/>
-      <c r="W3" s="187"/>
-      <c r="X3" s="190"/>
+      <c r="V3" s="186"/>
+      <c r="W3" s="186"/>
+      <c r="X3" s="189"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1">
-      <c r="A4" s="175" t="str">
+      <c r="A4" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($A3,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="B4" s="176" t="str">
+      <c r="B4" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($A3,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="C4" s="176" t="str">
+      <c r="C4" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($A3,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="177" t="str">
+      <c r="D4" s="176" t="str">
         <f>MID(TEXT(HEX2BIN($A3,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="176" t="str">
+      <c r="E4" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="176" t="str">
+      <c r="F4" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="176" t="str">
+      <c r="G4" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="178" t="str">
+      <c r="H4" s="199" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="175" t="str">
+      <c r="I4" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($I3,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="176" t="str">
+      <c r="J4" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($I3,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="179" t="str">
+      <c r="K4" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($I3,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="L4" s="179" t="str">
+      <c r="L4" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($I3,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M4" s="180" t="str">
+      <c r="M4" s="179" t="str">
         <f>MID(TEXT(HEX2BIN($M3,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N4" s="179" t="str">
+      <c r="N4" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($M3,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O4" s="195" t="str">
+      <c r="O4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($M3,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="P4" s="196" t="str">
+      <c r="P4" s="195" t="str">
         <f>MID(TEXT(HEX2BIN($M3,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="175" t="str">
+      <c r="Q4" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="195" t="str">
+      <c r="R4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S4" s="195" t="str">
+      <c r="S4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T4" s="195" t="str">
+      <c r="T4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q3,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U4" s="197" t="str">
+      <c r="U4" s="196" t="str">
         <f>MID(TEXT(HEX2BIN($U3,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V4" s="195" t="str">
+      <c r="V4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($U3,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W4" s="195" t="str">
+      <c r="W4" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($U3,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="196" t="str">
+      <c r="X4" s="195" t="str">
         <f>MID(TEXT(HEX2BIN($U3,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="185"/>
-      <c r="B5" s="181"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="185">
+      <c r="A5" s="184"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="180"/>
+      <c r="F5" s="180"/>
+      <c r="G5" s="180"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="184">
         <v>8</v>
       </c>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="183">
+      <c r="J5" s="180"/>
+      <c r="K5" s="180"/>
+      <c r="L5" s="180"/>
+      <c r="M5" s="182">
         <v>5</v>
       </c>
-      <c r="N5" s="181"/>
-      <c r="O5" s="181"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="185">
+      <c r="N5" s="180"/>
+      <c r="O5" s="180"/>
+      <c r="P5" s="183"/>
+      <c r="Q5" s="184">
         <v>8</v>
       </c>
-      <c r="R5" s="181"/>
-      <c r="S5" s="181"/>
-      <c r="T5" s="181"/>
-      <c r="U5" s="183">
-        <v>0</v>
-      </c>
-      <c r="V5" s="181"/>
-      <c r="W5" s="181"/>
-      <c r="X5" s="184"/>
+      <c r="R5" s="180"/>
+      <c r="S5" s="180"/>
+      <c r="T5" s="180"/>
+      <c r="U5" s="182">
+        <v>0</v>
+      </c>
+      <c r="V5" s="180"/>
+      <c r="W5" s="180"/>
+      <c r="X5" s="183"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="190"/>
-      <c r="I6" s="167" t="str">
+      <c r="A6" s="212"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="200"/>
+      <c r="F6" s="200"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="168" t="str">
+      <c r="J6" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="168" t="str">
+      <c r="K6" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="168" t="str">
+      <c r="L6" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="172" t="str">
+      <c r="M6" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="173" t="str">
+      <c r="N6" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="173" t="str">
+      <c r="O6" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="174" t="str">
+      <c r="P6" s="207" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="191" t="str">
+      <c r="Q6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="192" t="str">
+      <c r="R6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="192" t="str">
+      <c r="S6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="192" t="str">
+      <c r="T6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="193" t="str">
+      <c r="U6" s="210" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="192" t="str">
+      <c r="V6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="192" t="str">
+      <c r="W6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="194" t="str">
+      <c r="X6" s="211" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="186">
+      <c r="A7" s="185">
         <v>4</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="187">
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="187"/>
+      <c r="E7" s="186">
         <v>7</v>
       </c>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="186">
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="185">
         <v>5</v>
       </c>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="189">
+      <c r="J7" s="186"/>
+      <c r="K7" s="186"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="188">
         <v>5</v>
       </c>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="186">
+      <c r="N7" s="186"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="185">
         <v>3</v>
       </c>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="189" t="s">
+      <c r="R7" s="186"/>
+      <c r="S7" s="186"/>
+      <c r="T7" s="186"/>
+      <c r="U7" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="187"/>
-      <c r="W7" s="187"/>
-      <c r="X7" s="190"/>
+      <c r="V7" s="186"/>
+      <c r="W7" s="186"/>
+      <c r="X7" s="189"/>
     </row>
     <row r="8" spans="1:24" ht="15" thickBot="1">
-      <c r="A8" s="175" t="str">
+      <c r="A8" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($A7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="B8" s="176" t="str">
+      <c r="B8" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($A7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="C8" s="176" t="str">
+      <c r="C8" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($A7,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="177" t="str">
+      <c r="D8" s="176" t="str">
         <f>MID(TEXT(HEX2BIN($A7,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="176" t="str">
+      <c r="E8" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="176" t="str">
+      <c r="F8" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="176" t="str">
+      <c r="G8" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="178" t="str">
+      <c r="H8" s="199" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="175" t="str">
+      <c r="I8" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($I7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="176" t="str">
+      <c r="J8" s="175" t="str">
         <f>MID(TEXT(HEX2BIN($I7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K8" s="179" t="str">
+      <c r="K8" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($I7,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L8" s="179" t="str">
+      <c r="L8" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($I7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M8" s="180" t="str">
+      <c r="M8" s="179" t="str">
         <f>MID(TEXT(HEX2BIN($M7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="179" t="str">
+      <c r="N8" s="178" t="str">
         <f>MID(TEXT(HEX2BIN($M7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O8" s="195" t="str">
+      <c r="O8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($M7,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P8" s="196" t="str">
+      <c r="P8" s="195" t="str">
         <f>MID(TEXT(HEX2BIN($M7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q8" s="175" t="str">
+      <c r="Q8" s="174" t="str">
         <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="R8" s="195" t="str">
+      <c r="R8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S8" s="195" t="str">
+      <c r="S8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T8" s="195" t="str">
+      <c r="T8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($Q7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U8" s="197" t="str">
+      <c r="U8" s="196" t="str">
         <f>MID(TEXT(HEX2BIN($U7,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V8" s="195" t="str">
+      <c r="V8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($U7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W8" s="195" t="str">
+      <c r="W8" s="194" t="str">
         <f>MID(TEXT(HEX2BIN($U7,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X8" s="196" t="str">
+      <c r="X8" s="195" t="str">
         <f>MID(TEXT(HEX2BIN($U7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:24">
-      <c r="A9" s="185"/>
-      <c r="B9" s="181"/>
-      <c r="C9" s="181"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="181"/>
-      <c r="G9" s="181"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="185">
+      <c r="A9" s="184"/>
+      <c r="B9" s="180"/>
+      <c r="C9" s="180"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="180"/>
+      <c r="F9" s="180"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="184">
         <v>8</v>
       </c>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="183">
+      <c r="J9" s="180"/>
+      <c r="K9" s="180"/>
+      <c r="L9" s="180"/>
+      <c r="M9" s="182">
         <v>4</v>
       </c>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="185">
+      <c r="N9" s="180"/>
+      <c r="O9" s="180"/>
+      <c r="P9" s="183"/>
+      <c r="Q9" s="184">
         <v>8</v>
       </c>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="183">
-        <v>0</v>
-      </c>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="184"/>
+      <c r="R9" s="180"/>
+      <c r="S9" s="180"/>
+      <c r="T9" s="180"/>
+      <c r="U9" s="182">
+        <v>0</v>
+      </c>
+      <c r="V9" s="180"/>
+      <c r="W9" s="180"/>
+      <c r="X9" s="183"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="186"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="167" t="str">
-        <f t="shared" ref="I10:I36" si="0">MID(TEXT(HEX2BIN($I9,4),"0000"),1,1)</f>
+      <c r="A10" s="212"/>
+      <c r="B10" s="200"/>
+      <c r="C10" s="200"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="203" t="str">
+        <f t="shared" ref="I10" si="0">MID(TEXT(HEX2BIN($I9,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="168" t="str">
-        <f t="shared" ref="J10:J36" si="1">MID(TEXT(HEX2BIN($I9,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="168" t="str">
-        <f t="shared" ref="K10:K36" si="2">MID(TEXT(HEX2BIN($I9,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="168" t="str">
-        <f t="shared" ref="L10:L36" si="3">MID(TEXT(HEX2BIN($I9,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="172" t="str">
-        <f t="shared" ref="M10:M36" si="4">MID(TEXT(HEX2BIN($M9,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="173" t="str">
-        <f t="shared" ref="N10:N36" si="5">MID(TEXT(HEX2BIN($M9,4),"0000"),2,1)</f>
+      <c r="J10" s="204" t="str">
+        <f t="shared" ref="J10" si="1">MID(TEXT(HEX2BIN($I9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="204" t="str">
+        <f t="shared" ref="K10" si="2">MID(TEXT(HEX2BIN($I9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="204" t="str">
+        <f t="shared" ref="L10" si="3">MID(TEXT(HEX2BIN($I9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="205" t="str">
+        <f t="shared" ref="M10" si="4">MID(TEXT(HEX2BIN($M9,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="206" t="str">
+        <f t="shared" ref="N10" si="5">MID(TEXT(HEX2BIN($M9,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="173" t="str">
-        <f t="shared" ref="O10:O36" si="6">MID(TEXT(HEX2BIN($M9,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="174" t="str">
-        <f t="shared" ref="P10:P36" si="7">MID(TEXT(HEX2BIN($M9,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="191" t="str">
-        <f t="shared" ref="Q10:Q36" si="8">MID(TEXT(HEX2BIN($Q9,4),"0000"),1,1)</f>
+      <c r="O10" s="206" t="str">
+        <f t="shared" ref="O10" si="6">MID(TEXT(HEX2BIN($M9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="207" t="str">
+        <f t="shared" ref="P10" si="7">MID(TEXT(HEX2BIN($M9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="208" t="str">
+        <f t="shared" ref="Q10" si="8">MID(TEXT(HEX2BIN($Q9,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="192" t="str">
-        <f t="shared" ref="R10:R36" si="9">MID(TEXT(HEX2BIN($Q9,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="192" t="str">
-        <f t="shared" ref="S10:S36" si="10">MID(TEXT(HEX2BIN($Q9,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="192" t="str">
-        <f t="shared" ref="T10:T36" si="11">MID(TEXT(HEX2BIN($Q9,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="193" t="str">
-        <f t="shared" ref="U10:U36" si="12">MID(TEXT(HEX2BIN($U9,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="192" t="str">
-        <f t="shared" ref="V10:V36" si="13">MID(TEXT(HEX2BIN($U9,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="192" t="str">
-        <f t="shared" ref="W10:W36" si="14">MID(TEXT(HEX2BIN($U9,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X10" s="194" t="str">
-        <f t="shared" ref="X10:X36" si="15">MID(TEXT(HEX2BIN($U9,4),"0000"),4,1)</f>
+      <c r="R10" s="209" t="str">
+        <f t="shared" ref="R10" si="9">MID(TEXT(HEX2BIN($Q9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="209" t="str">
+        <f t="shared" ref="S10" si="10">MID(TEXT(HEX2BIN($Q9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="209" t="str">
+        <f t="shared" ref="T10" si="11">MID(TEXT(HEX2BIN($Q9,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="210" t="str">
+        <f t="shared" ref="U10" si="12">MID(TEXT(HEX2BIN($U9,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="209" t="str">
+        <f t="shared" ref="V10" si="13">MID(TEXT(HEX2BIN($U9,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="209" t="str">
+        <f t="shared" ref="W10" si="14">MID(TEXT(HEX2BIN($U9,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="211" t="str">
+        <f t="shared" ref="X10" si="15">MID(TEXT(HEX2BIN($U9,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="186">
+      <c r="A11" s="185">
         <v>4</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="187">
+      <c r="B11" s="186"/>
+      <c r="C11" s="186"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="186">
         <v>7</v>
       </c>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="186">
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185">
         <v>5</v>
       </c>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="189">
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="188">
         <v>1</v>
       </c>
-      <c r="N11" s="187"/>
-      <c r="O11" s="187"/>
-      <c r="P11" s="190"/>
-      <c r="Q11" s="186">
+      <c r="N11" s="186"/>
+      <c r="O11" s="186"/>
+      <c r="P11" s="189"/>
+      <c r="Q11" s="185">
         <v>3</v>
       </c>
-      <c r="R11" s="187"/>
-      <c r="S11" s="187"/>
-      <c r="T11" s="187"/>
-      <c r="U11" s="189" t="s">
+      <c r="R11" s="186"/>
+      <c r="S11" s="186"/>
+      <c r="T11" s="186"/>
+      <c r="U11" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="187"/>
-      <c r="W11" s="187"/>
-      <c r="X11" s="190"/>
+      <c r="V11" s="186"/>
+      <c r="W11" s="186"/>
+      <c r="X11" s="189"/>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1">
-      <c r="A12" s="175" t="str">
-        <f t="shared" ref="A12:A36" si="16">MID(TEXT(HEX2BIN($A11,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B12" s="176" t="str">
-        <f t="shared" ref="B12:B36" si="17">MID(TEXT(HEX2BIN($A11,4),"0000"),2,1)</f>
+      <c r="A12" s="174" t="str">
+        <f t="shared" ref="A12" si="16">MID(TEXT(HEX2BIN($A11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="175" t="str">
+        <f t="shared" ref="B12" si="17">MID(TEXT(HEX2BIN($A11,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="176" t="str">
-        <f t="shared" ref="C12:C36" si="18">MID(TEXT(HEX2BIN($A11,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="177" t="str">
-        <f t="shared" ref="D12:D36" si="19">MID(TEXT(HEX2BIN($A11,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="176" t="str">
-        <f t="shared" ref="E12:E36" si="20">MID(TEXT(HEX2BIN($E11,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="176" t="str">
-        <f t="shared" ref="F12:F36" si="21">MID(TEXT(HEX2BIN($E11,4),"0000"),2,1)</f>
+      <c r="C12" s="175" t="str">
+        <f t="shared" ref="C12" si="18">MID(TEXT(HEX2BIN($A11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="176" t="str">
+        <f t="shared" ref="D12" si="19">MID(TEXT(HEX2BIN($A11,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="198" t="str">
+        <f t="shared" ref="E12" si="20">MID(TEXT(HEX2BIN($E11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="198" t="str">
+        <f t="shared" ref="F12" si="21">MID(TEXT(HEX2BIN($E11,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="176" t="str">
-        <f t="shared" ref="G12:G36" si="22">MID(TEXT(HEX2BIN($E11,4),"0000"),3,1)</f>
+      <c r="G12" s="198" t="str">
+        <f t="shared" ref="G12" si="22">MID(TEXT(HEX2BIN($E11,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="178" t="str">
-        <f t="shared" ref="H12:H36" si="23">MID(TEXT(HEX2BIN($E11,4),"0000"),4,1)</f>
+      <c r="H12" s="199" t="str">
+        <f t="shared" ref="H12" si="23">MID(TEXT(HEX2BIN($E11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="I12" s="175" t="str">
-        <f t="shared" ref="I12:I36" si="24">MID(TEXT(HEX2BIN($I11,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="176" t="str">
-        <f t="shared" ref="J12:J36" si="25">MID(TEXT(HEX2BIN($I11,4),"0000"),2,1)</f>
+      <c r="I12" s="174" t="str">
+        <f t="shared" ref="I12" si="24">MID(TEXT(HEX2BIN($I11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="175" t="str">
+        <f t="shared" ref="J12" si="25">MID(TEXT(HEX2BIN($I11,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K12" s="179" t="str">
-        <f t="shared" ref="K12:K36" si="26">MID(TEXT(HEX2BIN($I11,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="179" t="str">
-        <f t="shared" ref="L12:L36" si="27">MID(TEXT(HEX2BIN($I11,4),"0000"),4,1)</f>
+      <c r="K12" s="178" t="str">
+        <f t="shared" ref="K12" si="26">MID(TEXT(HEX2BIN($I11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="178" t="str">
+        <f t="shared" ref="L12" si="27">MID(TEXT(HEX2BIN($I11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M12" s="180" t="str">
-        <f t="shared" ref="M12:M36" si="28">MID(TEXT(HEX2BIN($M11,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="179" t="str">
-        <f t="shared" ref="N12:N36" si="29">MID(TEXT(HEX2BIN($M11,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="195" t="str">
-        <f t="shared" ref="O12:O36" si="30">MID(TEXT(HEX2BIN($M11,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="196" t="str">
-        <f t="shared" ref="P12:P36" si="31">MID(TEXT(HEX2BIN($M11,4),"0000"),4,1)</f>
+      <c r="M12" s="179" t="str">
+        <f t="shared" ref="M12" si="28">MID(TEXT(HEX2BIN($M11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="178" t="str">
+        <f t="shared" ref="N12" si="29">MID(TEXT(HEX2BIN($M11,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="194" t="str">
+        <f t="shared" ref="O12" si="30">MID(TEXT(HEX2BIN($M11,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="195" t="str">
+        <f t="shared" ref="P12" si="31">MID(TEXT(HEX2BIN($M11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="175" t="str">
-        <f t="shared" ref="Q12:Q36" si="32">MID(TEXT(HEX2BIN($Q11,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="195" t="str">
-        <f t="shared" ref="R12:R36" si="33">MID(TEXT(HEX2BIN($Q11,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="195" t="str">
-        <f t="shared" ref="S12:S36" si="34">MID(TEXT(HEX2BIN($Q11,4),"0000"),3,1)</f>
+      <c r="Q12" s="174" t="str">
+        <f t="shared" ref="Q12" si="32">MID(TEXT(HEX2BIN($Q11,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="194" t="str">
+        <f t="shared" ref="R12" si="33">MID(TEXT(HEX2BIN($Q11,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="194" t="str">
+        <f t="shared" ref="S12" si="34">MID(TEXT(HEX2BIN($Q11,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T12" s="195" t="str">
-        <f t="shared" ref="T12:T36" si="35">MID(TEXT(HEX2BIN($Q11,4),"0000"),4,1)</f>
+      <c r="T12" s="194" t="str">
+        <f t="shared" ref="T12" si="35">MID(TEXT(HEX2BIN($Q11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U12" s="197" t="str">
-        <f t="shared" ref="U12:U36" si="36">MID(TEXT(HEX2BIN($U11,4),"0000"),1,1)</f>
+      <c r="U12" s="196" t="str">
+        <f t="shared" ref="U12" si="36">MID(TEXT(HEX2BIN($U11,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V12" s="195" t="str">
-        <f t="shared" ref="V12:V36" si="37">MID(TEXT(HEX2BIN($U11,4),"0000"),2,1)</f>
+      <c r="V12" s="194" t="str">
+        <f t="shared" ref="V12" si="37">MID(TEXT(HEX2BIN($U11,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="195" t="str">
-        <f t="shared" ref="W12:W36" si="38">MID(TEXT(HEX2BIN($U11,4),"0000"),3,1)</f>
+      <c r="W12" s="194" t="str">
+        <f t="shared" ref="W12" si="38">MID(TEXT(HEX2BIN($U11,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X12" s="196" t="str">
-        <f t="shared" ref="X12:X36" si="39">MID(TEXT(HEX2BIN($U11,4),"0000"),4,1)</f>
+      <c r="X12" s="195" t="str">
+        <f t="shared" ref="X12" si="39">MID(TEXT(HEX2BIN($U11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="185"/>
-      <c r="B13" s="181"/>
-      <c r="C13" s="181"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="184"/>
-      <c r="I13" s="185">
+      <c r="A13" s="184"/>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184">
         <v>9</v>
       </c>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="183" t="s">
+      <c r="J13" s="180"/>
+      <c r="K13" s="180"/>
+      <c r="L13" s="180"/>
+      <c r="M13" s="182" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="184"/>
-      <c r="Q13" s="185">
+      <c r="N13" s="180"/>
+      <c r="O13" s="180"/>
+      <c r="P13" s="183"/>
+      <c r="Q13" s="184">
         <v>5</v>
       </c>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="183">
-        <v>0</v>
-      </c>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="184"/>
+      <c r="R13" s="180"/>
+      <c r="S13" s="180"/>
+      <c r="T13" s="180"/>
+      <c r="U13" s="182">
+        <v>0</v>
+      </c>
+      <c r="V13" s="180"/>
+      <c r="W13" s="180"/>
+      <c r="X13" s="183"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="186"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="188"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="167" t="str">
-        <f t="shared" ref="I14:I36" si="40">MID(TEXT(HEX2BIN($I13,4),"0000"),1,1)</f>
+      <c r="A14" s="212"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="203" t="str">
+        <f t="shared" ref="I14" si="40">MID(TEXT(HEX2BIN($I13,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="168" t="str">
-        <f t="shared" ref="J14:J36" si="41">MID(TEXT(HEX2BIN($I13,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="168" t="str">
-        <f t="shared" ref="K14:K36" si="42">MID(TEXT(HEX2BIN($I13,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="168" t="str">
-        <f t="shared" ref="L14:L36" si="43">MID(TEXT(HEX2BIN($I13,4),"0000"),4,1)</f>
+      <c r="J14" s="204" t="str">
+        <f t="shared" ref="J14" si="41">MID(TEXT(HEX2BIN($I13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="204" t="str">
+        <f t="shared" ref="K14" si="42">MID(TEXT(HEX2BIN($I13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="204" t="str">
+        <f t="shared" ref="L14" si="43">MID(TEXT(HEX2BIN($I13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="172" t="str">
-        <f t="shared" ref="M14:M36" si="44">MID(TEXT(HEX2BIN($M13,4),"0000"),1,1)</f>
+      <c r="M14" s="205" t="str">
+        <f t="shared" ref="M14" si="44">MID(TEXT(HEX2BIN($M13,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N14" s="173" t="str">
-        <f t="shared" ref="N14:N36" si="45">MID(TEXT(HEX2BIN($M13,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="173" t="str">
-        <f t="shared" ref="O14:O36" si="46">MID(TEXT(HEX2BIN($M13,4),"0000"),3,1)</f>
+      <c r="N14" s="206" t="str">
+        <f t="shared" ref="N14" si="45">MID(TEXT(HEX2BIN($M13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="206" t="str">
+        <f t="shared" ref="O14" si="46">MID(TEXT(HEX2BIN($M13,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="P14" s="174" t="str">
-        <f t="shared" ref="P14:P36" si="47">MID(TEXT(HEX2BIN($M13,4),"0000"),4,1)</f>
+      <c r="P14" s="207" t="str">
+        <f t="shared" ref="P14" si="47">MID(TEXT(HEX2BIN($M13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="191" t="str">
-        <f t="shared" ref="Q14:Q36" si="48">MID(TEXT(HEX2BIN($Q13,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="192" t="str">
-        <f t="shared" ref="R14:R36" si="49">MID(TEXT(HEX2BIN($Q13,4),"0000"),2,1)</f>
+      <c r="Q14" s="208" t="str">
+        <f t="shared" ref="Q14" si="48">MID(TEXT(HEX2BIN($Q13,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="209" t="str">
+        <f t="shared" ref="R14" si="49">MID(TEXT(HEX2BIN($Q13,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="192" t="str">
-        <f t="shared" ref="S14:S36" si="50">MID(TEXT(HEX2BIN($Q13,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="192" t="str">
-        <f t="shared" ref="T14:T36" si="51">MID(TEXT(HEX2BIN($Q13,4),"0000"),4,1)</f>
+      <c r="S14" s="209" t="str">
+        <f t="shared" ref="S14" si="50">MID(TEXT(HEX2BIN($Q13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="209" t="str">
+        <f t="shared" ref="T14" si="51">MID(TEXT(HEX2BIN($Q13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U14" s="193" t="str">
-        <f t="shared" ref="U14:U36" si="52">MID(TEXT(HEX2BIN($U13,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V14" s="192" t="str">
-        <f t="shared" ref="V14:V36" si="53">MID(TEXT(HEX2BIN($U13,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="192" t="str">
-        <f t="shared" ref="W14:W36" si="54">MID(TEXT(HEX2BIN($U13,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="194" t="str">
-        <f t="shared" ref="X14:X36" si="55">MID(TEXT(HEX2BIN($U13,4),"0000"),4,1)</f>
+      <c r="U14" s="210" t="str">
+        <f t="shared" ref="U14" si="52">MID(TEXT(HEX2BIN($U13,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="209" t="str">
+        <f t="shared" ref="V14" si="53">MID(TEXT(HEX2BIN($U13,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="209" t="str">
+        <f t="shared" ref="W14" si="54">MID(TEXT(HEX2BIN($U13,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X14" s="211" t="str">
+        <f t="shared" ref="X14" si="55">MID(TEXT(HEX2BIN($U13,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24">
-      <c r="A15" s="186">
+      <c r="A15" s="185">
         <v>4</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="187">
+      <c r="B15" s="186"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="187"/>
+      <c r="E15" s="186">
         <v>8</v>
       </c>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="186">
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="185">
         <v>6</v>
       </c>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="189" t="s">
+      <c r="J15" s="186"/>
+      <c r="K15" s="186"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="190"/>
-      <c r="Q15" s="186">
+      <c r="N15" s="186"/>
+      <c r="O15" s="186"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="185">
         <v>4</v>
       </c>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187"/>
-      <c r="T15" s="187"/>
-      <c r="U15" s="189" t="s">
+      <c r="R15" s="186"/>
+      <c r="S15" s="186"/>
+      <c r="T15" s="186"/>
+      <c r="U15" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="190"/>
+      <c r="V15" s="186"/>
+      <c r="W15" s="186"/>
+      <c r="X15" s="189"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1">
-      <c r="A16" s="175" t="str">
-        <f t="shared" ref="A16:A36" si="56">MID(TEXT(HEX2BIN($A15,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B16" s="176" t="str">
-        <f t="shared" ref="B16:B36" si="57">MID(TEXT(HEX2BIN($A15,4),"0000"),2,1)</f>
+      <c r="A16" s="174" t="str">
+        <f t="shared" ref="A16" si="56">MID(TEXT(HEX2BIN($A15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="175" t="str">
+        <f t="shared" ref="B16" si="57">MID(TEXT(HEX2BIN($A15,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="C16" s="176" t="str">
-        <f t="shared" ref="C16:C36" si="58">MID(TEXT(HEX2BIN($A15,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="177" t="str">
-        <f t="shared" ref="D16:D36" si="59">MID(TEXT(HEX2BIN($A15,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="176" t="str">
-        <f t="shared" ref="E16:E36" si="60">MID(TEXT(HEX2BIN($E15,4),"0000"),1,1)</f>
+      <c r="C16" s="175" t="str">
+        <f t="shared" ref="C16" si="58">MID(TEXT(HEX2BIN($A15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="176" t="str">
+        <f t="shared" ref="D16" si="59">MID(TEXT(HEX2BIN($A15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="198" t="str">
+        <f t="shared" ref="E16" si="60">MID(TEXT(HEX2BIN($E15,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="176" t="str">
-        <f t="shared" ref="F16:F36" si="61">MID(TEXT(HEX2BIN($E15,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="176" t="str">
-        <f t="shared" ref="G16:G36" si="62">MID(TEXT(HEX2BIN($E15,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="178" t="str">
-        <f t="shared" ref="H16:H36" si="63">MID(TEXT(HEX2BIN($E15,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="175" t="str">
-        <f t="shared" ref="I16:I36" si="64">MID(TEXT(HEX2BIN($I15,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="176" t="str">
-        <f t="shared" ref="J16:J36" si="65">MID(TEXT(HEX2BIN($I15,4),"0000"),2,1)</f>
+      <c r="F16" s="198" t="str">
+        <f t="shared" ref="F16" si="61">MID(TEXT(HEX2BIN($E15,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="198" t="str">
+        <f t="shared" ref="G16" si="62">MID(TEXT(HEX2BIN($E15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="199" t="str">
+        <f t="shared" ref="H16" si="63">MID(TEXT(HEX2BIN($E15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="174" t="str">
+        <f t="shared" ref="I16" si="64">MID(TEXT(HEX2BIN($I15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="175" t="str">
+        <f t="shared" ref="J16" si="65">MID(TEXT(HEX2BIN($I15,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K16" s="179" t="str">
-        <f t="shared" ref="K16:K36" si="66">MID(TEXT(HEX2BIN($I15,4),"0000"),3,1)</f>
+      <c r="K16" s="178" t="str">
+        <f t="shared" ref="K16" si="66">MID(TEXT(HEX2BIN($I15,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="L16" s="179" t="str">
-        <f t="shared" ref="L16:L36" si="67">MID(TEXT(HEX2BIN($I15,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="180" t="str">
-        <f t="shared" ref="M16:M36" si="68">MID(TEXT(HEX2BIN($M15,4),"0000"),1,1)</f>
+      <c r="L16" s="178" t="str">
+        <f t="shared" ref="L16" si="67">MID(TEXT(HEX2BIN($I15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="179" t="str">
+        <f t="shared" ref="M16" si="68">MID(TEXT(HEX2BIN($M15,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N16" s="179" t="str">
-        <f t="shared" ref="N16:N36" si="69">MID(TEXT(HEX2BIN($M15,4),"0000"),2,1)</f>
+      <c r="N16" s="178" t="str">
+        <f t="shared" ref="N16" si="69">MID(TEXT(HEX2BIN($M15,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O16" s="195" t="str">
-        <f t="shared" ref="O16:O36" si="70">MID(TEXT(HEX2BIN($M15,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="196" t="str">
-        <f t="shared" ref="P16:P36" si="71">MID(TEXT(HEX2BIN($M15,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="175" t="str">
-        <f t="shared" ref="Q16:Q36" si="72">MID(TEXT(HEX2BIN($Q15,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="195" t="str">
-        <f t="shared" ref="R16:R36" si="73">MID(TEXT(HEX2BIN($Q15,4),"0000"),2,1)</f>
+      <c r="O16" s="194" t="str">
+        <f t="shared" ref="O16" si="70">MID(TEXT(HEX2BIN($M15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="195" t="str">
+        <f t="shared" ref="P16" si="71">MID(TEXT(HEX2BIN($M15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="174" t="str">
+        <f t="shared" ref="Q16" si="72">MID(TEXT(HEX2BIN($Q15,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="194" t="str">
+        <f t="shared" ref="R16" si="73">MID(TEXT(HEX2BIN($Q15,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S16" s="195" t="str">
-        <f t="shared" ref="S16:S36" si="74">MID(TEXT(HEX2BIN($Q15,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="195" t="str">
-        <f t="shared" ref="T16:T36" si="75">MID(TEXT(HEX2BIN($Q15,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U16" s="197" t="str">
-        <f t="shared" ref="U16:U36" si="76">MID(TEXT(HEX2BIN($U15,4),"0000"),1,1)</f>
+      <c r="S16" s="194" t="str">
+        <f t="shared" ref="S16" si="74">MID(TEXT(HEX2BIN($Q15,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="194" t="str">
+        <f t="shared" ref="T16" si="75">MID(TEXT(HEX2BIN($Q15,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="196" t="str">
+        <f t="shared" ref="U16" si="76">MID(TEXT(HEX2BIN($U15,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V16" s="195" t="str">
-        <f t="shared" ref="V16:V36" si="77">MID(TEXT(HEX2BIN($U15,4),"0000"),2,1)</f>
+      <c r="V16" s="194" t="str">
+        <f t="shared" ref="V16" si="77">MID(TEXT(HEX2BIN($U15,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W16" s="195" t="str">
-        <f t="shared" ref="W16:W36" si="78">MID(TEXT(HEX2BIN($U15,4),"0000"),3,1)</f>
+      <c r="W16" s="194" t="str">
+        <f t="shared" ref="W16" si="78">MID(TEXT(HEX2BIN($U15,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X16" s="196" t="str">
-        <f t="shared" ref="X16:X36" si="79">MID(TEXT(HEX2BIN($U15,4),"0000"),4,1)</f>
+      <c r="X16" s="195" t="str">
+        <f t="shared" ref="X16" si="79">MID(TEXT(HEX2BIN($U15,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="185"/>
-      <c r="B17" s="181"/>
-      <c r="C17" s="181"/>
-      <c r="D17" s="182"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="181"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="181"/>
-      <c r="M17" s="183"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="181"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="185"/>
-      <c r="R17" s="181"/>
-      <c r="S17" s="181"/>
-      <c r="T17" s="181"/>
-      <c r="U17" s="183"/>
-      <c r="V17" s="181"/>
-      <c r="W17" s="181"/>
-      <c r="X17" s="184"/>
+      <c r="A17" s="184"/>
+      <c r="B17" s="180"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="184" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="180"/>
+      <c r="K17" s="180"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="182">
+        <v>9</v>
+      </c>
+      <c r="N17" s="180"/>
+      <c r="O17" s="180"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="184">
+        <v>4</v>
+      </c>
+      <c r="R17" s="180"/>
+      <c r="S17" s="180"/>
+      <c r="T17" s="180"/>
+      <c r="U17" s="182">
+        <v>6</v>
+      </c>
+      <c r="V17" s="180"/>
+      <c r="W17" s="180"/>
+      <c r="X17" s="183"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="186"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="167" t="str">
-        <f t="shared" ref="I18:I36" si="80">MID(TEXT(HEX2BIN($I17,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="168" t="str">
-        <f t="shared" ref="J18:J36" si="81">MID(TEXT(HEX2BIN($I17,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="168" t="str">
-        <f t="shared" ref="K18:K36" si="82">MID(TEXT(HEX2BIN($I17,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="168" t="str">
-        <f t="shared" ref="L18:L36" si="83">MID(TEXT(HEX2BIN($I17,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="172" t="str">
-        <f t="shared" ref="M18:M36" si="84">MID(TEXT(HEX2BIN($M17,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="173" t="str">
-        <f t="shared" ref="N18:N36" si="85">MID(TEXT(HEX2BIN($M17,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="173" t="str">
-        <f t="shared" ref="O18:O36" si="86">MID(TEXT(HEX2BIN($M17,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="174" t="str">
-        <f t="shared" ref="P18:P36" si="87">MID(TEXT(HEX2BIN($M17,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="191" t="str">
-        <f t="shared" ref="Q18:Q36" si="88">MID(TEXT(HEX2BIN($Q17,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="192" t="str">
-        <f t="shared" ref="R18:R36" si="89">MID(TEXT(HEX2BIN($Q17,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="192" t="str">
-        <f t="shared" ref="S18:S36" si="90">MID(TEXT(HEX2BIN($Q17,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="192" t="str">
-        <f t="shared" ref="T18:T36" si="91">MID(TEXT(HEX2BIN($Q17,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="193" t="str">
-        <f t="shared" ref="U18:U36" si="92">MID(TEXT(HEX2BIN($U17,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="192" t="str">
-        <f t="shared" ref="V18:V36" si="93">MID(TEXT(HEX2BIN($U17,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W18" s="192" t="str">
-        <f t="shared" ref="W18:W36" si="94">MID(TEXT(HEX2BIN($U17,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="194" t="str">
-        <f t="shared" ref="X18:X36" si="95">MID(TEXT(HEX2BIN($U17,4),"0000"),4,1)</f>
+      <c r="A18" s="212"/>
+      <c r="B18" s="200"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="203" t="str">
+        <f t="shared" ref="I18" si="80">MID(TEXT(HEX2BIN($I17,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="204" t="str">
+        <f t="shared" ref="J18" si="81">MID(TEXT(HEX2BIN($I17,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="204" t="str">
+        <f t="shared" ref="K18" si="82">MID(TEXT(HEX2BIN($I17,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="204" t="str">
+        <f t="shared" ref="L18" si="83">MID(TEXT(HEX2BIN($I17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="205" t="str">
+        <f t="shared" ref="M18" si="84">MID(TEXT(HEX2BIN($M17,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N18" s="206" t="str">
+        <f t="shared" ref="N18" si="85">MID(TEXT(HEX2BIN($M17,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="206" t="str">
+        <f t="shared" ref="O18" si="86">MID(TEXT(HEX2BIN($M17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="207" t="str">
+        <f t="shared" ref="P18" si="87">MID(TEXT(HEX2BIN($M17,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="208" t="str">
+        <f t="shared" ref="Q18" si="88">MID(TEXT(HEX2BIN($Q17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="209" t="str">
+        <f t="shared" ref="R18" si="89">MID(TEXT(HEX2BIN($Q17,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S18" s="209" t="str">
+        <f t="shared" ref="S18" si="90">MID(TEXT(HEX2BIN($Q17,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="209" t="str">
+        <f t="shared" ref="T18" si="91">MID(TEXT(HEX2BIN($Q17,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="210" t="str">
+        <f t="shared" ref="U18" si="92">MID(TEXT(HEX2BIN($U17,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="209" t="str">
+        <f t="shared" ref="V18" si="93">MID(TEXT(HEX2BIN($U17,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W18" s="209" t="str">
+        <f t="shared" ref="W18" si="94">MID(TEXT(HEX2BIN($U17,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="211" t="str">
+        <f t="shared" ref="X18" si="95">MID(TEXT(HEX2BIN($U17,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="186"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="189"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="187"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="187"/>
-      <c r="S19" s="187"/>
-      <c r="T19" s="187"/>
-      <c r="U19" s="189"/>
-      <c r="V19" s="187"/>
-      <c r="W19" s="187"/>
-      <c r="X19" s="190"/>
+      <c r="A19" s="185">
+        <v>4</v>
+      </c>
+      <c r="B19" s="186"/>
+      <c r="C19" s="186"/>
+      <c r="D19" s="187"/>
+      <c r="E19" s="186" t="s">
+        <v>190</v>
+      </c>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="185">
+        <v>6</v>
+      </c>
+      <c r="J19" s="186"/>
+      <c r="K19" s="186"/>
+      <c r="L19" s="186"/>
+      <c r="M19" s="188">
+        <v>4</v>
+      </c>
+      <c r="N19" s="186"/>
+      <c r="O19" s="186"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="185">
+        <v>4</v>
+      </c>
+      <c r="R19" s="186"/>
+      <c r="S19" s="186"/>
+      <c r="T19" s="186"/>
+      <c r="U19" s="188">
+        <v>5</v>
+      </c>
+      <c r="V19" s="186"/>
+      <c r="W19" s="186"/>
+      <c r="X19" s="189"/>
     </row>
     <row r="20" spans="1:24" ht="15" thickBot="1">
-      <c r="A20" s="175" t="str">
-        <f t="shared" ref="A20:A36" si="96">MID(TEXT(HEX2BIN($A19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B20" s="176" t="str">
-        <f t="shared" ref="B20:B36" si="97">MID(TEXT(HEX2BIN($A19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="176" t="str">
-        <f t="shared" ref="C20:C36" si="98">MID(TEXT(HEX2BIN($A19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="177" t="str">
-        <f t="shared" ref="D20:D36" si="99">MID(TEXT(HEX2BIN($A19,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="176" t="str">
-        <f t="shared" ref="E20:E36" si="100">MID(TEXT(HEX2BIN($E19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="176" t="str">
-        <f t="shared" ref="F20:F36" si="101">MID(TEXT(HEX2BIN($E19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="176" t="str">
-        <f t="shared" ref="G20:G36" si="102">MID(TEXT(HEX2BIN($E19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="178" t="str">
-        <f t="shared" ref="H20:H36" si="103">MID(TEXT(HEX2BIN($E19,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="175" t="str">
-        <f t="shared" ref="I20:I36" si="104">MID(TEXT(HEX2BIN($I19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="176" t="str">
-        <f t="shared" ref="J20:J36" si="105">MID(TEXT(HEX2BIN($I19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="179" t="str">
-        <f t="shared" ref="K20:K36" si="106">MID(TEXT(HEX2BIN($I19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="179" t="str">
-        <f t="shared" ref="L20:L36" si="107">MID(TEXT(HEX2BIN($I19,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="180" t="str">
-        <f t="shared" ref="M20:M36" si="108">MID(TEXT(HEX2BIN($M19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="179" t="str">
-        <f t="shared" ref="N20:N36" si="109">MID(TEXT(HEX2BIN($M19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="195" t="str">
-        <f t="shared" ref="O20:O36" si="110">MID(TEXT(HEX2BIN($M19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="196" t="str">
-        <f t="shared" ref="P20:P36" si="111">MID(TEXT(HEX2BIN($M19,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="175" t="str">
-        <f t="shared" ref="Q20:Q36" si="112">MID(TEXT(HEX2BIN($Q19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="195" t="str">
-        <f t="shared" ref="R20:R36" si="113">MID(TEXT(HEX2BIN($Q19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="195" t="str">
-        <f t="shared" ref="S20:S36" si="114">MID(TEXT(HEX2BIN($Q19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="195" t="str">
-        <f t="shared" ref="T20:T36" si="115">MID(TEXT(HEX2BIN($Q19,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="197" t="str">
-        <f t="shared" ref="U20:U36" si="116">MID(TEXT(HEX2BIN($U19,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="195" t="str">
-        <f t="shared" ref="V20:V36" si="117">MID(TEXT(HEX2BIN($U19,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="195" t="str">
-        <f t="shared" ref="W20:W36" si="118">MID(TEXT(HEX2BIN($U19,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="196" t="str">
-        <f t="shared" ref="X20:X36" si="119">MID(TEXT(HEX2BIN($U19,4),"0000"),4,1)</f>
-        <v>0</v>
+      <c r="A20" s="174" t="str">
+        <f t="shared" ref="A20" si="96">MID(TEXT(HEX2BIN($A19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="175" t="str">
+        <f t="shared" ref="B20" si="97">MID(TEXT(HEX2BIN($A19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="175" t="str">
+        <f t="shared" ref="C20" si="98">MID(TEXT(HEX2BIN($A19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="176" t="str">
+        <f t="shared" ref="D20" si="99">MID(TEXT(HEX2BIN($A19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="198" t="str">
+        <f t="shared" ref="E20" si="100">MID(TEXT(HEX2BIN($E19,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="198" t="str">
+        <f t="shared" ref="F20" si="101">MID(TEXT(HEX2BIN($E19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="198" t="str">
+        <f t="shared" ref="G20" si="102">MID(TEXT(HEX2BIN($E19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="199" t="str">
+        <f t="shared" ref="H20" si="103">MID(TEXT(HEX2BIN($E19,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="174" t="str">
+        <f t="shared" ref="I20" si="104">MID(TEXT(HEX2BIN($I19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="175" t="str">
+        <f t="shared" ref="J20" si="105">MID(TEXT(HEX2BIN($I19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="178" t="str">
+        <f t="shared" ref="K20" si="106">MID(TEXT(HEX2BIN($I19,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="178" t="str">
+        <f t="shared" ref="L20" si="107">MID(TEXT(HEX2BIN($I19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="179" t="str">
+        <f t="shared" ref="M20" si="108">MID(TEXT(HEX2BIN($M19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="178" t="str">
+        <f t="shared" ref="N20" si="109">MID(TEXT(HEX2BIN($M19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O20" s="194" t="str">
+        <f t="shared" ref="O20" si="110">MID(TEXT(HEX2BIN($M19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="195" t="str">
+        <f t="shared" ref="P20" si="111">MID(TEXT(HEX2BIN($M19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="174" t="str">
+        <f t="shared" ref="Q20" si="112">MID(TEXT(HEX2BIN($Q19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="194" t="str">
+        <f t="shared" ref="R20" si="113">MID(TEXT(HEX2BIN($Q19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="194" t="str">
+        <f t="shared" ref="S20" si="114">MID(TEXT(HEX2BIN($Q19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="194" t="str">
+        <f t="shared" ref="T20" si="115">MID(TEXT(HEX2BIN($Q19,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="196" t="str">
+        <f t="shared" ref="U20" si="116">MID(TEXT(HEX2BIN($U19,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="194" t="str">
+        <f t="shared" ref="V20" si="117">MID(TEXT(HEX2BIN($U19,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="194" t="str">
+        <f t="shared" ref="W20" si="118">MID(TEXT(HEX2BIN($U19,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="195" t="str">
+        <f t="shared" ref="X20" si="119">MID(TEXT(HEX2BIN($U19,4),"0000"),4,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="185"/>
-      <c r="B21" s="181"/>
-      <c r="C21" s="181"/>
-      <c r="D21" s="182"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="184"/>
-      <c r="I21" s="185"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="183"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="184"/>
-      <c r="Q21" s="185"/>
-      <c r="R21" s="181"/>
-      <c r="S21" s="181"/>
-      <c r="T21" s="181"/>
-      <c r="U21" s="183"/>
-      <c r="V21" s="181"/>
-      <c r="W21" s="181"/>
-      <c r="X21" s="184"/>
+      <c r="A21" s="184"/>
+      <c r="B21" s="180"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="180"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="184" t="s">
+        <v>196</v>
+      </c>
+      <c r="J21" s="180"/>
+      <c r="K21" s="180"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="182" t="s">
+        <v>190</v>
+      </c>
+      <c r="N21" s="180"/>
+      <c r="O21" s="180"/>
+      <c r="P21" s="183"/>
+      <c r="Q21" s="184" t="s">
+        <v>197</v>
+      </c>
+      <c r="R21" s="180"/>
+      <c r="S21" s="180"/>
+      <c r="T21" s="180"/>
+      <c r="U21" s="182">
+        <v>0</v>
+      </c>
+      <c r="V21" s="180"/>
+      <c r="W21" s="180"/>
+      <c r="X21" s="183"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="186"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="167" t="str">
-        <f t="shared" ref="I22:I36" si="120">MID(TEXT(HEX2BIN($I21,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="168" t="str">
-        <f t="shared" ref="J22:J36" si="121">MID(TEXT(HEX2BIN($I21,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="168" t="str">
-        <f t="shared" ref="K22:K36" si="122">MID(TEXT(HEX2BIN($I21,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="168" t="str">
-        <f t="shared" ref="L22:L36" si="123">MID(TEXT(HEX2BIN($I21,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="172" t="str">
-        <f t="shared" ref="M22:M36" si="124">MID(TEXT(HEX2BIN($M21,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="173" t="str">
-        <f t="shared" ref="N22:N36" si="125">MID(TEXT(HEX2BIN($M21,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="173" t="str">
-        <f t="shared" ref="O22:O36" si="126">MID(TEXT(HEX2BIN($M21,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="174" t="str">
-        <f t="shared" ref="P22:P36" si="127">MID(TEXT(HEX2BIN($M21,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="191" t="str">
-        <f t="shared" ref="Q22:Q36" si="128">MID(TEXT(HEX2BIN($Q21,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="192" t="str">
-        <f t="shared" ref="R22:R36" si="129">MID(TEXT(HEX2BIN($Q21,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="192" t="str">
-        <f t="shared" ref="S22:S36" si="130">MID(TEXT(HEX2BIN($Q21,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="192" t="str">
-        <f t="shared" ref="T22:T36" si="131">MID(TEXT(HEX2BIN($Q21,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="193" t="str">
-        <f t="shared" ref="U22:U36" si="132">MID(TEXT(HEX2BIN($U21,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V22" s="192" t="str">
-        <f t="shared" ref="V22:V36" si="133">MID(TEXT(HEX2BIN($U21,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="192" t="str">
-        <f t="shared" ref="W22:W36" si="134">MID(TEXT(HEX2BIN($U21,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="194" t="str">
-        <f t="shared" ref="X22:X36" si="135">MID(TEXT(HEX2BIN($U21,4),"0000"),4,1)</f>
+      <c r="A22" s="212"/>
+      <c r="B22" s="200"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="203" t="str">
+        <f t="shared" ref="I22" si="120">MID(TEXT(HEX2BIN($I21,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="204" t="str">
+        <f t="shared" ref="J22" si="121">MID(TEXT(HEX2BIN($I21,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="204" t="str">
+        <f t="shared" ref="K22" si="122">MID(TEXT(HEX2BIN($I21,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="204" t="str">
+        <f t="shared" ref="L22" si="123">MID(TEXT(HEX2BIN($I21,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="205" t="str">
+        <f t="shared" ref="M22" si="124">MID(TEXT(HEX2BIN($M21,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="206" t="str">
+        <f t="shared" ref="N22" si="125">MID(TEXT(HEX2BIN($M21,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O22" s="206" t="str">
+        <f t="shared" ref="O22" si="126">MID(TEXT(HEX2BIN($M21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="207" t="str">
+        <f t="shared" ref="P22" si="127">MID(TEXT(HEX2BIN($M21,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="208" t="str">
+        <f t="shared" ref="Q22" si="128">MID(TEXT(HEX2BIN($Q21,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="R22" s="209" t="str">
+        <f t="shared" ref="R22" si="129">MID(TEXT(HEX2BIN($Q21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="209" t="str">
+        <f t="shared" ref="S22" si="130">MID(TEXT(HEX2BIN($Q21,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T22" s="209" t="str">
+        <f t="shared" ref="T22" si="131">MID(TEXT(HEX2BIN($Q21,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="210" t="str">
+        <f t="shared" ref="U22" si="132">MID(TEXT(HEX2BIN($U21,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="209" t="str">
+        <f t="shared" ref="V22" si="133">MID(TEXT(HEX2BIN($U21,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="209" t="str">
+        <f t="shared" ref="W22" si="134">MID(TEXT(HEX2BIN($U21,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="211" t="str">
+        <f t="shared" ref="X22" si="135">MID(TEXT(HEX2BIN($U21,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="186"/>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="188"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="186"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="189"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="190"/>
-      <c r="Q23" s="186"/>
-      <c r="R23" s="187"/>
-      <c r="S23" s="187"/>
-      <c r="T23" s="187"/>
-      <c r="U23" s="189"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="190"/>
+      <c r="A23" s="185">
+        <v>4</v>
+      </c>
+      <c r="B23" s="186"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="187"/>
+      <c r="E23" s="186" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="186"/>
+      <c r="G23" s="186"/>
+      <c r="H23" s="189"/>
+      <c r="I23" s="185">
+        <v>7</v>
+      </c>
+      <c r="J23" s="186"/>
+      <c r="K23" s="186"/>
+      <c r="L23" s="186"/>
+      <c r="M23" s="188">
+        <v>5</v>
+      </c>
+      <c r="N23" s="186"/>
+      <c r="O23" s="186"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="185">
+        <v>5</v>
+      </c>
+      <c r="R23" s="186"/>
+      <c r="S23" s="186"/>
+      <c r="T23" s="186"/>
+      <c r="U23" s="188" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="186"/>
+      <c r="W23" s="186"/>
+      <c r="X23" s="189"/>
     </row>
     <row r="24" spans="1:24" ht="15" thickBot="1">
-      <c r="A24" s="175" t="str">
-        <f t="shared" ref="A24:A36" si="136">MID(TEXT(HEX2BIN($A23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="176" t="str">
-        <f t="shared" ref="B24:B36" si="137">MID(TEXT(HEX2BIN($A23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="176" t="str">
-        <f t="shared" ref="C24:C36" si="138">MID(TEXT(HEX2BIN($A23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="177" t="str">
-        <f t="shared" ref="D24:D36" si="139">MID(TEXT(HEX2BIN($A23,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="176" t="str">
-        <f t="shared" ref="E24:E36" si="140">MID(TEXT(HEX2BIN($E23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="176" t="str">
-        <f t="shared" ref="F24:F36" si="141">MID(TEXT(HEX2BIN($E23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="176" t="str">
-        <f t="shared" ref="G24:G36" si="142">MID(TEXT(HEX2BIN($E23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="178" t="str">
-        <f t="shared" ref="H24:H36" si="143">MID(TEXT(HEX2BIN($E23,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="175" t="str">
-        <f t="shared" ref="I24:I36" si="144">MID(TEXT(HEX2BIN($I23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="176" t="str">
-        <f t="shared" ref="J24:J36" si="145">MID(TEXT(HEX2BIN($I23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="179" t="str">
-        <f t="shared" ref="K24:K36" si="146">MID(TEXT(HEX2BIN($I23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="179" t="str">
-        <f t="shared" ref="L24:L36" si="147">MID(TEXT(HEX2BIN($I23,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="180" t="str">
-        <f t="shared" ref="M24:M36" si="148">MID(TEXT(HEX2BIN($M23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="179" t="str">
-        <f t="shared" ref="N24:N36" si="149">MID(TEXT(HEX2BIN($M23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="195" t="str">
-        <f t="shared" ref="O24:O36" si="150">MID(TEXT(HEX2BIN($M23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="196" t="str">
-        <f t="shared" ref="P24:P36" si="151">MID(TEXT(HEX2BIN($M23,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="175" t="str">
-        <f t="shared" ref="Q24:Q36" si="152">MID(TEXT(HEX2BIN($Q23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="195" t="str">
-        <f t="shared" ref="R24:R36" si="153">MID(TEXT(HEX2BIN($Q23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="195" t="str">
-        <f t="shared" ref="S24:S36" si="154">MID(TEXT(HEX2BIN($Q23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="195" t="str">
-        <f t="shared" ref="T24:T36" si="155">MID(TEXT(HEX2BIN($Q23,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="197" t="str">
-        <f t="shared" ref="U24:U36" si="156">MID(TEXT(HEX2BIN($U23,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V24" s="195" t="str">
-        <f t="shared" ref="V24:V36" si="157">MID(TEXT(HEX2BIN($U23,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="195" t="str">
-        <f t="shared" ref="W24:W36" si="158">MID(TEXT(HEX2BIN($U23,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="196" t="str">
-        <f t="shared" ref="X24:X36" si="159">MID(TEXT(HEX2BIN($U23,4),"0000"),4,1)</f>
-        <v>0</v>
+      <c r="A24" s="174" t="str">
+        <f t="shared" ref="A24" si="136">MID(TEXT(HEX2BIN($A23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="175" t="str">
+        <f t="shared" ref="B24" si="137">MID(TEXT(HEX2BIN($A23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="175" t="str">
+        <f t="shared" ref="C24" si="138">MID(TEXT(HEX2BIN($A23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="176" t="str">
+        <f t="shared" ref="D24" si="139">MID(TEXT(HEX2BIN($A23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="198" t="str">
+        <f t="shared" ref="E24" si="140">MID(TEXT(HEX2BIN($E23,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="198" t="str">
+        <f t="shared" ref="F24" si="141">MID(TEXT(HEX2BIN($E23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="198" t="str">
+        <f t="shared" ref="G24" si="142">MID(TEXT(HEX2BIN($E23,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="199" t="str">
+        <f t="shared" ref="H24" si="143">MID(TEXT(HEX2BIN($E23,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="174" t="str">
+        <f t="shared" ref="I24" si="144">MID(TEXT(HEX2BIN($I23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="175" t="str">
+        <f t="shared" ref="J24" si="145">MID(TEXT(HEX2BIN($I23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K24" s="178" t="str">
+        <f t="shared" ref="K24" si="146">MID(TEXT(HEX2BIN($I23,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L24" s="178" t="str">
+        <f t="shared" ref="L24" si="147">MID(TEXT(HEX2BIN($I23,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="179" t="str">
+        <f t="shared" ref="M24" si="148">MID(TEXT(HEX2BIN($M23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="178" t="str">
+        <f t="shared" ref="N24" si="149">MID(TEXT(HEX2BIN($M23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O24" s="194" t="str">
+        <f t="shared" ref="O24" si="150">MID(TEXT(HEX2BIN($M23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="195" t="str">
+        <f t="shared" ref="P24" si="151">MID(TEXT(HEX2BIN($M23,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q24" s="174" t="str">
+        <f t="shared" ref="Q24" si="152">MID(TEXT(HEX2BIN($Q23,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="194" t="str">
+        <f t="shared" ref="R24" si="153">MID(TEXT(HEX2BIN($Q23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="S24" s="194" t="str">
+        <f t="shared" ref="S24" si="154">MID(TEXT(HEX2BIN($Q23,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="194" t="str">
+        <f t="shared" ref="T24" si="155">MID(TEXT(HEX2BIN($Q23,4),"0000"),4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="U24" s="196" t="str">
+        <f t="shared" ref="U24" si="156">MID(TEXT(HEX2BIN($U23,4),"0000"),1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="V24" s="194" t="str">
+        <f t="shared" ref="V24" si="157">MID(TEXT(HEX2BIN($U23,4),"0000"),2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="W24" s="194" t="str">
+        <f t="shared" ref="W24" si="158">MID(TEXT(HEX2BIN($U23,4),"0000"),3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="195" t="str">
+        <f t="shared" ref="X24" si="159">MID(TEXT(HEX2BIN($U23,4),"0000"),4,1)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="185"/>
-      <c r="B25" s="181"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="182"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="181"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="184"/>
-      <c r="I25" s="185"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="M25" s="183"/>
-      <c r="N25" s="181"/>
-      <c r="O25" s="181"/>
-      <c r="P25" s="184"/>
-      <c r="Q25" s="185"/>
-      <c r="R25" s="181"/>
-      <c r="S25" s="181"/>
-      <c r="T25" s="181"/>
-      <c r="U25" s="183"/>
-      <c r="V25" s="181"/>
-      <c r="W25" s="181"/>
-      <c r="X25" s="184"/>
+      <c r="A25" s="184"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="180"/>
+      <c r="G25" s="180"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="180"/>
+      <c r="O25" s="180"/>
+      <c r="P25" s="183"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="180"/>
+      <c r="S25" s="180"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="180"/>
+      <c r="W25" s="180"/>
+      <c r="X25" s="183"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="186"/>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="188"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="167" t="str">
-        <f t="shared" ref="I26:I36" si="160">MID(TEXT(HEX2BIN($I25,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="168" t="str">
-        <f t="shared" ref="J26:J36" si="161">MID(TEXT(HEX2BIN($I25,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="168" t="str">
-        <f t="shared" ref="K26:K36" si="162">MID(TEXT(HEX2BIN($I25,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="168" t="str">
-        <f t="shared" ref="L26:L36" si="163">MID(TEXT(HEX2BIN($I25,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="172" t="str">
-        <f t="shared" ref="M26:M36" si="164">MID(TEXT(HEX2BIN($M25,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="173" t="str">
-        <f t="shared" ref="N26:N36" si="165">MID(TEXT(HEX2BIN($M25,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="173" t="str">
-        <f t="shared" ref="O26:O36" si="166">MID(TEXT(HEX2BIN($M25,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P26" s="174" t="str">
-        <f t="shared" ref="P26:P36" si="167">MID(TEXT(HEX2BIN($M25,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="191" t="str">
-        <f t="shared" ref="Q26:Q36" si="168">MID(TEXT(HEX2BIN($Q25,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="192" t="str">
-        <f t="shared" ref="R26:R36" si="169">MID(TEXT(HEX2BIN($Q25,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="192" t="str">
-        <f t="shared" ref="S26:S36" si="170">MID(TEXT(HEX2BIN($Q25,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="192" t="str">
-        <f t="shared" ref="T26:T36" si="171">MID(TEXT(HEX2BIN($Q25,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="193" t="str">
-        <f t="shared" ref="U26:U36" si="172">MID(TEXT(HEX2BIN($U25,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="192" t="str">
-        <f t="shared" ref="V26:V36" si="173">MID(TEXT(HEX2BIN($U25,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W26" s="192" t="str">
-        <f t="shared" ref="W26:W36" si="174">MID(TEXT(HEX2BIN($U25,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X26" s="194" t="str">
-        <f t="shared" ref="X26:X36" si="175">MID(TEXT(HEX2BIN($U25,4),"0000"),4,1)</f>
+      <c r="A26" s="185"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="186"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="186"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="189"/>
+      <c r="I26" s="166" t="str">
+        <f t="shared" ref="I26" si="160">MID(TEXT(HEX2BIN($I25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="167" t="str">
+        <f t="shared" ref="J26" si="161">MID(TEXT(HEX2BIN($I25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="167" t="str">
+        <f t="shared" ref="K26" si="162">MID(TEXT(HEX2BIN($I25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="167" t="str">
+        <f t="shared" ref="L26" si="163">MID(TEXT(HEX2BIN($I25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="171" t="str">
+        <f t="shared" ref="M26" si="164">MID(TEXT(HEX2BIN($M25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="172" t="str">
+        <f t="shared" ref="N26" si="165">MID(TEXT(HEX2BIN($M25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="172" t="str">
+        <f t="shared" ref="O26" si="166">MID(TEXT(HEX2BIN($M25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="173" t="str">
+        <f t="shared" ref="P26" si="167">MID(TEXT(HEX2BIN($M25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="190" t="str">
+        <f t="shared" ref="Q26" si="168">MID(TEXT(HEX2BIN($Q25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="191" t="str">
+        <f t="shared" ref="R26" si="169">MID(TEXT(HEX2BIN($Q25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="191" t="str">
+        <f t="shared" ref="S26" si="170">MID(TEXT(HEX2BIN($Q25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="191" t="str">
+        <f t="shared" ref="T26" si="171">MID(TEXT(HEX2BIN($Q25,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="192" t="str">
+        <f t="shared" ref="U26" si="172">MID(TEXT(HEX2BIN($U25,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="191" t="str">
+        <f t="shared" ref="V26" si="173">MID(TEXT(HEX2BIN($U25,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="191" t="str">
+        <f t="shared" ref="W26" si="174">MID(TEXT(HEX2BIN($U25,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X26" s="193" t="str">
+        <f t="shared" ref="X26" si="175">MID(TEXT(HEX2BIN($U25,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="186"/>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="188"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="186"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="189"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="187"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="186"/>
-      <c r="R27" s="187"/>
-      <c r="S27" s="187"/>
-      <c r="T27" s="187"/>
-      <c r="U27" s="189"/>
-      <c r="V27" s="187"/>
-      <c r="W27" s="187"/>
-      <c r="X27" s="190"/>
+      <c r="A27" s="185"/>
+      <c r="B27" s="186"/>
+      <c r="C27" s="186"/>
+      <c r="D27" s="187"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="186"/>
+      <c r="L27" s="186"/>
+      <c r="M27" s="188"/>
+      <c r="N27" s="186"/>
+      <c r="O27" s="186"/>
+      <c r="P27" s="189"/>
+      <c r="Q27" s="185"/>
+      <c r="R27" s="186"/>
+      <c r="S27" s="186"/>
+      <c r="T27" s="186"/>
+      <c r="U27" s="188"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="189"/>
     </row>
     <row r="28" spans="1:24" ht="15" thickBot="1">
-      <c r="A28" s="175" t="str">
-        <f t="shared" ref="A28:A36" si="176">MID(TEXT(HEX2BIN($A27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B28" s="176" t="str">
-        <f t="shared" ref="B28:B36" si="177">MID(TEXT(HEX2BIN($A27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="176" t="str">
-        <f t="shared" ref="C28:C36" si="178">MID(TEXT(HEX2BIN($A27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="177" t="str">
-        <f t="shared" ref="D28:D36" si="179">MID(TEXT(HEX2BIN($A27,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="176" t="str">
-        <f t="shared" ref="E28:E36" si="180">MID(TEXT(HEX2BIN($E27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="176" t="str">
-        <f t="shared" ref="F28:F36" si="181">MID(TEXT(HEX2BIN($E27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="176" t="str">
-        <f t="shared" ref="G28:G36" si="182">MID(TEXT(HEX2BIN($E27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="178" t="str">
-        <f t="shared" ref="H28:H36" si="183">MID(TEXT(HEX2BIN($E27,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="175" t="str">
-        <f t="shared" ref="I28:I36" si="184">MID(TEXT(HEX2BIN($I27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="176" t="str">
-        <f t="shared" ref="J28:J36" si="185">MID(TEXT(HEX2BIN($I27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="179" t="str">
-        <f t="shared" ref="K28:K36" si="186">MID(TEXT(HEX2BIN($I27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L28" s="179" t="str">
-        <f t="shared" ref="L28:L36" si="187">MID(TEXT(HEX2BIN($I27,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="180" t="str">
-        <f t="shared" ref="M28:M36" si="188">MID(TEXT(HEX2BIN($M27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="179" t="str">
-        <f t="shared" ref="N28:N36" si="189">MID(TEXT(HEX2BIN($M27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="195" t="str">
-        <f t="shared" ref="O28:O36" si="190">MID(TEXT(HEX2BIN($M27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="196" t="str">
-        <f t="shared" ref="P28:P36" si="191">MID(TEXT(HEX2BIN($M27,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="175" t="str">
-        <f t="shared" ref="Q28:Q36" si="192">MID(TEXT(HEX2BIN($Q27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="195" t="str">
-        <f t="shared" ref="R28:R36" si="193">MID(TEXT(HEX2BIN($Q27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="195" t="str">
-        <f t="shared" ref="S28:S36" si="194">MID(TEXT(HEX2BIN($Q27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="195" t="str">
-        <f t="shared" ref="T28:T36" si="195">MID(TEXT(HEX2BIN($Q27,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="197" t="str">
-        <f t="shared" ref="U28:U36" si="196">MID(TEXT(HEX2BIN($U27,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V28" s="195" t="str">
-        <f t="shared" ref="V28:V36" si="197">MID(TEXT(HEX2BIN($U27,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W28" s="195" t="str">
-        <f t="shared" ref="W28:W36" si="198">MID(TEXT(HEX2BIN($U27,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X28" s="196" t="str">
-        <f t="shared" ref="X28:X36" si="199">MID(TEXT(HEX2BIN($U27,4),"0000"),4,1)</f>
+      <c r="A28" s="174" t="str">
+        <f t="shared" ref="A28" si="176">MID(TEXT(HEX2BIN($A27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="175" t="str">
+        <f t="shared" ref="B28" si="177">MID(TEXT(HEX2BIN($A27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="175" t="str">
+        <f t="shared" ref="C28" si="178">MID(TEXT(HEX2BIN($A27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="176" t="str">
+        <f t="shared" ref="D28" si="179">MID(TEXT(HEX2BIN($A27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="175" t="str">
+        <f t="shared" ref="E28" si="180">MID(TEXT(HEX2BIN($E27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="175" t="str">
+        <f t="shared" ref="F28" si="181">MID(TEXT(HEX2BIN($E27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="175" t="str">
+        <f t="shared" ref="G28" si="182">MID(TEXT(HEX2BIN($E27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="177" t="str">
+        <f t="shared" ref="H28" si="183">MID(TEXT(HEX2BIN($E27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="174" t="str">
+        <f t="shared" ref="I28" si="184">MID(TEXT(HEX2BIN($I27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="175" t="str">
+        <f t="shared" ref="J28" si="185">MID(TEXT(HEX2BIN($I27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="178" t="str">
+        <f t="shared" ref="K28" si="186">MID(TEXT(HEX2BIN($I27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="178" t="str">
+        <f t="shared" ref="L28" si="187">MID(TEXT(HEX2BIN($I27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="179" t="str">
+        <f t="shared" ref="M28" si="188">MID(TEXT(HEX2BIN($M27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="178" t="str">
+        <f t="shared" ref="N28" si="189">MID(TEXT(HEX2BIN($M27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="194" t="str">
+        <f t="shared" ref="O28" si="190">MID(TEXT(HEX2BIN($M27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="195" t="str">
+        <f t="shared" ref="P28" si="191">MID(TEXT(HEX2BIN($M27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="174" t="str">
+        <f t="shared" ref="Q28" si="192">MID(TEXT(HEX2BIN($Q27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="194" t="str">
+        <f t="shared" ref="R28" si="193">MID(TEXT(HEX2BIN($Q27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="194" t="str">
+        <f t="shared" ref="S28" si="194">MID(TEXT(HEX2BIN($Q27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="194" t="str">
+        <f t="shared" ref="T28" si="195">MID(TEXT(HEX2BIN($Q27,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="196" t="str">
+        <f t="shared" ref="U28" si="196">MID(TEXT(HEX2BIN($U27,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="194" t="str">
+        <f t="shared" ref="V28" si="197">MID(TEXT(HEX2BIN($U27,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="194" t="str">
+        <f t="shared" ref="W28" si="198">MID(TEXT(HEX2BIN($U27,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="195" t="str">
+        <f t="shared" ref="X28" si="199">MID(TEXT(HEX2BIN($U27,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="185"/>
-      <c r="B29" s="181"/>
-      <c r="C29" s="181"/>
-      <c r="D29" s="182"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="185"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="183"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="184"/>
-      <c r="Q29" s="185"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="181"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="183"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
-      <c r="X29" s="184"/>
+      <c r="A29" s="184"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="180"/>
+      <c r="D29" s="181"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="183"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="186"/>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="167" t="str">
-        <f t="shared" ref="I30:I36" si="200">MID(TEXT(HEX2BIN($I29,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="168" t="str">
-        <f t="shared" ref="J30:J36" si="201">MID(TEXT(HEX2BIN($I29,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="168" t="str">
-        <f t="shared" ref="K30:K36" si="202">MID(TEXT(HEX2BIN($I29,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L30" s="168" t="str">
-        <f t="shared" ref="L30:L36" si="203">MID(TEXT(HEX2BIN($I29,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="172" t="str">
-        <f t="shared" ref="M30:M36" si="204">MID(TEXT(HEX2BIN($M29,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="173" t="str">
-        <f t="shared" ref="N30:N36" si="205">MID(TEXT(HEX2BIN($M29,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O30" s="173" t="str">
-        <f t="shared" ref="O30:O36" si="206">MID(TEXT(HEX2BIN($M29,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P30" s="174" t="str">
-        <f t="shared" ref="P30:P36" si="207">MID(TEXT(HEX2BIN($M29,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="191" t="str">
-        <f t="shared" ref="Q30:Q36" si="208">MID(TEXT(HEX2BIN($Q29,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="192" t="str">
-        <f t="shared" ref="R30:R36" si="209">MID(TEXT(HEX2BIN($Q29,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="192" t="str">
-        <f t="shared" ref="S30:S36" si="210">MID(TEXT(HEX2BIN($Q29,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="192" t="str">
-        <f t="shared" ref="T30:T36" si="211">MID(TEXT(HEX2BIN($Q29,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="193" t="str">
-        <f t="shared" ref="U30:U36" si="212">MID(TEXT(HEX2BIN($U29,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V30" s="192" t="str">
-        <f t="shared" ref="V30:V36" si="213">MID(TEXT(HEX2BIN($U29,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W30" s="192" t="str">
-        <f t="shared" ref="W30:W36" si="214">MID(TEXT(HEX2BIN($U29,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X30" s="194" t="str">
-        <f t="shared" ref="X30:X36" si="215">MID(TEXT(HEX2BIN($U29,4),"0000"),4,1)</f>
+      <c r="A30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186"/>
+      <c r="H30" s="189"/>
+      <c r="I30" s="166" t="str">
+        <f t="shared" ref="I30" si="200">MID(TEXT(HEX2BIN($I29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="167" t="str">
+        <f t="shared" ref="J30" si="201">MID(TEXT(HEX2BIN($I29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="167" t="str">
+        <f t="shared" ref="K30" si="202">MID(TEXT(HEX2BIN($I29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="167" t="str">
+        <f t="shared" ref="L30" si="203">MID(TEXT(HEX2BIN($I29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="171" t="str">
+        <f t="shared" ref="M30" si="204">MID(TEXT(HEX2BIN($M29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="172" t="str">
+        <f t="shared" ref="N30" si="205">MID(TEXT(HEX2BIN($M29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="172" t="str">
+        <f t="shared" ref="O30" si="206">MID(TEXT(HEX2BIN($M29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="173" t="str">
+        <f t="shared" ref="P30" si="207">MID(TEXT(HEX2BIN($M29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="190" t="str">
+        <f t="shared" ref="Q30" si="208">MID(TEXT(HEX2BIN($Q29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="191" t="str">
+        <f t="shared" ref="R30" si="209">MID(TEXT(HEX2BIN($Q29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="191" t="str">
+        <f t="shared" ref="S30" si="210">MID(TEXT(HEX2BIN($Q29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="191" t="str">
+        <f t="shared" ref="T30" si="211">MID(TEXT(HEX2BIN($Q29,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="192" t="str">
+        <f t="shared" ref="U30" si="212">MID(TEXT(HEX2BIN($U29,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="191" t="str">
+        <f t="shared" ref="V30" si="213">MID(TEXT(HEX2BIN($U29,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="191" t="str">
+        <f t="shared" ref="W30" si="214">MID(TEXT(HEX2BIN($U29,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="193" t="str">
+        <f t="shared" ref="X30" si="215">MID(TEXT(HEX2BIN($U29,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="186"/>
-      <c r="B31" s="187"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="188"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="186"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="189"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="186"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="189"/>
-      <c r="V31" s="187"/>
-      <c r="W31" s="187"/>
-      <c r="X31" s="190"/>
+      <c r="A31" s="185"/>
+      <c r="B31" s="186"/>
+      <c r="C31" s="186"/>
+      <c r="D31" s="187"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="188"/>
+      <c r="N31" s="186"/>
+      <c r="O31" s="186"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="185"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="186"/>
+      <c r="T31" s="186"/>
+      <c r="U31" s="188"/>
+      <c r="V31" s="186"/>
+      <c r="W31" s="186"/>
+      <c r="X31" s="189"/>
     </row>
     <row r="32" spans="1:24" ht="15" thickBot="1">
-      <c r="A32" s="175" t="str">
-        <f t="shared" ref="A32:A36" si="216">MID(TEXT(HEX2BIN($A31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="176" t="str">
-        <f t="shared" ref="B32:B36" si="217">MID(TEXT(HEX2BIN($A31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="176" t="str">
-        <f t="shared" ref="C32:C36" si="218">MID(TEXT(HEX2BIN($A31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="177" t="str">
-        <f t="shared" ref="D32:D36" si="219">MID(TEXT(HEX2BIN($A31,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="176" t="str">
-        <f t="shared" ref="E32:E36" si="220">MID(TEXT(HEX2BIN($E31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="176" t="str">
-        <f t="shared" ref="F32:F36" si="221">MID(TEXT(HEX2BIN($E31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="176" t="str">
-        <f t="shared" ref="G32:G36" si="222">MID(TEXT(HEX2BIN($E31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="178" t="str">
-        <f t="shared" ref="H32:H36" si="223">MID(TEXT(HEX2BIN($E31,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="175" t="str">
-        <f t="shared" ref="I32:I36" si="224">MID(TEXT(HEX2BIN($I31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="176" t="str">
-        <f t="shared" ref="J32:J36" si="225">MID(TEXT(HEX2BIN($I31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="179" t="str">
-        <f t="shared" ref="K32:K36" si="226">MID(TEXT(HEX2BIN($I31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="179" t="str">
-        <f t="shared" ref="L32:L36" si="227">MID(TEXT(HEX2BIN($I31,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="180" t="str">
-        <f t="shared" ref="M32:M36" si="228">MID(TEXT(HEX2BIN($M31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="179" t="str">
-        <f t="shared" ref="N32:N36" si="229">MID(TEXT(HEX2BIN($M31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="195" t="str">
-        <f t="shared" ref="O32:O36" si="230">MID(TEXT(HEX2BIN($M31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="196" t="str">
-        <f t="shared" ref="P32:P36" si="231">MID(TEXT(HEX2BIN($M31,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="175" t="str">
-        <f t="shared" ref="Q32:Q36" si="232">MID(TEXT(HEX2BIN($Q31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="195" t="str">
-        <f t="shared" ref="R32:R36" si="233">MID(TEXT(HEX2BIN($Q31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="195" t="str">
-        <f t="shared" ref="S32:S36" si="234">MID(TEXT(HEX2BIN($Q31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="195" t="str">
-        <f t="shared" ref="T32:T36" si="235">MID(TEXT(HEX2BIN($Q31,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="197" t="str">
-        <f t="shared" ref="U32:U36" si="236">MID(TEXT(HEX2BIN($U31,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V32" s="195" t="str">
-        <f t="shared" ref="V32:V36" si="237">MID(TEXT(HEX2BIN($U31,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W32" s="195" t="str">
-        <f t="shared" ref="W32:W36" si="238">MID(TEXT(HEX2BIN($U31,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X32" s="196" t="str">
-        <f t="shared" ref="X32:X36" si="239">MID(TEXT(HEX2BIN($U31,4),"0000"),4,1)</f>
+      <c r="A32" s="174" t="str">
+        <f t="shared" ref="A32" si="216">MID(TEXT(HEX2BIN($A31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="175" t="str">
+        <f t="shared" ref="B32" si="217">MID(TEXT(HEX2BIN($A31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="175" t="str">
+        <f t="shared" ref="C32" si="218">MID(TEXT(HEX2BIN($A31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="176" t="str">
+        <f t="shared" ref="D32" si="219">MID(TEXT(HEX2BIN($A31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="175" t="str">
+        <f t="shared" ref="E32" si="220">MID(TEXT(HEX2BIN($E31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="175" t="str">
+        <f t="shared" ref="F32" si="221">MID(TEXT(HEX2BIN($E31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="175" t="str">
+        <f t="shared" ref="G32" si="222">MID(TEXT(HEX2BIN($E31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="177" t="str">
+        <f t="shared" ref="H32" si="223">MID(TEXT(HEX2BIN($E31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="174" t="str">
+        <f t="shared" ref="I32" si="224">MID(TEXT(HEX2BIN($I31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="175" t="str">
+        <f t="shared" ref="J32" si="225">MID(TEXT(HEX2BIN($I31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="178" t="str">
+        <f t="shared" ref="K32" si="226">MID(TEXT(HEX2BIN($I31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="178" t="str">
+        <f t="shared" ref="L32" si="227">MID(TEXT(HEX2BIN($I31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="179" t="str">
+        <f t="shared" ref="M32" si="228">MID(TEXT(HEX2BIN($M31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="178" t="str">
+        <f t="shared" ref="N32" si="229">MID(TEXT(HEX2BIN($M31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="194" t="str">
+        <f t="shared" ref="O32" si="230">MID(TEXT(HEX2BIN($M31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="195" t="str">
+        <f t="shared" ref="P32" si="231">MID(TEXT(HEX2BIN($M31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="174" t="str">
+        <f t="shared" ref="Q32" si="232">MID(TEXT(HEX2BIN($Q31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="194" t="str">
+        <f t="shared" ref="R32" si="233">MID(TEXT(HEX2BIN($Q31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="194" t="str">
+        <f t="shared" ref="S32" si="234">MID(TEXT(HEX2BIN($Q31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="194" t="str">
+        <f t="shared" ref="T32" si="235">MID(TEXT(HEX2BIN($Q31,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="196" t="str">
+        <f t="shared" ref="U32" si="236">MID(TEXT(HEX2BIN($U31,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="194" t="str">
+        <f t="shared" ref="V32" si="237">MID(TEXT(HEX2BIN($U31,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W32" s="194" t="str">
+        <f t="shared" ref="W32" si="238">MID(TEXT(HEX2BIN($U31,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X32" s="195" t="str">
+        <f t="shared" ref="X32" si="239">MID(TEXT(HEX2BIN($U31,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="185"/>
-      <c r="B33" s="181"/>
-      <c r="C33" s="181"/>
-      <c r="D33" s="182"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="181"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="184"/>
-      <c r="I33" s="185"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="183"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="184"/>
-      <c r="Q33" s="185"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="183"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="184"/>
+      <c r="A33" s="184"/>
+      <c r="B33" s="180"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="183"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="180"/>
+      <c r="S33" s="180"/>
+      <c r="T33" s="180"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="180"/>
+      <c r="W33" s="180"/>
+      <c r="X33" s="183"/>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="186"/>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="188"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="167" t="str">
-        <f t="shared" ref="I34:I36" si="240">MID(TEXT(HEX2BIN($I33,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="168" t="str">
-        <f t="shared" ref="J34:J36" si="241">MID(TEXT(HEX2BIN($I33,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="168" t="str">
-        <f t="shared" ref="K34:K36" si="242">MID(TEXT(HEX2BIN($I33,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="168" t="str">
-        <f t="shared" ref="L34:L36" si="243">MID(TEXT(HEX2BIN($I33,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="172" t="str">
-        <f t="shared" ref="M34:M36" si="244">MID(TEXT(HEX2BIN($M33,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="173" t="str">
-        <f t="shared" ref="N34:N36" si="245">MID(TEXT(HEX2BIN($M33,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="173" t="str">
-        <f t="shared" ref="O34:O36" si="246">MID(TEXT(HEX2BIN($M33,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="174" t="str">
-        <f t="shared" ref="P34:P36" si="247">MID(TEXT(HEX2BIN($M33,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="191" t="str">
-        <f t="shared" ref="Q34:Q36" si="248">MID(TEXT(HEX2BIN($Q33,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="192" t="str">
-        <f t="shared" ref="R34:R36" si="249">MID(TEXT(HEX2BIN($Q33,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="192" t="str">
-        <f t="shared" ref="S34:S36" si="250">MID(TEXT(HEX2BIN($Q33,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="192" t="str">
-        <f t="shared" ref="T34:T36" si="251">MID(TEXT(HEX2BIN($Q33,4),"0000"),4,1)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="193" t="str">
-        <f t="shared" ref="U34:U36" si="252">MID(TEXT(HEX2BIN($U33,4),"0000"),1,1)</f>
-        <v>0</v>
-      </c>
-      <c r="V34" s="192" t="str">
-        <f t="shared" ref="V34:V36" si="253">MID(TEXT(HEX2BIN($U33,4),"0000"),2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="W34" s="192" t="str">
-        <f t="shared" ref="W34:W36" si="254">MID(TEXT(HEX2BIN($U33,4),"0000"),3,1)</f>
-        <v>0</v>
-      </c>
-      <c r="X34" s="194" t="str">
-        <f t="shared" ref="X34:X36" si="255">MID(TEXT(HEX2BIN($U33,4),"0000"),4,1)</f>
+      <c r="A34" s="185"/>
+      <c r="B34" s="186"/>
+      <c r="C34" s="186"/>
+      <c r="D34" s="187"/>
+      <c r="E34" s="186"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="186"/>
+      <c r="H34" s="189"/>
+      <c r="I34" s="166" t="str">
+        <f t="shared" ref="I34" si="240">MID(TEXT(HEX2BIN($I33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="167" t="str">
+        <f t="shared" ref="J34" si="241">MID(TEXT(HEX2BIN($I33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="167" t="str">
+        <f t="shared" ref="K34" si="242">MID(TEXT(HEX2BIN($I33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="167" t="str">
+        <f t="shared" ref="L34" si="243">MID(TEXT(HEX2BIN($I33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="171" t="str">
+        <f t="shared" ref="M34" si="244">MID(TEXT(HEX2BIN($M33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="172" t="str">
+        <f t="shared" ref="N34" si="245">MID(TEXT(HEX2BIN($M33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="172" t="str">
+        <f t="shared" ref="O34" si="246">MID(TEXT(HEX2BIN($M33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="173" t="str">
+        <f t="shared" ref="P34" si="247">MID(TEXT(HEX2BIN($M33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="190" t="str">
+        <f t="shared" ref="Q34" si="248">MID(TEXT(HEX2BIN($Q33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="191" t="str">
+        <f t="shared" ref="R34" si="249">MID(TEXT(HEX2BIN($Q33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="191" t="str">
+        <f t="shared" ref="S34" si="250">MID(TEXT(HEX2BIN($Q33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="191" t="str">
+        <f t="shared" ref="T34" si="251">MID(TEXT(HEX2BIN($Q33,4),"0000"),4,1)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="192" t="str">
+        <f t="shared" ref="U34" si="252">MID(TEXT(HEX2BIN($U33,4),"0000"),1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="191" t="str">
+        <f t="shared" ref="V34" si="253">MID(TEXT(HEX2BIN($U33,4),"0000"),2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="191" t="str">
+        <f t="shared" ref="W34" si="254">MID(TEXT(HEX2BIN($U33,4),"0000"),3,1)</f>
+        <v>0</v>
+      </c>
+      <c r="X34" s="193" t="str">
+        <f t="shared" ref="X34" si="255">MID(TEXT(HEX2BIN($U33,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="186"/>
-      <c r="B35" s="187"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="189"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="187"/>
-      <c r="P35" s="190"/>
-      <c r="Q35" s="186"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="189"/>
-      <c r="V35" s="187"/>
-      <c r="W35" s="187"/>
-      <c r="X35" s="190"/>
+      <c r="A35" s="185"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="187"/>
+      <c r="E35" s="186"/>
+      <c r="F35" s="186"/>
+      <c r="G35" s="186"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="186"/>
+      <c r="K35" s="186"/>
+      <c r="L35" s="186"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="186"/>
+      <c r="P35" s="189"/>
+      <c r="Q35" s="185"/>
+      <c r="R35" s="186"/>
+      <c r="S35" s="186"/>
+      <c r="T35" s="186"/>
+      <c r="U35" s="188"/>
+      <c r="V35" s="186"/>
+      <c r="W35" s="186"/>
+      <c r="X35" s="189"/>
     </row>
     <row r="36" spans="1:24" ht="15" thickBot="1">
-      <c r="A36" s="175" t="str">
+      <c r="A36" s="174" t="str">
         <f t="shared" ref="A36" si="256">MID(TEXT(HEX2BIN($A35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="B36" s="176" t="str">
+      <c r="B36" s="175" t="str">
         <f t="shared" ref="B36" si="257">MID(TEXT(HEX2BIN($A35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="176" t="str">
+      <c r="C36" s="175" t="str">
         <f t="shared" ref="C36" si="258">MID(TEXT(HEX2BIN($A35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="177" t="str">
+      <c r="D36" s="176" t="str">
         <f t="shared" ref="D36" si="259">MID(TEXT(HEX2BIN($A35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="176" t="str">
+      <c r="E36" s="175" t="str">
         <f t="shared" ref="E36" si="260">MID(TEXT(HEX2BIN($E35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="F36" s="176" t="str">
+      <c r="F36" s="175" t="str">
         <f t="shared" ref="F36" si="261">MID(TEXT(HEX2BIN($E35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="G36" s="176" t="str">
+      <c r="G36" s="175" t="str">
         <f t="shared" ref="G36" si="262">MID(TEXT(HEX2BIN($E35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="178" t="str">
+      <c r="H36" s="177" t="str">
         <f t="shared" ref="H36" si="263">MID(TEXT(HEX2BIN($E35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="175" t="str">
+      <c r="I36" s="174" t="str">
         <f t="shared" ref="I36" si="264">MID(TEXT(HEX2BIN($I35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="J36" s="176" t="str">
+      <c r="J36" s="175" t="str">
         <f t="shared" ref="J36" si="265">MID(TEXT(HEX2BIN($I35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="179" t="str">
+      <c r="K36" s="178" t="str">
         <f t="shared" ref="K36" si="266">MID(TEXT(HEX2BIN($I35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="179" t="str">
+      <c r="L36" s="178" t="str">
         <f t="shared" ref="L36" si="267">MID(TEXT(HEX2BIN($I35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="M36" s="180" t="str">
+      <c r="M36" s="179" t="str">
         <f t="shared" ref="M36" si="268">MID(TEXT(HEX2BIN($M35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="179" t="str">
+      <c r="N36" s="178" t="str">
         <f t="shared" ref="N36" si="269">MID(TEXT(HEX2BIN($M35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="O36" s="195" t="str">
+      <c r="O36" s="194" t="str">
         <f t="shared" ref="O36" si="270">MID(TEXT(HEX2BIN($M35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P36" s="196" t="str">
+      <c r="P36" s="195" t="str">
         <f t="shared" ref="P36" si="271">MID(TEXT(HEX2BIN($M35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="175" t="str">
+      <c r="Q36" s="174" t="str">
         <f t="shared" ref="Q36" si="272">MID(TEXT(HEX2BIN($Q35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="R36" s="195" t="str">
+      <c r="R36" s="194" t="str">
         <f t="shared" ref="R36" si="273">MID(TEXT(HEX2BIN($Q35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S36" s="195" t="str">
+      <c r="S36" s="194" t="str">
         <f t="shared" ref="S36" si="274">MID(TEXT(HEX2BIN($Q35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T36" s="195" t="str">
+      <c r="T36" s="194" t="str">
         <f t="shared" ref="T36" si="275">MID(TEXT(HEX2BIN($Q35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U36" s="197" t="str">
+      <c r="U36" s="196" t="str">
         <f t="shared" ref="U36" si="276">MID(TEXT(HEX2BIN($U35,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="195" t="str">
+      <c r="V36" s="194" t="str">
         <f t="shared" ref="V36" si="277">MID(TEXT(HEX2BIN($U35,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="195" t="str">
+      <c r="W36" s="194" t="str">
         <f t="shared" ref="W36" si="278">MID(TEXT(HEX2BIN($U35,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X36" s="196" t="str">
+      <c r="X36" s="195" t="str">
         <f t="shared" ref="X36" si="279">MID(TEXT(HEX2BIN($U35,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -21077,5 +21326,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Eterm通讯协议.xlsx
+++ b/Eterm通讯协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="12915" windowHeight="5805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="登陆ETerm通讯" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="198">
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,10 +748,6 @@
   </si>
   <si>
     <t>超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不符合规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2209,56 +2205,56 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2343,7 +2339,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -16534,8 +16530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="A18:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16549,18 +16545,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="213" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197" t="s">
+      <c r="D1" s="213"/>
+      <c r="E1" s="213" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197" t="s">
+      <c r="F1" s="213"/>
+      <c r="G1" s="213" t="s">
         <v>136</v>
       </c>
-      <c r="H1" s="197"/>
+      <c r="H1" s="213"/>
     </row>
     <row r="2" spans="1:23" s="104" customFormat="1" ht="16.5">
       <c r="A2" s="112" t="s">
@@ -16592,10 +16588,14 @@
         <v>11010111</v>
       </c>
       <c r="I2" s="115"/>
-      <c r="J2" s="107" t="s">
-        <v>161</v>
-      </c>
-      <c r="K2" s="105"/>
+      <c r="J2" s="107">
+        <f>E2-E3</f>
+        <v>142</v>
+      </c>
+      <c r="K2" s="107">
+        <f>F2-F3</f>
+        <v>128</v>
+      </c>
       <c r="L2" s="105"/>
       <c r="M2" s="105"/>
       <c r="N2" s="105"/>
@@ -16682,8 +16682,14 @@
         <v>10101000</v>
       </c>
       <c r="I4" s="119"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
+      <c r="J4" s="107">
+        <f t="shared" ref="J4:J15" si="2">E4-E5</f>
+        <v>142</v>
+      </c>
+      <c r="K4" s="107">
+        <f t="shared" ref="K4:K15" si="3">F4-F5</f>
+        <v>128</v>
+      </c>
       <c r="L4" s="105"/>
       <c r="M4" s="105"/>
       <c r="N4" s="105"/>
@@ -16709,19 +16715,19 @@
         <v>28</v>
       </c>
       <c r="E5" s="117">
-        <f t="shared" ref="E5:E15" si="2">HEX2DEC(C5)</f>
+        <f t="shared" ref="E5:E15" si="4">HEX2DEC(C5)</f>
         <v>35</v>
       </c>
       <c r="F5" s="117">
-        <f t="shared" ref="F5:F15" si="3">HEX2DEC(D5)</f>
+        <f t="shared" ref="F5:F15" si="5">HEX2DEC(D5)</f>
         <v>40</v>
       </c>
       <c r="G5" s="118" t="str">
-        <f t="shared" ref="G5:G15" si="4">DEC2BIN(E5,8)</f>
+        <f t="shared" ref="G5:G15" si="6">DEC2BIN(E5,8)</f>
         <v>00100011</v>
       </c>
       <c r="H5" s="118" t="str">
-        <f t="shared" ref="H5:H15" si="5">DEC2BIN(F5,8)</f>
+        <f t="shared" ref="H5:H15" si="7">DEC2BIN(F5,8)</f>
         <v>00101000</v>
       </c>
       <c r="I5" s="119"/>
@@ -16754,24 +16760,30 @@
         <v>144</v>
       </c>
       <c r="E6" s="117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>178</v>
       </c>
       <c r="F6" s="117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>204</v>
       </c>
       <c r="G6" s="118" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10110010</v>
       </c>
       <c r="H6" s="118" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11001100</v>
       </c>
       <c r="I6" s="119"/>
-      <c r="J6" s="105"/>
-      <c r="K6" s="105"/>
+      <c r="J6" s="107">
+        <f t="shared" ref="J6:J15" si="8">E6-E7</f>
+        <v>142</v>
+      </c>
+      <c r="K6" s="107">
+        <f t="shared" ref="K6:K15" si="9">F6-F7</f>
+        <v>128</v>
+      </c>
       <c r="L6" s="105"/>
       <c r="M6" s="105"/>
       <c r="N6" s="105"/>
@@ -16797,19 +16809,19 @@
         <v>145</v>
       </c>
       <c r="E7" s="121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="F7" s="121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="G7" s="122" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>00100100</v>
       </c>
       <c r="H7" s="122" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>01001100</v>
       </c>
       <c r="I7" s="123"/>
@@ -16842,24 +16854,30 @@
         <v>159</v>
       </c>
       <c r="E8" s="105">
-        <f t="shared" ref="E8:E9" si="6">HEX2DEC(C8)</f>
+        <f t="shared" ref="E8:E9" si="10">HEX2DEC(C8)</f>
         <v>179</v>
       </c>
       <c r="F8" s="105">
-        <f t="shared" ref="F8:F9" si="7">HEX2DEC(D8)</f>
+        <f t="shared" ref="F8:F9" si="11">HEX2DEC(D8)</f>
         <v>172</v>
       </c>
       <c r="G8" s="111" t="str">
-        <f t="shared" ref="G8:G9" si="8">DEC2BIN(E8,8)</f>
+        <f t="shared" ref="G8:G9" si="12">DEC2BIN(E8,8)</f>
         <v>10110011</v>
       </c>
       <c r="H8" s="111" t="str">
-        <f t="shared" ref="H8:H9" si="9">DEC2BIN(F8,8)</f>
+        <f t="shared" ref="H8:H9" si="13">DEC2BIN(F8,8)</f>
         <v>10101100</v>
       </c>
       <c r="I8" s="105"/>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
+      <c r="J8" s="107">
+        <f t="shared" ref="J8:J15" si="14">E8-E9</f>
+        <v>128</v>
+      </c>
+      <c r="K8" s="107">
+        <f t="shared" ref="K8:K15" si="15">F8-F9</f>
+        <v>128</v>
+      </c>
       <c r="L8" s="105"/>
       <c r="M8" s="105"/>
       <c r="N8" s="105"/>
@@ -16885,19 +16903,19 @@
         <v>157</v>
       </c>
       <c r="E9" s="105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
       <c r="F9" s="105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>44</v>
       </c>
       <c r="G9" s="111" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>00110011</v>
       </c>
       <c r="H9" s="111" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>00101100</v>
       </c>
       <c r="I9" s="105"/>
@@ -16930,26 +16948,32 @@
         <v>155</v>
       </c>
       <c r="E10" s="105">
-        <f t="shared" ref="E10:F12" si="10">HEX2DEC(C10)</f>
+        <f t="shared" ref="E10:F12" si="16">HEX2DEC(C10)</f>
         <v>180</v>
       </c>
       <c r="F10" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>207</v>
       </c>
       <c r="G10" s="111" t="str">
-        <f t="shared" ref="G10:H12" si="11">DEC2BIN(E10,8)</f>
+        <f t="shared" ref="G10:H12" si="17">DEC2BIN(E10,8)</f>
         <v>10110100</v>
       </c>
       <c r="H10" s="111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>11001111</v>
       </c>
       <c r="I10" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="J10" s="107">
+        <f t="shared" ref="J10:J15" si="18">E10-E11</f>
+        <v>128</v>
+      </c>
+      <c r="K10" s="107">
+        <f t="shared" ref="K10:K15" si="19">F10-F11</f>
+        <v>128</v>
+      </c>
       <c r="L10" s="105"/>
       <c r="M10" s="105"/>
       <c r="N10" s="105"/>
@@ -16975,19 +16999,19 @@
         <v>153</v>
       </c>
       <c r="E11" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>52</v>
       </c>
       <c r="F11" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>79</v>
       </c>
       <c r="G11" s="111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>00110100</v>
       </c>
       <c r="H11" s="111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>01001111</v>
       </c>
       <c r="I11" s="105"/>
@@ -17020,26 +17044,32 @@
         <v>152</v>
       </c>
       <c r="E12" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>181</v>
       </c>
       <c r="F12" s="105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>164</v>
       </c>
       <c r="G12" s="111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10110101</v>
       </c>
       <c r="H12" s="111" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>10100100</v>
       </c>
       <c r="I12" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
+      <c r="J12" s="107">
+        <f t="shared" ref="J12:J15" si="20">E12-E13</f>
+        <v>128</v>
+      </c>
+      <c r="K12" s="107">
+        <f t="shared" ref="K12:K15" si="21">F12-F13</f>
+        <v>128</v>
+      </c>
       <c r="L12" s="105"/>
       <c r="M12" s="105"/>
       <c r="N12" s="105"/>
@@ -17065,19 +17095,19 @@
         <v>24</v>
       </c>
       <c r="E13" s="105">
-        <f t="shared" ref="E13" si="12">HEX2DEC(C13)</f>
+        <f t="shared" ref="E13" si="22">HEX2DEC(C13)</f>
         <v>53</v>
       </c>
       <c r="F13" s="105">
-        <f t="shared" ref="F13" si="13">HEX2DEC(D13)</f>
+        <f t="shared" ref="F13" si="23">HEX2DEC(D13)</f>
         <v>36</v>
       </c>
       <c r="G13" s="111" t="str">
-        <f t="shared" ref="G13" si="14">DEC2BIN(E13,8)</f>
+        <f t="shared" ref="G13" si="24">DEC2BIN(E13,8)</f>
         <v>00110101</v>
       </c>
       <c r="H13" s="111" t="str">
-        <f t="shared" ref="H13" si="15">DEC2BIN(F13,8)</f>
+        <f t="shared" ref="H13" si="25">DEC2BIN(F13,8)</f>
         <v>00100100</v>
       </c>
       <c r="I13" s="105"/>
@@ -17110,26 +17140,32 @@
         <v>148</v>
       </c>
       <c r="E14" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>182</v>
       </c>
       <c r="F14" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="G14" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10110110</v>
       </c>
       <c r="H14" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10100001</v>
       </c>
       <c r="I14" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
+      <c r="J14" s="107">
+        <f t="shared" ref="J14:J15" si="26">E14-E15</f>
+        <v>128</v>
+      </c>
+      <c r="K14" s="107">
+        <f t="shared" ref="K14:K15" si="27">F14-F15</f>
+        <v>128</v>
+      </c>
       <c r="L14" s="105"/>
       <c r="M14" s="105"/>
       <c r="N14" s="105"/>
@@ -17155,19 +17191,19 @@
         <v>21</v>
       </c>
       <c r="E15" s="105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="F15" s="105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="G15" s="111" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>00110110</v>
       </c>
       <c r="H15" s="111" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>00100001</v>
       </c>
       <c r="I15" s="105"/>
@@ -17285,8 +17321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17304,13 +17340,13 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.5">
       <c r="A1" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="124" t="s">
         <v>162</v>
-      </c>
-      <c r="C1" s="124" t="s">
-        <v>163</v>
       </c>
       <c r="D1" s="125"/>
       <c r="E1" s="125">
@@ -17347,7 +17383,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="118" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="118">
         <v>64</v>
@@ -17398,13 +17434,13 @@
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="A3" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="141" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="141" t="s">
+      <c r="C3" s="148" t="s">
         <v>167</v>
-      </c>
-      <c r="C3" s="148" t="s">
-        <v>168</v>
       </c>
       <c r="D3" s="142"/>
       <c r="E3" s="142">
@@ -17492,10 +17528,10 @@
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="A5" s="109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C5" s="148">
         <v>90</v>
@@ -17525,7 +17561,7 @@
         <v>01000010</v>
       </c>
       <c r="Q5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1">
@@ -17586,22 +17622,22 @@
         <v>1</v>
       </c>
       <c r="Q6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
       <c r="A7" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="148" t="s">
         <v>170</v>
-      </c>
-      <c r="B7" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="148" t="s">
-        <v>171</v>
       </c>
       <c r="D7" s="142"/>
       <c r="E7" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="149"/>
       <c r="G7" s="152">
@@ -17625,7 +17661,7 @@
       </c>
       <c r="N7" s="137"/>
       <c r="Q7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1">
@@ -17686,22 +17722,22 @@
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
       <c r="A9" s="140" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="148" t="s">
         <v>173</v>
-      </c>
-      <c r="B9" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="148" t="s">
-        <v>174</v>
       </c>
       <c r="D9" s="142"/>
       <c r="E9" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F9" s="149"/>
       <c r="G9" s="152">
@@ -17785,17 +17821,17 @@
     </row>
     <row r="11" spans="1:17" ht="14.25">
       <c r="A11" s="140" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="157" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="148" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" s="157" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>176</v>
       </c>
       <c r="D11" s="142"/>
       <c r="E11" s="142" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="149"/>
       <c r="G11" s="152">
@@ -17879,17 +17915,17 @@
     </row>
     <row r="13" spans="1:17" ht="14.25">
       <c r="A13" s="140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D13" s="142"/>
       <c r="E13" s="142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F13" s="149"/>
       <c r="G13" s="152">
@@ -17973,13 +18009,13 @@
     </row>
     <row r="15" spans="1:17" ht="14.25">
       <c r="A15" s="140" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B15" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="142"/>
       <c r="E15" s="142">
@@ -18067,13 +18103,13 @@
     </row>
     <row r="17" spans="1:16" ht="14.25">
       <c r="A17" s="140" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C17" s="148" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" s="142"/>
       <c r="E17" s="142">
@@ -18162,7 +18198,7 @@
     <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="140"/>
       <c r="B19" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="148">
         <v>81</v>
@@ -18256,14 +18292,14 @@
     <row r="21" spans="1:16" ht="14.25">
       <c r="A21" s="140"/>
       <c r="B21" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="148">
         <v>81</v>
       </c>
       <c r="D21" s="142"/>
       <c r="E21" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F21" s="149"/>
       <c r="G21" s="152">
@@ -18348,7 +18384,7 @@
     <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="140"/>
       <c r="B23" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C23" s="148">
         <v>81</v>
@@ -18440,7 +18476,7 @@
     <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="140"/>
       <c r="B25" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="148">
         <v>82</v>
@@ -18532,7 +18568,7 @@
     <row r="27" spans="1:16" ht="14.25">
       <c r="A27" s="140"/>
       <c r="B27" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C27" s="148">
         <v>83</v>
@@ -18624,7 +18660,7 @@
     <row r="29" spans="1:16" ht="14.25">
       <c r="A29" s="140"/>
       <c r="B29" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C29" s="148">
         <v>84</v>
@@ -18716,7 +18752,7 @@
     <row r="31" spans="1:16" ht="14.25">
       <c r="A31" s="140"/>
       <c r="B31" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="148">
         <v>85</v>
@@ -18808,7 +18844,7 @@
     <row r="33" spans="1:16" ht="14.25">
       <c r="A33" s="140"/>
       <c r="B33" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C33" s="148"/>
       <c r="D33" s="142"/>
@@ -18888,7 +18924,7 @@
     <row r="35" spans="1:16" ht="14.25">
       <c r="A35" s="140"/>
       <c r="B35" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C35" s="148"/>
       <c r="D35" s="142"/>
@@ -18967,17 +19003,17 @@
     </row>
     <row r="37" spans="1:16" ht="14.25">
       <c r="A37" s="140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C37" s="148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D37" s="142"/>
       <c r="E37" s="142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F37" s="149"/>
       <c r="G37" s="152">
@@ -19061,17 +19097,17 @@
     </row>
     <row r="39" spans="1:16" ht="14.25">
       <c r="A39" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="212" t="s">
         <v>191</v>
       </c>
-      <c r="B39" s="213" t="s">
-        <v>192</v>
-      </c>
       <c r="C39" s="148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="142"/>
       <c r="E39" s="142" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F39" s="149"/>
       <c r="G39" s="152">
@@ -19096,8 +19132,8 @@
       <c r="N39" s="137"/>
     </row>
     <row r="40" spans="1:16" ht="15" thickBot="1">
-      <c r="B40" s="213" t="s">
-        <v>193</v>
+      <c r="B40" s="212" t="s">
+        <v>192</v>
       </c>
       <c r="C40" s="150" t="str">
         <f t="shared" ref="C40" si="178">DEC2HEX(G40)</f>
@@ -19163,8 +19199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19222,75 +19258,75 @@
       <c r="X1" s="183"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="212"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="203" t="str">
+      <c r="A2" s="211"/>
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="201"/>
+      <c r="I2" s="202" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J2" s="204" t="str">
+      <c r="J2" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K2" s="204" t="str">
+      <c r="K2" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="204" t="str">
+      <c r="L2" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M2" s="205" t="str">
+      <c r="M2" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N2" s="206" t="str">
+      <c r="N2" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O2" s="206" t="str">
+      <c r="O2" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="207" t="str">
+      <c r="P2" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="208" t="str">
+      <c r="Q2" s="207" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R2" s="209" t="str">
+      <c r="R2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S2" s="209" t="str">
+      <c r="S2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T2" s="209" t="str">
+      <c r="T2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q1,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U2" s="210" t="str">
+      <c r="U2" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="V2" s="209" t="str">
+      <c r="V2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W2" s="209" t="str">
+      <c r="W2" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X2" s="211" t="str">
+      <c r="X2" s="210" t="str">
         <f>MID(TEXT(HEX2BIN($U1,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -19350,19 +19386,19 @@
         <f>MID(TEXT(HEX2BIN($A3,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="198" t="str">
+      <c r="E4" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F4" s="198" t="str">
+      <c r="F4" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="G4" s="198" t="str">
+      <c r="G4" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="199" t="str">
+      <c r="H4" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E3,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -19466,75 +19502,75 @@
       <c r="X5" s="183"/>
     </row>
     <row r="6" spans="1:24">
-      <c r="A6" s="212"/>
-      <c r="B6" s="200"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="200"/>
-      <c r="F6" s="200"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="203" t="str">
+      <c r="A6" s="211"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="202" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="204" t="str">
+      <c r="J6" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="204" t="str">
+      <c r="K6" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="204" t="str">
+      <c r="L6" s="203" t="str">
         <f>MID(TEXT(HEX2BIN($I5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="205" t="str">
+      <c r="M6" s="204" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="206" t="str">
+      <c r="N6" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="206" t="str">
+      <c r="O6" s="205" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="207" t="str">
+      <c r="P6" s="206" t="str">
         <f>MID(TEXT(HEX2BIN($M5,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q6" s="208" t="str">
+      <c r="Q6" s="207" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="209" t="str">
+      <c r="R6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S6" s="209" t="str">
+      <c r="S6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T6" s="209" t="str">
+      <c r="T6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($Q5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U6" s="210" t="str">
+      <c r="U6" s="209" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="209" t="str">
+      <c r="V6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W6" s="209" t="str">
+      <c r="W6" s="208" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X6" s="211" t="str">
+      <c r="X6" s="210" t="str">
         <f>MID(TEXT(HEX2BIN($U5,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -19594,19 +19630,19 @@
         <f>MID(TEXT(HEX2BIN($A7,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="197" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>MID(TEXT(HEX2BIN($E7,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
@@ -19710,75 +19746,75 @@
       <c r="X9" s="183"/>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="212"/>
-      <c r="B10" s="200"/>
-      <c r="C10" s="200"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="202"/>
-      <c r="I10" s="203" t="str">
+      <c r="A10" s="211"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="199"/>
+      <c r="D10" s="200"/>
+      <c r="E10" s="199"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="201"/>
+      <c r="I10" s="202" t="str">
         <f t="shared" ref="I10" si="0">MID(TEXT(HEX2BIN($I9,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J10" s="204" t="str">
+      <c r="J10" s="203" t="str">
         <f t="shared" ref="J10" si="1">MID(TEXT(HEX2BIN($I9,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="204" t="str">
+      <c r="K10" s="203" t="str">
         <f t="shared" ref="K10" si="2">MID(TEXT(HEX2BIN($I9,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="204" t="str">
+      <c r="L10" s="203" t="str">
         <f t="shared" ref="L10" si="3">MID(TEXT(HEX2BIN($I9,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="205" t="str">
+      <c r="M10" s="204" t="str">
         <f t="shared" ref="M10" si="4">MID(TEXT(HEX2BIN($M9,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="206" t="str">
+      <c r="N10" s="205" t="str">
         <f t="shared" ref="N10" si="5">MID(TEXT(HEX2BIN($M9,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O10" s="206" t="str">
+      <c r="O10" s="205" t="str">
         <f t="shared" ref="O10" si="6">MID(TEXT(HEX2BIN($M9,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P10" s="207" t="str">
+      <c r="P10" s="206" t="str">
         <f t="shared" ref="P10" si="7">MID(TEXT(HEX2BIN($M9,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="208" t="str">
+      <c r="Q10" s="207" t="str">
         <f t="shared" ref="Q10" si="8">MID(TEXT(HEX2BIN($Q9,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="209" t="str">
+      <c r="R10" s="208" t="str">
         <f t="shared" ref="R10" si="9">MID(TEXT(HEX2BIN($Q9,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="209" t="str">
+      <c r="S10" s="208" t="str">
         <f t="shared" ref="S10" si="10">MID(TEXT(HEX2BIN($Q9,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="209" t="str">
+      <c r="T10" s="208" t="str">
         <f t="shared" ref="T10" si="11">MID(TEXT(HEX2BIN($Q9,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="210" t="str">
+      <c r="U10" s="209" t="str">
         <f t="shared" ref="U10" si="12">MID(TEXT(HEX2BIN($U9,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="209" t="str">
+      <c r="V10" s="208" t="str">
         <f t="shared" ref="V10" si="13">MID(TEXT(HEX2BIN($U9,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="209" t="str">
+      <c r="W10" s="208" t="str">
         <f t="shared" ref="W10" si="14">MID(TEXT(HEX2BIN($U9,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="211" t="str">
+      <c r="X10" s="210" t="str">
         <f t="shared" ref="X10" si="15">MID(TEXT(HEX2BIN($U9,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -19838,19 +19874,19 @@
         <f t="shared" ref="D12" si="19">MID(TEXT(HEX2BIN($A11,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="197" t="str">
         <f t="shared" ref="E12" si="20">MID(TEXT(HEX2BIN($E11,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="197" t="str">
         <f t="shared" ref="F12" si="21">MID(TEXT(HEX2BIN($E11,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="197" t="str">
         <f t="shared" ref="G12" si="22">MID(TEXT(HEX2BIN($E11,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f t="shared" ref="H12" si="23">MID(TEXT(HEX2BIN($E11,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
@@ -19935,7 +19971,7 @@
       <c r="K13" s="180"/>
       <c r="L13" s="180"/>
       <c r="M13" s="182" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N13" s="180"/>
       <c r="O13" s="180"/>
@@ -19954,75 +19990,75 @@
       <c r="X13" s="183"/>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="212"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="200"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="202"/>
-      <c r="I14" s="203" t="str">
+      <c r="A14" s="211"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="199"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="199"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="202" t="str">
         <f t="shared" ref="I14" si="40">MID(TEXT(HEX2BIN($I13,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J14" s="204" t="str">
+      <c r="J14" s="203" t="str">
         <f t="shared" ref="J14" si="41">MID(TEXT(HEX2BIN($I13,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="204" t="str">
+      <c r="K14" s="203" t="str">
         <f t="shared" ref="K14" si="42">MID(TEXT(HEX2BIN($I13,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="204" t="str">
+      <c r="L14" s="203" t="str">
         <f t="shared" ref="L14" si="43">MID(TEXT(HEX2BIN($I13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M14" s="205" t="str">
+      <c r="M14" s="204" t="str">
         <f t="shared" ref="M14" si="44">MID(TEXT(HEX2BIN($M13,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N14" s="206" t="str">
+      <c r="N14" s="205" t="str">
         <f t="shared" ref="N14" si="45">MID(TEXT(HEX2BIN($M13,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="206" t="str">
+      <c r="O14" s="205" t="str">
         <f t="shared" ref="O14" si="46">MID(TEXT(HEX2BIN($M13,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="P14" s="207" t="str">
+      <c r="P14" s="206" t="str">
         <f t="shared" ref="P14" si="47">MID(TEXT(HEX2BIN($M13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q14" s="208" t="str">
+      <c r="Q14" s="207" t="str">
         <f t="shared" ref="Q14" si="48">MID(TEXT(HEX2BIN($Q13,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="209" t="str">
+      <c r="R14" s="208" t="str">
         <f t="shared" ref="R14" si="49">MID(TEXT(HEX2BIN($Q13,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S14" s="209" t="str">
+      <c r="S14" s="208" t="str">
         <f t="shared" ref="S14" si="50">MID(TEXT(HEX2BIN($Q13,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="209" t="str">
+      <c r="T14" s="208" t="str">
         <f t="shared" ref="T14" si="51">MID(TEXT(HEX2BIN($Q13,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="U14" s="210" t="str">
+      <c r="U14" s="209" t="str">
         <f t="shared" ref="U14" si="52">MID(TEXT(HEX2BIN($U13,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="209" t="str">
+      <c r="V14" s="208" t="str">
         <f t="shared" ref="V14" si="53">MID(TEXT(HEX2BIN($U13,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="209" t="str">
+      <c r="W14" s="208" t="str">
         <f t="shared" ref="W14" si="54">MID(TEXT(HEX2BIN($U13,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="211" t="str">
+      <c r="X14" s="210" t="str">
         <f t="shared" ref="X14" si="55">MID(TEXT(HEX2BIN($U13,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -20082,19 +20118,19 @@
         <f t="shared" ref="D16" si="59">MID(TEXT(HEX2BIN($A15,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="197" t="str">
         <f t="shared" ref="E16" si="60">MID(TEXT(HEX2BIN($E15,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="197" t="str">
         <f t="shared" ref="F16" si="61">MID(TEXT(HEX2BIN($E15,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="197" t="str">
         <f t="shared" ref="G16" si="62">MID(TEXT(HEX2BIN($E15,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f t="shared" ref="H16" si="63">MID(TEXT(HEX2BIN($E15,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -20173,7 +20209,7 @@
       <c r="G17" s="180"/>
       <c r="H17" s="183"/>
       <c r="I17" s="184" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J17" s="180"/>
       <c r="K17" s="180"/>
@@ -20198,75 +20234,75 @@
       <c r="X17" s="183"/>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="212"/>
-      <c r="B18" s="200"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="201"/>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="202"/>
-      <c r="I18" s="203" t="str">
+      <c r="A18" s="211"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="199"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="199"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="201"/>
+      <c r="I18" s="202" t="str">
         <f t="shared" ref="I18" si="80">MID(TEXT(HEX2BIN($I17,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J18" s="204" t="str">
+      <c r="J18" s="203" t="str">
         <f t="shared" ref="J18" si="81">MID(TEXT(HEX2BIN($I17,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K18" s="204" t="str">
+      <c r="K18" s="203" t="str">
         <f t="shared" ref="K18" si="82">MID(TEXT(HEX2BIN($I17,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="L18" s="204" t="str">
+      <c r="L18" s="203" t="str">
         <f t="shared" ref="L18" si="83">MID(TEXT(HEX2BIN($I17,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="205" t="str">
+      <c r="M18" s="204" t="str">
         <f t="shared" ref="M18" si="84">MID(TEXT(HEX2BIN($M17,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N18" s="206" t="str">
+      <c r="N18" s="205" t="str">
         <f t="shared" ref="N18" si="85">MID(TEXT(HEX2BIN($M17,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="O18" s="206" t="str">
+      <c r="O18" s="205" t="str">
         <f t="shared" ref="O18" si="86">MID(TEXT(HEX2BIN($M17,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P18" s="207" t="str">
+      <c r="P18" s="206" t="str">
         <f t="shared" ref="P18" si="87">MID(TEXT(HEX2BIN($M17,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="208" t="str">
+      <c r="Q18" s="207" t="str">
         <f t="shared" ref="Q18" si="88">MID(TEXT(HEX2BIN($Q17,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="209" t="str">
+      <c r="R18" s="208" t="str">
         <f t="shared" ref="R18" si="89">MID(TEXT(HEX2BIN($Q17,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="S18" s="209" t="str">
+      <c r="S18" s="208" t="str">
         <f t="shared" ref="S18" si="90">MID(TEXT(HEX2BIN($Q17,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="T18" s="209" t="str">
+      <c r="T18" s="208" t="str">
         <f t="shared" ref="T18" si="91">MID(TEXT(HEX2BIN($Q17,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U18" s="210" t="str">
+      <c r="U18" s="209" t="str">
         <f t="shared" ref="U18" si="92">MID(TEXT(HEX2BIN($U17,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V18" s="209" t="str">
+      <c r="V18" s="208" t="str">
         <f t="shared" ref="V18" si="93">MID(TEXT(HEX2BIN($U17,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="W18" s="209" t="str">
+      <c r="W18" s="208" t="str">
         <f t="shared" ref="W18" si="94">MID(TEXT(HEX2BIN($U17,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="X18" s="211" t="str">
+      <c r="X18" s="210" t="str">
         <f t="shared" ref="X18" si="95">MID(TEXT(HEX2BIN($U17,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -20279,7 +20315,7 @@
       <c r="C19" s="186"/>
       <c r="D19" s="187"/>
       <c r="E19" s="186" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F19" s="186"/>
       <c r="G19" s="186"/>
@@ -20326,19 +20362,19 @@
         <f t="shared" ref="D20" si="99">MID(TEXT(HEX2BIN($A19,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="198" t="str">
+      <c r="E20" s="197" t="str">
         <f t="shared" ref="E20" si="100">MID(TEXT(HEX2BIN($E19,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F20" s="198" t="str">
+      <c r="F20" s="197" t="str">
         <f t="shared" ref="F20" si="101">MID(TEXT(HEX2BIN($E19,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G20" s="198" t="str">
+      <c r="G20" s="197" t="str">
         <f t="shared" ref="G20" si="102">MID(TEXT(HEX2BIN($E19,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="H20" s="199" t="str">
+      <c r="H20" s="198" t="str">
         <f t="shared" ref="H20" si="103">MID(TEXT(HEX2BIN($E19,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
@@ -20417,19 +20453,19 @@
       <c r="G21" s="180"/>
       <c r="H21" s="183"/>
       <c r="I21" s="184" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J21" s="180"/>
       <c r="K21" s="180"/>
       <c r="L21" s="180"/>
       <c r="M21" s="182" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N21" s="180"/>
       <c r="O21" s="180"/>
       <c r="P21" s="183"/>
       <c r="Q21" s="184" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R21" s="180"/>
       <c r="S21" s="180"/>
@@ -20442,75 +20478,75 @@
       <c r="X21" s="183"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="212"/>
-      <c r="B22" s="200"/>
-      <c r="C22" s="200"/>
-      <c r="D22" s="201"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="203" t="str">
+      <c r="A22" s="211"/>
+      <c r="B22" s="199"/>
+      <c r="C22" s="199"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="199"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="199"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="202" t="str">
         <f t="shared" ref="I22" si="120">MID(TEXT(HEX2BIN($I21,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="J22" s="204" t="str">
+      <c r="J22" s="203" t="str">
         <f t="shared" ref="J22" si="121">MID(TEXT(HEX2BIN($I21,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="K22" s="204" t="str">
+      <c r="K22" s="203" t="str">
         <f t="shared" ref="K22" si="122">MID(TEXT(HEX2BIN($I21,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="L22" s="204" t="str">
+      <c r="L22" s="203" t="str">
         <f t="shared" ref="L22" si="123">MID(TEXT(HEX2BIN($I21,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="205" t="str">
+      <c r="M22" s="204" t="str">
         <f t="shared" ref="M22" si="124">MID(TEXT(HEX2BIN($M21,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="N22" s="206" t="str">
+      <c r="N22" s="205" t="str">
         <f t="shared" ref="N22" si="125">MID(TEXT(HEX2BIN($M21,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="O22" s="206" t="str">
+      <c r="O22" s="205" t="str">
         <f t="shared" ref="O22" si="126">MID(TEXT(HEX2BIN($M21,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="P22" s="207" t="str">
+      <c r="P22" s="206" t="str">
         <f t="shared" ref="P22" si="127">MID(TEXT(HEX2BIN($M21,4),"0000"),4,1)</f>
         <v>1</v>
       </c>
-      <c r="Q22" s="208" t="str">
+      <c r="Q22" s="207" t="str">
         <f t="shared" ref="Q22" si="128">MID(TEXT(HEX2BIN($Q21,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="R22" s="209" t="str">
+      <c r="R22" s="208" t="str">
         <f t="shared" ref="R22" si="129">MID(TEXT(HEX2BIN($Q21,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="S22" s="209" t="str">
+      <c r="S22" s="208" t="str">
         <f t="shared" ref="S22" si="130">MID(TEXT(HEX2BIN($Q21,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="T22" s="209" t="str">
+      <c r="T22" s="208" t="str">
         <f t="shared" ref="T22" si="131">MID(TEXT(HEX2BIN($Q21,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="U22" s="210" t="str">
+      <c r="U22" s="209" t="str">
         <f t="shared" ref="U22" si="132">MID(TEXT(HEX2BIN($U21,4),"0000"),1,1)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="209" t="str">
+      <c r="V22" s="208" t="str">
         <f t="shared" ref="V22" si="133">MID(TEXT(HEX2BIN($U21,4),"0000"),2,1)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="209" t="str">
+      <c r="W22" s="208" t="str">
         <f t="shared" ref="W22" si="134">MID(TEXT(HEX2BIN($U21,4),"0000"),3,1)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="211" t="str">
+      <c r="X22" s="210" t="str">
         <f t="shared" ref="X22" si="135">MID(TEXT(HEX2BIN($U21,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
@@ -20523,7 +20559,7 @@
       <c r="C23" s="186"/>
       <c r="D23" s="187"/>
       <c r="E23" s="186" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F23" s="186"/>
       <c r="G23" s="186"/>
@@ -20547,7 +20583,7 @@
       <c r="S23" s="186"/>
       <c r="T23" s="186"/>
       <c r="U23" s="188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="V23" s="186"/>
       <c r="W23" s="186"/>
@@ -20570,19 +20606,19 @@
         <f t="shared" ref="D24" si="139">MID(TEXT(HEX2BIN($A23,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="198" t="str">
+      <c r="E24" s="197" t="str">
         <f t="shared" ref="E24" si="140">MID(TEXT(HEX2BIN($E23,4),"0000"),1,1)</f>
         <v>1</v>
       </c>
-      <c r="F24" s="198" t="str">
+      <c r="F24" s="197" t="str">
         <f t="shared" ref="F24" si="141">MID(TEXT(HEX2BIN($E23,4),"0000"),2,1)</f>
         <v>1</v>
       </c>
-      <c r="G24" s="198" t="str">
+      <c r="G24" s="197" t="str">
         <f t="shared" ref="G24" si="142">MID(TEXT(HEX2BIN($E23,4),"0000"),3,1)</f>
         <v>1</v>
       </c>
-      <c r="H24" s="199" t="str">
+      <c r="H24" s="198" t="str">
         <f t="shared" ref="H24" si="143">MID(TEXT(HEX2BIN($E23,4),"0000"),4,1)</f>
         <v>0</v>
       </c>
